--- a/election_votar_data/SATKANIA/EOCHIA/152400/152400_com_1306_female_without_photo_75_2025-11-24.xlsx
+++ b/election_votar_data/SATKANIA/EOCHIA/152400/152400_com_1306_female_without_photo_75_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="38" customWidth="1" min="4" max="4"/>
     <col width="35.5" customWidth="1" min="5" max="5"/>
-    <col width="31" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -8396,27 +8396,27 @@
     <row r="190">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>০৭০৯</t>
+          <t>০৭০৭</t>
         </is>
       </c>
       <c r="B190" s="4" t="inlineStr">
         <is>
-          <t>জোহরা বেগম</t>
+          <t>হাজেরা খাতুন</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০১৫</t>
+          <t>১৫২৪০০০০৭০১৩</t>
         </is>
       </c>
       <c r="D190" s="4" t="inlineStr">
         <is>
-          <t>মোঃ হোসেন</t>
+          <t>গুরা মিয়া</t>
         </is>
       </c>
       <c r="E190" s="4" t="inlineStr">
         <is>
-          <t>মমতাজ বেগম</t>
+          <t>মোমেনা খাতুন</t>
         </is>
       </c>
       <c r="F190" s="3" t="inlineStr">
@@ -8426,7 +8426,7 @@
       </c>
       <c r="G190" s="3" t="inlineStr">
         <is>
-          <t>২০/০৯/১৯৬৯</t>
+          <t>১৫/০৭/১৯৫২</t>
         </is>
       </c>
       <c r="H190" s="5" t="inlineStr">
@@ -8438,27 +8438,27 @@
     <row r="191">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>০৭১৫</t>
+          <t>০৭১২</t>
         </is>
       </c>
       <c r="B191" s="4" t="inlineStr">
         <is>
-          <t>নুর জাহান বেগম</t>
+          <t>খাইরুলেছা বেগম</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৩০</t>
+          <t>১৫২৪০০০০৭০২০</t>
         </is>
       </c>
       <c r="D191" s="4" t="inlineStr">
         <is>
-          <t>আজীজুর রহমান</t>
+          <t>আবদুল জব্বার</t>
         </is>
       </c>
       <c r="E191" s="4" t="inlineStr">
         <is>
-          <t>জমিলা খাতুন</t>
+          <t>নুরজাহান বেগম</t>
         </is>
       </c>
       <c r="F191" s="3" t="inlineStr">
@@ -8468,7 +8468,7 @@
       </c>
       <c r="G191" s="3" t="inlineStr">
         <is>
-          <t>২০/০৬/১৯৫৮</t>
+          <t>০৬/০৯/১৯৬৮</t>
         </is>
       </c>
       <c r="H191" s="5" t="inlineStr">
@@ -8480,27 +8480,27 @@
     <row r="192">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>০৭১৪</t>
+          <t>০৭১৫</t>
         </is>
       </c>
       <c r="B192" s="4" t="inlineStr">
         <is>
-          <t>মেহেরুলেসা বেগম</t>
+          <t>নুর জাহান বেগম</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০২৮</t>
+          <t>১৫২৪০০০০৭০৩০</t>
         </is>
       </c>
       <c r="D192" s="4" t="inlineStr">
         <is>
-          <t>কবির আহমদ</t>
+          <t>আজীজুর রহমান</t>
         </is>
       </c>
       <c r="E192" s="4" t="inlineStr">
         <is>
-          <t>মনোয়ারা বেগম</t>
+          <t>জমিলা খাতুন</t>
         </is>
       </c>
       <c r="F192" s="3" t="inlineStr">
@@ -8510,7 +8510,7 @@
       </c>
       <c r="G192" s="3" t="inlineStr">
         <is>
-          <t>০৭/০৮/১৯৮৬</t>
+          <t>২০/০৬/১৯৫৮</t>
         </is>
       </c>
       <c r="H192" s="5" t="inlineStr">
@@ -8522,27 +8522,27 @@
     <row r="193">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>০৭১২</t>
+          <t>০৭১৪</t>
         </is>
       </c>
       <c r="B193" s="4" t="inlineStr">
         <is>
-          <t>খাইরুলেছা বেগম</t>
+          <t>মেহেরুলেসা বেগম</t>
         </is>
       </c>
       <c r="C193" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০২০</t>
+          <t>১৫২৪০০০০৭০২৮</t>
         </is>
       </c>
       <c r="D193" s="4" t="inlineStr">
         <is>
-          <t>আবদুল জব্বার</t>
+          <t>কবির আহমদ</t>
         </is>
       </c>
       <c r="E193" s="4" t="inlineStr">
         <is>
-          <t>নুরজাহান বেগম</t>
+          <t>মনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F193" s="3" t="inlineStr">
@@ -8552,7 +8552,7 @@
       </c>
       <c r="G193" s="3" t="inlineStr">
         <is>
-          <t>০৬/০৯/১৯৬৮</t>
+          <t>০৭/০৮/১৯৮৬</t>
         </is>
       </c>
       <c r="H193" s="5" t="inlineStr">
@@ -8564,27 +8564,27 @@
     <row r="194">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>০৭০৭</t>
+          <t>০৭০৯</t>
         </is>
       </c>
       <c r="B194" s="4" t="inlineStr">
         <is>
-          <t>হাজেরা খাতুন</t>
+          <t>জোহরা বেগম</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০১৩</t>
+          <t>১৫২৪০০০০৭০১৫</t>
         </is>
       </c>
       <c r="D194" s="4" t="inlineStr">
         <is>
-          <t>গুরা মিয়া</t>
+          <t>মোঃ হোসেন</t>
         </is>
       </c>
       <c r="E194" s="4" t="inlineStr">
         <is>
-          <t>মোমেনা খাতুন</t>
+          <t>মমতাজ বেগম</t>
         </is>
       </c>
       <c r="F194" s="3" t="inlineStr">
@@ -8594,7 +8594,7 @@
       </c>
       <c r="G194" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৭/১৯৫২</t>
+          <t>২০/০৯/১৯৬৯</t>
         </is>
       </c>
       <c r="H194" s="5" t="inlineStr">
@@ -8984,27 +8984,27 @@
     <row r="204">
       <c r="A204" s="3" t="inlineStr">
         <is>
-          <t>০৭২৬</t>
+          <t>০৭২৭</t>
         </is>
       </c>
       <c r="B204" s="4" t="inlineStr">
         <is>
-          <t>রুবী আক্তার</t>
+          <t>শাহিনুর আকতার</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৪৮</t>
+          <t>১৫২৪০০০০৭০৪৯</t>
         </is>
       </c>
       <c r="D204" s="4" t="inlineStr">
         <is>
-          <t>গুরা মিয়া</t>
+          <t>ইসহাক মিয়া</t>
         </is>
       </c>
       <c r="E204" s="4" t="inlineStr">
         <is>
-          <t>মনজুরা বেগম</t>
+          <t>শিরিয়া বেগম</t>
         </is>
       </c>
       <c r="F204" s="3" t="inlineStr">
@@ -9014,7 +9014,7 @@
       </c>
       <c r="G204" s="3" t="inlineStr">
         <is>
-          <t>১৭/০৮/১৯৭৩</t>
+          <t>০১/০২/১৯৮২</t>
         </is>
       </c>
       <c r="H204" s="5" t="inlineStr">
@@ -9026,27 +9026,27 @@
     <row r="205">
       <c r="A205" s="3" t="inlineStr">
         <is>
-          <t>০৭২৭</t>
+          <t>০৭২৮</t>
         </is>
       </c>
       <c r="B205" s="4" t="inlineStr">
         <is>
-          <t>শাহিনুর আকতার</t>
+          <t>জ্যোত্স্না আক্তার</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৪৯</t>
+          <t>১৫২৪০০০০৭০৫১</t>
         </is>
       </c>
       <c r="D205" s="4" t="inlineStr">
         <is>
-          <t>ইসহাক মিয়া</t>
+          <t>নুরুল ইসলাম</t>
         </is>
       </c>
       <c r="E205" s="4" t="inlineStr">
         <is>
-          <t>শিরিয়া বেগম</t>
+          <t>মমতাজ বেগম</t>
         </is>
       </c>
       <c r="F205" s="3" t="inlineStr">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="G205" s="3" t="inlineStr">
         <is>
-          <t>০১/০২/১৯৮২</t>
+          <t>১২/০৮/১৯৮৬</t>
         </is>
       </c>
       <c r="H205" s="5" t="inlineStr">
@@ -9068,37 +9068,37 @@
     <row r="206">
       <c r="A206" s="3" t="inlineStr">
         <is>
-          <t>০৭২৫</t>
+          <t>০৭২৬</t>
         </is>
       </c>
       <c r="B206" s="4" t="inlineStr">
         <is>
-          <t>মেহেরুন্নেছা</t>
+          <t>রুবী আক্তার</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৪৭</t>
+          <t>১৫২৪০০০০৭০৪৮</t>
         </is>
       </c>
       <c r="D206" s="4" t="inlineStr">
         <is>
-          <t>গোলাম কাদের</t>
+          <t>গুরা মিয়া</t>
         </is>
       </c>
       <c r="E206" s="4" t="inlineStr">
         <is>
-          <t>রুবী আখতার</t>
+          <t>মনজুরা বেগম</t>
         </is>
       </c>
       <c r="F206" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G206" s="3" t="inlineStr">
         <is>
-          <t>১৭/০৮/১৯৮৮</t>
+          <t>১৭/০৮/১৯৭৩</t>
         </is>
       </c>
       <c r="H206" s="5" t="inlineStr">
@@ -9110,37 +9110,37 @@
     <row r="207">
       <c r="A207" s="3" t="inlineStr">
         <is>
-          <t>০৭২৪</t>
+          <t>০৭২৫</t>
         </is>
       </c>
       <c r="B207" s="4" t="inlineStr">
         <is>
-          <t>রোকেয়া বেগম</t>
+          <t>মেহেরুন্নেছা</t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৪৬</t>
+          <t>১৫২৪০০০০৭০৪৭</t>
         </is>
       </c>
       <c r="D207" s="4" t="inlineStr">
         <is>
-          <t>আবুল খায়ের</t>
+          <t>গোলাম কাদের</t>
         </is>
       </c>
       <c r="E207" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>রুবী আখতার</t>
         </is>
       </c>
       <c r="F207" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G207" s="3" t="inlineStr">
         <is>
-          <t>০৬/০৮/১৯৬৭</t>
+          <t>১৭/০৮/১৯৮৮</t>
         </is>
       </c>
       <c r="H207" s="5" t="inlineStr">
@@ -9152,27 +9152,27 @@
     <row r="208">
       <c r="A208" s="3" t="inlineStr">
         <is>
-          <t>০৭২৮</t>
+          <t>০৭২৪</t>
         </is>
       </c>
       <c r="B208" s="4" t="inlineStr">
         <is>
-          <t>জ্যোত্স্না আক্তার</t>
+          <t>রোকেয়া বেগম</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৫১</t>
+          <t>১৫২৪০০০০৭০৪৬</t>
         </is>
       </c>
       <c r="D208" s="4" t="inlineStr">
         <is>
-          <t>নুরুল ইসলাম</t>
+          <t>আবুল খায়ের</t>
         </is>
       </c>
       <c r="E208" s="4" t="inlineStr">
         <is>
-          <t>মমতাজ বেগম</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F208" s="3" t="inlineStr">
@@ -9182,7 +9182,7 @@
       </c>
       <c r="G208" s="3" t="inlineStr">
         <is>
-          <t>১২/০৮/১৯৮৬</t>
+          <t>০৬/০৮/১৯৬৭</t>
         </is>
       </c>
       <c r="H208" s="5" t="inlineStr">
@@ -9194,27 +9194,27 @@
     <row r="209">
       <c r="A209" s="3" t="inlineStr">
         <is>
-          <t>০৭২৩</t>
+          <t>০৭৫৫</t>
         </is>
       </c>
       <c r="B209" s="4" t="inlineStr">
         <is>
-          <t>রুনা আকতার</t>
+          <t>সফিয়া খাতুন</t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৪৫</t>
+          <t>১৫২৪০০০০৭০৯৫</t>
         </is>
       </c>
       <c r="D209" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ হোসেন</t>
+          <t>আবদুল হাকিম</t>
         </is>
       </c>
       <c r="E209" s="4" t="inlineStr">
         <is>
-          <t>জন্নাত আরা বেগম</t>
+          <t>আচিয়া খাতুন</t>
         </is>
       </c>
       <c r="F209" s="3" t="inlineStr">
@@ -9224,7 +9224,7 @@
       </c>
       <c r="G209" s="3" t="inlineStr">
         <is>
-          <t>২২/০৬/১৯৮২</t>
+          <t>১০/১১/১৯৮৮</t>
         </is>
       </c>
       <c r="H209" s="5" t="inlineStr">
@@ -9236,37 +9236,37 @@
     <row r="210">
       <c r="A210" s="3" t="inlineStr">
         <is>
-          <t>০৭৫৫</t>
+          <t>০৭১৮</t>
         </is>
       </c>
       <c r="B210" s="4" t="inlineStr">
         <is>
-          <t>সফিয়া খাতুন</t>
+          <t>ছালেহা আক্তার</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৯৫</t>
+          <t>১৫২৪০০০০৭০৩৭</t>
         </is>
       </c>
       <c r="D210" s="4" t="inlineStr">
         <is>
-          <t>আবদুল হাকিম</t>
+          <t>মোহাম্মদ ইউনুচ</t>
         </is>
       </c>
       <c r="E210" s="4" t="inlineStr">
         <is>
-          <t>আচিয়া খাতুন</t>
+          <t>কুনচুম খাতুন</t>
         </is>
       </c>
       <c r="F210" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G210" s="3" t="inlineStr">
         <is>
-          <t>১০/১১/১৯৮৮</t>
+          <t>২০/০১/১৯৮৯</t>
         </is>
       </c>
       <c r="H210" s="5" t="inlineStr">
@@ -9278,37 +9278,37 @@
     <row r="211">
       <c r="A211" s="3" t="inlineStr">
         <is>
-          <t>০৭১৭</t>
+          <t>০৭৪৮</t>
         </is>
       </c>
       <c r="B211" s="4" t="inlineStr">
         <is>
-          <t>মেহেরুলেছা</t>
+          <t>রহিমা বেগম</t>
         </is>
       </c>
       <c r="C211" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৩৬</t>
+          <t>১৫২৪০০০০৭০৮৪</t>
         </is>
       </c>
       <c r="D211" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আবুল শরিফ</t>
+          <t>ছিদ্দিক আহমেদ</t>
         </is>
       </c>
       <c r="E211" s="4" t="inlineStr">
         <is>
-          <t>হাফেজা খাতুন</t>
+          <t>মেহেরুন্নিশা</t>
         </is>
       </c>
       <c r="F211" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G211" s="3" t="inlineStr">
         <is>
-          <t>৩০/০১/১৯৮৪</t>
+          <t>২০/০৩/১৯৬০</t>
         </is>
       </c>
       <c r="H211" s="5" t="inlineStr">
@@ -9446,27 +9446,27 @@
     <row r="215">
       <c r="A215" s="3" t="inlineStr">
         <is>
-          <t>০৭২২</t>
+          <t>০৭২৩</t>
         </is>
       </c>
       <c r="B215" s="4" t="inlineStr">
         <is>
-          <t>সাহিদা বেগম</t>
+          <t>রুনা আকতার</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৪২</t>
+          <t>১৫২৪০০০০৭০৪৫</t>
         </is>
       </c>
       <c r="D215" s="4" t="inlineStr">
         <is>
-          <t>কালু মিয়া</t>
+          <t>আহমেদ হোসেন</t>
         </is>
       </c>
       <c r="E215" s="4" t="inlineStr">
         <is>
-          <t>আমেনা বেগম</t>
+          <t>জন্নাত আরা বেগম</t>
         </is>
       </c>
       <c r="F215" s="3" t="inlineStr">
@@ -9476,7 +9476,7 @@
       </c>
       <c r="G215" s="3" t="inlineStr">
         <is>
-          <t>২০/০৮/১৯৬১</t>
+          <t>২২/০৬/১৯৮২</t>
         </is>
       </c>
       <c r="H215" s="5" t="inlineStr">
@@ -9488,27 +9488,27 @@
     <row r="216">
       <c r="A216" s="3" t="inlineStr">
         <is>
-          <t>০৭৪৮</t>
+          <t>০৭৩২</t>
         </is>
       </c>
       <c r="B216" s="4" t="inlineStr">
         <is>
-          <t>রহিমা বেগম</t>
+          <t>খালেদা আক্তার</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৮৪</t>
+          <t>১৫২৪০০০০৭০৫৬</t>
         </is>
       </c>
       <c r="D216" s="4" t="inlineStr">
         <is>
-          <t>ছিদ্দিক আহমেদ</t>
+          <t>সোলতান আহমেদ</t>
         </is>
       </c>
       <c r="E216" s="4" t="inlineStr">
         <is>
-          <t>মেহেরুন্নিশা</t>
+          <t>হোছেন আরা বেগম</t>
         </is>
       </c>
       <c r="F216" s="3" t="inlineStr">
@@ -9518,7 +9518,7 @@
       </c>
       <c r="G216" s="3" t="inlineStr">
         <is>
-          <t>২০/০৩/১৯৬০</t>
+          <t>২৭/০৭/১৯৮৪</t>
         </is>
       </c>
       <c r="H216" s="5" t="inlineStr">
@@ -9614,27 +9614,27 @@
     <row r="219">
       <c r="A219" s="3" t="inlineStr">
         <is>
-          <t>০৭৩২</t>
+          <t>০৭৩৩</t>
         </is>
       </c>
       <c r="B219" s="4" t="inlineStr">
         <is>
-          <t>খালেদা আক্তার</t>
+          <t>শাহীন আক্তার</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৫৬</t>
+          <t>১৫২৪০০০০৭০৫৭</t>
         </is>
       </c>
       <c r="D219" s="4" t="inlineStr">
         <is>
-          <t>সোলতান আহমেদ</t>
+          <t>আবদুল খালেক</t>
         </is>
       </c>
       <c r="E219" s="4" t="inlineStr">
         <is>
-          <t>হোছেন আরা বেগম</t>
+          <t>রাহিমা বেগম</t>
         </is>
       </c>
       <c r="F219" s="3" t="inlineStr">
@@ -9644,7 +9644,7 @@
       </c>
       <c r="G219" s="3" t="inlineStr">
         <is>
-          <t>২৭/০৭/১৯৮৪</t>
+          <t>১৭/০৫/১৯৮২</t>
         </is>
       </c>
       <c r="H219" s="5" t="inlineStr">
@@ -9782,27 +9782,27 @@
     <row r="223">
       <c r="A223" s="3" t="inlineStr">
         <is>
-          <t>০৭৩৫</t>
+          <t>০৭৫৪</t>
         </is>
       </c>
       <c r="B223" s="4" t="inlineStr">
         <is>
-          <t>শমসুন্নাহার</t>
+          <t>রেহেনা আক্তার</t>
         </is>
       </c>
       <c r="C223" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৫৯</t>
+          <t>১৫২৪০০০০৭০৯৪</t>
         </is>
       </c>
       <c r="D223" s="4" t="inlineStr">
         <is>
-          <t>আশরাফ আলী</t>
+          <t>কাবিল হোসেন</t>
         </is>
       </c>
       <c r="E223" s="4" t="inlineStr">
         <is>
-          <t>ফাতেমা বেগম</t>
+          <t>মরিয়ম খাতুন</t>
         </is>
       </c>
       <c r="F223" s="3" t="inlineStr">
@@ -9812,7 +9812,7 @@
       </c>
       <c r="G223" s="3" t="inlineStr">
         <is>
-          <t>১৬/০৯/১৯৭৮</t>
+          <t>১৮/০৮/১৯৮৩</t>
         </is>
       </c>
       <c r="H223" s="5" t="inlineStr">
@@ -9824,27 +9824,27 @@
     <row r="224">
       <c r="A224" s="3" t="inlineStr">
         <is>
-          <t>০৭৫৪</t>
+          <t>০৭২২</t>
         </is>
       </c>
       <c r="B224" s="4" t="inlineStr">
         <is>
-          <t>রেহেনা আক্তার</t>
+          <t>সাহিদা বেগম</t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৯৪</t>
+          <t>১৫২৪০০০০৭০৪২</t>
         </is>
       </c>
       <c r="D224" s="4" t="inlineStr">
         <is>
-          <t>কাবিল হোসেন</t>
+          <t>কালু মিয়া</t>
         </is>
       </c>
       <c r="E224" s="4" t="inlineStr">
         <is>
-          <t>মরিয়ম খাতুন</t>
+          <t>আমেনা বেগম</t>
         </is>
       </c>
       <c r="F224" s="3" t="inlineStr">
@@ -9854,7 +9854,7 @@
       </c>
       <c r="G224" s="3" t="inlineStr">
         <is>
-          <t>১৮/০৮/১৯৮৩</t>
+          <t>২০/০৮/১৯৬১</t>
         </is>
       </c>
       <c r="H224" s="5" t="inlineStr">
@@ -9866,27 +9866,27 @@
     <row r="225">
       <c r="A225" s="3" t="inlineStr">
         <is>
-          <t>০৭২১</t>
+          <t>০৭৩৪</t>
         </is>
       </c>
       <c r="B225" s="4" t="inlineStr">
         <is>
-          <t>লায়লা বেগম</t>
+          <t>সাজু আরা বেগম</t>
         </is>
       </c>
       <c r="C225" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৪১</t>
+          <t>১৫২৪০০০০৭০৫৮</t>
         </is>
       </c>
       <c r="D225" s="4" t="inlineStr">
         <is>
-          <t>আবদুল খালেক</t>
+          <t>সৈয়দ আহমেদ</t>
         </is>
       </c>
       <c r="E225" s="4" t="inlineStr">
         <is>
-          <t>মোহেনা বেগম</t>
+          <t>আমেনা খাতুন</t>
         </is>
       </c>
       <c r="F225" s="3" t="inlineStr">
@@ -9896,7 +9896,7 @@
       </c>
       <c r="G225" s="3" t="inlineStr">
         <is>
-          <t>২২/০৫/১৯৫৮</t>
+          <t>১০/০৩/১৯৭৬</t>
         </is>
       </c>
       <c r="H225" s="5" t="inlineStr">
@@ -9908,27 +9908,27 @@
     <row r="226">
       <c r="A226" s="3" t="inlineStr">
         <is>
-          <t>০৭৩৩</t>
+          <t>০৭২০</t>
         </is>
       </c>
       <c r="B226" s="4" t="inlineStr">
         <is>
-          <t>শাহীন আক্তার</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="C226" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৫৭</t>
+          <t>১৫২৪০০০০৭০৪০</t>
         </is>
       </c>
       <c r="D226" s="4" t="inlineStr">
         <is>
-          <t>আবদুল খালেক</t>
+          <t>এজহার মিয়া</t>
         </is>
       </c>
       <c r="E226" s="4" t="inlineStr">
         <is>
-          <t>রাহিমা বেগম</t>
+          <t>মোবারক খাতুন</t>
         </is>
       </c>
       <c r="F226" s="3" t="inlineStr">
@@ -9938,7 +9938,7 @@
       </c>
       <c r="G226" s="3" t="inlineStr">
         <is>
-          <t>১৭/০৫/১৯৮২</t>
+          <t>২৪/০৭/১৯৫২</t>
         </is>
       </c>
       <c r="H226" s="5" t="inlineStr">
@@ -9950,37 +9950,37 @@
     <row r="227">
       <c r="A227" s="3" t="inlineStr">
         <is>
-          <t>০৭১৮</t>
+          <t>০৭৩৫</t>
         </is>
       </c>
       <c r="B227" s="4" t="inlineStr">
         <is>
-          <t>ছালেহা আক্তার</t>
+          <t>শমসুন্নাহার</t>
         </is>
       </c>
       <c r="C227" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৩৭</t>
+          <t>১৫২৪০০০০৭০৫৯</t>
         </is>
       </c>
       <c r="D227" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইউনুচ</t>
+          <t>আশরাফ আলী</t>
         </is>
       </c>
       <c r="E227" s="4" t="inlineStr">
         <is>
-          <t>কুনচুম খাতুন</t>
+          <t>ফাতেমা বেগম</t>
         </is>
       </c>
       <c r="F227" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G227" s="3" t="inlineStr">
         <is>
-          <t>২০/০১/১৯৮৯</t>
+          <t>১৬/০৯/১৯৭৮</t>
         </is>
       </c>
       <c r="H227" s="5" t="inlineStr">
@@ -9992,37 +9992,37 @@
     <row r="228">
       <c r="A228" s="3" t="inlineStr">
         <is>
-          <t>০৭৩৪</t>
+          <t>০৭১৭</t>
         </is>
       </c>
       <c r="B228" s="4" t="inlineStr">
         <is>
-          <t>সাজু আরা বেগম</t>
+          <t>মেহেরুলেছা</t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৫৮</t>
+          <t>১৫২৪০০০০৭০৩৬</t>
         </is>
       </c>
       <c r="D228" s="4" t="inlineStr">
         <is>
-          <t>সৈয়দ আহমেদ</t>
+          <t>মোহাম্মদ আবুল শরিফ</t>
         </is>
       </c>
       <c r="E228" s="4" t="inlineStr">
         <is>
-          <t>আমেনা খাতুন</t>
+          <t>হাফেজা খাতুন</t>
         </is>
       </c>
       <c r="F228" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G228" s="3" t="inlineStr">
         <is>
-          <t>১০/০৩/১৯৭৬</t>
+          <t>৩০/০১/১৯৮৪</t>
         </is>
       </c>
       <c r="H228" s="5" t="inlineStr">
@@ -10244,27 +10244,27 @@
     <row r="234">
       <c r="A234" s="3" t="inlineStr">
         <is>
-          <t>০৭২০</t>
+          <t>০৭২১</t>
         </is>
       </c>
       <c r="B234" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>লায়লা বেগম</t>
         </is>
       </c>
       <c r="C234" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৪০</t>
+          <t>১৫২৪০০০০৭০৪১</t>
         </is>
       </c>
       <c r="D234" s="4" t="inlineStr">
         <is>
-          <t>এজহার মিয়া</t>
+          <t>আবদুল খালেক</t>
         </is>
       </c>
       <c r="E234" s="4" t="inlineStr">
         <is>
-          <t>মোবারক খাতুন</t>
+          <t>মোহেনা বেগম</t>
         </is>
       </c>
       <c r="F234" s="3" t="inlineStr">
@@ -10274,7 +10274,7 @@
       </c>
       <c r="G234" s="3" t="inlineStr">
         <is>
-          <t>২৪/০৭/১৯৫২</t>
+          <t>২২/০৫/১৯৫৮</t>
         </is>
       </c>
       <c r="H234" s="5" t="inlineStr">
@@ -10622,37 +10622,37 @@
     <row r="243">
       <c r="A243" s="3" t="inlineStr">
         <is>
-          <t>০৬৭২</t>
+          <t>০৮৬৭</t>
         </is>
       </c>
       <c r="B243" s="4" t="inlineStr">
         <is>
-          <t>তাহেরা বেগম</t>
+          <t>উম্মে হবিবা</t>
         </is>
       </c>
       <c r="C243" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৯৪৪</t>
+          <t>১৫২৪০০০০০৩৫৮</t>
         </is>
       </c>
       <c r="D243" s="4" t="inlineStr">
         <is>
-          <t>আলতাপ মিয়া</t>
+          <t>সামগুল আলম</t>
         </is>
       </c>
       <c r="E243" s="4" t="inlineStr">
         <is>
-          <t>ফাতেমা বেগম</t>
+          <t>রাশেদা বেগম</t>
         </is>
       </c>
       <c r="F243" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G243" s="3" t="inlineStr">
         <is>
-          <t>৩০/০৮/১৯৮৫</t>
+          <t>১৩/০৬/১৯৯৩</t>
         </is>
       </c>
       <c r="H243" s="5" t="inlineStr">
@@ -10706,35 +10706,39 @@
     <row r="245">
       <c r="A245" s="3" t="inlineStr">
         <is>
-          <t>০৮৭২</t>
+          <t>১২৭৮</t>
         </is>
       </c>
       <c r="B245" s="4" t="inlineStr">
         <is>
-          <t>জান্নাতুল নাসিম</t>
+          <t>হুমাইরা জামাত</t>
         </is>
       </c>
       <c r="C245" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৩৬৭</t>
+          <t>১৫২৪০০২১০১৮৬</t>
         </is>
       </c>
       <c r="D245" s="4" t="inlineStr">
         <is>
-          <t>সামগুল আলম</t>
+          <t>মোহাম্মদ আলী</t>
         </is>
       </c>
       <c r="E245" s="4" t="inlineStr">
         <is>
-          <t>রাশেদা বেগম</t>
+          <t>মনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F245" s="3" t="inlineStr">
         <is>
-          <t>ছগীর মাষ্টারের বাড়ী</t>
-        </is>
-      </c>
-      <c r="G245" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G245" s="3" t="inlineStr">
+        <is>
+          <t>১০/১১/২০০৮</t>
+        </is>
+      </c>
       <c r="H245" s="5" t="inlineStr">
         <is>
           <t>এনু মিয়া পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -10744,37 +10748,37 @@
     <row r="246">
       <c r="A246" s="3" t="inlineStr">
         <is>
-          <t>১২৭৮</t>
+          <t>১৩০৫</t>
         </is>
       </c>
       <c r="B246" s="4" t="inlineStr">
         <is>
-          <t>হুমাইরা জামাত</t>
+          <t>আফরোজা সোলতানা নওরিন</t>
         </is>
       </c>
       <c r="C246" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০১৮৬</t>
+          <t>১৫২৪০০২১০২২৯</t>
         </is>
       </c>
       <c r="D246" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আলী</t>
+          <t>আবু তাহের</t>
         </is>
       </c>
       <c r="E246" s="4" t="inlineStr">
         <is>
-          <t>মনোয়ারা বেগম</t>
+          <t>জিয়ারতুস্সা</t>
         </is>
       </c>
       <c r="F246" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G246" s="3" t="inlineStr">
         <is>
-          <t>১০/১১/২০০৮</t>
+          <t>১০/০৬/২০০৩</t>
         </is>
       </c>
       <c r="H246" s="5" t="inlineStr">
@@ -10786,27 +10790,27 @@
     <row r="247">
       <c r="A247" s="3" t="inlineStr">
         <is>
-          <t>১৩০৫</t>
+          <t>০৮১৩</t>
         </is>
       </c>
       <c r="B247" s="4" t="inlineStr">
         <is>
-          <t>আফরোজা সোলতানা নওরিন</t>
+          <t>রিমা আক্তার</t>
         </is>
       </c>
       <c r="C247" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০২২৯</t>
+          <t>১৫২৪০০০০০১৩৪</t>
         </is>
       </c>
       <c r="D247" s="4" t="inlineStr">
         <is>
-          <t>আবু তাহের</t>
+          <t>আব্দুল হোসাইন</t>
         </is>
       </c>
       <c r="E247" s="4" t="inlineStr">
         <is>
-          <t>জিয়ারতুস্সা</t>
+          <t>কুলচুমা বেগম</t>
         </is>
       </c>
       <c r="F247" s="3" t="inlineStr">
@@ -10816,7 +10820,7 @@
       </c>
       <c r="G247" s="3" t="inlineStr">
         <is>
-          <t>১০/০৬/২০০৩</t>
+          <t>২০/০১/১৯৯২</t>
         </is>
       </c>
       <c r="H247" s="5" t="inlineStr">
@@ -10828,27 +10832,27 @@
     <row r="248">
       <c r="A248" s="3" t="inlineStr">
         <is>
-          <t>০৮১৩</t>
+          <t>০৭৯৪</t>
         </is>
       </c>
       <c r="B248" s="4" t="inlineStr">
         <is>
-          <t>রিমা আক্তার</t>
+          <t>তাছিলিমা আক্তার</t>
         </is>
       </c>
       <c r="C248" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০১৩৪</t>
+          <t>১৫২৪০০০০০১৩৩</t>
         </is>
       </c>
       <c r="D248" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল হোসাইন</t>
+          <t>আব্দুল আলিম</t>
         </is>
       </c>
       <c r="E248" s="4" t="inlineStr">
         <is>
-          <t>কুলচুমা বেগম</t>
+          <t>শামীম আরা বেগম</t>
         </is>
       </c>
       <c r="F248" s="3" t="inlineStr">
@@ -10858,7 +10862,7 @@
       </c>
       <c r="G248" s="3" t="inlineStr">
         <is>
-          <t>২০/০১/১৯৯২</t>
+          <t>১৮/০৪/১৯৯১</t>
         </is>
       </c>
       <c r="H248" s="5" t="inlineStr">
@@ -10870,27 +10874,27 @@
     <row r="249">
       <c r="A249" s="3" t="inlineStr">
         <is>
-          <t>০৭৯৪</t>
+          <t>১৩০৭</t>
         </is>
       </c>
       <c r="B249" s="4" t="inlineStr">
         <is>
-          <t>তাছিলিমা আক্তার</t>
+          <t>তাজমিন জাহান সোনিয়া</t>
         </is>
       </c>
       <c r="C249" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০১৩৩</t>
+          <t>১৫২৪০০২১০২৩১</t>
         </is>
       </c>
       <c r="D249" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল আলিম</t>
+          <t>আবু তাহের</t>
         </is>
       </c>
       <c r="E249" s="4" t="inlineStr">
         <is>
-          <t>শামীম আরা বেগম</t>
+          <t>রোকেয়া বেগম</t>
         </is>
       </c>
       <c r="F249" s="3" t="inlineStr">
@@ -10900,7 +10904,7 @@
       </c>
       <c r="G249" s="3" t="inlineStr">
         <is>
-          <t>১৮/০৪/১৯৯১</t>
+          <t>১১/০১/১৯৯৮</t>
         </is>
       </c>
       <c r="H249" s="5" t="inlineStr">
@@ -10912,27 +10916,27 @@
     <row r="250">
       <c r="A250" s="3" t="inlineStr">
         <is>
-          <t>১৩০৭</t>
+          <t>১৩১২</t>
         </is>
       </c>
       <c r="B250" s="4" t="inlineStr">
         <is>
-          <t>তাজমিন জাহান সোনিয়া</t>
+          <t>শারমিন আকতার</t>
         </is>
       </c>
       <c r="C250" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০২৩১</t>
+          <t>১৫২৪০০২১০২৪৪</t>
         </is>
       </c>
       <c r="D250" s="4" t="inlineStr">
         <is>
-          <t>আবু তাহের</t>
+          <t>আবদুস হুমদ</t>
         </is>
       </c>
       <c r="E250" s="4" t="inlineStr">
         <is>
-          <t>রোকেয়া বেগম</t>
+          <t>হাজেরা বেগম</t>
         </is>
       </c>
       <c r="F250" s="3" t="inlineStr">
@@ -10942,39 +10946,39 @@
       </c>
       <c r="G250" s="3" t="inlineStr">
         <is>
-          <t>১১/০১/১৯৯৮</t>
+          <t>২০/১০/২০০২</t>
         </is>
       </c>
       <c r="H250" s="5" t="inlineStr">
         <is>
-          <t>এনু মিয়া পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>৩২৫, এনু মিয়া পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="3" t="inlineStr">
         <is>
-          <t>১৩১২</t>
+          <t>০৬৭২</t>
         </is>
       </c>
       <c r="B251" s="4" t="inlineStr">
         <is>
-          <t>শারমিন আকতার</t>
+          <t>তাহেরা বেগম</t>
         </is>
       </c>
       <c r="C251" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০২৪৪</t>
+          <t>১৫২৪০০০০৬৯৪৪</t>
         </is>
       </c>
       <c r="D251" s="4" t="inlineStr">
         <is>
-          <t>আবদুস হুমদ</t>
+          <t>আলতাপ মিয়া</t>
         </is>
       </c>
       <c r="E251" s="4" t="inlineStr">
         <is>
-          <t>হাজেরা বেগম</t>
+          <t>ফাতেমা বেগম</t>
         </is>
       </c>
       <c r="F251" s="3" t="inlineStr">
@@ -10984,123 +10988,123 @@
       </c>
       <c r="G251" s="3" t="inlineStr">
         <is>
-          <t>২০/১০/২০০২</t>
+          <t>৩০/০৮/১৯৮৫</t>
         </is>
       </c>
       <c r="H251" s="5" t="inlineStr">
         <is>
-          <t>৩২৫, এনু মিয়া পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>এনু মিয়া পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="3" t="inlineStr">
         <is>
-          <t>০৮৬৭</t>
+          <t>১৩০৬</t>
         </is>
       </c>
       <c r="B252" s="4" t="inlineStr">
         <is>
-          <t>উম্মে হবিবা</t>
+          <t>রুকসানা আক্তার</t>
         </is>
       </c>
       <c r="C252" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৩৫৮</t>
+          <t>১৫২৪০০২১০২৩০</t>
         </is>
       </c>
       <c r="D252" s="4" t="inlineStr">
         <is>
-          <t>সামগুল আলম</t>
+          <t>আমির আলী</t>
         </is>
       </c>
       <c r="E252" s="4" t="inlineStr">
         <is>
-          <t>রাশেদা বেগম</t>
+          <t>মমতাজ বেগম</t>
         </is>
       </c>
       <c r="F252" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G252" s="3" t="inlineStr">
         <is>
-          <t>১৩/০৬/১৯৯৩</t>
+          <t>২৩/০৭/১৯৯৮</t>
         </is>
       </c>
       <c r="H252" s="5" t="inlineStr">
         <is>
-          <t>এনু মিয়া পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>এনু মিয়া পাড়া, ছড়ার কুল, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="3" t="inlineStr">
         <is>
-          <t>১৩০৬</t>
+          <t>০৯২৩</t>
         </is>
       </c>
       <c r="B253" s="4" t="inlineStr">
         <is>
-          <t>রুকসানা আক্তার</t>
+          <t>তাহিমিনা সোলতানা আর্থি</t>
         </is>
       </c>
       <c r="C253" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০২৩০</t>
+          <t>১৫২৪০০০০০৫১২</t>
         </is>
       </c>
       <c r="D253" s="4" t="inlineStr">
         <is>
-          <t>আমির আলী</t>
+          <t>আহমেদ নবী</t>
         </is>
       </c>
       <c r="E253" s="4" t="inlineStr">
         <is>
-          <t>মমতাজ বেগম</t>
+          <t>পারভীন আক্তার</t>
         </is>
       </c>
       <c r="F253" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G253" s="3" t="inlineStr">
         <is>
-          <t>২৩/০৭/১৯৯৮</t>
+          <t>২৫/০৩/১৯৯৭</t>
         </is>
       </c>
       <c r="H253" s="5" t="inlineStr">
         <is>
-          <t>এনু মিয়া পাড়া, ছড়ার কুল, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>এনু মিয়া সওঁ বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="3" t="inlineStr">
         <is>
-          <t>০৯২৩</t>
+          <t>০৯৬৪</t>
         </is>
       </c>
       <c r="B254" s="4" t="inlineStr">
         <is>
-          <t>তাহিমিনা সোলতানা আর্থি</t>
+          <t>মোহাম্মদ মাসরুপা খানম হীরা</t>
         </is>
       </c>
       <c r="C254" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৫১২</t>
+          <t>১৫২৪০০০০০৬১৪</t>
         </is>
       </c>
       <c r="D254" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ নবী</t>
+          <t>মোহাম্মদ হারুনুর রশিদ</t>
         </is>
       </c>
       <c r="E254" s="4" t="inlineStr">
         <is>
-          <t>পারভীন আক্তার</t>
+          <t>তাহেরা বেগম</t>
         </is>
       </c>
       <c r="F254" s="3" t="inlineStr">
@@ -11110,81 +11114,81 @@
       </c>
       <c r="G254" s="3" t="inlineStr">
         <is>
-          <t>২৫/০৩/১৯৯৭</t>
+          <t>০৭/০৯/১৯৯৮</t>
         </is>
       </c>
       <c r="H254" s="5" t="inlineStr">
         <is>
-          <t>এনু মিয়া সওঁ বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>এনু মিয়া সওঃ বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="3" t="inlineStr">
         <is>
-          <t>০৯৬৪</t>
+          <t>১২৫২</t>
         </is>
       </c>
       <c r="B255" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ মাসরুপা খানম হীরা</t>
+          <t>মোছাম্মৎ তানজিনা আকতার</t>
         </is>
       </c>
       <c r="C255" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৬১৪</t>
+          <t>১৫২৪০০২১০১২৫</t>
         </is>
       </c>
       <c r="D255" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ হারুনুর রশিদ</t>
+          <t>মোঃ ইউচুপ</t>
         </is>
       </c>
       <c r="E255" s="4" t="inlineStr">
         <is>
-          <t>তাহেরা বেগম</t>
+          <t>মোছাঃ গোলতাজ বেগম</t>
         </is>
       </c>
       <c r="F255" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G255" s="3" t="inlineStr">
         <is>
-          <t>০৭/০৯/১৯৯৮</t>
+          <t>২১/০৮/২০০৪</t>
         </is>
       </c>
       <c r="H255" s="5" t="inlineStr">
         <is>
-          <t>এনু মিয়া সওঃ বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>৩৬৬, এনু মিয়া সওদাগরের বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="3" t="inlineStr">
         <is>
-          <t>১২৫২</t>
+          <t>০৮৯৬</t>
         </is>
       </c>
       <c r="B256" s="4" t="inlineStr">
         <is>
-          <t>মোছাম্মৎ তানজিনা আকতার</t>
+          <t>নিলুফার ইয়াছমিন</t>
         </is>
       </c>
       <c r="C256" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০১২৫</t>
+          <t>১৫২৪০০০০০৪৪৬</t>
         </is>
       </c>
       <c r="D256" s="4" t="inlineStr">
         <is>
-          <t>মোঃ ইউচুপ</t>
+          <t>আশরাফ আলী</t>
         </is>
       </c>
       <c r="E256" s="4" t="inlineStr">
         <is>
-          <t>মোছাঃ গোলতাজ বেগম</t>
+          <t>নুর জাহান</t>
         </is>
       </c>
       <c r="F256" s="3" t="inlineStr">
@@ -11194,49 +11198,49 @@
       </c>
       <c r="G256" s="3" t="inlineStr">
         <is>
-          <t>২১/০৮/২০০৪</t>
+          <t>০৩/০২/১৯৯৩</t>
         </is>
       </c>
       <c r="H256" s="5" t="inlineStr">
         <is>
-          <t>৩৬৬, এনু মিয়া সওদাগরের বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>এনু মিয়া সন্ত বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="3" t="inlineStr">
         <is>
-          <t>০৯১৩</t>
+          <t>০৮৯৮</t>
         </is>
       </c>
       <c r="B257" s="4" t="inlineStr">
         <is>
-          <t>তসলিমান্নিছা মুক্তা</t>
+          <t>রোকিয়া বেগম</t>
         </is>
       </c>
       <c r="C257" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৪৯৫</t>
+          <t>১৫২৪০০০০০৪৫২</t>
         </is>
       </c>
       <c r="D257" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ তৈয়ব আলী</t>
+          <t>কেরবান আরী</t>
         </is>
       </c>
       <c r="E257" s="4" t="inlineStr">
         <is>
-          <t>শাহিদা বেগম</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F257" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G257" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৮/১৯৯৭</t>
+          <t>১০/০২/১৯৯৩</t>
         </is>
       </c>
       <c r="H257" s="5" t="inlineStr">
@@ -11248,37 +11252,37 @@
     <row r="258">
       <c r="A258" s="3" t="inlineStr">
         <is>
-          <t>০৮৯৬</t>
+          <t>০৯১৩</t>
         </is>
       </c>
       <c r="B258" s="4" t="inlineStr">
         <is>
-          <t>নিলুফার ইয়াছমিন</t>
+          <t>তসলিমান্নিছা মুক্তা</t>
         </is>
       </c>
       <c r="C258" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৪৪৬</t>
+          <t>১৫২৪০০০০০৪৯৫</t>
         </is>
       </c>
       <c r="D258" s="4" t="inlineStr">
         <is>
-          <t>আশরাফ আলী</t>
+          <t>মোহাম্মদ তৈয়ব আলী</t>
         </is>
       </c>
       <c r="E258" s="4" t="inlineStr">
         <is>
-          <t>নুর জাহান</t>
+          <t>শাহিদা বেগম</t>
         </is>
       </c>
       <c r="F258" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G258" s="3" t="inlineStr">
         <is>
-          <t>০৩/০২/১৯৯৩</t>
+          <t>০৫/০৮/১৯৯৭</t>
         </is>
       </c>
       <c r="H258" s="5" t="inlineStr">
@@ -11290,27 +11294,27 @@
     <row r="259">
       <c r="A259" s="3" t="inlineStr">
         <is>
-          <t>০৮৯৮</t>
+          <t>০৭৬৭</t>
         </is>
       </c>
       <c r="B259" s="4" t="inlineStr">
         <is>
-          <t>রোকিয়া বেগম</t>
+          <t>রেনু আক্তার</t>
         </is>
       </c>
       <c r="C259" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৪৫২</t>
+          <t>১৫২৪০০০০০০২৯</t>
         </is>
       </c>
       <c r="D259" s="4" t="inlineStr">
         <is>
-          <t>কেরবান আরী</t>
+          <t>সাহাব মিয়া</t>
         </is>
       </c>
       <c r="E259" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>বাছু বিবি</t>
         </is>
       </c>
       <c r="F259" s="3" t="inlineStr">
@@ -11320,39 +11324,39 @@
       </c>
       <c r="G259" s="3" t="inlineStr">
         <is>
-          <t>১০/০২/১৯৯৩</t>
+          <t>১৩/০৯/১৯৭৭</t>
         </is>
       </c>
       <c r="H259" s="5" t="inlineStr">
         <is>
-          <t>এনু মিয়া সন্ত বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>এনু মিয়ার পাড়া, মধ্য এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="3" t="inlineStr">
         <is>
-          <t>০৭৬৭</t>
+          <t>০৭৮২</t>
         </is>
       </c>
       <c r="B260" s="4" t="inlineStr">
         <is>
-          <t>রেনু আক্তার</t>
+          <t>নাজমা সুলতানা</t>
         </is>
       </c>
       <c r="C260" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০০২৯</t>
+          <t>১৫২৪০০০০০০৪৪</t>
         </is>
       </c>
       <c r="D260" s="4" t="inlineStr">
         <is>
-          <t>সাহাব মিয়া</t>
+          <t>শামসুল আলম</t>
         </is>
       </c>
       <c r="E260" s="4" t="inlineStr">
         <is>
-          <t>বাছু বিবি</t>
+          <t>রাবেয়া খানম তালুকদার</t>
         </is>
       </c>
       <c r="F260" s="3" t="inlineStr">
@@ -11362,7 +11366,7 @@
       </c>
       <c r="G260" s="3" t="inlineStr">
         <is>
-          <t>১৩/০৯/১৯৭৭</t>
+          <t>১৭/০৫/১৯৮৯</t>
         </is>
       </c>
       <c r="H260" s="5" t="inlineStr">
@@ -11374,27 +11378,27 @@
     <row r="261">
       <c r="A261" s="3" t="inlineStr">
         <is>
-          <t>০৭৮২</t>
+          <t>০৯৯২</t>
         </is>
       </c>
       <c r="B261" s="4" t="inlineStr">
         <is>
-          <t>নাজমা সুলতানা</t>
+          <t>জামাতুন নাস্সিম এয়ানি</t>
         </is>
       </c>
       <c r="C261" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০০৪৪</t>
+          <t>১৫২৪০০০০০৬৬৫</t>
         </is>
       </c>
       <c r="D261" s="4" t="inlineStr">
         <is>
-          <t>শামসুল আলম</t>
+          <t>মৃত আব্দুল কাশেম</t>
         </is>
       </c>
       <c r="E261" s="4" t="inlineStr">
         <is>
-          <t>রাবেয়া খানম তালুকদার</t>
+          <t>রোকেয়া বেগম</t>
         </is>
       </c>
       <c r="F261" s="3" t="inlineStr">
@@ -11404,39 +11408,39 @@
       </c>
       <c r="G261" s="3" t="inlineStr">
         <is>
-          <t>১৭/০৫/১৯৮৯</t>
+          <t>০১/০২/১৯৯৬</t>
         </is>
       </c>
       <c r="H261" s="5" t="inlineStr">
         <is>
-          <t>এনু মিয়ার পাড়া, মধ্য এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>এনু মিয়ার বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="3" t="inlineStr">
         <is>
-          <t>০৯৯২</t>
+          <t>০৮০৩</t>
         </is>
       </c>
       <c r="B262" s="4" t="inlineStr">
         <is>
-          <t>জামাতুন নাস্সিম এয়ানি</t>
+          <t>তাছিমিন আক্তার</t>
         </is>
       </c>
       <c r="C262" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৬৬৫</t>
+          <t>১৫২৪০০০০০২৩৬</t>
         </is>
       </c>
       <c r="D262" s="4" t="inlineStr">
         <is>
-          <t>মৃত আব্দুল কাশেম</t>
+          <t>হাকিম আলী</t>
         </is>
       </c>
       <c r="E262" s="4" t="inlineStr">
         <is>
-          <t>রোকেয়া বেগম</t>
+          <t>হাবিবা খাতুন</t>
         </is>
       </c>
       <c r="F262" s="3" t="inlineStr">
@@ -11446,7 +11450,7 @@
       </c>
       <c r="G262" s="3" t="inlineStr">
         <is>
-          <t>০১/০২/১৯৯৬</t>
+          <t>০৫/১০/১৯৮৮</t>
         </is>
       </c>
       <c r="H262" s="5" t="inlineStr">
@@ -11542,27 +11546,27 @@
     <row r="265">
       <c r="A265" s="3" t="inlineStr">
         <is>
-          <t>০৮০৩</t>
+          <t>০৮৮২</t>
         </is>
       </c>
       <c r="B265" s="4" t="inlineStr">
         <is>
-          <t>তাছিমিন আক্তার</t>
+          <t>সালমা আক্তার</t>
         </is>
       </c>
       <c r="C265" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০২৩৬</t>
+          <t>১৫২৪০০০০০৪০</t>
         </is>
       </c>
       <c r="D265" s="4" t="inlineStr">
         <is>
-          <t>হাকিম আলী</t>
+          <t>মোঃ সাগের</t>
         </is>
       </c>
       <c r="E265" s="4" t="inlineStr">
         <is>
-          <t>হাবিবা খাতুন</t>
+          <t>মোছাঃ নুর বেগম</t>
         </is>
       </c>
       <c r="F265" s="3" t="inlineStr">
@@ -11572,54 +11576,54 @@
       </c>
       <c r="G265" s="3" t="inlineStr">
         <is>
-          <t>০৫/১০/১৯৮৮</t>
+          <t>০১/০৮/১৯৯৫</t>
         </is>
       </c>
       <c r="H265" s="5" t="inlineStr">
         <is>
-          <t>এনু মিয়ার বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>এনু মিয়ার বাড়ি, ছড়ারকুল, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="3" t="inlineStr">
         <is>
-          <t>০৮৮২</t>
+          <t>০৮৭২</t>
         </is>
       </c>
       <c r="B266" s="4" t="inlineStr">
         <is>
-          <t>সালমা আক্তার</t>
+          <t>জান্নাতুল নাঈম</t>
         </is>
       </c>
       <c r="C266" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৪০</t>
+          <t>১৫২৪০০০০০৩৬৭</t>
         </is>
       </c>
       <c r="D266" s="4" t="inlineStr">
         <is>
-          <t>মোঃ সাগের</t>
+          <t>সামশুল আলম</t>
         </is>
       </c>
       <c r="E266" s="4" t="inlineStr">
         <is>
-          <t>মোছাঃ নুর বেগম</t>
+          <t>রাশেদা বেগম</t>
         </is>
       </c>
       <c r="F266" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G266" s="3" t="inlineStr">
         <is>
-          <t>০১/০৮/১৯৯৫</t>
+          <t>২৬/০৪/১৯৯৫</t>
         </is>
       </c>
       <c r="H266" s="5" t="inlineStr">
         <is>
-          <t>এনু মিয়ার বাড়ি, ছড়ারকুল, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>এনু মিয়া পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -11668,27 +11672,27 @@
     <row r="268">
       <c r="A268" s="3" t="inlineStr">
         <is>
-          <t>১০০৩</t>
+          <t>০৯৮৯</t>
         </is>
       </c>
       <c r="B268" s="4" t="inlineStr">
         <is>
-          <t>ইয়াছমিন আকতার</t>
+          <t>সানজিদা সোলতানা রুনা</t>
         </is>
       </c>
       <c r="C268" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৬৯৩</t>
+          <t>১৫২৪০০০০০৬৫৮</t>
         </is>
       </c>
       <c r="D268" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ মিয়া</t>
+          <t>আবদুস হোবহান</t>
         </is>
       </c>
       <c r="E268" s="4" t="inlineStr">
         <is>
-          <t>রাবেয়া খাতুন</t>
+          <t>কুলচুমা বেগম</t>
         </is>
       </c>
       <c r="F268" s="3" t="inlineStr">
@@ -11698,7 +11702,7 @@
       </c>
       <c r="G268" s="3" t="inlineStr">
         <is>
-          <t>০৯/০৮/১৯৯৭</t>
+          <t>২৯/১২/১৯৯৬</t>
         </is>
       </c>
       <c r="H268" s="5" t="inlineStr">
@@ -11710,27 +11714,27 @@
     <row r="269">
       <c r="A269" s="3" t="inlineStr">
         <is>
-          <t>০৯৮৯</t>
+          <t>১০০৩</t>
         </is>
       </c>
       <c r="B269" s="4" t="inlineStr">
         <is>
-          <t>সানজিদা সোলতানা রুনা</t>
+          <t>ইয়াছমিন আকতার</t>
         </is>
       </c>
       <c r="C269" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৬৫৮</t>
+          <t>১৫২৪০০০০০৬৯৩</t>
         </is>
       </c>
       <c r="D269" s="4" t="inlineStr">
         <is>
-          <t>আবদুস হোবহান</t>
+          <t>আহমেদ মিয়া</t>
         </is>
       </c>
       <c r="E269" s="4" t="inlineStr">
         <is>
-          <t>কুলচুমা বেগম</t>
+          <t>রাবেয়া খাতুন</t>
         </is>
       </c>
       <c r="F269" s="3" t="inlineStr">
@@ -11740,7 +11744,7 @@
       </c>
       <c r="G269" s="3" t="inlineStr">
         <is>
-          <t>২৯/১২/১৯৯৬</t>
+          <t>০৯/০৮/১৯৯৭</t>
         </is>
       </c>
       <c r="H269" s="5" t="inlineStr">
@@ -11836,27 +11840,27 @@
     <row r="272">
       <c r="A272" s="3" t="inlineStr">
         <is>
-          <t>০৩৮৬</t>
+          <t>০৩৯২</t>
         </is>
       </c>
       <c r="B272" s="4" t="inlineStr">
         <is>
-          <t>হাসিনা আক্তার বুলু</t>
+          <t>জান্নাতুল ফেরদৌস</t>
         </is>
       </c>
       <c r="C272" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২৫৪</t>
+          <t>১৫২৪০০০০৬২৬৫</t>
         </is>
       </c>
       <c r="D272" s="4" t="inlineStr">
         <is>
-          <t>আবদুল খাইর</t>
+          <t>নুরুল ইসলাম</t>
         </is>
       </c>
       <c r="E272" s="4" t="inlineStr">
         <is>
-          <t>নুরুনাহর</t>
+          <t>নাসিমা আকতার</t>
         </is>
       </c>
       <c r="F272" s="3" t="inlineStr">
@@ -11866,7 +11870,7 @@
       </c>
       <c r="G272" s="3" t="inlineStr">
         <is>
-          <t>০১/০৫/১৯৭৭</t>
+          <t>০১/০৭/১৯৮৭</t>
         </is>
       </c>
       <c r="H272" s="5" t="inlineStr">
@@ -11878,27 +11882,27 @@
     <row r="273">
       <c r="A273" s="3" t="inlineStr">
         <is>
-          <t>০৩৯৩</t>
+          <t>০৩৮৮</t>
         </is>
       </c>
       <c r="B273" s="4" t="inlineStr">
         <is>
-          <t>জন্মত আরা বেগম</t>
+          <t>রোজিনা আকতার</t>
         </is>
       </c>
       <c r="C273" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২৬৭</t>
+          <t>১৫২৪০০০০৬২৫৬</t>
         </is>
       </c>
       <c r="D273" s="4" t="inlineStr">
         <is>
-          <t>এমদাদ মিশ্রা</t>
+          <t>কুলু মিশ্রা</t>
         </is>
       </c>
       <c r="E273" s="4" t="inlineStr">
         <is>
-          <t>আয়শা খাতুন</t>
+          <t>এলমা খাতুন</t>
         </is>
       </c>
       <c r="F273" s="3" t="inlineStr">
@@ -11908,7 +11912,7 @@
       </c>
       <c r="G273" s="3" t="inlineStr">
         <is>
-          <t>০১/০৬/১৯৫৭</t>
+          <t>১০/১০/১৯৮৬</t>
         </is>
       </c>
       <c r="H273" s="5" t="inlineStr">
@@ -11920,27 +11924,27 @@
     <row r="274">
       <c r="A274" s="3" t="inlineStr">
         <is>
-          <t>০৩৯১</t>
+          <t>০৩৮৯</t>
         </is>
       </c>
       <c r="B274" s="4" t="inlineStr">
         <is>
-          <t>খালেদা বেগম</t>
+          <t>আয়িয়া খাতুন</t>
         </is>
       </c>
       <c r="C274" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২৬৪</t>
+          <t>১৫২৪০০০০৬২৫৯</t>
         </is>
       </c>
       <c r="D274" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ কবির</t>
+          <t>ছালেহ আহমদ</t>
         </is>
       </c>
       <c r="E274" s="4" t="inlineStr">
         <is>
-          <t>হারুনা বেগম</t>
+          <t>হাজেরা খাতুন</t>
         </is>
       </c>
       <c r="F274" s="3" t="inlineStr">
@@ -11950,7 +11954,7 @@
       </c>
       <c r="G274" s="3" t="inlineStr">
         <is>
-          <t>২৬/১০/১৯৮৪</t>
+          <t>০১/০৬/১৯৫৭</t>
         </is>
       </c>
       <c r="H274" s="5" t="inlineStr">
@@ -11962,27 +11966,27 @@
     <row r="275">
       <c r="A275" s="3" t="inlineStr">
         <is>
-          <t>০৩৮৯</t>
+          <t>০৩৯১</t>
         </is>
       </c>
       <c r="B275" s="4" t="inlineStr">
         <is>
-          <t>আয়িয়া খাতুন</t>
+          <t>খালেদা বেগম</t>
         </is>
       </c>
       <c r="C275" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২৫৯</t>
+          <t>১৫২৪০০০০৬২৬৪</t>
         </is>
       </c>
       <c r="D275" s="4" t="inlineStr">
         <is>
-          <t>ছালেহ আহমদ</t>
+          <t>আহমেদ কবির</t>
         </is>
       </c>
       <c r="E275" s="4" t="inlineStr">
         <is>
-          <t>হাজেরা খাতুন</t>
+          <t>হারুনা বেগম</t>
         </is>
       </c>
       <c r="F275" s="3" t="inlineStr">
@@ -11992,7 +11996,7 @@
       </c>
       <c r="G275" s="3" t="inlineStr">
         <is>
-          <t>০১/০৬/১৯৫৭</t>
+          <t>২৬/১০/১৯৮৪</t>
         </is>
       </c>
       <c r="H275" s="5" t="inlineStr">
@@ -12004,27 +12008,27 @@
     <row r="276">
       <c r="A276" s="3" t="inlineStr">
         <is>
-          <t>০৩৯২</t>
+          <t>০৩৯৩</t>
         </is>
       </c>
       <c r="B276" s="4" t="inlineStr">
         <is>
-          <t>জান্নাতুল ফেরদৌস</t>
+          <t>জন্মত আরা বেগম</t>
         </is>
       </c>
       <c r="C276" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২৬৫</t>
+          <t>১৫২৪০০০০৬২৬৭</t>
         </is>
       </c>
       <c r="D276" s="4" t="inlineStr">
         <is>
-          <t>নুরুল ইসলাম</t>
+          <t>এমদাদ মিশ্রা</t>
         </is>
       </c>
       <c r="E276" s="4" t="inlineStr">
         <is>
-          <t>নাসিমা আকতার</t>
+          <t>আয়শা খাতুন</t>
         </is>
       </c>
       <c r="F276" s="3" t="inlineStr">
@@ -12034,7 +12038,7 @@
       </c>
       <c r="G276" s="3" t="inlineStr">
         <is>
-          <t>০১/০৭/১৯৮৭</t>
+          <t>০১/০৬/১৯৫৭</t>
         </is>
       </c>
       <c r="H276" s="5" t="inlineStr">
@@ -12046,27 +12050,27 @@
     <row r="277">
       <c r="A277" s="3" t="inlineStr">
         <is>
-          <t>০৩৮৮</t>
+          <t>০৩৮৬</t>
         </is>
       </c>
       <c r="B277" s="4" t="inlineStr">
         <is>
-          <t>রোজিনা আকতার</t>
+          <t>হাসিনা আক্তার বুলু</t>
         </is>
       </c>
       <c r="C277" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২৫৬</t>
+          <t>১৫২৪০০০০৬২৫৪</t>
         </is>
       </c>
       <c r="D277" s="4" t="inlineStr">
         <is>
-          <t>কুলু মিশ্রা</t>
+          <t>আবদুল খাইর</t>
         </is>
       </c>
       <c r="E277" s="4" t="inlineStr">
         <is>
-          <t>এলমা খাতুন</t>
+          <t>নুরুনাহর</t>
         </is>
       </c>
       <c r="F277" s="3" t="inlineStr">
@@ -12076,7 +12080,7 @@
       </c>
       <c r="G277" s="3" t="inlineStr">
         <is>
-          <t>১০/১০/১৯৮৬</t>
+          <t>০১/০৫/১৯৭৭</t>
         </is>
       </c>
       <c r="H277" s="5" t="inlineStr">
@@ -12130,27 +12134,27 @@
     <row r="279">
       <c r="A279" s="3" t="inlineStr">
         <is>
-          <t>০৪১৮</t>
+          <t>০৪১৭</t>
         </is>
       </c>
       <c r="B279" s="4" t="inlineStr">
         <is>
-          <t>হেসনা আরা বেগম</t>
+          <t>বিবি মরিয়ম</t>
         </is>
       </c>
       <c r="C279" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৩২১</t>
+          <t>১৫২৪০০০০৬৩২০</t>
         </is>
       </c>
       <c r="D279" s="4" t="inlineStr">
         <is>
-          <t>বদিউর রহমান</t>
+          <t>আশরাফ আলী</t>
         </is>
       </c>
       <c r="E279" s="4" t="inlineStr">
         <is>
-          <t>হাজেরা খাতুন</t>
+          <t>নুরুজ্জাহান বেগম</t>
         </is>
       </c>
       <c r="F279" s="3" t="inlineStr">
@@ -12160,7 +12164,7 @@
       </c>
       <c r="G279" s="3" t="inlineStr">
         <is>
-          <t>০১/০৮/১৯৭০</t>
+          <t>০১/১০/১৯৮৫</t>
         </is>
       </c>
       <c r="H279" s="5" t="inlineStr">
@@ -12172,27 +12176,27 @@
     <row r="280">
       <c r="A280" s="3" t="inlineStr">
         <is>
-          <t>০৪১৫</t>
+          <t>০৪১৩</t>
         </is>
       </c>
       <c r="B280" s="4" t="inlineStr">
         <is>
-          <t>উম্মে সালমা</t>
+          <t>মোহাম্মৎ জামাতুল ফেরদৌস</t>
         </is>
       </c>
       <c r="C280" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৩১৫</t>
+          <t>১৫২৪০০০০৬৩১৩</t>
         </is>
       </c>
       <c r="D280" s="4" t="inlineStr">
         <is>
-          <t>আবদুল করিম</t>
+          <t>মোহাম্মদ আহমাদ হোসেন</t>
         </is>
       </c>
       <c r="E280" s="4" t="inlineStr">
         <is>
-          <t>শাহিন আক্তার</t>
+          <t>মনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F280" s="3" t="inlineStr">
@@ -12202,7 +12206,7 @@
       </c>
       <c r="G280" s="3" t="inlineStr">
         <is>
-          <t>২৪/১০/১৯৮৯</t>
+          <t>০৪/০৬/১৯৭৯</t>
         </is>
       </c>
       <c r="H280" s="5" t="inlineStr">
@@ -12256,27 +12260,27 @@
     <row r="282">
       <c r="A282" s="3" t="inlineStr">
         <is>
-          <t>০৪১৭</t>
+          <t>০৪১৫</t>
         </is>
       </c>
       <c r="B282" s="4" t="inlineStr">
         <is>
-          <t>বিবি মরিয়ম</t>
+          <t>উম্মে সালমা</t>
         </is>
       </c>
       <c r="C282" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৩২০</t>
+          <t>১৫২৪০০০০৬৩১৫</t>
         </is>
       </c>
       <c r="D282" s="4" t="inlineStr">
         <is>
-          <t>আশরাফ আলী</t>
+          <t>আবদুল করিম</t>
         </is>
       </c>
       <c r="E282" s="4" t="inlineStr">
         <is>
-          <t>নুরুজ্জাহান বেগম</t>
+          <t>শাহিন আক্তার</t>
         </is>
       </c>
       <c r="F282" s="3" t="inlineStr">
@@ -12286,7 +12290,7 @@
       </c>
       <c r="G282" s="3" t="inlineStr">
         <is>
-          <t>০১/১০/১৯৮৫</t>
+          <t>২৪/১০/১৯৮৯</t>
         </is>
       </c>
       <c r="H282" s="5" t="inlineStr">
@@ -12298,27 +12302,27 @@
     <row r="283">
       <c r="A283" s="3" t="inlineStr">
         <is>
-          <t>০৪১৩</t>
+          <t>০৪১৬</t>
         </is>
       </c>
       <c r="B283" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মৎ জামাতুল ফেরদৌস</t>
+          <t>খাইরুননেছা পারল</t>
         </is>
       </c>
       <c r="C283" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৩১৩</t>
+          <t>১৫২৪০০০০৬৩১৯</t>
         </is>
       </c>
       <c r="D283" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আহমাদ হোসেন</t>
+          <t>মোঃ ইছামিল</t>
         </is>
       </c>
       <c r="E283" s="4" t="inlineStr">
         <is>
-          <t>মনোয়ারা বেগম</t>
+          <t>আয়শা বেগম</t>
         </is>
       </c>
       <c r="F283" s="3" t="inlineStr">
@@ -12328,7 +12332,7 @@
       </c>
       <c r="G283" s="3" t="inlineStr">
         <is>
-          <t>০৪/০৬/১৯৭৯</t>
+          <t>০১/০৫/১৯৭৬</t>
         </is>
       </c>
       <c r="H283" s="5" t="inlineStr">
@@ -12424,27 +12428,27 @@
     <row r="286">
       <c r="A286" s="3" t="inlineStr">
         <is>
-          <t>০৪১৬</t>
+          <t>০৪১৮</t>
         </is>
       </c>
       <c r="B286" s="4" t="inlineStr">
         <is>
-          <t>খাইরুননেছা পারল</t>
+          <t>হেসনা আরা বেগম</t>
         </is>
       </c>
       <c r="C286" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৩১৯</t>
+          <t>১৫২৪০০০০৬৩২১</t>
         </is>
       </c>
       <c r="D286" s="4" t="inlineStr">
         <is>
-          <t>মোঃ ইছামিল</t>
+          <t>বদিউর রহমান</t>
         </is>
       </c>
       <c r="E286" s="4" t="inlineStr">
         <is>
-          <t>আয়শা বেগম</t>
+          <t>হাজেরা খাতুন</t>
         </is>
       </c>
       <c r="F286" s="3" t="inlineStr">
@@ -12454,7 +12458,7 @@
       </c>
       <c r="G286" s="3" t="inlineStr">
         <is>
-          <t>০১/০৫/১৯৭৬</t>
+          <t>০১/০৮/১৯৭০</t>
         </is>
       </c>
       <c r="H286" s="5" t="inlineStr">
@@ -12928,27 +12932,27 @@
     <row r="298">
       <c r="A298" s="3" t="inlineStr">
         <is>
-          <t>০০৭৫</t>
+          <t>০০৭৩</t>
         </is>
       </c>
       <c r="B298" s="4" t="inlineStr">
         <is>
-          <t>জয়নাব বেগম</t>
+          <t>মোস্তফা বেগম</t>
         </is>
       </c>
       <c r="C298" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৪৫৫</t>
+          <t>১৫২৪০০০০৫৪৫২</t>
         </is>
       </c>
       <c r="D298" s="4" t="inlineStr">
         <is>
-          <t>আবদুল জবার</t>
+          <t>আলী আহমেদ</t>
         </is>
       </c>
       <c r="E298" s="4" t="inlineStr">
         <is>
-          <t>সোলতান বিবি</t>
+          <t>সুফিয়া বেগম</t>
         </is>
       </c>
       <c r="F298" s="3" t="inlineStr">
@@ -12958,7 +12962,7 @@
       </c>
       <c r="G298" s="3" t="inlineStr">
         <is>
-          <t>০১/০৩/১৯৭৫</t>
+          <t>০২/০৩/১৯৭৮</t>
         </is>
       </c>
       <c r="H298" s="5" t="inlineStr">
@@ -12970,27 +12974,27 @@
     <row r="299">
       <c r="A299" s="3" t="inlineStr">
         <is>
-          <t>০০৭৩</t>
+          <t>০০৭৫</t>
         </is>
       </c>
       <c r="B299" s="4" t="inlineStr">
         <is>
-          <t>মোস্তফা বেগম</t>
+          <t>জয়নাব বেগম</t>
         </is>
       </c>
       <c r="C299" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৪৫২</t>
+          <t>১৫২৪০০০০৫৪৫৫</t>
         </is>
       </c>
       <c r="D299" s="4" t="inlineStr">
         <is>
-          <t>আলী আহমেদ</t>
+          <t>আবদুল জবার</t>
         </is>
       </c>
       <c r="E299" s="4" t="inlineStr">
         <is>
-          <t>সুফিয়া বেগম</t>
+          <t>সোলতান বিবি</t>
         </is>
       </c>
       <c r="F299" s="3" t="inlineStr">
@@ -13000,7 +13004,7 @@
       </c>
       <c r="G299" s="3" t="inlineStr">
         <is>
-          <t>০২/০৩/১৯৭৮</t>
+          <t>০১/০৩/১৯৭৫</t>
         </is>
       </c>
       <c r="H299" s="5" t="inlineStr">
@@ -13264,84 +13268,84 @@
     <row r="306">
       <c r="A306" s="3" t="inlineStr">
         <is>
-          <t>১১১১</t>
+          <t>১১৮৭</t>
         </is>
       </c>
       <c r="B306" s="4" t="inlineStr">
         <is>
-          <t>মার্জান নুর ফিমা</t>
+          <t>সালেহা বেগম</t>
         </is>
       </c>
       <c r="C306" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৯৫৫</t>
+          <t>১৫২৪০০২০৯৯৮৪</t>
         </is>
       </c>
       <c r="D306" s="4" t="inlineStr">
         <is>
-          <t>আখতার হোসেন</t>
+          <t>মুত আবুল হোসেন</t>
         </is>
       </c>
       <c r="E306" s="4" t="inlineStr">
         <is>
-          <t>আমাতুন নুর</t>
+          <t>মুত জরিনা খাতুন</t>
         </is>
       </c>
       <c r="F306" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G306" s="3" t="inlineStr">
         <is>
-          <t>২২/০৪/২০০৬</t>
+          <t>০৫/০৮/১৯৬০</t>
         </is>
       </c>
       <c r="H306" s="5" t="inlineStr">
         <is>
-          <t>৩৫২, ওলির বাপের বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>ওলির বাপের বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="3" t="inlineStr">
         <is>
-          <t>১১৮৭</t>
+          <t>১১১১</t>
         </is>
       </c>
       <c r="B307" s="4" t="inlineStr">
         <is>
-          <t>সালেহা বেগম</t>
+          <t>মার্জান নুর ফিমা</t>
         </is>
       </c>
       <c r="C307" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২০৯৯৮৪</t>
+          <t>১৫২৪০০০০০৯৫৫</t>
         </is>
       </c>
       <c r="D307" s="4" t="inlineStr">
         <is>
-          <t>মুত আবুল হোসেন</t>
+          <t>আখতার হোসেন</t>
         </is>
       </c>
       <c r="E307" s="4" t="inlineStr">
         <is>
-          <t>মুত জরিনা খাতুন</t>
+          <t>আমাতুন নুর</t>
         </is>
       </c>
       <c r="F307" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G307" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৮/১৯৬০</t>
+          <t>২২/০৪/২০০৬</t>
         </is>
       </c>
       <c r="H307" s="5" t="inlineStr">
         <is>
-          <t>ওলির বাপের বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>৩৫২, ওলির বাপের বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -13558,17 +13562,17 @@
     <row r="313">
       <c r="A313" s="3" t="inlineStr">
         <is>
-          <t>০৪০৮</t>
+          <t>০৪০৭</t>
         </is>
       </c>
       <c r="B313" s="4" t="inlineStr">
         <is>
-          <t>আসিয়া বেগম</t>
+          <t>আছিয়া বেগম</t>
         </is>
       </c>
       <c r="C313" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২৯৫</t>
+          <t>১৫২৪০০০০৬২৯৩</t>
         </is>
       </c>
       <c r="D313" s="4" t="inlineStr">
@@ -13578,17 +13582,17 @@
       </c>
       <c r="E313" s="4" t="inlineStr">
         <is>
-          <t>এলাম খাতুন</t>
+          <t>এলম খাতুন</t>
         </is>
       </c>
       <c r="F313" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G313" s="3" t="inlineStr">
         <is>
-          <t>২৮/০৩/১৯৬৮</t>
+          <t>১০/০৫/১৯৬৭</t>
         </is>
       </c>
       <c r="H313" s="5" t="inlineStr">
@@ -13600,17 +13604,17 @@
     <row r="314">
       <c r="A314" s="3" t="inlineStr">
         <is>
-          <t>০৪০৭</t>
+          <t>০৪০৮</t>
         </is>
       </c>
       <c r="B314" s="4" t="inlineStr">
         <is>
-          <t>আছিয়া বেগম</t>
+          <t>আসিয়া বেগম</t>
         </is>
       </c>
       <c r="C314" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২৯৩</t>
+          <t>১৫২৪০০০০৬২৯৫</t>
         </is>
       </c>
       <c r="D314" s="4" t="inlineStr">
@@ -13620,17 +13624,17 @@
       </c>
       <c r="E314" s="4" t="inlineStr">
         <is>
-          <t>এলম খাতুন</t>
+          <t>এলাম খাতুন</t>
         </is>
       </c>
       <c r="F314" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G314" s="3" t="inlineStr">
         <is>
-          <t>১০/০৫/১৯৬৭</t>
+          <t>২৮/০৩/১৯৬৮</t>
         </is>
       </c>
       <c r="H314" s="5" t="inlineStr">
@@ -13642,27 +13646,27 @@
     <row r="315">
       <c r="A315" s="3" t="inlineStr">
         <is>
-          <t>০৪১০</t>
+          <t>০৪০৯</t>
         </is>
       </c>
       <c r="B315" s="4" t="inlineStr">
         <is>
-          <t>হাছিনা আক্তার</t>
+          <t>মাবিয়া খাতুন</t>
         </is>
       </c>
       <c r="C315" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২৯৭</t>
+          <t>১৫২৪০০০০৬২৯৬</t>
         </is>
       </c>
       <c r="D315" s="4" t="inlineStr">
         <is>
-          <t>মজুম আলম</t>
+          <t>আলী হোসেন</t>
         </is>
       </c>
       <c r="E315" s="4" t="inlineStr">
         <is>
-          <t>মসলেম খাতুন</t>
+          <t>মাহমুদা খাতুন</t>
         </is>
       </c>
       <c r="F315" s="3" t="inlineStr">
@@ -13672,7 +13676,7 @@
       </c>
       <c r="G315" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৫/১৯৭৩</t>
+          <t>০১/০২/১৯৬০</t>
         </is>
       </c>
       <c r="H315" s="5" t="inlineStr">
@@ -13684,27 +13688,27 @@
     <row r="316">
       <c r="A316" s="3" t="inlineStr">
         <is>
-          <t>০৪১১</t>
+          <t>০৪১০</t>
         </is>
       </c>
       <c r="B316" s="4" t="inlineStr">
         <is>
-          <t>লায়লা বেগম</t>
+          <t>হাছিনা আক্তার</t>
         </is>
       </c>
       <c r="C316" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৩০২</t>
+          <t>১৫২৪০০০০৬২৯৭</t>
         </is>
       </c>
       <c r="D316" s="4" t="inlineStr">
         <is>
-          <t>আমির হামজা</t>
+          <t>মজুম আলম</t>
         </is>
       </c>
       <c r="E316" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ জাবেদা খাতুন</t>
+          <t>মসলেম খাতুন</t>
         </is>
       </c>
       <c r="F316" s="3" t="inlineStr">
@@ -13714,7 +13718,7 @@
       </c>
       <c r="G316" s="3" t="inlineStr">
         <is>
-          <t>২১/০৩/১৯৬০</t>
+          <t>১৫/০৫/১৯৭৩</t>
         </is>
       </c>
       <c r="H316" s="5" t="inlineStr">
@@ -13726,27 +13730,27 @@
     <row r="317">
       <c r="A317" s="3" t="inlineStr">
         <is>
-          <t>০৪০৯</t>
+          <t>০৪১১</t>
         </is>
       </c>
       <c r="B317" s="4" t="inlineStr">
         <is>
-          <t>মাবিয়া খাতুন</t>
+          <t>লায়লা বেগম</t>
         </is>
       </c>
       <c r="C317" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২৯৬</t>
+          <t>১৫২৪০০০০৬৩০২</t>
         </is>
       </c>
       <c r="D317" s="4" t="inlineStr">
         <is>
-          <t>আলী হোসেন</t>
+          <t>আমির হামজা</t>
         </is>
       </c>
       <c r="E317" s="4" t="inlineStr">
         <is>
-          <t>মাহমুদা খাতুন</t>
+          <t>মোহাম্মদ জাবেদা খাতুন</t>
         </is>
       </c>
       <c r="F317" s="3" t="inlineStr">
@@ -13756,7 +13760,7 @@
       </c>
       <c r="G317" s="3" t="inlineStr">
         <is>
-          <t>০১/০২/১৯৬০</t>
+          <t>২১/০৩/১৯৬০</t>
         </is>
       </c>
       <c r="H317" s="5" t="inlineStr">
@@ -13810,27 +13814,27 @@
     <row r="319">
       <c r="A319" s="3" t="inlineStr">
         <is>
-          <t>০৩৫১</t>
+          <t>০৩৫০</t>
         </is>
       </c>
       <c r="B319" s="4" t="inlineStr">
         <is>
-          <t>রাবিয়া খাতুন</t>
+          <t>জান্নাতুল ফেরদৌস</t>
         </is>
       </c>
       <c r="C319" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২০৩</t>
+          <t>১৫২৪০০০০৬২০১</t>
         </is>
       </c>
       <c r="D319" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল হাকিম</t>
+          <t>নজির আহমেদ</t>
         </is>
       </c>
       <c r="E319" s="4" t="inlineStr">
         <is>
-          <t>আইর খাতুন</t>
+          <t>নুরুজ্জাহান</t>
         </is>
       </c>
       <c r="F319" s="3" t="inlineStr">
@@ -13840,7 +13844,7 @@
       </c>
       <c r="G319" s="3" t="inlineStr">
         <is>
-          <t>০২/১০/১৯৩৭</t>
+          <t>০৭/১০/১৯৮৫</t>
         </is>
       </c>
       <c r="H319" s="5" t="inlineStr">
@@ -13852,27 +13856,27 @@
     <row r="320">
       <c r="A320" s="3" t="inlineStr">
         <is>
-          <t>০৩৫২</t>
+          <t>০৩৫১</t>
         </is>
       </c>
       <c r="B320" s="4" t="inlineStr">
         <is>
-          <t>সামসুন নাহার</t>
+          <t>রাবিয়া খাতুন</t>
         </is>
       </c>
       <c r="C320" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২০৪</t>
+          <t>১৫২৪০০০০৬২০৩</t>
         </is>
       </c>
       <c r="D320" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল মোতালেব</t>
+          <t>আব্দুল হাকিম</t>
         </is>
       </c>
       <c r="E320" s="4" t="inlineStr">
         <is>
-          <t>মোহছেনা খাতুন</t>
+          <t>আইর খাতুন</t>
         </is>
       </c>
       <c r="F320" s="3" t="inlineStr">
@@ -13882,7 +13886,7 @@
       </c>
       <c r="G320" s="3" t="inlineStr">
         <is>
-          <t>১০/০৭/১৯৮১</t>
+          <t>০২/১০/১৯৩৭</t>
         </is>
       </c>
       <c r="H320" s="5" t="inlineStr">
@@ -13894,27 +13898,27 @@
     <row r="321">
       <c r="A321" s="3" t="inlineStr">
         <is>
-          <t>০৩৫৩</t>
+          <t>০৩৫২</t>
         </is>
       </c>
       <c r="B321" s="4" t="inlineStr">
         <is>
-          <t>রেহেনা আক্তার</t>
+          <t>সামসুন নাহার</t>
         </is>
       </c>
       <c r="C321" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২০৫</t>
+          <t>১৫২৪০০০০৬২০৪</t>
         </is>
       </c>
       <c r="D321" s="4" t="inlineStr">
         <is>
-          <t>শফিক আহমেদ</t>
+          <t>আব্দুল মোতালেব</t>
         </is>
       </c>
       <c r="E321" s="4" t="inlineStr">
         <is>
-          <t>সাজ্জ বেগম</t>
+          <t>মোহছেনা খাতুন</t>
         </is>
       </c>
       <c r="F321" s="3" t="inlineStr">
@@ -13924,7 +13928,7 @@
       </c>
       <c r="G321" s="3" t="inlineStr">
         <is>
-          <t>১৫/১০/১৯৭৯</t>
+          <t>১০/০৭/১৯৮১</t>
         </is>
       </c>
       <c r="H321" s="5" t="inlineStr">
@@ -13936,27 +13940,27 @@
     <row r="322">
       <c r="A322" s="3" t="inlineStr">
         <is>
-          <t>০৩৫৪</t>
+          <t>০৩৫৩</t>
         </is>
       </c>
       <c r="B322" s="4" t="inlineStr">
         <is>
-          <t>রোকেয়া বেগম</t>
+          <t>রেহেনা আক্তার</t>
         </is>
       </c>
       <c r="C322" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২০৬</t>
+          <t>১৫২৪০০০০৬২০৫</t>
         </is>
       </c>
       <c r="D322" s="4" t="inlineStr">
         <is>
-          <t>নজির আহমেদ</t>
+          <t>শফিক আহমেদ</t>
         </is>
       </c>
       <c r="E322" s="4" t="inlineStr">
         <is>
-          <t>রাবিয়া খাতুন</t>
+          <t>সাজ্জ বেগম</t>
         </is>
       </c>
       <c r="F322" s="3" t="inlineStr">
@@ -13966,7 +13970,7 @@
       </c>
       <c r="G322" s="3" t="inlineStr">
         <is>
-          <t>১০/১০/১৯৭৭</t>
+          <t>১৫/১০/১৯৭৯</t>
         </is>
       </c>
       <c r="H322" s="5" t="inlineStr">
@@ -13978,27 +13982,27 @@
     <row r="323">
       <c r="A323" s="3" t="inlineStr">
         <is>
-          <t>০৩৫৫</t>
+          <t>০৩৫৪</t>
         </is>
       </c>
       <c r="B323" s="4" t="inlineStr">
         <is>
-          <t>চেমন আরা</t>
+          <t>রোকেয়া বেগম</t>
         </is>
       </c>
       <c r="C323" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২০৭</t>
+          <t>১৫২৪০০০০৬২০৬</t>
         </is>
       </c>
       <c r="D323" s="4" t="inlineStr">
         <is>
-          <t>মোহলেম মিশ্রা</t>
+          <t>নজির আহমেদ</t>
         </is>
       </c>
       <c r="E323" s="4" t="inlineStr">
         <is>
-          <t>মজুরা খাতুন</t>
+          <t>রাবিয়া খাতুন</t>
         </is>
       </c>
       <c r="F323" s="3" t="inlineStr">
@@ -14008,7 +14012,7 @@
       </c>
       <c r="G323" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৩/১৯৭৯</t>
+          <t>১০/১০/১৯৭৭</t>
         </is>
       </c>
       <c r="H323" s="5" t="inlineStr">
@@ -14020,27 +14024,27 @@
     <row r="324">
       <c r="A324" s="3" t="inlineStr">
         <is>
-          <t>০৩৫৭</t>
+          <t>০৩৫৫</t>
         </is>
       </c>
       <c r="B324" s="4" t="inlineStr">
         <is>
-          <t>আয়েশা বেগম</t>
+          <t>চেমন আরা</t>
         </is>
       </c>
       <c r="C324" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২১১</t>
+          <t>১৫২৪০০০০৬২০৭</t>
         </is>
       </c>
       <c r="D324" s="4" t="inlineStr">
         <is>
-          <t>নুর আহমেদ</t>
+          <t>মোহলেম মিশ্রা</t>
         </is>
       </c>
       <c r="E324" s="4" t="inlineStr">
         <is>
-          <t>আলমাস খাতুন</t>
+          <t>মজুরা খাতুন</t>
         </is>
       </c>
       <c r="F324" s="3" t="inlineStr">
@@ -14050,7 +14054,7 @@
       </c>
       <c r="G324" s="3" t="inlineStr">
         <is>
-          <t>১০/০৭/১৯৬৫</t>
+          <t>০৩/০৩/১৯৭৯</t>
         </is>
       </c>
       <c r="H324" s="5" t="inlineStr">
@@ -14062,27 +14066,27 @@
     <row r="325">
       <c r="A325" s="3" t="inlineStr">
         <is>
-          <t>০৩৫০</t>
+          <t>০৩৫৭</t>
         </is>
       </c>
       <c r="B325" s="4" t="inlineStr">
         <is>
-          <t>জান্নাতুল ফেরদৌস</t>
+          <t>আয়েশা বেগম</t>
         </is>
       </c>
       <c r="C325" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২০১</t>
+          <t>১৫২৪০০০০৬২১১</t>
         </is>
       </c>
       <c r="D325" s="4" t="inlineStr">
         <is>
-          <t>নজির আহমেদ</t>
+          <t>নুর আহমেদ</t>
         </is>
       </c>
       <c r="E325" s="4" t="inlineStr">
         <is>
-          <t>নুরুজ্জাহান</t>
+          <t>আলমাস খাতুন</t>
         </is>
       </c>
       <c r="F325" s="3" t="inlineStr">
@@ -14092,7 +14096,7 @@
       </c>
       <c r="G325" s="3" t="inlineStr">
         <is>
-          <t>০৭/১০/১৯৮৫</t>
+          <t>১০/০৭/১৯৬৫</t>
         </is>
       </c>
       <c r="H325" s="5" t="inlineStr">
@@ -14146,27 +14150,27 @@
     <row r="327">
       <c r="A327" s="3" t="inlineStr">
         <is>
-          <t>০৩৬২</t>
+          <t>০৩৬০</t>
         </is>
       </c>
       <c r="B327" s="4" t="inlineStr">
         <is>
-          <t>পারভীন আকতার</t>
+          <t>জয়নাব বেগম</t>
         </is>
       </c>
       <c r="C327" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২১৬</t>
+          <t>১৫২৪০০০০৬২১৪</t>
         </is>
       </c>
       <c r="D327" s="4" t="inlineStr">
         <is>
-          <t>ওসমান গনি</t>
+          <t>হৈয়দ হোসেন</t>
         </is>
       </c>
       <c r="E327" s="4" t="inlineStr">
         <is>
-          <t>রহিমা খাতুন</t>
+          <t>ফুলদান</t>
         </is>
       </c>
       <c r="F327" s="3" t="inlineStr">
@@ -14176,7 +14180,7 @@
       </c>
       <c r="G327" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৬/১৯৮৮</t>
+          <t>১০/০৫/১৯৭৭</t>
         </is>
       </c>
       <c r="H327" s="5" t="inlineStr">
@@ -14188,27 +14192,27 @@
     <row r="328">
       <c r="A328" s="3" t="inlineStr">
         <is>
-          <t>০৩৬৩</t>
+          <t>০৩৬১</t>
         </is>
       </c>
       <c r="B328" s="4" t="inlineStr">
         <is>
-          <t>মোস্তাফা খাতুন</t>
+          <t>সেলিনা আকতার</t>
         </is>
       </c>
       <c r="C328" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২১৭</t>
+          <t>১৫২৪০০০০৬২১৫</t>
         </is>
       </c>
       <c r="D328" s="4" t="inlineStr">
         <is>
-          <t>কালু মিশ্রা</t>
+          <t>ওসমান গনি</t>
         </is>
       </c>
       <c r="E328" s="4" t="inlineStr">
         <is>
-          <t>লালু খাতুন</t>
+          <t>সাজেদা বেগম</t>
         </is>
       </c>
       <c r="F328" s="3" t="inlineStr">
@@ -14218,7 +14222,7 @@
       </c>
       <c r="G328" s="3" t="inlineStr">
         <is>
-          <t>১৭/০৭/১৯৮৮</t>
+          <t>০৮/০৮/১৯৮৮</t>
         </is>
       </c>
       <c r="H328" s="5" t="inlineStr">
@@ -14230,27 +14234,27 @@
     <row r="329">
       <c r="A329" s="3" t="inlineStr">
         <is>
-          <t>০৩৫৮</t>
+          <t>০৩৬২</t>
         </is>
       </c>
       <c r="B329" s="4" t="inlineStr">
         <is>
-          <t>রাজু আখতার</t>
+          <t>পারভীন আকতার</t>
         </is>
       </c>
       <c r="C329" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২১২</t>
+          <t>১৫২৪০০০০৬২১৬</t>
         </is>
       </c>
       <c r="D329" s="4" t="inlineStr">
         <is>
-          <t>নুরুল হক</t>
+          <t>ওসমান গনি</t>
         </is>
       </c>
       <c r="E329" s="4" t="inlineStr">
         <is>
-          <t>দিল্লয়ারা বেগম</t>
+          <t>রহিমা খাতুন</t>
         </is>
       </c>
       <c r="F329" s="3" t="inlineStr">
@@ -14260,7 +14264,7 @@
       </c>
       <c r="G329" s="3" t="inlineStr">
         <is>
-          <t>০৫/০১/১৯৮৯</t>
+          <t>১৫/০৬/১৯৮৮</t>
         </is>
       </c>
       <c r="H329" s="5" t="inlineStr">
@@ -14272,27 +14276,27 @@
     <row r="330">
       <c r="A330" s="3" t="inlineStr">
         <is>
-          <t>০৩৬৪</t>
+          <t>০৩৬৩</t>
         </is>
       </c>
       <c r="B330" s="4" t="inlineStr">
         <is>
-          <t>আরফা বেগম</t>
+          <t>মোস্তাফা খাতুন</t>
         </is>
       </c>
       <c r="C330" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২১৮</t>
+          <t>১৫২৪০০০০৬২১৭</t>
         </is>
       </c>
       <c r="D330" s="4" t="inlineStr">
         <is>
-          <t>সোলতান আহমেদ</t>
+          <t>কালু মিশ্রা</t>
         </is>
       </c>
       <c r="E330" s="4" t="inlineStr">
         <is>
-          <t>মোস্তাফা খাতুন</t>
+          <t>লালু খাতুন</t>
         </is>
       </c>
       <c r="F330" s="3" t="inlineStr">
@@ -14302,7 +14306,7 @@
       </c>
       <c r="G330" s="3" t="inlineStr">
         <is>
-          <t>০৮/০২/১৯৭৭</t>
+          <t>১৭/০৭/১৯৮৮</t>
         </is>
       </c>
       <c r="H330" s="5" t="inlineStr">
@@ -14314,27 +14318,27 @@
     <row r="331">
       <c r="A331" s="3" t="inlineStr">
         <is>
-          <t>০৩৫৯</t>
+          <t>০৩৬৪</t>
         </is>
       </c>
       <c r="B331" s="4" t="inlineStr">
         <is>
-          <t>নুক্ষাহার</t>
+          <t>আরফা বেগম</t>
         </is>
       </c>
       <c r="C331" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২১৩</t>
+          <t>১৫২৪০০০০৬২১৮</t>
         </is>
       </c>
       <c r="D331" s="4" t="inlineStr">
         <is>
-          <t>আবদুল হালার</t>
+          <t>সোলতান আহমেদ</t>
         </is>
       </c>
       <c r="E331" s="4" t="inlineStr">
         <is>
-          <t>মুস্তাফা বেগম</t>
+          <t>মোস্তাফা খাতুন</t>
         </is>
       </c>
       <c r="F331" s="3" t="inlineStr">
@@ -14344,7 +14348,7 @@
       </c>
       <c r="G331" s="3" t="inlineStr">
         <is>
-          <t>০১/০২/১৯৮৮</t>
+          <t>০৮/০২/১৯৭৭</t>
         </is>
       </c>
       <c r="H331" s="5" t="inlineStr">
@@ -14356,27 +14360,27 @@
     <row r="332">
       <c r="A332" s="3" t="inlineStr">
         <is>
-          <t>০৩৬৫</t>
+          <t>০৪২৮</t>
         </is>
       </c>
       <c r="B332" s="4" t="inlineStr">
         <is>
-          <t>আসমা খাতুন</t>
+          <t>মনোয়ারা</t>
         </is>
       </c>
       <c r="C332" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২২১</t>
+          <t>১৫২৪০০০০৬৩৪১</t>
         </is>
       </c>
       <c r="D332" s="4" t="inlineStr">
         <is>
-          <t>জলিল বখসু</t>
+          <t>আমিন শরীফ</t>
         </is>
       </c>
       <c r="E332" s="4" t="inlineStr">
         <is>
-          <t>নজমা খাতুন</t>
+          <t>ছকিনা খাতুন</t>
         </is>
       </c>
       <c r="F332" s="3" t="inlineStr">
@@ -14386,7 +14390,7 @@
       </c>
       <c r="G332" s="3" t="inlineStr">
         <is>
-          <t>০১/০৩/১৯৮৬</t>
+          <t>০১/০৭/১৯৭৭</t>
         </is>
       </c>
       <c r="H332" s="5" t="inlineStr">
@@ -14398,27 +14402,27 @@
     <row r="333">
       <c r="A333" s="3" t="inlineStr">
         <is>
-          <t>০৩৬১</t>
+          <t>০৩৬৫</t>
         </is>
       </c>
       <c r="B333" s="4" t="inlineStr">
         <is>
-          <t>সেলিনা আকতার</t>
+          <t>আসমা খাতুন</t>
         </is>
       </c>
       <c r="C333" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২১৫</t>
+          <t>১৫২৪০০০০৬২২১</t>
         </is>
       </c>
       <c r="D333" s="4" t="inlineStr">
         <is>
-          <t>ওসমান গনি</t>
+          <t>জলিল বখসু</t>
         </is>
       </c>
       <c r="E333" s="4" t="inlineStr">
         <is>
-          <t>সাজেদা বেগম</t>
+          <t>নজমা খাতুন</t>
         </is>
       </c>
       <c r="F333" s="3" t="inlineStr">
@@ -14428,7 +14432,7 @@
       </c>
       <c r="G333" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৮/১৯৮৮</t>
+          <t>০১/০৩/১৯৮৬</t>
         </is>
       </c>
       <c r="H333" s="5" t="inlineStr">
@@ -14482,27 +14486,27 @@
     <row r="335">
       <c r="A335" s="3" t="inlineStr">
         <is>
-          <t>০৩৬০</t>
+          <t>০৪১২</t>
         </is>
       </c>
       <c r="B335" s="4" t="inlineStr">
         <is>
-          <t>জয়নাব বেগম</t>
+          <t>মোছলেম খাতুন</t>
         </is>
       </c>
       <c r="C335" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২১৪</t>
+          <t>১৫২৪০০০০৬৩০৫</t>
         </is>
       </c>
       <c r="D335" s="4" t="inlineStr">
         <is>
-          <t>হৈয়দ হোসেন</t>
+          <t>সোরতান আহমদ</t>
         </is>
       </c>
       <c r="E335" s="4" t="inlineStr">
         <is>
-          <t>ফুলদান</t>
+          <t>মোস্তফা খাতুন</t>
         </is>
       </c>
       <c r="F335" s="3" t="inlineStr">
@@ -14512,7 +14516,7 @@
       </c>
       <c r="G335" s="3" t="inlineStr">
         <is>
-          <t>১০/০৫/১৯৭৭</t>
+          <t>০১/০৭/১৯৬৫</t>
         </is>
       </c>
       <c r="H335" s="5" t="inlineStr">
@@ -14524,27 +14528,27 @@
     <row r="336">
       <c r="A336" s="3" t="inlineStr">
         <is>
-          <t>০৪১২</t>
+          <t>০৩৫৯</t>
         </is>
       </c>
       <c r="B336" s="4" t="inlineStr">
         <is>
-          <t>মোছলেম খাতুন</t>
+          <t>নুক্ষাহার</t>
         </is>
       </c>
       <c r="C336" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৩০৫</t>
+          <t>১৫২৪০০০০৬২১৩</t>
         </is>
       </c>
       <c r="D336" s="4" t="inlineStr">
         <is>
-          <t>সোরতান আহমদ</t>
+          <t>আবদুল হালার</t>
         </is>
       </c>
       <c r="E336" s="4" t="inlineStr">
         <is>
-          <t>মোস্তফা খাতুন</t>
+          <t>মুস্তাফা বেগম</t>
         </is>
       </c>
       <c r="F336" s="3" t="inlineStr">
@@ -14554,7 +14558,7 @@
       </c>
       <c r="G336" s="3" t="inlineStr">
         <is>
-          <t>০১/০৭/১৯৬৫</t>
+          <t>০১/০২/১৯৮৮</t>
         </is>
       </c>
       <c r="H336" s="5" t="inlineStr">
@@ -14566,27 +14570,27 @@
     <row r="337">
       <c r="A337" s="3" t="inlineStr">
         <is>
-          <t>০৪২৮</t>
+          <t>০৩৫৮</t>
         </is>
       </c>
       <c r="B337" s="4" t="inlineStr">
         <is>
-          <t>মনোয়ারা</t>
+          <t>রাজু আখতার</t>
         </is>
       </c>
       <c r="C337" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৩৪১</t>
+          <t>১৫২৪০০০০৬২১২</t>
         </is>
       </c>
       <c r="D337" s="4" t="inlineStr">
         <is>
-          <t>আমিন শরীফ</t>
+          <t>নুরুল হক</t>
         </is>
       </c>
       <c r="E337" s="4" t="inlineStr">
         <is>
-          <t>ছকিনা খাতুন</t>
+          <t>দিল্লয়ারা বেগম</t>
         </is>
       </c>
       <c r="F337" s="3" t="inlineStr">
@@ -14596,7 +14600,7 @@
       </c>
       <c r="G337" s="3" t="inlineStr">
         <is>
-          <t>০১/০৭/১৯৭৭</t>
+          <t>০৫/০১/১৯৮৯</t>
         </is>
       </c>
       <c r="H337" s="5" t="inlineStr">
@@ -14860,37 +14864,37 @@
     <row r="344">
       <c r="A344" s="3" t="inlineStr">
         <is>
-          <t>১২১৩</t>
+          <t>১১৪৫</t>
         </is>
       </c>
       <c r="B344" s="4" t="inlineStr">
         <is>
-          <t>রুমি আক্তার</t>
+          <t>মোছামুৎ নাজমা বেগম</t>
         </is>
       </c>
       <c r="C344" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০০২০</t>
+          <t>১৫২৪০০২০৯৯১৩</t>
         </is>
       </c>
       <c r="D344" s="4" t="inlineStr">
         <is>
-          <t>আবুল কালাম</t>
+          <t>মোঃ নুরুল হক</t>
         </is>
       </c>
       <c r="E344" s="4" t="inlineStr">
         <is>
-          <t>মারিয়া খাতুন</t>
+          <t>আনুয়ার বেগম</t>
         </is>
       </c>
       <c r="F344" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G344" s="3" t="inlineStr">
         <is>
-          <t>০৫/০২/১৯৯৬</t>
+          <t>১০/০৫/১৯৯২</t>
         </is>
       </c>
       <c r="H344" s="5" t="inlineStr">
@@ -14944,27 +14948,27 @@
     <row r="346">
       <c r="A346" s="3" t="inlineStr">
         <is>
-          <t>১১৯৬</t>
+          <t>১১৭০</t>
         </is>
       </c>
       <c r="B346" s="4" t="inlineStr">
         <is>
-          <t>রাশেদা বেগম</t>
+          <t>শাহানাজ বেগম</t>
         </is>
       </c>
       <c r="C346" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২০৯৯৯৩</t>
+          <t>১৫২৪০০২০৯৯৫৪</t>
         </is>
       </c>
       <c r="D346" s="4" t="inlineStr">
         <is>
-          <t>জমির উদ্দীন</t>
+          <t>আব্দুল গফুর</t>
         </is>
       </c>
       <c r="E346" s="4" t="inlineStr">
         <is>
-          <t>জন্নাত আরা</t>
+          <t>রেন আরা বেগম</t>
         </is>
       </c>
       <c r="F346" s="3" t="inlineStr">
@@ -14974,7 +14978,7 @@
       </c>
       <c r="G346" s="3" t="inlineStr">
         <is>
-          <t>২০/০৮/১৯৯৮</t>
+          <t>২৮/০৮/১৯৯৭</t>
         </is>
       </c>
       <c r="H346" s="5" t="inlineStr">
@@ -14986,37 +14990,37 @@
     <row r="347">
       <c r="A347" s="3" t="inlineStr">
         <is>
-          <t>১২৬৭</t>
+          <t>০৬৩৬</t>
         </is>
       </c>
       <c r="B347" s="4" t="inlineStr">
         <is>
-          <t>হামিদা আক্তার</t>
+          <t>জয়নাব বেগম</t>
         </is>
       </c>
       <c r="C347" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০১৬২</t>
+          <t>১৫২৪০০০০৬৮৭৪</t>
         </is>
       </c>
       <c r="D347" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আব্দুল মান্নান</t>
+          <t>গোলাম আকবর</t>
         </is>
       </c>
       <c r="E347" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>মোবারক খাতুন</t>
         </is>
       </c>
       <c r="F347" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G347" s="3" t="inlineStr">
         <is>
-          <t>১০/১২/২০০০</t>
+          <t>১৮/০৮/১৯৮৪</t>
         </is>
       </c>
       <c r="H347" s="5" t="inlineStr">
@@ -15028,37 +15032,37 @@
     <row r="348">
       <c r="A348" s="3" t="inlineStr">
         <is>
-          <t>১২৭১</t>
+          <t>১০৩১</t>
         </is>
       </c>
       <c r="B348" s="4" t="inlineStr">
         <is>
-          <t>রাবিয়া বেগম</t>
+          <t>জ্মা আক্তার</t>
         </is>
       </c>
       <c r="C348" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০১৭০</t>
+          <t>১৫২৪০০০০০৭৫৭</t>
         </is>
       </c>
       <c r="D348" s="4" t="inlineStr">
         <is>
-          <t>নুরুল আলম</t>
+          <t>রিদুয়ানুল হক</t>
         </is>
       </c>
       <c r="E348" s="4" t="inlineStr">
         <is>
-          <t>রেহেনা বেগম</t>
+          <t>আছিয়া বেগম</t>
         </is>
       </c>
       <c r="F348" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G348" s="3" t="inlineStr">
         <is>
-          <t>১০/০৭/১৯৯৭</t>
+          <t>১১/১২/১৯৯৯</t>
         </is>
       </c>
       <c r="H348" s="5" t="inlineStr">
@@ -15070,27 +15074,27 @@
     <row r="349">
       <c r="A349" s="3" t="inlineStr">
         <is>
-          <t>১২৮১</t>
+          <t>১১৯৩</t>
         </is>
       </c>
       <c r="B349" s="4" t="inlineStr">
         <is>
-          <t>রাজিয়া সোলতানা</t>
+          <t>হামিদা বেগম</t>
         </is>
       </c>
       <c r="C349" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০১৯৩</t>
+          <t>১৫২৪০০২০৯৯৯০</t>
         </is>
       </c>
       <c r="D349" s="4" t="inlineStr">
         <is>
-          <t>মোঃ শমসুল আলম</t>
+          <t>মুত শফিকুর রহমান</t>
         </is>
       </c>
       <c r="E349" s="4" t="inlineStr">
         <is>
-          <t>রাশেদা বেগম</t>
+          <t>মিন আক্তার</t>
         </is>
       </c>
       <c r="F349" s="3" t="inlineStr">
@@ -15100,7 +15104,7 @@
       </c>
       <c r="G349" s="3" t="inlineStr">
         <is>
-          <t>২৫/১২/১৯৯৮</t>
+          <t>২৪/০৮/১৯৯৬</t>
         </is>
       </c>
       <c r="H349" s="5" t="inlineStr">
@@ -15112,27 +15116,27 @@
     <row r="350">
       <c r="A350" s="3" t="inlineStr">
         <is>
-          <t>১১৯৩</t>
+          <t>১১৯৬</t>
         </is>
       </c>
       <c r="B350" s="4" t="inlineStr">
         <is>
-          <t>হামিদা বেগম</t>
+          <t>রাশেদা বেগম</t>
         </is>
       </c>
       <c r="C350" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২০৯৯৯০</t>
+          <t>১৫২৪০০২০৯৯৯৩</t>
         </is>
       </c>
       <c r="D350" s="4" t="inlineStr">
         <is>
-          <t>মুত শফিকুর রহমান</t>
+          <t>জমির উদ্দীন</t>
         </is>
       </c>
       <c r="E350" s="4" t="inlineStr">
         <is>
-          <t>মিন আক্তার</t>
+          <t>জন্নাত আরা</t>
         </is>
       </c>
       <c r="F350" s="3" t="inlineStr">
@@ -15142,7 +15146,7 @@
       </c>
       <c r="G350" s="3" t="inlineStr">
         <is>
-          <t>২৪/০৮/১৯৯৬</t>
+          <t>২০/০৮/১৯৯৮</t>
         </is>
       </c>
       <c r="H350" s="5" t="inlineStr">
@@ -15154,37 +15158,37 @@
     <row r="351">
       <c r="A351" s="3" t="inlineStr">
         <is>
-          <t>১২৮৩</t>
+          <t>১২১৩</t>
         </is>
       </c>
       <c r="B351" s="4" t="inlineStr">
         <is>
-          <t>আইরিন সোলতানা</t>
+          <t>রুমি আক্তার</t>
         </is>
       </c>
       <c r="C351" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০১৯৬</t>
+          <t>১৫২৪০০২১০০২০</t>
         </is>
       </c>
       <c r="D351" s="4" t="inlineStr">
         <is>
-          <t>কামাল হোসেন</t>
+          <t>আবুল কালাম</t>
         </is>
       </c>
       <c r="E351" s="4" t="inlineStr">
         <is>
-          <t>রোজিনা আক্তার</t>
+          <t>মারিয়া খাতুন</t>
         </is>
       </c>
       <c r="F351" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G351" s="3" t="inlineStr">
         <is>
-          <t>০৫/০১/২০০৬</t>
+          <t>০৫/০২/১৯৯৬</t>
         </is>
       </c>
       <c r="H351" s="5" t="inlineStr">
@@ -15196,79 +15200,79 @@
     <row r="352">
       <c r="A352" s="3" t="inlineStr">
         <is>
-          <t>১১৬৫</t>
+          <t>১২৫০</t>
         </is>
       </c>
       <c r="B352" s="4" t="inlineStr">
         <is>
-          <t>শারমিন আক্তার</t>
+          <t>কাছরিন সোলতানা</t>
         </is>
       </c>
       <c r="C352" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২০৯৯৪৫</t>
+          <t>১৫২৪০০২১০১১৩</t>
         </is>
       </c>
       <c r="D352" s="4" t="inlineStr">
         <is>
-          <t>নুরুল আমিন</t>
+          <t>কামাল হোসেন</t>
         </is>
       </c>
       <c r="E352" s="4" t="inlineStr">
         <is>
-          <t>হোসেন আরা বেগম</t>
+          <t>রোজিনা আক্তার</t>
         </is>
       </c>
       <c r="F352" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G352" s="3" t="inlineStr">
         <is>
-          <t>২১/১১/১৯৯২</t>
+          <t>১২/০৫/২০০৪</t>
         </is>
       </c>
       <c r="H352" s="5" t="inlineStr">
         <is>
-          <t>খন্দকার পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>৪৬৯, খন্দকার পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="3" t="inlineStr">
         <is>
-          <t>১২৯৭</t>
+          <t>০৯৯৪</t>
         </is>
       </c>
       <c r="B353" s="4" t="inlineStr">
         <is>
-          <t>জামাতুল মাওয়া</t>
+          <t>জুলেখা বেগম</t>
         </is>
       </c>
       <c r="C353" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০২১৭</t>
+          <t>১৫২৪০০০০০৬৬৭</t>
         </is>
       </c>
       <c r="D353" s="4" t="inlineStr">
         <is>
-          <t>মোঃ নজরুল ইসলাম</t>
+          <t>আব্দুল কাসেম</t>
         </is>
       </c>
       <c r="E353" s="4" t="inlineStr">
         <is>
-          <t>কোহিনুর আক্তার</t>
+          <t>রেহেনা বেগম</t>
         </is>
       </c>
       <c r="F353" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G353" s="3" t="inlineStr">
         <is>
-          <t>১৯/১২/২০০২</t>
+          <t>২৩/০১/১৯৯৭</t>
         </is>
       </c>
       <c r="H353" s="5" t="inlineStr">
@@ -15280,27 +15284,27 @@
     <row r="354">
       <c r="A354" s="3" t="inlineStr">
         <is>
-          <t>১২৯৮</t>
+          <t>১২৬৭</t>
         </is>
       </c>
       <c r="B354" s="4" t="inlineStr">
         <is>
-          <t>রহিমা আক্তার মুক্তা</t>
+          <t>হামিদা আক্তার</t>
         </is>
       </c>
       <c r="C354" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০২১৯</t>
+          <t>১৫২৪০০২১০১৬২</t>
         </is>
       </c>
       <c r="D354" s="4" t="inlineStr">
         <is>
-          <t>মোঃ ইসমাইল</t>
+          <t>মোঃ আব্দুল মান্নান</t>
         </is>
       </c>
       <c r="E354" s="4" t="inlineStr">
         <is>
-          <t>মোছামুৎ খালেদা বেগম</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F354" s="3" t="inlineStr">
@@ -15310,7 +15314,7 @@
       </c>
       <c r="G354" s="3" t="inlineStr">
         <is>
-          <t>০৭/১২/২০০৫</t>
+          <t>১০/১২/২০০০</t>
         </is>
       </c>
       <c r="H354" s="5" t="inlineStr">
@@ -15322,37 +15326,37 @@
     <row r="355">
       <c r="A355" s="3" t="inlineStr">
         <is>
-          <t>০৬৩৬</t>
+          <t>১২৭১</t>
         </is>
       </c>
       <c r="B355" s="4" t="inlineStr">
         <is>
-          <t>জয়নাব বেগম</t>
+          <t>রাবিয়া বেগম</t>
         </is>
       </c>
       <c r="C355" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৮৭৪</t>
+          <t>১৫২৪০০২১০১৭০</t>
         </is>
       </c>
       <c r="D355" s="4" t="inlineStr">
         <is>
-          <t>গোলাম আকবর</t>
+          <t>নুরুল আলম</t>
         </is>
       </c>
       <c r="E355" s="4" t="inlineStr">
         <is>
-          <t>মোবারক খাতুন</t>
+          <t>রেহেনা বেগম</t>
         </is>
       </c>
       <c r="F355" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G355" s="3" t="inlineStr">
         <is>
-          <t>১৮/০৮/১৯৮৪</t>
+          <t>১০/০৭/১৯৯৭</t>
         </is>
       </c>
       <c r="H355" s="5" t="inlineStr">
@@ -15364,79 +15368,79 @@
     <row r="356">
       <c r="A356" s="3" t="inlineStr">
         <is>
-          <t>১২৫০</t>
+          <t>১২৮১</t>
         </is>
       </c>
       <c r="B356" s="4" t="inlineStr">
         <is>
-          <t>কাছরিন সোলতানা</t>
+          <t>রাজিয়া সোলতানা</t>
         </is>
       </c>
       <c r="C356" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০১১৩</t>
+          <t>১৫২৪০০২১০১৯৩</t>
         </is>
       </c>
       <c r="D356" s="4" t="inlineStr">
         <is>
-          <t>কামাল হোসেন</t>
+          <t>মোঃ শমসুল আলম</t>
         </is>
       </c>
       <c r="E356" s="4" t="inlineStr">
         <is>
-          <t>রোজিনা আক্তার</t>
+          <t>রাশেদা বেগম</t>
         </is>
       </c>
       <c r="F356" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G356" s="3" t="inlineStr">
         <is>
-          <t>১২/০৫/২০০৪</t>
+          <t>২৫/১২/১৯৯৮</t>
         </is>
       </c>
       <c r="H356" s="5" t="inlineStr">
         <is>
-          <t>৪৬৯, খন্দকার পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>খন্দকার পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="3" t="inlineStr">
         <is>
-          <t>১১৭০</t>
+          <t>১২৮৩</t>
         </is>
       </c>
       <c r="B357" s="4" t="inlineStr">
         <is>
-          <t>শাহানাজ বেগম</t>
+          <t>আইরিন সোলতানা</t>
         </is>
       </c>
       <c r="C357" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২০৯৯৫৪</t>
+          <t>১৫২৪০০২১০১৯৬</t>
         </is>
       </c>
       <c r="D357" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল গফুর</t>
+          <t>কামাল হোসেন</t>
         </is>
       </c>
       <c r="E357" s="4" t="inlineStr">
         <is>
-          <t>রেন আরা বেগম</t>
+          <t>রোজিনা আক্তার</t>
         </is>
       </c>
       <c r="F357" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G357" s="3" t="inlineStr">
         <is>
-          <t>২৮/০৮/১৯৯৭</t>
+          <t>০৫/০১/২০০৬</t>
         </is>
       </c>
       <c r="H357" s="5" t="inlineStr">
@@ -15448,27 +15452,27 @@
     <row r="358">
       <c r="A358" s="3" t="inlineStr">
         <is>
-          <t>১১২৮</t>
+          <t>১২৯৭</t>
         </is>
       </c>
       <c r="B358" s="4" t="inlineStr">
         <is>
-          <t>রেহেনা আক্তার</t>
+          <t>জামাতুল মাওয়া</t>
         </is>
       </c>
       <c r="C358" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২০৯৮৯১</t>
+          <t>১৫২৪০০২১০২১৭</t>
         </is>
       </c>
       <c r="D358" s="4" t="inlineStr">
         <is>
-          <t>মুত আবদুল মালেক</t>
+          <t>মোঃ নজরুল ইসলাম</t>
         </is>
       </c>
       <c r="E358" s="4" t="inlineStr">
         <is>
-          <t>কুফিয়া খাতুন</t>
+          <t>কোহিনুর আক্তার</t>
         </is>
       </c>
       <c r="F358" s="3" t="inlineStr">
@@ -15478,7 +15482,7 @@
       </c>
       <c r="G358" s="3" t="inlineStr">
         <is>
-          <t>১১/০২/১৯৯২</t>
+          <t>১৯/১২/২০০২</t>
         </is>
       </c>
       <c r="H358" s="5" t="inlineStr">
@@ -15490,37 +15494,37 @@
     <row r="359">
       <c r="A359" s="3" t="inlineStr">
         <is>
-          <t>১১৪৫</t>
+          <t>১২৯৮</t>
         </is>
       </c>
       <c r="B359" s="4" t="inlineStr">
         <is>
-          <t>মোছামুৎ নাজমা বেগম</t>
+          <t>রহিমা আক্তার মুক্তা</t>
         </is>
       </c>
       <c r="C359" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২০৯৯১৩</t>
+          <t>১৫২৪০০২১০২১৯</t>
         </is>
       </c>
       <c r="D359" s="4" t="inlineStr">
         <is>
-          <t>মোঃ নুরুল হক</t>
+          <t>মোঃ ইসমাইল</t>
         </is>
       </c>
       <c r="E359" s="4" t="inlineStr">
         <is>
-          <t>আনুয়ার বেগম</t>
+          <t>মোছামুৎ খালেদা বেগম</t>
         </is>
       </c>
       <c r="F359" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G359" s="3" t="inlineStr">
         <is>
-          <t>১০/০৫/১৯৯২</t>
+          <t>০৭/১২/২০০৫</t>
         </is>
       </c>
       <c r="H359" s="5" t="inlineStr">
@@ -15532,37 +15536,37 @@
     <row r="360">
       <c r="A360" s="3" t="inlineStr">
         <is>
-          <t>০৯৯৪</t>
+          <t>১১৬৫</t>
         </is>
       </c>
       <c r="B360" s="4" t="inlineStr">
         <is>
-          <t>জুলেখা বেগম</t>
+          <t>শারমিন আক্তার</t>
         </is>
       </c>
       <c r="C360" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৬৬৭</t>
+          <t>১৫২৪০০২০৯৯৪৫</t>
         </is>
       </c>
       <c r="D360" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল কাসেম</t>
+          <t>নুরুল আমিন</t>
         </is>
       </c>
       <c r="E360" s="4" t="inlineStr">
         <is>
-          <t>রেহেনা বেগম</t>
+          <t>হোসেন আরা বেগম</t>
         </is>
       </c>
       <c r="F360" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G360" s="3" t="inlineStr">
         <is>
-          <t>২৩/০১/১৯৯৭</t>
+          <t>২১/১১/১৯৯২</t>
         </is>
       </c>
       <c r="H360" s="5" t="inlineStr">
@@ -15574,27 +15578,27 @@
     <row r="361">
       <c r="A361" s="3" t="inlineStr">
         <is>
-          <t>১০৩১</t>
+          <t>১০৫৪</t>
         </is>
       </c>
       <c r="B361" s="4" t="inlineStr">
         <is>
-          <t>জ্মা আক্তার</t>
+          <t>নাসরিন আকতার দিনা</t>
         </is>
       </c>
       <c r="C361" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৭৫৭</t>
+          <t>১৫২৪০০০০০৮২২</t>
         </is>
       </c>
       <c r="D361" s="4" t="inlineStr">
         <is>
-          <t>রিদুয়ানুল হক</t>
+          <t>মনজুরুল ইসলাম</t>
         </is>
       </c>
       <c r="E361" s="4" t="inlineStr">
         <is>
-          <t>আছিয়া বেগম</t>
+          <t>শাকেরা বেগম</t>
         </is>
       </c>
       <c r="F361" s="3" t="inlineStr">
@@ -15604,54 +15608,54 @@
       </c>
       <c r="G361" s="3" t="inlineStr">
         <is>
-          <t>১১/১২/১৯৯৯</t>
+          <t>১৮/০৫/১৯৯৬</t>
         </is>
       </c>
       <c r="H361" s="5" t="inlineStr">
         <is>
-          <t>খন্দকার পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>৪৭৫, খন্দকার পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="3" t="inlineStr">
         <is>
-          <t>১০৫৪</t>
+          <t>১১২৮</t>
         </is>
       </c>
       <c r="B362" s="4" t="inlineStr">
         <is>
-          <t>নাসরিন আকতার দিনা</t>
+          <t>রেহেনা আক্তার</t>
         </is>
       </c>
       <c r="C362" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৮২২</t>
+          <t>১৫২৪০০২০৯৮৯১</t>
         </is>
       </c>
       <c r="D362" s="4" t="inlineStr">
         <is>
-          <t>মনজুরুল ইসলাম</t>
+          <t>মুত আবদুল মালেক</t>
         </is>
       </c>
       <c r="E362" s="4" t="inlineStr">
         <is>
-          <t>শাকেরা বেগম</t>
+          <t>কুফিয়া খাতুন</t>
         </is>
       </c>
       <c r="F362" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G362" s="3" t="inlineStr">
         <is>
-          <t>১৮/০৫/১৯৯৬</t>
+          <t>১১/০২/১৯৯২</t>
         </is>
       </c>
       <c r="H362" s="5" t="inlineStr">
         <is>
-          <t>৪৭৫, খন্দকার পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>খন্দকার পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -15700,27 +15704,27 @@
     <row r="364">
       <c r="A364" s="3" t="inlineStr">
         <is>
-          <t>১০৬৫</t>
+          <t>১০৯১</t>
         </is>
       </c>
       <c r="B364" s="4" t="inlineStr">
         <is>
-          <t>আনিকা তাহসিন</t>
+          <t>তামিমা সোলতানা</t>
         </is>
       </c>
       <c r="C364" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৮৪০</t>
+          <t>১৫২৪০০০০০৮৮৯</t>
         </is>
       </c>
       <c r="D364" s="4" t="inlineStr">
         <is>
-          <t>মোঃ সাইফুল্লিন</t>
+          <t>আজিজুল হক</t>
         </is>
       </c>
       <c r="E364" s="4" t="inlineStr">
         <is>
-          <t>কানিজ ফাতেমা</t>
+          <t>শওকত আরা</t>
         </is>
       </c>
       <c r="F364" s="3" t="inlineStr">
@@ -15730,7 +15734,7 @@
       </c>
       <c r="G364" s="3" t="inlineStr">
         <is>
-          <t>০১/০৮/২০০১</t>
+          <t>২০/০১/২০০৪</t>
         </is>
       </c>
       <c r="H364" s="5" t="inlineStr">
@@ -15742,27 +15746,27 @@
     <row r="365">
       <c r="A365" s="3" t="inlineStr">
         <is>
-          <t>১০৯১</t>
+          <t>১০৬৫</t>
         </is>
       </c>
       <c r="B365" s="4" t="inlineStr">
         <is>
-          <t>তামিমা সোলতানা</t>
+          <t>আনিকা তাহসিন</t>
         </is>
       </c>
       <c r="C365" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৮৮৯</t>
+          <t>১৫২৪০০০০০৮৪০</t>
         </is>
       </c>
       <c r="D365" s="4" t="inlineStr">
         <is>
-          <t>আজিজুল হক</t>
+          <t>মোঃ সাইফুল্লিন</t>
         </is>
       </c>
       <c r="E365" s="4" t="inlineStr">
         <is>
-          <t>শওকত আরা</t>
+          <t>কানিজ ফাতেমা</t>
         </is>
       </c>
       <c r="F365" s="3" t="inlineStr">
@@ -15772,7 +15776,7 @@
       </c>
       <c r="G365" s="3" t="inlineStr">
         <is>
-          <t>২০/০১/২০০৪</t>
+          <t>০১/০৮/২০০১</t>
         </is>
       </c>
       <c r="H365" s="5" t="inlineStr">
@@ -15868,37 +15872,37 @@
     <row r="368">
       <c r="A368" s="3" t="inlineStr">
         <is>
-          <t>১১৮৫</t>
+          <t>১০০৪</t>
         </is>
       </c>
       <c r="B368" s="4" t="inlineStr">
         <is>
-          <t>কামুকুন নাহার মৌ</t>
+          <t>শারমিন আক্তার</t>
         </is>
       </c>
       <c r="C368" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২০৯৯৮২</t>
+          <t>১৫২৪০০০০০৬৯৪</t>
         </is>
       </c>
       <c r="D368" s="4" t="inlineStr">
         <is>
-          <t>মৃত মোঃ কামাল উদ্দিন</t>
+          <t>মৃত আশরাফ মিয়া</t>
         </is>
       </c>
       <c r="E368" s="4" t="inlineStr">
         <is>
-          <t>কবিনা আক্তার রানী</t>
+          <t>আছমা বেগম</t>
         </is>
       </c>
       <c r="F368" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G368" s="3" t="inlineStr">
         <is>
-          <t>০৫/১০/২০০১</t>
+          <t>১০/০৮/১৯৯৪</t>
         </is>
       </c>
       <c r="H368" s="5" t="inlineStr">
@@ -15910,37 +15914,37 @@
     <row r="369">
       <c r="A369" s="3" t="inlineStr">
         <is>
-          <t>১০০৪</t>
+          <t>১১৮৫</t>
         </is>
       </c>
       <c r="B369" s="4" t="inlineStr">
         <is>
-          <t>শারমিন আক্তার</t>
+          <t>কামুকুন নাহার মৌ</t>
         </is>
       </c>
       <c r="C369" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৬৯৪</t>
+          <t>১৫২৪০০২০৯৯৮২</t>
         </is>
       </c>
       <c r="D369" s="4" t="inlineStr">
         <is>
-          <t>মৃত আশরাফ মিয়া</t>
+          <t>মৃত মোঃ কামাল উদ্দিন</t>
         </is>
       </c>
       <c r="E369" s="4" t="inlineStr">
         <is>
-          <t>আছমা বেগম</t>
+          <t>কবিনা আক্তার রানী</t>
         </is>
       </c>
       <c r="F369" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G369" s="3" t="inlineStr">
         <is>
-          <t>১০/০৮/১৯৯৪</t>
+          <t>০৫/১০/২০০১</t>
         </is>
       </c>
       <c r="H369" s="5" t="inlineStr">
@@ -16162,37 +16166,37 @@
     <row r="375">
       <c r="A375" s="3" t="inlineStr">
         <is>
-          <t>০৪৭৮</t>
+          <t>০৪৭৭</t>
         </is>
       </c>
       <c r="B375" s="4" t="inlineStr">
         <is>
-          <t>রেহেনা আক্তার</t>
+          <t>মাইমুনা বেগম</t>
         </is>
       </c>
       <c r="C375" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৫২২</t>
+          <t>১৫২৪০০০০৬৫২১</t>
         </is>
       </c>
       <c r="D375" s="4" t="inlineStr">
         <is>
-          <t>মোজাফফর আহমেদ</t>
+          <t>ছিদিক আহমেদ</t>
         </is>
       </c>
       <c r="E375" s="4" t="inlineStr">
         <is>
-          <t>মাইমুনা বেগম</t>
+          <t>খুইল্লা বিবি</t>
         </is>
       </c>
       <c r="F375" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G375" s="3" t="inlineStr">
         <is>
-          <t>১২/০১/১৯৮৯</t>
+          <t>১৯/১১/১৯৬৬</t>
         </is>
       </c>
       <c r="H375" s="5" t="inlineStr">
@@ -16204,37 +16208,37 @@
     <row r="376">
       <c r="A376" s="3" t="inlineStr">
         <is>
-          <t>১০৭৭</t>
+          <t>০৪৭৮</t>
         </is>
       </c>
       <c r="B376" s="4" t="inlineStr">
         <is>
-          <t>উম্মে সালমা শিফা</t>
+          <t>রেহেনা আক্তার</t>
         </is>
       </c>
       <c r="C376" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৮৬২</t>
+          <t>১৫২৪০০০০৬৫২২</t>
         </is>
       </c>
       <c r="D376" s="4" t="inlineStr">
         <is>
-          <t>জাফর আহমেদ</t>
+          <t>মোজাফফর আহমেদ</t>
         </is>
       </c>
       <c r="E376" s="4" t="inlineStr">
         <is>
-          <t>নুরুন নাহার চৌধুরী</t>
+          <t>মাইমুনা বেগম</t>
         </is>
       </c>
       <c r="F376" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G376" s="3" t="inlineStr">
         <is>
-          <t>০৯/১১/১৯৯৬</t>
+          <t>১২/০১/১৯৮৯</t>
         </is>
       </c>
       <c r="H376" s="5" t="inlineStr">
@@ -16246,37 +16250,37 @@
     <row r="377">
       <c r="A377" s="3" t="inlineStr">
         <is>
-          <t>০৪৭৭</t>
+          <t>০৮১৭</t>
         </is>
       </c>
       <c r="B377" s="4" t="inlineStr">
         <is>
-          <t>মাইমুনা বেগম</t>
+          <t>জন্নাতুল ফেরদৌস</t>
         </is>
       </c>
       <c r="C377" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৫২১</t>
+          <t>১৫২৪০০০০০১৮৭</t>
         </is>
       </c>
       <c r="D377" s="4" t="inlineStr">
         <is>
-          <t>ছিদিক আহমেদ</t>
+          <t>আবদুল ছাত্র</t>
         </is>
       </c>
       <c r="E377" s="4" t="inlineStr">
         <is>
-          <t>খুইল্লা বিবি</t>
+          <t>ফাতেমা বেগম</t>
         </is>
       </c>
       <c r="F377" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G377" s="3" t="inlineStr">
         <is>
-          <t>১৯/১১/১৯৬৬</t>
+          <t>১৭/০২/১৯৯২</t>
         </is>
       </c>
       <c r="H377" s="5" t="inlineStr">
@@ -16288,27 +16292,27 @@
     <row r="378">
       <c r="A378" s="3" t="inlineStr">
         <is>
-          <t>০৮১৭</t>
+          <t>১০৭৭</t>
         </is>
       </c>
       <c r="B378" s="4" t="inlineStr">
         <is>
-          <t>জন্নাতুল ফেরদৌস</t>
+          <t>উম্মে সালমা শিফা</t>
         </is>
       </c>
       <c r="C378" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০১৮৭</t>
+          <t>১৫২৪০০০০০৮৬২</t>
         </is>
       </c>
       <c r="D378" s="4" t="inlineStr">
         <is>
-          <t>আবদুল ছাত্র</t>
+          <t>জাফর আহমেদ</t>
         </is>
       </c>
       <c r="E378" s="4" t="inlineStr">
         <is>
-          <t>ফাতেমা বেগম</t>
+          <t>নুরুন নাহার চৌধুরী</t>
         </is>
       </c>
       <c r="F378" s="3" t="inlineStr">
@@ -16318,7 +16322,7 @@
       </c>
       <c r="G378" s="3" t="inlineStr">
         <is>
-          <t>১৭/০২/১৯৯২</t>
+          <t>০৯/১১/১৯৯৬</t>
         </is>
       </c>
       <c r="H378" s="5" t="inlineStr">
@@ -16414,37 +16418,37 @@
     <row r="381">
       <c r="A381" s="3" t="inlineStr">
         <is>
-          <t>০৬০৩</t>
+          <t>০৫৪৮</t>
         </is>
       </c>
       <c r="B381" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মৎ শামীম আরা খানম</t>
+          <t>খাইরুন নিছা</t>
         </is>
       </c>
       <c r="C381" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৭৬৭</t>
+          <t>১৫২৪০০০০৬৬৫৫</t>
         </is>
       </c>
       <c r="D381" s="4" t="inlineStr">
         <is>
-          <t>ছগীর আহমদ খান</t>
+          <t>ফরিদ আহমদ</t>
         </is>
       </c>
       <c r="E381" s="4" t="inlineStr">
         <is>
-          <t>জমাত আরা খান</t>
+          <t>আলমাস খাতুন</t>
         </is>
       </c>
       <c r="F381" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G381" s="3" t="inlineStr">
         <is>
-          <t>১৭/০৮/১৯৭৯</t>
+          <t>০৭/০৩/১৯৭০</t>
         </is>
       </c>
       <c r="H381" s="5" t="inlineStr">
@@ -16456,69 +16460,69 @@
     <row r="382">
       <c r="A382" s="3" t="inlineStr">
         <is>
-          <t>১২৭৪</t>
+          <t>১১৭২</t>
         </is>
       </c>
       <c r="B382" s="4" t="inlineStr">
         <is>
-          <t>ইসরাত সায়মা</t>
+          <t>ইসরাত জাহান</t>
         </is>
       </c>
       <c r="C382" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০১৭৬</t>
+          <t>১৫২৪০০২০৯৯৫৭</t>
         </is>
       </c>
       <c r="D382" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইউনুহ</t>
+          <t>আব্দুল মোমেন</t>
         </is>
       </c>
       <c r="E382" s="4" t="inlineStr">
         <is>
-          <t>সাইদা আক্তার</t>
+          <t>খালেদা বেগম</t>
         </is>
       </c>
       <c r="F382" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>গৃহকর্মী</t>
         </is>
       </c>
       <c r="G382" s="3" t="inlineStr">
         <is>
-          <t>২০/০২/২০০৬</t>
+          <t>০৮/০১/১৯৯৮</t>
         </is>
       </c>
       <c r="H382" s="5" t="inlineStr">
         <is>
-          <t>গণি চৌকিদারের বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>৩৫১, গণি চৌকিদারের বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="3" t="inlineStr">
         <is>
-          <t>০৫৪৮</t>
+          <t>০৫৪৪</t>
         </is>
       </c>
       <c r="B383" s="4" t="inlineStr">
         <is>
-          <t>খাইরুন নিছা</t>
+          <t>চেমন আরা বেগম</t>
         </is>
       </c>
       <c r="C383" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৬৫৫</t>
+          <t>১৫২৪০০০০৬৬৫০</t>
         </is>
       </c>
       <c r="D383" s="4" t="inlineStr">
         <is>
-          <t>ফরিদ আহমদ</t>
+          <t>মোঃ খুল্লা মিয়া</t>
         </is>
       </c>
       <c r="E383" s="4" t="inlineStr">
         <is>
-          <t>আলমাস খাতুন</t>
+          <t>মোবারক খাতুন</t>
         </is>
       </c>
       <c r="F383" s="3" t="inlineStr">
@@ -16528,7 +16532,7 @@
       </c>
       <c r="G383" s="3" t="inlineStr">
         <is>
-          <t>০৭/০৩/১৯৭০</t>
+          <t>০৩/০২/১৯৫১</t>
         </is>
       </c>
       <c r="H383" s="5" t="inlineStr">
@@ -16540,37 +16544,37 @@
     <row r="384">
       <c r="A384" s="3" t="inlineStr">
         <is>
-          <t>০৫৪৭</t>
+          <t>০৬০৩</t>
         </is>
       </c>
       <c r="B384" s="4" t="inlineStr">
         <is>
-          <t>হাছিনা বেগম</t>
+          <t>মুহাম্মৎ শামীম আরা খানম</t>
         </is>
       </c>
       <c r="C384" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৬৫৪</t>
+          <t>১৫২৪০০০০৬৭৬৭</t>
         </is>
       </c>
       <c r="D384" s="4" t="inlineStr">
         <is>
-          <t>আবদুর রশিদ</t>
+          <t>ছগীর আহমদ খান</t>
         </is>
       </c>
       <c r="E384" s="4" t="inlineStr">
         <is>
-          <t>আছুমা খাতুন</t>
+          <t>জমাত আরা খান</t>
         </is>
       </c>
       <c r="F384" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G384" s="3" t="inlineStr">
         <is>
-          <t>০৭/০২/১৯৭০</t>
+          <t>১৭/০৮/১৯৭৯</t>
         </is>
       </c>
       <c r="H384" s="5" t="inlineStr">
@@ -16582,27 +16586,27 @@
     <row r="385">
       <c r="A385" s="3" t="inlineStr">
         <is>
-          <t>০৫৪৬</t>
+          <t>০৫৪৫</t>
         </is>
       </c>
       <c r="B385" s="4" t="inlineStr">
         <is>
-          <t>মোছাং চেনু আরা বেগম</t>
+          <t>ইছমত আরা বেগম</t>
         </is>
       </c>
       <c r="C385" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৬৫৩</t>
+          <t>১৫২৪০০০০৬৬৫১</t>
         </is>
       </c>
       <c r="D385" s="4" t="inlineStr">
         <is>
-          <t>আবদুস ছত্তার</t>
+          <t>মোহাম্মদ আলী</t>
         </is>
       </c>
       <c r="E385" s="4" t="inlineStr">
         <is>
-          <t>ফাতেমা বেগম</t>
+          <t>রেজিয়া বেগম</t>
         </is>
       </c>
       <c r="F385" s="3" t="inlineStr">
@@ -16612,7 +16616,7 @@
       </c>
       <c r="G385" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৬/১৯৮৫</t>
+          <t>২৭/০৩/১৯৮৮</t>
         </is>
       </c>
       <c r="H385" s="5" t="inlineStr">
@@ -16624,27 +16628,27 @@
     <row r="386">
       <c r="A386" s="3" t="inlineStr">
         <is>
-          <t>০৫৪৫</t>
+          <t>০৫৪৬</t>
         </is>
       </c>
       <c r="B386" s="4" t="inlineStr">
         <is>
-          <t>ইছমত আরা বেগম</t>
+          <t>মোছাং চেনু আরা বেগম</t>
         </is>
       </c>
       <c r="C386" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৬৫১</t>
+          <t>১৫২৪০০০০৬৬৫৩</t>
         </is>
       </c>
       <c r="D386" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আলী</t>
+          <t>আবদুস ছত্তার</t>
         </is>
       </c>
       <c r="E386" s="4" t="inlineStr">
         <is>
-          <t>রেজিয়া বেগম</t>
+          <t>ফাতেমা বেগম</t>
         </is>
       </c>
       <c r="F386" s="3" t="inlineStr">
@@ -16654,7 +16658,7 @@
       </c>
       <c r="G386" s="3" t="inlineStr">
         <is>
-          <t>২৭/০৩/১৯৮৮</t>
+          <t>০৮/০৬/১৯৮৫</t>
         </is>
       </c>
       <c r="H386" s="5" t="inlineStr">
@@ -16666,27 +16670,27 @@
     <row r="387">
       <c r="A387" s="3" t="inlineStr">
         <is>
-          <t>০৫৪৪</t>
+          <t>১২৭৪</t>
         </is>
       </c>
       <c r="B387" s="4" t="inlineStr">
         <is>
-          <t>চেমন আরা বেগম</t>
+          <t>ইসরাত সায়মা</t>
         </is>
       </c>
       <c r="C387" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৬৫০</t>
+          <t>১৫২৪০০২১০১৭৬</t>
         </is>
       </c>
       <c r="D387" s="4" t="inlineStr">
         <is>
-          <t>মোঃ খুল্লা মিয়া</t>
+          <t>মোহাম্মদ ইউনুহ</t>
         </is>
       </c>
       <c r="E387" s="4" t="inlineStr">
         <is>
-          <t>মোবারক খাতুন</t>
+          <t>সাইদা আক্তার</t>
         </is>
       </c>
       <c r="F387" s="3" t="inlineStr">
@@ -16696,7 +16700,7 @@
       </c>
       <c r="G387" s="3" t="inlineStr">
         <is>
-          <t>০৩/০২/১৯৫১</t>
+          <t>২০/০২/২০০৬</t>
         </is>
       </c>
       <c r="H387" s="5" t="inlineStr">
@@ -16708,42 +16712,42 @@
     <row r="388">
       <c r="A388" s="3" t="inlineStr">
         <is>
-          <t>১১৭২</t>
+          <t>০৫৪৭</t>
         </is>
       </c>
       <c r="B388" s="4" t="inlineStr">
         <is>
-          <t>ইসরাত জাহান</t>
+          <t>হাছিনা বেগম</t>
         </is>
       </c>
       <c r="C388" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২০৯৯৫৭</t>
+          <t>১৫২৪০০০০৬৬৫৪</t>
         </is>
       </c>
       <c r="D388" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল মোমেন</t>
+          <t>আবদুর রশিদ</t>
         </is>
       </c>
       <c r="E388" s="4" t="inlineStr">
         <is>
-          <t>খালেদা বেগম</t>
+          <t>আছুমা খাতুন</t>
         </is>
       </c>
       <c r="F388" s="3" t="inlineStr">
         <is>
-          <t>গৃহকর্মী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G388" s="3" t="inlineStr">
         <is>
-          <t>০৮/০১/১৯৯৮</t>
+          <t>০৭/০২/১৯৭০</t>
         </is>
       </c>
       <c r="H388" s="5" t="inlineStr">
         <is>
-          <t>৩৫১, গণি চৌকিদারের বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>গণি চৌকিদারের বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -16792,27 +16796,27 @@
     <row r="390">
       <c r="A390" s="3" t="inlineStr">
         <is>
-          <t>০৫২০</t>
+          <t>০৫২৩</t>
         </is>
       </c>
       <c r="B390" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ জয়নাব বেগম</t>
+          <t>খালেদা বেগম</t>
         </is>
       </c>
       <c r="C390" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৩০৬</t>
+          <t>১৫২৪০০০০৬৩১০</t>
         </is>
       </c>
       <c r="D390" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল ছগর</t>
+          <t>সিরাজুল ইসলাম</t>
         </is>
       </c>
       <c r="E390" s="4" t="inlineStr">
         <is>
-          <t>ফাতেমা বেগম</t>
+          <t>হাবিয়া খাতুন</t>
         </is>
       </c>
       <c r="F390" s="3" t="inlineStr">
@@ -16822,7 +16826,7 @@
       </c>
       <c r="G390" s="3" t="inlineStr">
         <is>
-          <t>১৯/০৬/১৯৭৬</t>
+          <t>০২/০৫/১৯৫৮</t>
         </is>
       </c>
       <c r="H390" s="5" t="inlineStr">
@@ -16834,27 +16838,27 @@
     <row r="391">
       <c r="A391" s="3" t="inlineStr">
         <is>
-          <t>০৫২৩</t>
+          <t>০৫২২</t>
         </is>
       </c>
       <c r="B391" s="4" t="inlineStr">
         <is>
-          <t>খালেদা বেগম</t>
+          <t>নাছিমা আকতার</t>
         </is>
       </c>
       <c r="C391" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৩১০</t>
+          <t>১৫২৪০০০০৬৩০৮</t>
         </is>
       </c>
       <c r="D391" s="4" t="inlineStr">
         <is>
-          <t>সিরাজুল ইসলাম</t>
+          <t>সোনা মিয়া</t>
         </is>
       </c>
       <c r="E391" s="4" t="inlineStr">
         <is>
-          <t>হাবিয়া খাতুন</t>
+          <t>মাবিয়া খাতুন</t>
         </is>
       </c>
       <c r="F391" s="3" t="inlineStr">
@@ -16864,7 +16868,7 @@
       </c>
       <c r="G391" s="3" t="inlineStr">
         <is>
-          <t>০২/০৫/১৯৫৮</t>
+          <t>১৭/০৭/১৯৭২</t>
         </is>
       </c>
       <c r="H391" s="5" t="inlineStr">
@@ -16876,27 +16880,27 @@
     <row r="392">
       <c r="A392" s="3" t="inlineStr">
         <is>
-          <t>০৫২২</t>
+          <t>০৫২১</t>
         </is>
       </c>
       <c r="B392" s="4" t="inlineStr">
         <is>
-          <t>নাছিমা আকতার</t>
+          <t>মোস্তাফা খাতুন</t>
         </is>
       </c>
       <c r="C392" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৩০৮</t>
+          <t>১৫২৪০০০০৬৩০৭</t>
         </is>
       </c>
       <c r="D392" s="4" t="inlineStr">
         <is>
-          <t>সোনা মিয়া</t>
+          <t>ইচ্ছুপ আলী</t>
         </is>
       </c>
       <c r="E392" s="4" t="inlineStr">
         <is>
-          <t>মাবিয়া খাতুন</t>
+          <t>আলমাহ খাতুন</t>
         </is>
       </c>
       <c r="F392" s="3" t="inlineStr">
@@ -16906,7 +16910,7 @@
       </c>
       <c r="G392" s="3" t="inlineStr">
         <is>
-          <t>১৭/০৭/১৯৭২</t>
+          <t>০৩/০১/১৯৪৫</t>
         </is>
       </c>
       <c r="H392" s="5" t="inlineStr">
@@ -16918,27 +16922,27 @@
     <row r="393">
       <c r="A393" s="3" t="inlineStr">
         <is>
-          <t>০৫২১</t>
+          <t>০৫২০</t>
         </is>
       </c>
       <c r="B393" s="4" t="inlineStr">
         <is>
-          <t>মোস্তাফা খাতুন</t>
+          <t>মোহাম্মদ জয়নাব বেগম</t>
         </is>
       </c>
       <c r="C393" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৩০৭</t>
+          <t>১৫২৪০০০০৬৩০৬</t>
         </is>
       </c>
       <c r="D393" s="4" t="inlineStr">
         <is>
-          <t>ইচ্ছুপ আলী</t>
+          <t>আব্দুল ছগর</t>
         </is>
       </c>
       <c r="E393" s="4" t="inlineStr">
         <is>
-          <t>আলমাহ খাতুন</t>
+          <t>ফাতেমা বেগম</t>
         </is>
       </c>
       <c r="F393" s="3" t="inlineStr">
@@ -16948,7 +16952,7 @@
       </c>
       <c r="G393" s="3" t="inlineStr">
         <is>
-          <t>০৩/০১/১৯৪৫</t>
+          <t>১৯/০৬/১৯৭৬</t>
         </is>
       </c>
       <c r="H393" s="5" t="inlineStr">
@@ -17128,27 +17132,27 @@
     <row r="398">
       <c r="A398" s="3" t="inlineStr">
         <is>
-          <t>০৬০২</t>
+          <t>০৪৭৯</t>
         </is>
       </c>
       <c r="B398" s="4" t="inlineStr">
         <is>
-          <t>জমাত আরা খান</t>
+          <t>রোজিনা আকতার</t>
         </is>
       </c>
       <c r="C398" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৭৬৬</t>
+          <t>১৫২৪০০০০৬৫২৩</t>
         </is>
       </c>
       <c r="D398" s="4" t="inlineStr">
         <is>
-          <t>হাকিমুল হক চৌঃ</t>
+          <t>আহমেদুর রহমান</t>
         </is>
       </c>
       <c r="E398" s="4" t="inlineStr">
         <is>
-          <t>দিলরুবা বেগম</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F398" s="3" t="inlineStr">
@@ -17158,7 +17162,7 @@
       </c>
       <c r="G398" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৭/১৯৫৯</t>
+          <t>২৯/১০/১৯৮১</t>
         </is>
       </c>
       <c r="H398" s="5" t="inlineStr">
@@ -17170,37 +17174,37 @@
     <row r="399">
       <c r="A399" s="3" t="inlineStr">
         <is>
-          <t>০৮৪৬</t>
+          <t>০৬০২</t>
         </is>
       </c>
       <c r="B399" s="4" t="inlineStr">
         <is>
-          <t>শরমিন আক্তার</t>
+          <t>জমাত আরা খান</t>
         </is>
       </c>
       <c r="C399" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৩১১</t>
+          <t>১৫২৪০০০০৬৭৬৬</t>
         </is>
       </c>
       <c r="D399" s="4" t="inlineStr">
         <is>
-          <t>নুকুল আমীন</t>
+          <t>হাকিমুল হক চৌঃ</t>
         </is>
       </c>
       <c r="E399" s="4" t="inlineStr">
         <is>
-          <t>শাহিন আক্তার</t>
+          <t>দিলরুবা বেগম</t>
         </is>
       </c>
       <c r="F399" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G399" s="3" t="inlineStr">
         <is>
-          <t>১৫/১০/১৯৯৪</t>
+          <t>০৫/০৭/১৯৫৯</t>
         </is>
       </c>
       <c r="H399" s="5" t="inlineStr">
@@ -17254,37 +17258,37 @@
     <row r="401">
       <c r="A401" s="3" t="inlineStr">
         <is>
-          <t>০৪৭৯</t>
+          <t>০৮৪৬</t>
         </is>
       </c>
       <c r="B401" s="4" t="inlineStr">
         <is>
-          <t>রোজিনা আকতার</t>
+          <t>শরমিন আক্তার</t>
         </is>
       </c>
       <c r="C401" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৫২৩</t>
+          <t>১৫২৪০০০০০৩১১</t>
         </is>
       </c>
       <c r="D401" s="4" t="inlineStr">
         <is>
-          <t>আহমেদুর রহমান</t>
+          <t>নুকুল আমীন</t>
         </is>
       </c>
       <c r="E401" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>শাহিন আক্তার</t>
         </is>
       </c>
       <c r="F401" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G401" s="3" t="inlineStr">
         <is>
-          <t>২৯/১০/১৯৮১</t>
+          <t>১৫/১০/১৯৯৪</t>
         </is>
       </c>
       <c r="H401" s="5" t="inlineStr">
@@ -17296,37 +17300,37 @@
     <row r="402">
       <c r="A402" s="3" t="inlineStr">
         <is>
-          <t>১১৬৪</t>
+          <t>০৪৭৬</t>
         </is>
       </c>
       <c r="B402" s="4" t="inlineStr">
         <is>
-          <t>জেমি আক্তার</t>
+          <t>মোস্তফা খাতুন</t>
         </is>
       </c>
       <c r="C402" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২০৯৯৪৪</t>
+          <t>১৫২৪০০০০৬৫২০</t>
         </is>
       </c>
       <c r="D402" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ জামাল উদ্দীন</t>
+          <t>সৈয়দ আহমেদ</t>
         </is>
       </c>
       <c r="E402" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ জয়নাব বেগম</t>
+          <t>এলম খাতুন</t>
         </is>
       </c>
       <c r="F402" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G402" s="3" t="inlineStr">
         <is>
-          <t>০১/১২/২০০১</t>
+          <t>২৮/০৯/১৯৬২</t>
         </is>
       </c>
       <c r="H402" s="5" t="inlineStr">
@@ -17338,27 +17342,27 @@
     <row r="403">
       <c r="A403" s="3" t="inlineStr">
         <is>
-          <t>০৪৭৬</t>
+          <t>০৪৭৫</t>
         </is>
       </c>
       <c r="B403" s="4" t="inlineStr">
         <is>
-          <t>মোস্তফা খাতুন</t>
+          <t>নাহিমা আকতার</t>
         </is>
       </c>
       <c r="C403" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৫২০</t>
+          <t>১৫২৪০০০০৬৫১৫</t>
         </is>
       </c>
       <c r="D403" s="4" t="inlineStr">
         <is>
-          <t>সৈয়দ আহমেদ</t>
+          <t>আফজলুর রহমান</t>
         </is>
       </c>
       <c r="E403" s="4" t="inlineStr">
         <is>
-          <t>এলম খাতুন</t>
+          <t>শফীনীর বেগম</t>
         </is>
       </c>
       <c r="F403" s="3" t="inlineStr">
@@ -17368,7 +17372,7 @@
       </c>
       <c r="G403" s="3" t="inlineStr">
         <is>
-          <t>২৮/০৯/১৯৬২</t>
+          <t>২৮/০৫/১৯৭৬</t>
         </is>
       </c>
       <c r="H403" s="5" t="inlineStr">
@@ -17380,37 +17384,37 @@
     <row r="404">
       <c r="A404" s="3" t="inlineStr">
         <is>
-          <t>০৪৮০</t>
+          <t>১১৬৪</t>
         </is>
       </c>
       <c r="B404" s="4" t="inlineStr">
         <is>
-          <t>ছফুরা বেগম</t>
+          <t>জেমি আক্তার</t>
         </is>
       </c>
       <c r="C404" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৫২৪</t>
+          <t>১৫২৪০০২০৯৯৪৪</t>
         </is>
       </c>
       <c r="D404" s="4" t="inlineStr">
         <is>
-          <t>সৈয়দ নুর</t>
+          <t>মোহাম্মদ জামাল উদ্দীন</t>
         </is>
       </c>
       <c r="E404" s="4" t="inlineStr">
         <is>
-          <t>রশিদা খাতুন</t>
+          <t>মোহাম্মদ জয়নাব বেগম</t>
         </is>
       </c>
       <c r="F404" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G404" s="3" t="inlineStr">
         <is>
-          <t>২৭/১২/১৯৭৬</t>
+          <t>০১/১২/২০০১</t>
         </is>
       </c>
       <c r="H404" s="5" t="inlineStr">
@@ -17422,27 +17426,27 @@
     <row r="405">
       <c r="A405" s="3" t="inlineStr">
         <is>
-          <t>০৪৭৫</t>
+          <t>০৪৮০</t>
         </is>
       </c>
       <c r="B405" s="4" t="inlineStr">
         <is>
-          <t>নাহিমা আকতার</t>
+          <t>ছফুরা বেগম</t>
         </is>
       </c>
       <c r="C405" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৫১৫</t>
+          <t>১৫২৪০০০০৬৫২৪</t>
         </is>
       </c>
       <c r="D405" s="4" t="inlineStr">
         <is>
-          <t>আফজলুর রহমান</t>
+          <t>সৈয়দ নুর</t>
         </is>
       </c>
       <c r="E405" s="4" t="inlineStr">
         <is>
-          <t>শফীনীর বেগম</t>
+          <t>রশিদা খাতুন</t>
         </is>
       </c>
       <c r="F405" s="3" t="inlineStr">
@@ -17452,7 +17456,7 @@
       </c>
       <c r="G405" s="3" t="inlineStr">
         <is>
-          <t>২৮/০৫/১৯৭৬</t>
+          <t>২৭/১২/১৯৭৬</t>
         </is>
       </c>
       <c r="H405" s="5" t="inlineStr">
@@ -17716,37 +17720,37 @@
     <row r="412">
       <c r="A412" s="3" t="inlineStr">
         <is>
-          <t>১০০১</t>
+          <t>০৯৬৩</t>
         </is>
       </c>
       <c r="B412" s="4" t="inlineStr">
         <is>
-          <t>জোবাইদা আক্তার</t>
+          <t>জান্নাতুন নাসিম ছুমা</t>
         </is>
       </c>
       <c r="C412" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৬৯০</t>
+          <t>১৫২৪০০০০০৬১৩</t>
         </is>
       </c>
       <c r="D412" s="4" t="inlineStr">
         <is>
-          <t>মোঃ জুনাইদ</t>
+          <t>মোহাম্মদ আখতার হোসেন</t>
         </is>
       </c>
       <c r="E412" s="4" t="inlineStr">
         <is>
-          <t>রান আকতার</t>
+          <t>আমাতুন নুর</t>
         </is>
       </c>
       <c r="F412" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G412" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৬/১৯৯৫</t>
+          <t>০৬/১০/১৯৯৮</t>
         </is>
       </c>
       <c r="H412" s="5" t="inlineStr">
@@ -17758,37 +17762,37 @@
     <row r="413">
       <c r="A413" s="3" t="inlineStr">
         <is>
-          <t>০৯৬৩</t>
+          <t>১০০১</t>
         </is>
       </c>
       <c r="B413" s="4" t="inlineStr">
         <is>
-          <t>জান্নাতুন নাসিম ছুমা</t>
+          <t>জোবাইদা আক্তার</t>
         </is>
       </c>
       <c r="C413" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৬১৩</t>
+          <t>১৫২৪০০০০০৬৯০</t>
         </is>
       </c>
       <c r="D413" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আখতার হোসেন</t>
+          <t>মোঃ জুনাইদ</t>
         </is>
       </c>
       <c r="E413" s="4" t="inlineStr">
         <is>
-          <t>আমাতুন নুর</t>
+          <t>রান আকতার</t>
         </is>
       </c>
       <c r="F413" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G413" s="3" t="inlineStr">
         <is>
-          <t>০৬/১০/১৯৯৮</t>
+          <t>০৫/০৬/১৯৯৫</t>
         </is>
       </c>
       <c r="H413" s="5" t="inlineStr">
@@ -17884,27 +17888,27 @@
     <row r="416">
       <c r="A416" s="3" t="inlineStr">
         <is>
-          <t>০৯৫০</t>
+          <t>১১৮৪</t>
         </is>
       </c>
       <c r="B416" s="4" t="inlineStr">
         <is>
-          <t>শাহিদা আক্তার বেবী</t>
+          <t>নাছুমুন নাহার</t>
         </is>
       </c>
       <c r="C416" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৫৭১</t>
+          <t>১৫২৪০০২০৯৯৮১</t>
         </is>
       </c>
       <c r="D416" s="4" t="inlineStr">
         <is>
-          <t>সিরাজুল ইসলাম</t>
+          <t>মুস্তাফিজুর রহমান</t>
         </is>
       </c>
       <c r="E416" s="4" t="inlineStr">
         <is>
-          <t>মেহেরুজ খাতুন</t>
+          <t>জুলেখা বেগম</t>
         </is>
       </c>
       <c r="F416" s="3" t="inlineStr">
@@ -17914,7 +17918,7 @@
       </c>
       <c r="G416" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৯৫</t>
+          <t>০৮/০৩/১৯৯৮</t>
         </is>
       </c>
       <c r="H416" s="5" t="inlineStr">
@@ -17926,27 +17930,27 @@
     <row r="417">
       <c r="A417" s="3" t="inlineStr">
         <is>
-          <t>০৯৫৬</t>
+          <t>০৯৫০</t>
         </is>
       </c>
       <c r="B417" s="4" t="inlineStr">
         <is>
-          <t>মিনু আক্তার</t>
+          <t>শাহিদা আক্তার বেবী</t>
         </is>
       </c>
       <c r="C417" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৫৮৩</t>
+          <t>১৫২৪০০০০০৫৭১</t>
         </is>
       </c>
       <c r="D417" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মোমেন</t>
+          <t>সিরাজুল ইসলাম</t>
         </is>
       </c>
       <c r="E417" s="4" t="inlineStr">
         <is>
-          <t>পাখি আক্তার</t>
+          <t>মেহেরুজ খাতুন</t>
         </is>
       </c>
       <c r="F417" s="3" t="inlineStr">
@@ -17956,7 +17960,7 @@
       </c>
       <c r="G417" s="3" t="inlineStr">
         <is>
-          <t>১০/০৬/১৯৯৩</t>
+          <t>০১/০১/১৯৯৫</t>
         </is>
       </c>
       <c r="H417" s="5" t="inlineStr">
@@ -18010,27 +18014,27 @@
     <row r="419">
       <c r="A419" s="3" t="inlineStr">
         <is>
-          <t>১১৮৪</t>
+          <t>০৯৫৬</t>
         </is>
       </c>
       <c r="B419" s="4" t="inlineStr">
         <is>
-          <t>নাছুমুন নাহার</t>
+          <t>মিনু আক্তার</t>
         </is>
       </c>
       <c r="C419" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২০৯৯৮১</t>
+          <t>১৫২৪০০০০০৫৮৩</t>
         </is>
       </c>
       <c r="D419" s="4" t="inlineStr">
         <is>
-          <t>মুস্তাফিজুর রহমান</t>
+          <t>আবদুল মোমেন</t>
         </is>
       </c>
       <c r="E419" s="4" t="inlineStr">
         <is>
-          <t>জুলেখা বেগম</t>
+          <t>পাখি আক্তার</t>
         </is>
       </c>
       <c r="F419" s="3" t="inlineStr">
@@ -18040,7 +18044,7 @@
       </c>
       <c r="G419" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৩/১৯৯৮</t>
+          <t>১০/০৬/১৯৯৩</t>
         </is>
       </c>
       <c r="H419" s="5" t="inlineStr">
@@ -18141,7 +18145,7 @@
       </c>
       <c r="B422" s="4" t="inlineStr">
         <is>
-          <t>সানোয়ারা খানম</t>
+          <t>সানোয়ারা খানম</t>
         </is>
       </c>
       <c r="C422" s="3" t="inlineStr">
@@ -18151,23 +18155,27 @@
       </c>
       <c r="D422" s="4" t="inlineStr">
         <is>
-          <t>ছগীর আহমেদ খান</t>
+          <t>ছগীর আহমদ খান</t>
         </is>
       </c>
       <c r="E422" s="4" t="inlineStr">
         <is>
-          <t>জমাত আরা খান</t>
+          <t>জন্নাত আরা খান</t>
         </is>
       </c>
       <c r="F422" s="3" t="inlineStr">
         <is>
-          <t>ছগীর মাষ্টারের বাড়ী</t>
-        </is>
-      </c>
-      <c r="G422" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G422" s="3" t="inlineStr">
+        <is>
+          <t>২৬/০১/১৯৯৫</t>
+        </is>
+      </c>
       <c r="H422" s="5" t="inlineStr">
         <is>
-          <t>ছগীর মাষ্টারের বাড়ী, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>ছগীর মাস্টারের বাড়ী, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -18189,50 +18197,54 @@
       </c>
       <c r="D423" s="4" t="inlineStr">
         <is>
-          <t>ছগীর আহমেদ খান</t>
+          <t>ছগীর আহমদ খান</t>
         </is>
       </c>
       <c r="E423" s="4" t="inlineStr">
         <is>
-          <t>জমাত আরা খান</t>
+          <t>জন্নাত আরা খান</t>
         </is>
       </c>
       <c r="F423" s="3" t="inlineStr">
         <is>
-          <t>ছগীর মাষ্টারের বাড়ী</t>
-        </is>
-      </c>
-      <c r="G423" s="3" t="inlineStr"/>
+          <t>ছাত্র/ছাত্রী</t>
+        </is>
+      </c>
+      <c r="G423" s="3" t="inlineStr">
+        <is>
+          <t>০১/০৯/১৯৯২</t>
+        </is>
+      </c>
       <c r="H423" s="5" t="inlineStr">
         <is>
-          <t>ছগীর মাষ্টারের বাড়ী, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>ছগীর মাস্টারের বাড়ী, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="3" t="inlineStr">
         <is>
-          <t>১২৯৪</t>
+          <t>১২৯৫</t>
         </is>
       </c>
       <c r="B424" s="4" t="inlineStr">
         <is>
-          <t>ফারহানা নাহরিন</t>
+          <t>জামাতুল ফেরদৌস</t>
         </is>
       </c>
       <c r="C424" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০২১৩</t>
+          <t>১৫২৪০০২১০২১৪</t>
         </is>
       </c>
       <c r="D424" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মম্নাম</t>
+          <t>আলী হোসেন</t>
         </is>
       </c>
       <c r="E424" s="4" t="inlineStr">
         <is>
-          <t>রোকেয়া বেগম</t>
+          <t>নুরজাহান বেগম</t>
         </is>
       </c>
       <c r="F424" s="3" t="inlineStr">
@@ -18242,7 +18254,7 @@
       </c>
       <c r="G424" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৫/১৯৯৯</t>
+          <t>২৫/০৭/১৯৯৮</t>
         </is>
       </c>
       <c r="H424" s="5" t="inlineStr">
@@ -18254,27 +18266,27 @@
     <row r="425">
       <c r="A425" s="3" t="inlineStr">
         <is>
-          <t>১৩০২</t>
+          <t>১২৯৪</t>
         </is>
       </c>
       <c r="B425" s="4" t="inlineStr">
         <is>
-          <t>মাইমুনা সোলতানা কলি</t>
+          <t>ফারহানা নাহরিন</t>
         </is>
       </c>
       <c r="C425" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০২২৫</t>
+          <t>১৫২৪০০২১০২১৩</t>
         </is>
       </c>
       <c r="D425" s="4" t="inlineStr">
         <is>
-          <t>আবদুল গুক্কুর</t>
+          <t>আবদুল মম্নাম</t>
         </is>
       </c>
       <c r="E425" s="4" t="inlineStr">
         <is>
-          <t>রেহেনা আক্তার</t>
+          <t>রোকেয়া বেগম</t>
         </is>
       </c>
       <c r="F425" s="3" t="inlineStr">
@@ -18284,7 +18296,7 @@
       </c>
       <c r="G425" s="3" t="inlineStr">
         <is>
-          <t>০২/০১/২০০০</t>
+          <t>০৮/০৫/১৯৯৯</t>
         </is>
       </c>
       <c r="H425" s="5" t="inlineStr">
@@ -18296,37 +18308,37 @@
     <row r="426">
       <c r="A426" s="3" t="inlineStr">
         <is>
-          <t>১০৪৩</t>
+          <t>১৩০২</t>
         </is>
       </c>
       <c r="B426" s="4" t="inlineStr">
         <is>
-          <t>মেহেরু মিছা</t>
+          <t>মাইমুনা সোলতানা কলি</t>
         </is>
       </c>
       <c r="C426" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৮০০</t>
+          <t>১৫২৪০০২১০২২৫</t>
         </is>
       </c>
       <c r="D426" s="4" t="inlineStr">
         <is>
-          <t>তৈয়ুব আলী</t>
+          <t>আবদুল গুক্কুর</t>
         </is>
       </c>
       <c r="E426" s="4" t="inlineStr">
         <is>
-          <t>শাহিদা আক্তার</t>
+          <t>রেহেনা আক্তার</t>
         </is>
       </c>
       <c r="F426" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G426" s="3" t="inlineStr">
         <is>
-          <t>১৮/০২/২০০১</t>
+          <t>০২/০১/২০০০</t>
         </is>
       </c>
       <c r="H426" s="5" t="inlineStr">
@@ -18338,27 +18350,27 @@
     <row r="427">
       <c r="A427" s="3" t="inlineStr">
         <is>
-          <t>১০৫০</t>
+          <t>১০৫৫</t>
         </is>
       </c>
       <c r="B427" s="4" t="inlineStr">
         <is>
-          <t>নারগিছ আক্তার</t>
+          <t>শামসুন নাহার</t>
         </is>
       </c>
       <c r="C427" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৮১৮</t>
+          <t>১৫২৪০০০০০৮২৩</t>
         </is>
       </c>
       <c r="D427" s="4" t="inlineStr">
         <is>
-          <t>ছগির আহমেদ</t>
+          <t>মোহাম্মদ নাজির হোসেন</t>
         </is>
       </c>
       <c r="E427" s="4" t="inlineStr">
         <is>
-          <t>কুনছুমা বেগম</t>
+          <t>আহিয়া বেগম</t>
         </is>
       </c>
       <c r="F427" s="3" t="inlineStr">
@@ -18368,7 +18380,7 @@
       </c>
       <c r="G427" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৫/১৯৯৭</t>
+          <t>২০/০৩/১৯৯৯</t>
         </is>
       </c>
       <c r="H427" s="5" t="inlineStr">
@@ -18380,37 +18392,37 @@
     <row r="428">
       <c r="A428" s="3" t="inlineStr">
         <is>
-          <t>১০৫২</t>
+          <t>১০৬১</t>
         </is>
       </c>
       <c r="B428" s="4" t="inlineStr">
         <is>
-          <t>জিন্নাত ফাতেমা</t>
+          <t>নাজমা আক্তার</t>
         </is>
       </c>
       <c r="C428" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৮২০</t>
+          <t>১৫২৪০০০০০৮৩৫</t>
         </is>
       </c>
       <c r="D428" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আজম</t>
+          <t>আহমেদ রহমান</t>
         </is>
       </c>
       <c r="E428" s="4" t="inlineStr">
         <is>
-          <t>নুর জাহান বেগম</t>
+          <t>ছকিনা বেগম</t>
         </is>
       </c>
       <c r="F428" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G428" s="3" t="inlineStr">
         <is>
-          <t>০১/১২/১৯৯৯</t>
+          <t>১০/০১/১৯৯৫</t>
         </is>
       </c>
       <c r="H428" s="5" t="inlineStr">
@@ -18422,27 +18434,27 @@
     <row r="429">
       <c r="A429" s="3" t="inlineStr">
         <is>
-          <t>১০৫৫</t>
+          <t>১০৬২</t>
         </is>
       </c>
       <c r="B429" s="4" t="inlineStr">
         <is>
-          <t>শামসুন নাহার</t>
+          <t>নাহরিন সোলতানা লিজা চৌধুরী</t>
         </is>
       </c>
       <c r="C429" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৮২৩</t>
+          <t>১৫২৪০০০০০৮৩৬</t>
         </is>
       </c>
       <c r="D429" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ নাজির হোসেন</t>
+          <t>কামাল উদ্দিন চৌধুরী</t>
         </is>
       </c>
       <c r="E429" s="4" t="inlineStr">
         <is>
-          <t>আহিয়া বেগম</t>
+          <t>ফরিদা আক্তার</t>
         </is>
       </c>
       <c r="F429" s="3" t="inlineStr">
@@ -18452,7 +18464,7 @@
       </c>
       <c r="G429" s="3" t="inlineStr">
         <is>
-          <t>২০/০৩/১৯৯৯</t>
+          <t>২১/০৭/১৯৯২</t>
         </is>
       </c>
       <c r="H429" s="5" t="inlineStr">
@@ -18464,37 +18476,37 @@
     <row r="430">
       <c r="A430" s="3" t="inlineStr">
         <is>
-          <t>১০৬১</t>
+          <t>১০৫২</t>
         </is>
       </c>
       <c r="B430" s="4" t="inlineStr">
         <is>
-          <t>নাজমা আক্তার</t>
+          <t>জিন্নাত ফাতেমা</t>
         </is>
       </c>
       <c r="C430" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৮৩৫</t>
+          <t>১৫২৪০০০০০৮২০</t>
         </is>
       </c>
       <c r="D430" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ রহমান</t>
+          <t>মোঃ আজম</t>
         </is>
       </c>
       <c r="E430" s="4" t="inlineStr">
         <is>
-          <t>ছকিনা বেগম</t>
+          <t>নুর জাহান বেগম</t>
         </is>
       </c>
       <c r="F430" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G430" s="3" t="inlineStr">
         <is>
-          <t>১০/০১/১৯৯৫</t>
+          <t>০১/১২/১৯৯৯</t>
         </is>
       </c>
       <c r="H430" s="5" t="inlineStr">
@@ -18506,27 +18518,27 @@
     <row r="431">
       <c r="A431" s="3" t="inlineStr">
         <is>
-          <t>১২৯৫</t>
+          <t>১০৫০</t>
         </is>
       </c>
       <c r="B431" s="4" t="inlineStr">
         <is>
-          <t>জামাতুল ফেরদৌস</t>
+          <t>নারগিছ আক্তার</t>
         </is>
       </c>
       <c r="C431" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০২১৪</t>
+          <t>১৫২৪০০০০০৮১৮</t>
         </is>
       </c>
       <c r="D431" s="4" t="inlineStr">
         <is>
-          <t>আলী হোসেন</t>
+          <t>ছগির আহমেদ</t>
         </is>
       </c>
       <c r="E431" s="4" t="inlineStr">
         <is>
-          <t>নুরজাহান বেগম</t>
+          <t>কুনছুমা বেগম</t>
         </is>
       </c>
       <c r="F431" s="3" t="inlineStr">
@@ -18536,7 +18548,7 @@
       </c>
       <c r="G431" s="3" t="inlineStr">
         <is>
-          <t>২৫/০৭/১৯৯৮</t>
+          <t>০৮/০৫/১৯৯৭</t>
         </is>
       </c>
       <c r="H431" s="5" t="inlineStr">
@@ -18548,37 +18560,37 @@
     <row r="432">
       <c r="A432" s="3" t="inlineStr">
         <is>
-          <t>১০৬২</t>
+          <t>১০৪৩</t>
         </is>
       </c>
       <c r="B432" s="4" t="inlineStr">
         <is>
-          <t>নাহরিন সোলতানা লিজা চৌধুরী</t>
+          <t>মেহেরু মিছা</t>
         </is>
       </c>
       <c r="C432" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৮৩৬</t>
+          <t>১৫২৪০০০০০৮০০</t>
         </is>
       </c>
       <c r="D432" s="4" t="inlineStr">
         <is>
-          <t>কামাল উদ্দিন চৌধুরী</t>
+          <t>তৈয়ুব আলী</t>
         </is>
       </c>
       <c r="E432" s="4" t="inlineStr">
         <is>
-          <t>ফরিদা আক্তার</t>
+          <t>শাহিদা আক্তার</t>
         </is>
       </c>
       <c r="F432" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G432" s="3" t="inlineStr">
         <is>
-          <t>২১/০৭/১৯৯২</t>
+          <t>১৮/০২/২০০১</t>
         </is>
       </c>
       <c r="H432" s="5" t="inlineStr">
@@ -18590,27 +18602,27 @@
     <row r="433">
       <c r="A433" s="3" t="inlineStr">
         <is>
-          <t>১০৬৭</t>
+          <t>১৩২০</t>
         </is>
       </c>
       <c r="B433" s="4" t="inlineStr">
         <is>
-          <t>আঁখি আক্তার</t>
+          <t>নাদিয়া সুলতানা উর্মি</t>
         </is>
       </c>
       <c r="C433" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৮৪৩</t>
+          <t>১৫২৪০০০০০৯৯৭</t>
         </is>
       </c>
       <c r="D433" s="4" t="inlineStr">
         <is>
-          <t>নুরুল হক</t>
+          <t>মোঃ নাসির</t>
         </is>
       </c>
       <c r="E433" s="4" t="inlineStr">
         <is>
-          <t>মীর জাহান আক্তার</t>
+          <t>সাজেদা বেগম</t>
         </is>
       </c>
       <c r="F433" s="3" t="inlineStr">
@@ -18620,7 +18632,7 @@
       </c>
       <c r="G433" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৫/২০০১</t>
+          <t>০৫/০৯/২০০৭</t>
         </is>
       </c>
       <c r="H433" s="5" t="inlineStr">
@@ -18632,27 +18644,27 @@
     <row r="434">
       <c r="A434" s="3" t="inlineStr">
         <is>
-          <t>১৩২০</t>
+          <t>১০৬৭</t>
         </is>
       </c>
       <c r="B434" s="4" t="inlineStr">
         <is>
-          <t>নাদিয়া সুলতানা উর্মি</t>
+          <t>আঁখি আক্তার</t>
         </is>
       </c>
       <c r="C434" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৯৯৭</t>
+          <t>১৫২৪০০০০০৮৪৩</t>
         </is>
       </c>
       <c r="D434" s="4" t="inlineStr">
         <is>
-          <t>মোঃ নাসির</t>
+          <t>নুরুল হক</t>
         </is>
       </c>
       <c r="E434" s="4" t="inlineStr">
         <is>
-          <t>সাজেদা বেগম</t>
+          <t>মীর জাহান আক্তার</t>
         </is>
       </c>
       <c r="F434" s="3" t="inlineStr">
@@ -18662,7 +18674,7 @@
       </c>
       <c r="G434" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৯/২০০৭</t>
+          <t>০৮/০৫/২০০১</t>
         </is>
       </c>
       <c r="H434" s="5" t="inlineStr">
@@ -18674,27 +18686,27 @@
     <row r="435">
       <c r="A435" s="3" t="inlineStr">
         <is>
-          <t>১০৩২</t>
+          <t>০৮৯৪</t>
         </is>
       </c>
       <c r="B435" s="4" t="inlineStr">
         <is>
-          <t>নাহরিন সোলতানা</t>
+          <t>পারভিন আক্তার</t>
         </is>
       </c>
       <c r="C435" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৭৫৯</t>
+          <t>১৫২৪০০০০০৪১৩</t>
         </is>
       </c>
       <c r="D435" s="4" t="inlineStr">
         <is>
-          <t>মোঃ শাহ আলম</t>
+          <t>সিরাজুল ইসলাম</t>
         </is>
       </c>
       <c r="E435" s="4" t="inlineStr">
         <is>
-          <t>মমতাজ বেগম</t>
+          <t>মরিয়ম বেগম</t>
         </is>
       </c>
       <c r="F435" s="3" t="inlineStr">
@@ -18704,7 +18716,7 @@
       </c>
       <c r="G435" s="3" t="inlineStr">
         <is>
-          <t>১০/০৭/১৯৯৮</t>
+          <t>২২/০২/১৯৯৮</t>
         </is>
       </c>
       <c r="H435" s="5" t="inlineStr">
@@ -18716,37 +18728,37 @@
     <row r="436">
       <c r="A436" s="3" t="inlineStr">
         <is>
-          <t>১০২৭</t>
+          <t>১০৩২</t>
         </is>
       </c>
       <c r="B436" s="4" t="inlineStr">
         <is>
-          <t>আহমা সোলতানা হানা</t>
+          <t>নাহরিন সোলতানা</t>
         </is>
       </c>
       <c r="C436" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৭৪১</t>
+          <t>১৫২৪০০০০০৭৫৯</t>
         </is>
       </c>
       <c r="D436" s="4" t="inlineStr">
         <is>
-          <t>মৃত মোহাম্মদ হোসেন</t>
+          <t>মোঃ শাহ আলম</t>
         </is>
       </c>
       <c r="E436" s="4" t="inlineStr">
         <is>
-          <t>শাহিন আক্তার</t>
+          <t>মমতাজ বেগম</t>
         </is>
       </c>
       <c r="F436" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G436" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/২০০০</t>
+          <t>১০/০৭/১৯৯৮</t>
         </is>
       </c>
       <c r="H436" s="5" t="inlineStr">
@@ -18758,37 +18770,37 @@
     <row r="437">
       <c r="A437" s="3" t="inlineStr">
         <is>
-          <t>০৮৯৪</t>
+          <t>১০২৭</t>
         </is>
       </c>
       <c r="B437" s="4" t="inlineStr">
         <is>
-          <t>পারভিন আক্তার</t>
+          <t>আহমা সোলতানা হানা</t>
         </is>
       </c>
       <c r="C437" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৪১৩</t>
+          <t>১৫২৪০০০০০৭৪১</t>
         </is>
       </c>
       <c r="D437" s="4" t="inlineStr">
         <is>
-          <t>সিরাজুল ইসলাম</t>
+          <t>মৃত মোহাম্মদ হোসেন</t>
         </is>
       </c>
       <c r="E437" s="4" t="inlineStr">
         <is>
-          <t>মরিয়ম বেগম</t>
+          <t>শাহিন আক্তার</t>
         </is>
       </c>
       <c r="F437" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G437" s="3" t="inlineStr">
         <is>
-          <t>২২/০২/১৯৯৮</t>
+          <t>০১/০১/২০০০</t>
         </is>
       </c>
       <c r="H437" s="5" t="inlineStr">
@@ -18926,27 +18938,27 @@
     <row r="441">
       <c r="A441" s="3" t="inlineStr">
         <is>
-          <t>১২৬২</t>
+          <t>১২৬১</t>
         </is>
       </c>
       <c r="B441" s="4" t="inlineStr">
         <is>
-          <t>রাশেদা আকতার</t>
+          <t>জোসনা আকতার</t>
         </is>
       </c>
       <c r="C441" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০১৫৭</t>
+          <t>১৫২৪০০২১০১৫৬</t>
         </is>
       </c>
       <c r="D441" s="4" t="inlineStr">
         <is>
-          <t>ওলা মিয়া</t>
+          <t>নুরুল ইসলাম</t>
         </is>
       </c>
       <c r="E441" s="4" t="inlineStr">
         <is>
-          <t>রোকেয়া বেগম</t>
+          <t>নুরজাহান</t>
         </is>
       </c>
       <c r="F441" s="3" t="inlineStr">
@@ -18956,7 +18968,7 @@
       </c>
       <c r="G441" s="3" t="inlineStr">
         <is>
-          <t>২২/০১/১৯৯৭</t>
+          <t>২২/০৩/২০০০</t>
         </is>
       </c>
       <c r="H441" s="5" t="inlineStr">
@@ -18968,27 +18980,27 @@
     <row r="442">
       <c r="A442" s="3" t="inlineStr">
         <is>
-          <t>১২৬১</t>
+          <t>১২৬২</t>
         </is>
       </c>
       <c r="B442" s="4" t="inlineStr">
         <is>
-          <t>জোসনা আকতার</t>
+          <t>রাশেদা আকতার</t>
         </is>
       </c>
       <c r="C442" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০১৫৬</t>
+          <t>১৫২৪০০২১০১৫৭</t>
         </is>
       </c>
       <c r="D442" s="4" t="inlineStr">
         <is>
-          <t>নুরুল ইসলাম</t>
+          <t>ওলা মিয়া</t>
         </is>
       </c>
       <c r="E442" s="4" t="inlineStr">
         <is>
-          <t>নুরজাহান</t>
+          <t>রোকেয়া বেগম</t>
         </is>
       </c>
       <c r="F442" s="3" t="inlineStr">
@@ -18998,7 +19010,7 @@
       </c>
       <c r="G442" s="3" t="inlineStr">
         <is>
-          <t>২২/০৩/২০০০</t>
+          <t>২২/০১/১৯৯৭</t>
         </is>
       </c>
       <c r="H442" s="5" t="inlineStr">
@@ -19304,37 +19316,37 @@
     <row r="450">
       <c r="A450" s="3" t="inlineStr">
         <is>
-          <t>০১৪৩</t>
+          <t>০১৪৬</t>
         </is>
       </c>
       <c r="B450" s="4" t="inlineStr">
         <is>
-          <t>খালেদা বেগম</t>
+          <t>সালমা বিবি</t>
         </is>
       </c>
       <c r="C450" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৪৭</t>
+          <t>১৫২৪০০০০৫৬৫৩</t>
         </is>
       </c>
       <c r="D450" s="4" t="inlineStr">
         <is>
-          <t>গোলাম সোবহান</t>
+          <t>মজিবুর রহমান চৌধুরী</t>
         </is>
       </c>
       <c r="E450" s="4" t="inlineStr">
         <is>
-          <t>মমতাজ বেগম</t>
+          <t>হাছিনা আফরোজ</t>
         </is>
       </c>
       <c r="F450" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G450" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৮৯</t>
+          <t>১১/০৫/১৯৮৮</t>
         </is>
       </c>
       <c r="H450" s="5" t="inlineStr">
@@ -19346,27 +19358,27 @@
     <row r="451">
       <c r="A451" s="3" t="inlineStr">
         <is>
-          <t>০১৪০</t>
+          <t>০১৬৩</t>
         </is>
       </c>
       <c r="B451" s="4" t="inlineStr">
         <is>
-          <t>হোসেন আরা বেগম</t>
+          <t>বুলু আক্তার</t>
         </is>
       </c>
       <c r="C451" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৩৯</t>
+          <t>১৫২৪০০০০৫৬৯৮</t>
         </is>
       </c>
       <c r="D451" s="4" t="inlineStr">
         <is>
-          <t>ছাবের আহমদ</t>
+          <t>আব্দুল শুকুর</t>
         </is>
       </c>
       <c r="E451" s="4" t="inlineStr">
         <is>
-          <t>মাহমুদা খাতুন</t>
+          <t>ছফিকা খাতুন</t>
         </is>
       </c>
       <c r="F451" s="3" t="inlineStr">
@@ -19376,7 +19388,7 @@
       </c>
       <c r="G451" s="3" t="inlineStr">
         <is>
-          <t>০১/০৯/১৯৬৩</t>
+          <t>২৯/১১/১৯৮১</t>
         </is>
       </c>
       <c r="H451" s="5" t="inlineStr">
@@ -19388,37 +19400,37 @@
     <row r="452">
       <c r="A452" s="3" t="inlineStr">
         <is>
-          <t>০১৪২</t>
+          <t>০১৬২</t>
         </is>
       </c>
       <c r="B452" s="4" t="inlineStr">
         <is>
-          <t>শাহিন আক্তার</t>
+          <t>শিরিয়া বেগম</t>
         </is>
       </c>
       <c r="C452" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৪৫</t>
+          <t>১৫২৪০০০০৫৬৯৭</t>
         </is>
       </c>
       <c r="D452" s="4" t="inlineStr">
         <is>
-          <t>আবু ইউফুক</t>
+          <t>গোলাম সোবহান</t>
         </is>
       </c>
       <c r="E452" s="4" t="inlineStr">
         <is>
-          <t>জান্নাত আরা বেগম</t>
+          <t>মমতাজ বেগম</t>
         </is>
       </c>
       <c r="F452" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G452" s="3" t="inlineStr">
         <is>
-          <t>০১/০৫/১৯৭৮</t>
+          <t>১৫/০৮/১৯৭১</t>
         </is>
       </c>
       <c r="H452" s="5" t="inlineStr">
@@ -19430,37 +19442,37 @@
     <row r="453">
       <c r="A453" s="3" t="inlineStr">
         <is>
-          <t>০১৪১</t>
+          <t>০১৫৫</t>
         </is>
       </c>
       <c r="B453" s="4" t="inlineStr">
         <is>
-          <t>মোছামুৎ রেজিয়াবেগম</t>
+          <t>মাহফুজা বেগম</t>
         </is>
       </c>
       <c r="C453" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৪০</t>
+          <t>১৫২৪০০০০৫৬৭৫</t>
         </is>
       </c>
       <c r="D453" s="4" t="inlineStr">
         <is>
-          <t>মোঃ ছেয়দ আহমেদ</t>
+          <t>মোঃ নুরুল ইসলাম</t>
         </is>
       </c>
       <c r="E453" s="4" t="inlineStr">
         <is>
-          <t>মরিয়ম বেগম</t>
+          <t>সামসুন নাহার</t>
         </is>
       </c>
       <c r="F453" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G453" s="3" t="inlineStr">
         <is>
-          <t>২৮/০২/১৯৭২</t>
+          <t>২৯/০৭/১৯৮৫</t>
         </is>
       </c>
       <c r="H453" s="5" t="inlineStr">
@@ -19472,27 +19484,27 @@
     <row r="454">
       <c r="A454" s="3" t="inlineStr">
         <is>
-          <t>০১৪৬</t>
+          <t>০১৪৫</t>
         </is>
       </c>
       <c r="B454" s="4" t="inlineStr">
         <is>
-          <t>সালমা বিবি</t>
+          <t>মাহমুদা খাতুন</t>
         </is>
       </c>
       <c r="C454" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৫৩</t>
+          <t>১৫২৪০০০০৫৬৫২</t>
         </is>
       </c>
       <c r="D454" s="4" t="inlineStr">
         <is>
-          <t>মজিবুর রহমান চৌধুরী</t>
+          <t>আক্তু মিয়া</t>
         </is>
       </c>
       <c r="E454" s="4" t="inlineStr">
         <is>
-          <t>হাছিনা আফরোজ</t>
+          <t>সুফিয়া বেগম</t>
         </is>
       </c>
       <c r="F454" s="3" t="inlineStr">
@@ -19502,7 +19514,7 @@
       </c>
       <c r="G454" s="3" t="inlineStr">
         <is>
-          <t>১১/০৫/১৯৮৮</t>
+          <t>০৫/১০/১৯৬০</t>
         </is>
       </c>
       <c r="H454" s="5" t="inlineStr">
@@ -19514,27 +19526,27 @@
     <row r="455">
       <c r="A455" s="3" t="inlineStr">
         <is>
-          <t>০১৬২</t>
+          <t>০১৫৪</t>
         </is>
       </c>
       <c r="B455" s="4" t="inlineStr">
         <is>
-          <t>শিরিয়া বেগম</t>
+          <t>শাহনাজ বেগম</t>
         </is>
       </c>
       <c r="C455" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৯৭</t>
+          <t>১৫২৪০০০০৫৬৭৪</t>
         </is>
       </c>
       <c r="D455" s="4" t="inlineStr">
         <is>
-          <t>গোলাম সোবহান</t>
+          <t>মোঃ সাইদ আলম</t>
         </is>
       </c>
       <c r="E455" s="4" t="inlineStr">
         <is>
-          <t>মমতাজ বেগম</t>
+          <t>রাবিয়া বেগম</t>
         </is>
       </c>
       <c r="F455" s="3" t="inlineStr">
@@ -19544,7 +19556,7 @@
       </c>
       <c r="G455" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৮/১৯৭১</t>
+          <t>০৫/০৬/১৯৮০</t>
         </is>
       </c>
       <c r="H455" s="5" t="inlineStr">
@@ -19556,27 +19568,27 @@
     <row r="456">
       <c r="A456" s="3" t="inlineStr">
         <is>
-          <t>০১৬৩</t>
+          <t>০১৫০</t>
         </is>
       </c>
       <c r="B456" s="4" t="inlineStr">
         <is>
-          <t>বুলু আক্তার</t>
+          <t>লুফফর নাহার</t>
         </is>
       </c>
       <c r="C456" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৯৮</t>
+          <t>১৫২৪০০০০৫৬৫৮</t>
         </is>
       </c>
       <c r="D456" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল শুকুর</t>
+          <t>হাজি এজহারুল হক</t>
         </is>
       </c>
       <c r="E456" s="4" t="inlineStr">
         <is>
-          <t>ছফিকা খাতুন</t>
+          <t>ফিরজা বেগম</t>
         </is>
       </c>
       <c r="F456" s="3" t="inlineStr">
@@ -19586,7 +19598,7 @@
       </c>
       <c r="G456" s="3" t="inlineStr">
         <is>
-          <t>২৯/১১/১৯৮১</t>
+          <t>১৮/০৭/১৯৭৩</t>
         </is>
       </c>
       <c r="H456" s="5" t="inlineStr">
@@ -19598,37 +19610,37 @@
     <row r="457">
       <c r="A457" s="3" t="inlineStr">
         <is>
-          <t>০১৫৫</t>
+          <t>০১৪৯</t>
         </is>
       </c>
       <c r="B457" s="4" t="inlineStr">
         <is>
-          <t>মাহফুজা বেগম</t>
+          <t>মোস্তফা খাতুন</t>
         </is>
       </c>
       <c r="C457" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৭৫</t>
+          <t>১৫২৪০০০০৫৬৫৭</t>
         </is>
       </c>
       <c r="D457" s="4" t="inlineStr">
         <is>
-          <t>মোঃ নুরুল ইসলাম</t>
+          <t>আলী আহমেদ</t>
         </is>
       </c>
       <c r="E457" s="4" t="inlineStr">
         <is>
-          <t>সামসুন নাহার</t>
+          <t>দোলত বিবি</t>
         </is>
       </c>
       <c r="F457" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G457" s="3" t="inlineStr">
         <is>
-          <t>২৯/০৭/১৯৮৫</t>
+          <t>২১/০৩/১৯৮৮</t>
         </is>
       </c>
       <c r="H457" s="5" t="inlineStr">
@@ -19640,27 +19652,27 @@
     <row r="458">
       <c r="A458" s="3" t="inlineStr">
         <is>
-          <t>০১৪৭</t>
+          <t>০১৪৮</t>
         </is>
       </c>
       <c r="B458" s="4" t="inlineStr">
         <is>
-          <t>মর্তুজা বেগম</t>
+          <t>পান্না আক্তার</t>
         </is>
       </c>
       <c r="C458" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৫৫</t>
+          <t>১৫২৪০০০০৫৬৫৬</t>
         </is>
       </c>
       <c r="D458" s="4" t="inlineStr">
         <is>
-          <t>মোজামেল হক</t>
+          <t>আব্দুল খালেক</t>
         </is>
       </c>
       <c r="E458" s="4" t="inlineStr">
         <is>
-          <t>মরিয়ম বেগম</t>
+          <t>ফাতেমা বেগম</t>
         </is>
       </c>
       <c r="F458" s="3" t="inlineStr">
@@ -19670,7 +19682,7 @@
       </c>
       <c r="G458" s="3" t="inlineStr">
         <is>
-          <t>২০/১০/১৯৮৯</t>
+          <t>২০/১১/১৯৮১</t>
         </is>
       </c>
       <c r="H458" s="5" t="inlineStr">
@@ -19682,27 +19694,27 @@
     <row r="459">
       <c r="A459" s="3" t="inlineStr">
         <is>
-          <t>০১৪৮</t>
+          <t>০১৪০</t>
         </is>
       </c>
       <c r="B459" s="4" t="inlineStr">
         <is>
-          <t>পান্না আক্তার</t>
+          <t>হোসেন আরা বেগম</t>
         </is>
       </c>
       <c r="C459" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৫৬</t>
+          <t>১৫২৪০০০০৫৬৩৯</t>
         </is>
       </c>
       <c r="D459" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল খালেক</t>
+          <t>ছাবের আহমদ</t>
         </is>
       </c>
       <c r="E459" s="4" t="inlineStr">
         <is>
-          <t>ফাতেমা বেগম</t>
+          <t>মাহমুদা খাতুন</t>
         </is>
       </c>
       <c r="F459" s="3" t="inlineStr">
@@ -19712,7 +19724,7 @@
       </c>
       <c r="G459" s="3" t="inlineStr">
         <is>
-          <t>২০/১১/১৯৮১</t>
+          <t>০১/০৯/১৯৬৩</t>
         </is>
       </c>
       <c r="H459" s="5" t="inlineStr">
@@ -19724,37 +19736,37 @@
     <row r="460">
       <c r="A460" s="3" t="inlineStr">
         <is>
-          <t>০১৫৪</t>
+          <t>০১৪১</t>
         </is>
       </c>
       <c r="B460" s="4" t="inlineStr">
         <is>
-          <t>শাহনাজ বেগম</t>
+          <t>মোছামুৎ রেজিয়াবেগম</t>
         </is>
       </c>
       <c r="C460" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৭৪</t>
+          <t>১৫২৪০০০০৫৬৪০</t>
         </is>
       </c>
       <c r="D460" s="4" t="inlineStr">
         <is>
-          <t>মোঃ সাইদ আলম</t>
+          <t>মোঃ ছেয়দ আহমেদ</t>
         </is>
       </c>
       <c r="E460" s="4" t="inlineStr">
         <is>
-          <t>রাবিয়া বেগম</t>
+          <t>মরিয়ম বেগম</t>
         </is>
       </c>
       <c r="F460" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G460" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৬/১৯৮০</t>
+          <t>২৮/০২/১৯৭২</t>
         </is>
       </c>
       <c r="H460" s="5" t="inlineStr">
@@ -19766,27 +19778,27 @@
     <row r="461">
       <c r="A461" s="3" t="inlineStr">
         <is>
-          <t>০১৫৩</t>
+          <t>০১৪২</t>
         </is>
       </c>
       <c r="B461" s="4" t="inlineStr">
         <is>
-          <t>মোঃ দিল্লু আরা বেগম</t>
+          <t>শাহিন আক্তার</t>
         </is>
       </c>
       <c r="C461" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৭১</t>
+          <t>১৫২৪০০০০৫৬৪৫</t>
         </is>
       </c>
       <c r="D461" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল খালেক</t>
+          <t>আবু ইউফুক</t>
         </is>
       </c>
       <c r="E461" s="4" t="inlineStr">
         <is>
-          <t>ছকিনা খাতুন</t>
+          <t>জান্নাত আরা বেগম</t>
         </is>
       </c>
       <c r="F461" s="3" t="inlineStr">
@@ -19796,7 +19808,7 @@
       </c>
       <c r="G461" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৬৮</t>
+          <t>০১/০৫/১৯৭৮</t>
         </is>
       </c>
       <c r="H461" s="5" t="inlineStr">
@@ -19808,27 +19820,27 @@
     <row r="462">
       <c r="A462" s="3" t="inlineStr">
         <is>
-          <t>০১৫০</t>
+          <t>০১৪৭</t>
         </is>
       </c>
       <c r="B462" s="4" t="inlineStr">
         <is>
-          <t>লুফফর নাহার</t>
+          <t>মর্তুজা বেগম</t>
         </is>
       </c>
       <c r="C462" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৫৮</t>
+          <t>১৫২৪০০০০৫৬৫৫</t>
         </is>
       </c>
       <c r="D462" s="4" t="inlineStr">
         <is>
-          <t>হাজি এজহারুল হক</t>
+          <t>মোজামেল হক</t>
         </is>
       </c>
       <c r="E462" s="4" t="inlineStr">
         <is>
-          <t>ফিরজা বেগম</t>
+          <t>মরিয়ম বেগম</t>
         </is>
       </c>
       <c r="F462" s="3" t="inlineStr">
@@ -19838,7 +19850,7 @@
       </c>
       <c r="G462" s="3" t="inlineStr">
         <is>
-          <t>১৮/০৭/১৯৭৩</t>
+          <t>২০/১০/১৯৮৯</t>
         </is>
       </c>
       <c r="H462" s="5" t="inlineStr">
@@ -19850,27 +19862,27 @@
     <row r="463">
       <c r="A463" s="3" t="inlineStr">
         <is>
-          <t>০১৪৫</t>
+          <t>০১৫৩</t>
         </is>
       </c>
       <c r="B463" s="4" t="inlineStr">
         <is>
-          <t>মাহমুদা খাতুন</t>
+          <t>মোঃ দিল্লু আরা বেগম</t>
         </is>
       </c>
       <c r="C463" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৫২</t>
+          <t>১৫২৪০০০০৫৬৭১</t>
         </is>
       </c>
       <c r="D463" s="4" t="inlineStr">
         <is>
-          <t>আক্তু মিয়া</t>
+          <t>আব্দুল খালেক</t>
         </is>
       </c>
       <c r="E463" s="4" t="inlineStr">
         <is>
-          <t>সুফিয়া বেগম</t>
+          <t>ছকিনা খাতুন</t>
         </is>
       </c>
       <c r="F463" s="3" t="inlineStr">
@@ -19880,7 +19892,7 @@
       </c>
       <c r="G463" s="3" t="inlineStr">
         <is>
-          <t>০৫/১০/১৯৬০</t>
+          <t>০১/০১/১৯৬৮</t>
         </is>
       </c>
       <c r="H463" s="5" t="inlineStr">
@@ -19892,37 +19904,37 @@
     <row r="464">
       <c r="A464" s="3" t="inlineStr">
         <is>
-          <t>০১৪৯</t>
+          <t>০১৪৩</t>
         </is>
       </c>
       <c r="B464" s="4" t="inlineStr">
         <is>
-          <t>মোস্তফা খাতুন</t>
+          <t>খালেদা বেগম</t>
         </is>
       </c>
       <c r="C464" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৫৭</t>
+          <t>১৫২৪০০০০৫৬৪৭</t>
         </is>
       </c>
       <c r="D464" s="4" t="inlineStr">
         <is>
-          <t>আলী আহমেদ</t>
+          <t>গোলাম সোবহান</t>
         </is>
       </c>
       <c r="E464" s="4" t="inlineStr">
         <is>
-          <t>দোলত বিবি</t>
+          <t>মমতাজ বেগম</t>
         </is>
       </c>
       <c r="F464" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G464" s="3" t="inlineStr">
         <is>
-          <t>২১/০৩/১৯৮৮</t>
+          <t>০১/০১/১৯৮৯</t>
         </is>
       </c>
       <c r="H464" s="5" t="inlineStr">
@@ -19934,27 +19946,27 @@
     <row r="465">
       <c r="A465" s="3" t="inlineStr">
         <is>
-          <t>১১২৪</t>
+          <t>০৯৩৪</t>
         </is>
       </c>
       <c r="B465" s="4" t="inlineStr">
         <is>
-          <t>উম্মে সাদিয়া তারিন</t>
+          <t>দিলু আরা বেগম</t>
         </is>
       </c>
       <c r="C465" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২০৯৮৮৩</t>
+          <t>১৫২৪০০০০০৫৩৯</t>
         </is>
       </c>
       <c r="D465" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আজিজুর রহমান</t>
+          <t>মোঃ নুরুল ইসলাম</t>
         </is>
       </c>
       <c r="E465" s="4" t="inlineStr">
         <is>
-          <t>শাহিন আকতার</t>
+          <t>মোছাম্মৎ রেজিয়া বেগম</t>
         </is>
       </c>
       <c r="F465" s="3" t="inlineStr">
@@ -19964,7 +19976,7 @@
       </c>
       <c r="G465" s="3" t="inlineStr">
         <is>
-          <t>০৫/০১/২০০১</t>
+          <t>২৬/০৩/১৯৯৩</t>
         </is>
       </c>
       <c r="H465" s="5" t="inlineStr">
@@ -19976,37 +19988,37 @@
     <row r="466">
       <c r="A466" s="3" t="inlineStr">
         <is>
-          <t>০৮৬১</t>
+          <t>০৯৯৫</t>
         </is>
       </c>
       <c r="B466" s="4" t="inlineStr">
         <is>
-          <t>তায়মুন আলম</t>
+          <t>ইয়াছমিন আক্তার</t>
         </is>
       </c>
       <c r="C466" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৩৪৫</t>
+          <t>১৫২৪০০০০০৬৬১</t>
         </is>
       </c>
       <c r="D466" s="4" t="inlineStr">
         <is>
-          <t>সামগুল আলম</t>
+          <t>আবদুল মতলব</t>
         </is>
       </c>
       <c r="E466" s="4" t="inlineStr">
         <is>
-          <t>বুলু আক্তার</t>
+          <t>জামাত আরা বেগম</t>
         </is>
       </c>
       <c r="F466" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G466" s="3" t="inlineStr">
         <is>
-          <t>১৮/০৮/১৯৯৫</t>
+          <t>০৮/০৮/১৯৯৮</t>
         </is>
       </c>
       <c r="H466" s="5" t="inlineStr">
@@ -20018,27 +20030,27 @@
     <row r="467">
       <c r="A467" s="3" t="inlineStr">
         <is>
-          <t>১০৪২</t>
+          <t>১২৯৯</t>
         </is>
       </c>
       <c r="B467" s="4" t="inlineStr">
         <is>
-          <t>মোছাৰ জামাতুল নাসিম</t>
+          <t>ইসরাত জাহান মিতু</t>
         </is>
       </c>
       <c r="C467" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৭৯৯</t>
+          <t>১৫২৪০০২১০২২০</t>
         </is>
       </c>
       <c r="D467" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ হুফা</t>
+          <t>মোহাম্মদ ইদ্রিস</t>
         </is>
       </c>
       <c r="E467" s="4" t="inlineStr">
         <is>
-          <t>শাকেরা বেগম</t>
+          <t>শাহিন আকতার</t>
         </is>
       </c>
       <c r="F467" s="3" t="inlineStr">
@@ -20048,7 +20060,7 @@
       </c>
       <c r="G467" s="3" t="inlineStr">
         <is>
-          <t>১৫/০২/১৯৯৭</t>
+          <t>১৫/০৮/১৯৯৭</t>
         </is>
       </c>
       <c r="H467" s="5" t="inlineStr">
@@ -20060,27 +20072,27 @@
     <row r="468">
       <c r="A468" s="3" t="inlineStr">
         <is>
-          <t>০৯৯৫</t>
+          <t>১১২৪</t>
         </is>
       </c>
       <c r="B468" s="4" t="inlineStr">
         <is>
-          <t>ইয়াছমিন আক্তার</t>
+          <t>উম্মে সাদিয়া তারিন</t>
         </is>
       </c>
       <c r="C468" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৬৬১</t>
+          <t>১৫২৪০০২০৯৮৮৩</t>
         </is>
       </c>
       <c r="D468" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মতলব</t>
+          <t>মোঃ আজিজুর রহমান</t>
         </is>
       </c>
       <c r="E468" s="4" t="inlineStr">
         <is>
-          <t>জামাত আরা বেগম</t>
+          <t>শাহিন আকতার</t>
         </is>
       </c>
       <c r="F468" s="3" t="inlineStr">
@@ -20090,7 +20102,7 @@
       </c>
       <c r="G468" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৮/১৯৯৮</t>
+          <t>০৫/০১/২০০১</t>
         </is>
       </c>
       <c r="H468" s="5" t="inlineStr">
@@ -20102,27 +20114,27 @@
     <row r="469">
       <c r="A469" s="3" t="inlineStr">
         <is>
-          <t>০৯৩৪</t>
+          <t>১০৪২</t>
         </is>
       </c>
       <c r="B469" s="4" t="inlineStr">
         <is>
-          <t>দিলু আরা বেগম</t>
+          <t>মোছাৰ জামাতুল নাসিম</t>
         </is>
       </c>
       <c r="C469" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৫৩৯</t>
+          <t>১৫২৪০০০০০৭৯৯</t>
         </is>
       </c>
       <c r="D469" s="4" t="inlineStr">
         <is>
-          <t>মোঃ নুরুল ইসলাম</t>
+          <t>আহমেদ হুফা</t>
         </is>
       </c>
       <c r="E469" s="4" t="inlineStr">
         <is>
-          <t>মোছাম্মৎ রেজিয়া বেগম</t>
+          <t>শাকেরা বেগম</t>
         </is>
       </c>
       <c r="F469" s="3" t="inlineStr">
@@ -20132,7 +20144,7 @@
       </c>
       <c r="G469" s="3" t="inlineStr">
         <is>
-          <t>২৬/০৩/১৯৯৩</t>
+          <t>১৫/০২/১৯৯৭</t>
         </is>
       </c>
       <c r="H469" s="5" t="inlineStr">
@@ -20144,27 +20156,27 @@
     <row r="470">
       <c r="A470" s="3" t="inlineStr">
         <is>
-          <t>১২৯৯</t>
+          <t>১২০৬</t>
         </is>
       </c>
       <c r="B470" s="4" t="inlineStr">
         <is>
-          <t>ইসরাত জাহান মিতু</t>
+          <t>তাওহিদা সুলতানা</t>
         </is>
       </c>
       <c r="C470" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০২২০</t>
+          <t>১৫২৪০০২১০০১৩</t>
         </is>
       </c>
       <c r="D470" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইদ্রিস</t>
+          <t>মৃত রফিক আহমেদ</t>
         </is>
       </c>
       <c r="E470" s="4" t="inlineStr">
         <is>
-          <t>শাহিন আকতার</t>
+          <t>জয়নাব বেগম</t>
         </is>
       </c>
       <c r="F470" s="3" t="inlineStr">
@@ -20174,7 +20186,7 @@
       </c>
       <c r="G470" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৮/১৯৯৭</t>
+          <t>১৬/০২/২০০২</t>
         </is>
       </c>
       <c r="H470" s="5" t="inlineStr">
@@ -20186,37 +20198,37 @@
     <row r="471">
       <c r="A471" s="3" t="inlineStr">
         <is>
-          <t>১২০৬</t>
+          <t>০৮৬১</t>
         </is>
       </c>
       <c r="B471" s="4" t="inlineStr">
         <is>
-          <t>তাওহিদা সুলতানা</t>
+          <t>তায়মুন আলম</t>
         </is>
       </c>
       <c r="C471" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০০১৩</t>
+          <t>১৫২৪০০০০০৩৪৫</t>
         </is>
       </c>
       <c r="D471" s="4" t="inlineStr">
         <is>
-          <t>মৃত রফিক আহমেদ</t>
+          <t>সামগুল আলম</t>
         </is>
       </c>
       <c r="E471" s="4" t="inlineStr">
         <is>
-          <t>জয়নাব বেগম</t>
+          <t>বুলু আক্তার</t>
         </is>
       </c>
       <c r="F471" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G471" s="3" t="inlineStr">
         <is>
-          <t>১৬/০২/২০০২</t>
+          <t>১৮/০৮/১৯৯৫</t>
         </is>
       </c>
       <c r="H471" s="5" t="inlineStr">
@@ -20354,27 +20366,27 @@
     <row r="475">
       <c r="A475" s="3" t="inlineStr">
         <is>
-          <t>০১৮০</t>
+          <t>০৩০৫</t>
         </is>
       </c>
       <c r="B475" s="4" t="inlineStr">
         <is>
-          <t>মাহফুজা বেগম মিঠু</t>
+          <t>সোলতানা বেগম</t>
         </is>
       </c>
       <c r="C475" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৭৩৫</t>
+          <t>১৫২৪০০০০৬০৮২</t>
         </is>
       </c>
       <c r="D475" s="4" t="inlineStr">
         <is>
-          <t>আলোয়ারুল আজিম</t>
+          <t>আব্দুল কুদ্দুস</t>
         </is>
       </c>
       <c r="E475" s="4" t="inlineStr">
         <is>
-          <t>হাফিজা বেগম</t>
+          <t>মাবিয়া খাতুন</t>
         </is>
       </c>
       <c r="F475" s="3" t="inlineStr">
@@ -20384,7 +20396,7 @@
       </c>
       <c r="G475" s="3" t="inlineStr">
         <is>
-          <t>০৫/১২/১৯৮২</t>
+          <t>০২/০৪/১৯৮০</t>
         </is>
       </c>
       <c r="H475" s="5" t="inlineStr">
@@ -20396,27 +20408,27 @@
     <row r="476">
       <c r="A476" s="3" t="inlineStr">
         <is>
-          <t>০৩০৫</t>
+          <t>০১৮০</t>
         </is>
       </c>
       <c r="B476" s="4" t="inlineStr">
         <is>
-          <t>সোলতানা বেগম</t>
+          <t>মাহফুজা বেগম মিঠু</t>
         </is>
       </c>
       <c r="C476" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬০৮২</t>
+          <t>১৫২৪০০০০৫৭৩৫</t>
         </is>
       </c>
       <c r="D476" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল কুদ্দুস</t>
+          <t>আলোয়ারুল আজিম</t>
         </is>
       </c>
       <c r="E476" s="4" t="inlineStr">
         <is>
-          <t>মাবিয়া খাতুন</t>
+          <t>হাফিজা বেগম</t>
         </is>
       </c>
       <c r="F476" s="3" t="inlineStr">
@@ -20426,7 +20438,7 @@
       </c>
       <c r="G476" s="3" t="inlineStr">
         <is>
-          <t>০২/০৪/১৯৮০</t>
+          <t>০৫/১২/১৯৮২</t>
         </is>
       </c>
       <c r="H476" s="5" t="inlineStr">
@@ -20564,37 +20576,37 @@
     <row r="480">
       <c r="A480" s="3" t="inlineStr">
         <is>
-          <t>০৭৮১</t>
+          <t>০৭৬৫</t>
         </is>
       </c>
       <c r="B480" s="4" t="inlineStr">
         <is>
-          <t>আমেনা বেগম মীনা</t>
+          <t>ফাতেমা বেগম</t>
         </is>
       </c>
       <c r="C480" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০০৪৩</t>
+          <t>১৫২৪০০০০০০২৭</t>
         </is>
       </c>
       <c r="D480" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আমির আলী</t>
+          <t>গোলাম ছোবাহান</t>
         </is>
       </c>
       <c r="E480" s="4" t="inlineStr">
         <is>
-          <t>আয়েশা বেগম</t>
+          <t>মমতাজ বেগম</t>
         </is>
       </c>
       <c r="F480" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G480" s="3" t="inlineStr">
         <is>
-          <t>০৪/০৬/১৯৯০</t>
+          <t>২২/১১/১৯৯০</t>
         </is>
       </c>
       <c r="H480" s="5" t="inlineStr">
@@ -20606,37 +20618,37 @@
     <row r="481">
       <c r="A481" s="3" t="inlineStr">
         <is>
-          <t>০৭৬৫</t>
+          <t>০৭৮১</t>
         </is>
       </c>
       <c r="B481" s="4" t="inlineStr">
         <is>
-          <t>ফাতেমা বেগম</t>
+          <t>আমেনা বেগম মীনা</t>
         </is>
       </c>
       <c r="C481" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০০২৭</t>
+          <t>১৫২৪০০০০০০৪৩</t>
         </is>
       </c>
       <c r="D481" s="4" t="inlineStr">
         <is>
-          <t>গোলাম ছোবাহান</t>
+          <t>মোহাম্মদ আমির আলী</t>
         </is>
       </c>
       <c r="E481" s="4" t="inlineStr">
         <is>
-          <t>মমতাজ বেগম</t>
+          <t>আয়েশা বেগম</t>
         </is>
       </c>
       <c r="F481" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G481" s="3" t="inlineStr">
         <is>
-          <t>২২/১১/১৯৯০</t>
+          <t>০৪/০৬/১৯৯০</t>
         </is>
       </c>
       <c r="H481" s="5" t="inlineStr">
@@ -20648,27 +20660,27 @@
     <row r="482">
       <c r="A482" s="3" t="inlineStr">
         <is>
-          <t>০১১৩</t>
+          <t>০১১৪</t>
         </is>
       </c>
       <c r="B482" s="4" t="inlineStr">
         <is>
-          <t>আমেনা বেগম</t>
+          <t>হাছিনা আক্তার</t>
         </is>
       </c>
       <c r="C482" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৫৫৮</t>
+          <t>১৫২৪০০০০৫৫৫৯</t>
         </is>
       </c>
       <c r="D482" s="4" t="inlineStr">
         <is>
-          <t>মোজাহের আহমেদ</t>
+          <t>আহসান মিয়া</t>
         </is>
       </c>
       <c r="E482" s="4" t="inlineStr">
         <is>
-          <t>মরিয়ম খাতুন</t>
+          <t>রাজিয়া খাতুন</t>
         </is>
       </c>
       <c r="F482" s="3" t="inlineStr">
@@ -20678,7 +20690,7 @@
       </c>
       <c r="G482" s="3" t="inlineStr">
         <is>
-          <t>০২/০৫/১৯৮৬</t>
+          <t>১০/০৬/১৯৮৮</t>
         </is>
       </c>
       <c r="H482" s="5" t="inlineStr">
@@ -20690,27 +20702,27 @@
     <row r="483">
       <c r="A483" s="3" t="inlineStr">
         <is>
-          <t>০১১৪</t>
+          <t>০১১৩</t>
         </is>
       </c>
       <c r="B483" s="4" t="inlineStr">
         <is>
-          <t>হাছিনা আক্তার</t>
+          <t>আমেনা বেগম</t>
         </is>
       </c>
       <c r="C483" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৫৫৯</t>
+          <t>১৫২৪০০০০৫৫৫৮</t>
         </is>
       </c>
       <c r="D483" s="4" t="inlineStr">
         <is>
-          <t>আহসান মিয়া</t>
+          <t>মোজাহের আহমেদ</t>
         </is>
       </c>
       <c r="E483" s="4" t="inlineStr">
         <is>
-          <t>রাজিয়া খাতুন</t>
+          <t>মরিয়ম খাতুন</t>
         </is>
       </c>
       <c r="F483" s="3" t="inlineStr">
@@ -20720,7 +20732,7 @@
       </c>
       <c r="G483" s="3" t="inlineStr">
         <is>
-          <t>১০/০৬/১৯৮৮</t>
+          <t>০২/০৫/১৯৮৬</t>
         </is>
       </c>
       <c r="H483" s="5" t="inlineStr">

--- a/election_votar_data/SATKANIA/EOCHIA/152400/152400_com_1306_female_without_photo_75_2025-11-24.xlsx
+++ b/election_votar_data/SATKANIA/EOCHIA/152400/152400_com_1306_female_without_photo_75_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="38" customWidth="1" min="4" max="4"/>
     <col width="35.5" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="31" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -8396,27 +8396,27 @@
     <row r="190">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>০৭০৭</t>
+          <t>০৭০৯</t>
         </is>
       </c>
       <c r="B190" s="4" t="inlineStr">
         <is>
-          <t>হাজেরা খাতুন</t>
+          <t>জোহরা বেগম</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০১৩</t>
+          <t>১৫২৪০০০০৭০১৫</t>
         </is>
       </c>
       <c r="D190" s="4" t="inlineStr">
         <is>
-          <t>গুরা মিয়া</t>
+          <t>মোঃ হোসেন</t>
         </is>
       </c>
       <c r="E190" s="4" t="inlineStr">
         <is>
-          <t>মোমেনা খাতুন</t>
+          <t>মমতাজ বেগম</t>
         </is>
       </c>
       <c r="F190" s="3" t="inlineStr">
@@ -8426,7 +8426,7 @@
       </c>
       <c r="G190" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৭/১৯৫২</t>
+          <t>২০/০৯/১৯৬৯</t>
         </is>
       </c>
       <c r="H190" s="5" t="inlineStr">
@@ -8438,27 +8438,27 @@
     <row r="191">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>০৭১২</t>
+          <t>০৭১৫</t>
         </is>
       </c>
       <c r="B191" s="4" t="inlineStr">
         <is>
-          <t>খাইরুলেছা বেগম</t>
+          <t>নুর জাহান বেগম</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০২০</t>
+          <t>১৫২৪০০০০৭০৩০</t>
         </is>
       </c>
       <c r="D191" s="4" t="inlineStr">
         <is>
-          <t>আবদুল জব্বার</t>
+          <t>আজীজুর রহমান</t>
         </is>
       </c>
       <c r="E191" s="4" t="inlineStr">
         <is>
-          <t>নুরজাহান বেগম</t>
+          <t>জমিলা খাতুন</t>
         </is>
       </c>
       <c r="F191" s="3" t="inlineStr">
@@ -8468,7 +8468,7 @@
       </c>
       <c r="G191" s="3" t="inlineStr">
         <is>
-          <t>০৬/০৯/১৯৬৮</t>
+          <t>২০/০৬/১৯৫৮</t>
         </is>
       </c>
       <c r="H191" s="5" t="inlineStr">
@@ -8480,27 +8480,27 @@
     <row r="192">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>০৭১৫</t>
+          <t>০৭১৪</t>
         </is>
       </c>
       <c r="B192" s="4" t="inlineStr">
         <is>
-          <t>নুর জাহান বেগম</t>
+          <t>মেহেরুলেসা বেগম</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৩০</t>
+          <t>১৫২৪০০০০৭০২৮</t>
         </is>
       </c>
       <c r="D192" s="4" t="inlineStr">
         <is>
-          <t>আজীজুর রহমান</t>
+          <t>কবির আহমদ</t>
         </is>
       </c>
       <c r="E192" s="4" t="inlineStr">
         <is>
-          <t>জমিলা খাতুন</t>
+          <t>মনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F192" s="3" t="inlineStr">
@@ -8510,7 +8510,7 @@
       </c>
       <c r="G192" s="3" t="inlineStr">
         <is>
-          <t>২০/০৬/১৯৫৮</t>
+          <t>০৭/০৮/১৯৮৬</t>
         </is>
       </c>
       <c r="H192" s="5" t="inlineStr">
@@ -8522,27 +8522,27 @@
     <row r="193">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>০৭১৪</t>
+          <t>০৭১২</t>
         </is>
       </c>
       <c r="B193" s="4" t="inlineStr">
         <is>
-          <t>মেহেরুলেসা বেগম</t>
+          <t>খাইরুলেছা বেগম</t>
         </is>
       </c>
       <c r="C193" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০২৮</t>
+          <t>১৫২৪০০০০৭০২০</t>
         </is>
       </c>
       <c r="D193" s="4" t="inlineStr">
         <is>
-          <t>কবির আহমদ</t>
+          <t>আবদুল জব্বার</t>
         </is>
       </c>
       <c r="E193" s="4" t="inlineStr">
         <is>
-          <t>মনোয়ারা বেগম</t>
+          <t>নুরজাহান বেগম</t>
         </is>
       </c>
       <c r="F193" s="3" t="inlineStr">
@@ -8552,7 +8552,7 @@
       </c>
       <c r="G193" s="3" t="inlineStr">
         <is>
-          <t>০৭/০৮/১৯৮৬</t>
+          <t>০৬/০৯/১৯৬৮</t>
         </is>
       </c>
       <c r="H193" s="5" t="inlineStr">
@@ -8564,27 +8564,27 @@
     <row r="194">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>০৭০৯</t>
+          <t>০৭০৭</t>
         </is>
       </c>
       <c r="B194" s="4" t="inlineStr">
         <is>
-          <t>জোহরা বেগম</t>
+          <t>হাজেরা খাতুন</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০১৫</t>
+          <t>১৫২৪০০০০৭০১৩</t>
         </is>
       </c>
       <c r="D194" s="4" t="inlineStr">
         <is>
-          <t>মোঃ হোসেন</t>
+          <t>গুরা মিয়া</t>
         </is>
       </c>
       <c r="E194" s="4" t="inlineStr">
         <is>
-          <t>মমতাজ বেগম</t>
+          <t>মোমেনা খাতুন</t>
         </is>
       </c>
       <c r="F194" s="3" t="inlineStr">
@@ -8594,7 +8594,7 @@
       </c>
       <c r="G194" s="3" t="inlineStr">
         <is>
-          <t>২০/০৯/১৯৬৯</t>
+          <t>১৫/০৭/১৯৫২</t>
         </is>
       </c>
       <c r="H194" s="5" t="inlineStr">
@@ -8984,27 +8984,27 @@
     <row r="204">
       <c r="A204" s="3" t="inlineStr">
         <is>
-          <t>০৭২৭</t>
+          <t>০৭২৬</t>
         </is>
       </c>
       <c r="B204" s="4" t="inlineStr">
         <is>
-          <t>শাহিনুর আকতার</t>
+          <t>রুবী আক্তার</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৪৯</t>
+          <t>১৫২৪০০০০৭০৪৮</t>
         </is>
       </c>
       <c r="D204" s="4" t="inlineStr">
         <is>
-          <t>ইসহাক মিয়া</t>
+          <t>গুরা মিয়া</t>
         </is>
       </c>
       <c r="E204" s="4" t="inlineStr">
         <is>
-          <t>শিরিয়া বেগম</t>
+          <t>মনজুরা বেগম</t>
         </is>
       </c>
       <c r="F204" s="3" t="inlineStr">
@@ -9014,7 +9014,7 @@
       </c>
       <c r="G204" s="3" t="inlineStr">
         <is>
-          <t>০১/০২/১৯৮২</t>
+          <t>১৭/০৮/১৯৭৩</t>
         </is>
       </c>
       <c r="H204" s="5" t="inlineStr">
@@ -9026,27 +9026,27 @@
     <row r="205">
       <c r="A205" s="3" t="inlineStr">
         <is>
-          <t>০৭২৮</t>
+          <t>০৭২৭</t>
         </is>
       </c>
       <c r="B205" s="4" t="inlineStr">
         <is>
-          <t>জ্যোত্স্না আক্তার</t>
+          <t>শাহিনুর আকতার</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৫১</t>
+          <t>১৫২৪০০০০৭০৪৯</t>
         </is>
       </c>
       <c r="D205" s="4" t="inlineStr">
         <is>
-          <t>নুরুল ইসলাম</t>
+          <t>ইসহাক মিয়া</t>
         </is>
       </c>
       <c r="E205" s="4" t="inlineStr">
         <is>
-          <t>মমতাজ বেগম</t>
+          <t>শিরিয়া বেগম</t>
         </is>
       </c>
       <c r="F205" s="3" t="inlineStr">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="G205" s="3" t="inlineStr">
         <is>
-          <t>১২/০৮/১৯৮৬</t>
+          <t>০১/০২/১৯৮২</t>
         </is>
       </c>
       <c r="H205" s="5" t="inlineStr">
@@ -9068,37 +9068,37 @@
     <row r="206">
       <c r="A206" s="3" t="inlineStr">
         <is>
-          <t>০৭২৬</t>
+          <t>০৭২৫</t>
         </is>
       </c>
       <c r="B206" s="4" t="inlineStr">
         <is>
-          <t>রুবী আক্তার</t>
+          <t>মেহেরুন্নেছা</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৪৮</t>
+          <t>১৫২৪০০০০৭০৪৭</t>
         </is>
       </c>
       <c r="D206" s="4" t="inlineStr">
         <is>
-          <t>গুরা মিয়া</t>
+          <t>গোলাম কাদের</t>
         </is>
       </c>
       <c r="E206" s="4" t="inlineStr">
         <is>
-          <t>মনজুরা বেগম</t>
+          <t>রুবী আখতার</t>
         </is>
       </c>
       <c r="F206" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G206" s="3" t="inlineStr">
         <is>
-          <t>১৭/০৮/১৯৭৩</t>
+          <t>১৭/০৮/১৯৮৮</t>
         </is>
       </c>
       <c r="H206" s="5" t="inlineStr">
@@ -9110,37 +9110,37 @@
     <row r="207">
       <c r="A207" s="3" t="inlineStr">
         <is>
-          <t>০৭২৫</t>
+          <t>০৭২৪</t>
         </is>
       </c>
       <c r="B207" s="4" t="inlineStr">
         <is>
-          <t>মেহেরুন্নেছা</t>
+          <t>রোকেয়া বেগম</t>
         </is>
       </c>
       <c r="C207" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৪৭</t>
+          <t>১৫২৪০০০০৭০৪৬</t>
         </is>
       </c>
       <c r="D207" s="4" t="inlineStr">
         <is>
-          <t>গোলাম কাদের</t>
+          <t>আবুল খায়ের</t>
         </is>
       </c>
       <c r="E207" s="4" t="inlineStr">
         <is>
-          <t>রুবী আখতার</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F207" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G207" s="3" t="inlineStr">
         <is>
-          <t>১৭/০৮/১৯৮৮</t>
+          <t>০৬/০৮/১৯৬৭</t>
         </is>
       </c>
       <c r="H207" s="5" t="inlineStr">
@@ -9152,27 +9152,27 @@
     <row r="208">
       <c r="A208" s="3" t="inlineStr">
         <is>
-          <t>০৭২৪</t>
+          <t>০৭২৮</t>
         </is>
       </c>
       <c r="B208" s="4" t="inlineStr">
         <is>
-          <t>রোকেয়া বেগম</t>
+          <t>জ্যোত্স্না আক্তার</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৪৬</t>
+          <t>১৫২৪০০০০৭০৫১</t>
         </is>
       </c>
       <c r="D208" s="4" t="inlineStr">
         <is>
-          <t>আবুল খায়ের</t>
+          <t>নুরুল ইসলাম</t>
         </is>
       </c>
       <c r="E208" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>মমতাজ বেগম</t>
         </is>
       </c>
       <c r="F208" s="3" t="inlineStr">
@@ -9182,7 +9182,7 @@
       </c>
       <c r="G208" s="3" t="inlineStr">
         <is>
-          <t>০৬/০৮/১৯৬৭</t>
+          <t>১২/০৮/১৯৮৬</t>
         </is>
       </c>
       <c r="H208" s="5" t="inlineStr">
@@ -9194,27 +9194,27 @@
     <row r="209">
       <c r="A209" s="3" t="inlineStr">
         <is>
-          <t>০৭৫৫</t>
+          <t>০৭২৩</t>
         </is>
       </c>
       <c r="B209" s="4" t="inlineStr">
         <is>
-          <t>সফিয়া খাতুন</t>
+          <t>রুনা আকতার</t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৯৫</t>
+          <t>১৫২৪০০০০৭০৪৫</t>
         </is>
       </c>
       <c r="D209" s="4" t="inlineStr">
         <is>
-          <t>আবদুল হাকিম</t>
+          <t>আহমেদ হোসেন</t>
         </is>
       </c>
       <c r="E209" s="4" t="inlineStr">
         <is>
-          <t>আচিয়া খাতুন</t>
+          <t>জন্নাত আরা বেগম</t>
         </is>
       </c>
       <c r="F209" s="3" t="inlineStr">
@@ -9224,7 +9224,7 @@
       </c>
       <c r="G209" s="3" t="inlineStr">
         <is>
-          <t>১০/১১/১৯৮৮</t>
+          <t>২২/০৬/১৯৮২</t>
         </is>
       </c>
       <c r="H209" s="5" t="inlineStr">
@@ -9236,37 +9236,37 @@
     <row r="210">
       <c r="A210" s="3" t="inlineStr">
         <is>
-          <t>০৭১৮</t>
+          <t>০৭৫৫</t>
         </is>
       </c>
       <c r="B210" s="4" t="inlineStr">
         <is>
-          <t>ছালেহা আক্তার</t>
+          <t>সফিয়া খাতুন</t>
         </is>
       </c>
       <c r="C210" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৩৭</t>
+          <t>১৫২৪০০০০৭০৯৫</t>
         </is>
       </c>
       <c r="D210" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইউনুচ</t>
+          <t>আবদুল হাকিম</t>
         </is>
       </c>
       <c r="E210" s="4" t="inlineStr">
         <is>
-          <t>কুনচুম খাতুন</t>
+          <t>আচিয়া খাতুন</t>
         </is>
       </c>
       <c r="F210" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G210" s="3" t="inlineStr">
         <is>
-          <t>২০/০১/১৯৮৯</t>
+          <t>১০/১১/১৯৮৮</t>
         </is>
       </c>
       <c r="H210" s="5" t="inlineStr">
@@ -9278,37 +9278,37 @@
     <row r="211">
       <c r="A211" s="3" t="inlineStr">
         <is>
-          <t>০৭৪৮</t>
+          <t>০৭১৭</t>
         </is>
       </c>
       <c r="B211" s="4" t="inlineStr">
         <is>
-          <t>রহিমা বেগম</t>
+          <t>মেহেরুলেছা</t>
         </is>
       </c>
       <c r="C211" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৮৪</t>
+          <t>১৫২৪০০০০৭০৩৬</t>
         </is>
       </c>
       <c r="D211" s="4" t="inlineStr">
         <is>
-          <t>ছিদ্দিক আহমেদ</t>
+          <t>মোহাম্মদ আবুল শরিফ</t>
         </is>
       </c>
       <c r="E211" s="4" t="inlineStr">
         <is>
-          <t>মেহেরুন্নিশা</t>
+          <t>হাফেজা খাতুন</t>
         </is>
       </c>
       <c r="F211" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>দর্জি</t>
         </is>
       </c>
       <c r="G211" s="3" t="inlineStr">
         <is>
-          <t>২০/০৩/১৯৬০</t>
+          <t>৩০/০১/১৯৮৪</t>
         </is>
       </c>
       <c r="H211" s="5" t="inlineStr">
@@ -9446,27 +9446,27 @@
     <row r="215">
       <c r="A215" s="3" t="inlineStr">
         <is>
-          <t>০৭২৩</t>
+          <t>০৭২২</t>
         </is>
       </c>
       <c r="B215" s="4" t="inlineStr">
         <is>
-          <t>রুনা আকতার</t>
+          <t>সাহিদা বেগম</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৪৫</t>
+          <t>১৫২৪০০০০৭০৪২</t>
         </is>
       </c>
       <c r="D215" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ হোসেন</t>
+          <t>কালু মিয়া</t>
         </is>
       </c>
       <c r="E215" s="4" t="inlineStr">
         <is>
-          <t>জন্নাত আরা বেগম</t>
+          <t>আমেনা বেগম</t>
         </is>
       </c>
       <c r="F215" s="3" t="inlineStr">
@@ -9476,7 +9476,7 @@
       </c>
       <c r="G215" s="3" t="inlineStr">
         <is>
-          <t>২২/০৬/১৯৮২</t>
+          <t>২০/০৮/১৯৬১</t>
         </is>
       </c>
       <c r="H215" s="5" t="inlineStr">
@@ -9488,27 +9488,27 @@
     <row r="216">
       <c r="A216" s="3" t="inlineStr">
         <is>
-          <t>০৭৩২</t>
+          <t>০৭৪৮</t>
         </is>
       </c>
       <c r="B216" s="4" t="inlineStr">
         <is>
-          <t>খালেদা আক্তার</t>
+          <t>রহিমা বেগম</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৫৬</t>
+          <t>১৫২৪০০০০৭০৮৪</t>
         </is>
       </c>
       <c r="D216" s="4" t="inlineStr">
         <is>
-          <t>সোলতান আহমেদ</t>
+          <t>ছিদ্দিক আহমেদ</t>
         </is>
       </c>
       <c r="E216" s="4" t="inlineStr">
         <is>
-          <t>হোছেন আরা বেগম</t>
+          <t>মেহেরুন্নিশা</t>
         </is>
       </c>
       <c r="F216" s="3" t="inlineStr">
@@ -9518,7 +9518,7 @@
       </c>
       <c r="G216" s="3" t="inlineStr">
         <is>
-          <t>২৭/০৭/১৯৮৪</t>
+          <t>২০/০৩/১৯৬০</t>
         </is>
       </c>
       <c r="H216" s="5" t="inlineStr">
@@ -9614,27 +9614,27 @@
     <row r="219">
       <c r="A219" s="3" t="inlineStr">
         <is>
-          <t>০৭৩৩</t>
+          <t>০৭৩২</t>
         </is>
       </c>
       <c r="B219" s="4" t="inlineStr">
         <is>
-          <t>শাহীন আক্তার</t>
+          <t>খালেদা আক্তার</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৫৭</t>
+          <t>১৫২৪০০০০৭০৫৬</t>
         </is>
       </c>
       <c r="D219" s="4" t="inlineStr">
         <is>
-          <t>আবদুল খালেক</t>
+          <t>সোলতান আহমেদ</t>
         </is>
       </c>
       <c r="E219" s="4" t="inlineStr">
         <is>
-          <t>রাহিমা বেগম</t>
+          <t>হোছেন আরা বেগম</t>
         </is>
       </c>
       <c r="F219" s="3" t="inlineStr">
@@ -9644,7 +9644,7 @@
       </c>
       <c r="G219" s="3" t="inlineStr">
         <is>
-          <t>১৭/০৫/১৯৮২</t>
+          <t>২৭/০৭/১৯৮৪</t>
         </is>
       </c>
       <c r="H219" s="5" t="inlineStr">
@@ -9782,27 +9782,27 @@
     <row r="223">
       <c r="A223" s="3" t="inlineStr">
         <is>
-          <t>০৭৫৪</t>
+          <t>০৭৩৫</t>
         </is>
       </c>
       <c r="B223" s="4" t="inlineStr">
         <is>
-          <t>রেহেনা আক্তার</t>
+          <t>শমসুন্নাহার</t>
         </is>
       </c>
       <c r="C223" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৯৪</t>
+          <t>১৫২৪০০০০৭০৫৯</t>
         </is>
       </c>
       <c r="D223" s="4" t="inlineStr">
         <is>
-          <t>কাবিল হোসেন</t>
+          <t>আশরাফ আলী</t>
         </is>
       </c>
       <c r="E223" s="4" t="inlineStr">
         <is>
-          <t>মরিয়ম খাতুন</t>
+          <t>ফাতেমা বেগম</t>
         </is>
       </c>
       <c r="F223" s="3" t="inlineStr">
@@ -9812,7 +9812,7 @@
       </c>
       <c r="G223" s="3" t="inlineStr">
         <is>
-          <t>১৮/০৮/১৯৮৩</t>
+          <t>১৬/০৯/১৯৭৮</t>
         </is>
       </c>
       <c r="H223" s="5" t="inlineStr">
@@ -9824,27 +9824,27 @@
     <row r="224">
       <c r="A224" s="3" t="inlineStr">
         <is>
-          <t>০৭২২</t>
+          <t>০৭৫৪</t>
         </is>
       </c>
       <c r="B224" s="4" t="inlineStr">
         <is>
-          <t>সাহিদা বেগম</t>
+          <t>রেহেনা আক্তার</t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৪২</t>
+          <t>১৫২৪০০০০৭০৯৪</t>
         </is>
       </c>
       <c r="D224" s="4" t="inlineStr">
         <is>
-          <t>কালু মিয়া</t>
+          <t>কাবিল হোসেন</t>
         </is>
       </c>
       <c r="E224" s="4" t="inlineStr">
         <is>
-          <t>আমেনা বেগম</t>
+          <t>মরিয়ম খাতুন</t>
         </is>
       </c>
       <c r="F224" s="3" t="inlineStr">
@@ -9854,7 +9854,7 @@
       </c>
       <c r="G224" s="3" t="inlineStr">
         <is>
-          <t>২০/০৮/১৯৬১</t>
+          <t>১৮/০৮/১৯৮৩</t>
         </is>
       </c>
       <c r="H224" s="5" t="inlineStr">
@@ -9866,27 +9866,27 @@
     <row r="225">
       <c r="A225" s="3" t="inlineStr">
         <is>
-          <t>০৭৩৪</t>
+          <t>০৭২১</t>
         </is>
       </c>
       <c r="B225" s="4" t="inlineStr">
         <is>
-          <t>সাজু আরা বেগম</t>
+          <t>লায়লা বেগম</t>
         </is>
       </c>
       <c r="C225" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৫৮</t>
+          <t>১৫২৪০০০০৭০৪১</t>
         </is>
       </c>
       <c r="D225" s="4" t="inlineStr">
         <is>
-          <t>সৈয়দ আহমেদ</t>
+          <t>আবদুল খালেক</t>
         </is>
       </c>
       <c r="E225" s="4" t="inlineStr">
         <is>
-          <t>আমেনা খাতুন</t>
+          <t>মোহেনা বেগম</t>
         </is>
       </c>
       <c r="F225" s="3" t="inlineStr">
@@ -9896,7 +9896,7 @@
       </c>
       <c r="G225" s="3" t="inlineStr">
         <is>
-          <t>১০/০৩/১৯৭৬</t>
+          <t>২২/০৫/১৯৫৮</t>
         </is>
       </c>
       <c r="H225" s="5" t="inlineStr">
@@ -9908,27 +9908,27 @@
     <row r="226">
       <c r="A226" s="3" t="inlineStr">
         <is>
-          <t>০৭২০</t>
+          <t>০৭৩৩</t>
         </is>
       </c>
       <c r="B226" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>শাহীন আক্তার</t>
         </is>
       </c>
       <c r="C226" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৪০</t>
+          <t>১৫২৪০০০০৭০৫৭</t>
         </is>
       </c>
       <c r="D226" s="4" t="inlineStr">
         <is>
-          <t>এজহার মিয়া</t>
+          <t>আবদুল খালেক</t>
         </is>
       </c>
       <c r="E226" s="4" t="inlineStr">
         <is>
-          <t>মোবারক খাতুন</t>
+          <t>রাহিমা বেগম</t>
         </is>
       </c>
       <c r="F226" s="3" t="inlineStr">
@@ -9938,7 +9938,7 @@
       </c>
       <c r="G226" s="3" t="inlineStr">
         <is>
-          <t>২৪/০৭/১৯৫২</t>
+          <t>১৭/০৫/১৯৮২</t>
         </is>
       </c>
       <c r="H226" s="5" t="inlineStr">
@@ -9950,37 +9950,37 @@
     <row r="227">
       <c r="A227" s="3" t="inlineStr">
         <is>
-          <t>০৭৩৫</t>
+          <t>০৭১৮</t>
         </is>
       </c>
       <c r="B227" s="4" t="inlineStr">
         <is>
-          <t>শমসুন্নাহার</t>
+          <t>ছালেহা আক্তার</t>
         </is>
       </c>
       <c r="C227" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৫৯</t>
+          <t>১৫২৪০০০০৭০৩৭</t>
         </is>
       </c>
       <c r="D227" s="4" t="inlineStr">
         <is>
-          <t>আশরাফ আলী</t>
+          <t>মোহাম্মদ ইউনুচ</t>
         </is>
       </c>
       <c r="E227" s="4" t="inlineStr">
         <is>
-          <t>ফাতেমা বেগম</t>
+          <t>কুনচুম খাতুন</t>
         </is>
       </c>
       <c r="F227" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G227" s="3" t="inlineStr">
         <is>
-          <t>১৬/০৯/১৯৭৮</t>
+          <t>২০/০১/১৯৮৯</t>
         </is>
       </c>
       <c r="H227" s="5" t="inlineStr">
@@ -9992,37 +9992,37 @@
     <row r="228">
       <c r="A228" s="3" t="inlineStr">
         <is>
-          <t>০৭১৭</t>
+          <t>০৭৩৪</t>
         </is>
       </c>
       <c r="B228" s="4" t="inlineStr">
         <is>
-          <t>মেহেরুলেছা</t>
+          <t>সাজু আরা বেগম</t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৩৬</t>
+          <t>১৫২৪০০০০৭০৫৮</t>
         </is>
       </c>
       <c r="D228" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আবুল শরিফ</t>
+          <t>সৈয়দ আহমেদ</t>
         </is>
       </c>
       <c r="E228" s="4" t="inlineStr">
         <is>
-          <t>হাফেজা খাতুন</t>
+          <t>আমেনা খাতুন</t>
         </is>
       </c>
       <c r="F228" s="3" t="inlineStr">
         <is>
-          <t>দর্জি</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G228" s="3" t="inlineStr">
         <is>
-          <t>৩০/০১/১৯৮৪</t>
+          <t>১০/০৩/১৯৭৬</t>
         </is>
       </c>
       <c r="H228" s="5" t="inlineStr">
@@ -10244,27 +10244,27 @@
     <row r="234">
       <c r="A234" s="3" t="inlineStr">
         <is>
-          <t>০৭২১</t>
+          <t>০৭২০</t>
         </is>
       </c>
       <c r="B234" s="4" t="inlineStr">
         <is>
-          <t>লায়লা বেগম</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="C234" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৭০৪১</t>
+          <t>১৫২৪০০০০৭০৪০</t>
         </is>
       </c>
       <c r="D234" s="4" t="inlineStr">
         <is>
-          <t>আবদুল খালেক</t>
+          <t>এজহার মিয়া</t>
         </is>
       </c>
       <c r="E234" s="4" t="inlineStr">
         <is>
-          <t>মোহেনা বেগম</t>
+          <t>মোবারক খাতুন</t>
         </is>
       </c>
       <c r="F234" s="3" t="inlineStr">
@@ -10274,7 +10274,7 @@
       </c>
       <c r="G234" s="3" t="inlineStr">
         <is>
-          <t>২২/০৫/১৯৫৮</t>
+          <t>২৪/০৭/১৯৫২</t>
         </is>
       </c>
       <c r="H234" s="5" t="inlineStr">
@@ -10622,37 +10622,37 @@
     <row r="243">
       <c r="A243" s="3" t="inlineStr">
         <is>
-          <t>০৮৬৭</t>
+          <t>০৬৭২</t>
         </is>
       </c>
       <c r="B243" s="4" t="inlineStr">
         <is>
-          <t>উম্মে হবিবা</t>
+          <t>তাহেরা বেগম</t>
         </is>
       </c>
       <c r="C243" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৩৫৮</t>
+          <t>১৫২৪০০০০৬৯৪৪</t>
         </is>
       </c>
       <c r="D243" s="4" t="inlineStr">
         <is>
-          <t>সামগুল আলম</t>
+          <t>আলতাপ মিয়া</t>
         </is>
       </c>
       <c r="E243" s="4" t="inlineStr">
         <is>
-          <t>রাশেদা বেগম</t>
+          <t>ফাতেমা বেগম</t>
         </is>
       </c>
       <c r="F243" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G243" s="3" t="inlineStr">
         <is>
-          <t>১৩/০৬/১৯৯৩</t>
+          <t>৩০/০৮/১৯৮৫</t>
         </is>
       </c>
       <c r="H243" s="5" t="inlineStr">
@@ -10706,39 +10706,35 @@
     <row r="245">
       <c r="A245" s="3" t="inlineStr">
         <is>
-          <t>১২৭৮</t>
+          <t>০৮৭২</t>
         </is>
       </c>
       <c r="B245" s="4" t="inlineStr">
         <is>
-          <t>হুমাইরা জামাত</t>
+          <t>জান্নাতুল নাসিম</t>
         </is>
       </c>
       <c r="C245" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০১৮৬</t>
+          <t>১৫২৪০০০০০৩৬৭</t>
         </is>
       </c>
       <c r="D245" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আলী</t>
+          <t>সামগুল আলম</t>
         </is>
       </c>
       <c r="E245" s="4" t="inlineStr">
         <is>
-          <t>মনোয়ারা বেগম</t>
+          <t>রাশেদা বেগম</t>
         </is>
       </c>
       <c r="F245" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G245" s="3" t="inlineStr">
-        <is>
-          <t>১০/১১/২০০৮</t>
-        </is>
-      </c>
+          <t>ছগীর মাষ্টারের বাড়ী</t>
+        </is>
+      </c>
+      <c r="G245" s="3" t="inlineStr"/>
       <c r="H245" s="5" t="inlineStr">
         <is>
           <t>এনু মিয়া পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
@@ -10748,37 +10744,37 @@
     <row r="246">
       <c r="A246" s="3" t="inlineStr">
         <is>
-          <t>১৩০৫</t>
+          <t>১২৭৮</t>
         </is>
       </c>
       <c r="B246" s="4" t="inlineStr">
         <is>
-          <t>আফরোজা সোলতানা নওরিন</t>
+          <t>হুমাইরা জামাত</t>
         </is>
       </c>
       <c r="C246" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০২২৯</t>
+          <t>১৫২৪০০২১০১৮৬</t>
         </is>
       </c>
       <c r="D246" s="4" t="inlineStr">
         <is>
-          <t>আবু তাহের</t>
+          <t>মোহাম্মদ আলী</t>
         </is>
       </c>
       <c r="E246" s="4" t="inlineStr">
         <is>
-          <t>জিয়ারতুস্সা</t>
+          <t>মনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F246" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G246" s="3" t="inlineStr">
         <is>
-          <t>১০/০৬/২০০৩</t>
+          <t>১০/১১/২০০৮</t>
         </is>
       </c>
       <c r="H246" s="5" t="inlineStr">
@@ -10790,27 +10786,27 @@
     <row r="247">
       <c r="A247" s="3" t="inlineStr">
         <is>
-          <t>০৮১৩</t>
+          <t>১৩০৫</t>
         </is>
       </c>
       <c r="B247" s="4" t="inlineStr">
         <is>
-          <t>রিমা আক্তার</t>
+          <t>আফরোজা সোলতানা নওরিন</t>
         </is>
       </c>
       <c r="C247" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০১৩৪</t>
+          <t>১৫২৪০০২১০২২৯</t>
         </is>
       </c>
       <c r="D247" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল হোসাইন</t>
+          <t>আবু তাহের</t>
         </is>
       </c>
       <c r="E247" s="4" t="inlineStr">
         <is>
-          <t>কুলচুমা বেগম</t>
+          <t>জিয়ারতুস্সা</t>
         </is>
       </c>
       <c r="F247" s="3" t="inlineStr">
@@ -10820,7 +10816,7 @@
       </c>
       <c r="G247" s="3" t="inlineStr">
         <is>
-          <t>২০/০১/১৯৯২</t>
+          <t>১০/০৬/২০০৩</t>
         </is>
       </c>
       <c r="H247" s="5" t="inlineStr">
@@ -10832,27 +10828,27 @@
     <row r="248">
       <c r="A248" s="3" t="inlineStr">
         <is>
-          <t>০৭৯৪</t>
+          <t>০৮১৩</t>
         </is>
       </c>
       <c r="B248" s="4" t="inlineStr">
         <is>
-          <t>তাছিলিমা আক্তার</t>
+          <t>রিমা আক্তার</t>
         </is>
       </c>
       <c r="C248" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০১৩৩</t>
+          <t>১৫২৪০০০০০১৩৪</t>
         </is>
       </c>
       <c r="D248" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল আলিম</t>
+          <t>আব্দুল হোসাইন</t>
         </is>
       </c>
       <c r="E248" s="4" t="inlineStr">
         <is>
-          <t>শামীম আরা বেগম</t>
+          <t>কুলচুমা বেগম</t>
         </is>
       </c>
       <c r="F248" s="3" t="inlineStr">
@@ -10862,7 +10858,7 @@
       </c>
       <c r="G248" s="3" t="inlineStr">
         <is>
-          <t>১৮/০৪/১৯৯১</t>
+          <t>২০/০১/১৯৯২</t>
         </is>
       </c>
       <c r="H248" s="5" t="inlineStr">
@@ -10874,27 +10870,27 @@
     <row r="249">
       <c r="A249" s="3" t="inlineStr">
         <is>
-          <t>১৩০৭</t>
+          <t>০৭৯৪</t>
         </is>
       </c>
       <c r="B249" s="4" t="inlineStr">
         <is>
-          <t>তাজমিন জাহান সোনিয়া</t>
+          <t>তাছিলিমা আক্তার</t>
         </is>
       </c>
       <c r="C249" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০২৩১</t>
+          <t>১৫২৪০০০০০১৩৩</t>
         </is>
       </c>
       <c r="D249" s="4" t="inlineStr">
         <is>
-          <t>আবু তাহের</t>
+          <t>আব্দুল আলিম</t>
         </is>
       </c>
       <c r="E249" s="4" t="inlineStr">
         <is>
-          <t>রোকেয়া বেগম</t>
+          <t>শামীম আরা বেগম</t>
         </is>
       </c>
       <c r="F249" s="3" t="inlineStr">
@@ -10904,7 +10900,7 @@
       </c>
       <c r="G249" s="3" t="inlineStr">
         <is>
-          <t>১১/০১/১৯৯৮</t>
+          <t>১৮/০৪/১৯৯১</t>
         </is>
       </c>
       <c r="H249" s="5" t="inlineStr">
@@ -10916,27 +10912,27 @@
     <row r="250">
       <c r="A250" s="3" t="inlineStr">
         <is>
-          <t>১৩১২</t>
+          <t>১৩০৭</t>
         </is>
       </c>
       <c r="B250" s="4" t="inlineStr">
         <is>
-          <t>শারমিন আকতার</t>
+          <t>তাজমিন জাহান সোনিয়া</t>
         </is>
       </c>
       <c r="C250" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০২৪৪</t>
+          <t>১৫২৪০০২১০২৩১</t>
         </is>
       </c>
       <c r="D250" s="4" t="inlineStr">
         <is>
-          <t>আবদুস হুমদ</t>
+          <t>আবু তাহের</t>
         </is>
       </c>
       <c r="E250" s="4" t="inlineStr">
         <is>
-          <t>হাজেরা বেগম</t>
+          <t>রোকেয়া বেগম</t>
         </is>
       </c>
       <c r="F250" s="3" t="inlineStr">
@@ -10946,39 +10942,39 @@
       </c>
       <c r="G250" s="3" t="inlineStr">
         <is>
-          <t>২০/১০/২০০২</t>
+          <t>১১/০১/১৯৯৮</t>
         </is>
       </c>
       <c r="H250" s="5" t="inlineStr">
         <is>
-          <t>৩২৫, এনু মিয়া পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>এনু মিয়া পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="3" t="inlineStr">
         <is>
-          <t>০৬৭২</t>
+          <t>১৩১২</t>
         </is>
       </c>
       <c r="B251" s="4" t="inlineStr">
         <is>
-          <t>তাহেরা বেগম</t>
+          <t>শারমিন আকতার</t>
         </is>
       </c>
       <c r="C251" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৯৪৪</t>
+          <t>১৫২৪০০২১০২৪৪</t>
         </is>
       </c>
       <c r="D251" s="4" t="inlineStr">
         <is>
-          <t>আলতাপ মিয়া</t>
+          <t>আবদুস হুমদ</t>
         </is>
       </c>
       <c r="E251" s="4" t="inlineStr">
         <is>
-          <t>ফাতেমা বেগম</t>
+          <t>হাজেরা বেগম</t>
         </is>
       </c>
       <c r="F251" s="3" t="inlineStr">
@@ -10988,123 +10984,123 @@
       </c>
       <c r="G251" s="3" t="inlineStr">
         <is>
-          <t>৩০/০৮/১৯৮৫</t>
+          <t>২০/১০/২০০২</t>
         </is>
       </c>
       <c r="H251" s="5" t="inlineStr">
         <is>
-          <t>এনু মিয়া পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>৩২৫, এনু মিয়া পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="3" t="inlineStr">
         <is>
-          <t>১৩০৬</t>
+          <t>০৮৬৭</t>
         </is>
       </c>
       <c r="B252" s="4" t="inlineStr">
         <is>
-          <t>রুকসানা আক্তার</t>
+          <t>উম্মে হবিবা</t>
         </is>
       </c>
       <c r="C252" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০২৩০</t>
+          <t>১৫২৪০০০০০৩৫৮</t>
         </is>
       </c>
       <c r="D252" s="4" t="inlineStr">
         <is>
-          <t>আমির আলী</t>
+          <t>সামগুল আলম</t>
         </is>
       </c>
       <c r="E252" s="4" t="inlineStr">
         <is>
-          <t>মমতাজ বেগম</t>
+          <t>রাশেদা বেগম</t>
         </is>
       </c>
       <c r="F252" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G252" s="3" t="inlineStr">
         <is>
-          <t>২৩/০৭/১৯৯৮</t>
+          <t>১৩/০৬/১৯৯৩</t>
         </is>
       </c>
       <c r="H252" s="5" t="inlineStr">
         <is>
-          <t>এনু মিয়া পাড়া, ছড়ার কুল, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>এনু মিয়া পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="3" t="inlineStr">
         <is>
-          <t>০৯২৩</t>
+          <t>১৩০৬</t>
         </is>
       </c>
       <c r="B253" s="4" t="inlineStr">
         <is>
-          <t>তাহিমিনা সোলতানা আর্থি</t>
+          <t>রুকসানা আক্তার</t>
         </is>
       </c>
       <c r="C253" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৫১২</t>
+          <t>১৫২৪০০২১০২৩০</t>
         </is>
       </c>
       <c r="D253" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ নবী</t>
+          <t>আমির আলী</t>
         </is>
       </c>
       <c r="E253" s="4" t="inlineStr">
         <is>
-          <t>পারভীন আক্তার</t>
+          <t>মমতাজ বেগম</t>
         </is>
       </c>
       <c r="F253" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G253" s="3" t="inlineStr">
         <is>
-          <t>২৫/০৩/১৯৯৭</t>
+          <t>২৩/০৭/১৯৯৮</t>
         </is>
       </c>
       <c r="H253" s="5" t="inlineStr">
         <is>
-          <t>এনু মিয়া সওঁ বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>এনু মিয়া পাড়া, ছড়ার কুল, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="3" t="inlineStr">
         <is>
-          <t>০৯৬৪</t>
+          <t>০৯২৩</t>
         </is>
       </c>
       <c r="B254" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ মাসরুপা খানম হীরা</t>
+          <t>তাহিমিনা সোলতানা আর্থি</t>
         </is>
       </c>
       <c r="C254" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৬১৪</t>
+          <t>১৫২৪০০০০০৫১২</t>
         </is>
       </c>
       <c r="D254" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ হারুনুর রশিদ</t>
+          <t>আহমেদ নবী</t>
         </is>
       </c>
       <c r="E254" s="4" t="inlineStr">
         <is>
-          <t>তাহেরা বেগম</t>
+          <t>পারভীন আক্তার</t>
         </is>
       </c>
       <c r="F254" s="3" t="inlineStr">
@@ -11114,81 +11110,81 @@
       </c>
       <c r="G254" s="3" t="inlineStr">
         <is>
-          <t>০৭/০৯/১৯৯৮</t>
+          <t>২৫/০৩/১৯৯৭</t>
         </is>
       </c>
       <c r="H254" s="5" t="inlineStr">
         <is>
-          <t>এনু মিয়া সওঃ বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>এনু মিয়া সওঁ বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="3" t="inlineStr">
         <is>
-          <t>১২৫২</t>
+          <t>০৯৬৪</t>
         </is>
       </c>
       <c r="B255" s="4" t="inlineStr">
         <is>
-          <t>মোছাম্মৎ তানজিনা আকতার</t>
+          <t>মোহাম্মদ মাসরুপা খানম হীরা</t>
         </is>
       </c>
       <c r="C255" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০১২৫</t>
+          <t>১৫২৪০০০০০৬১৪</t>
         </is>
       </c>
       <c r="D255" s="4" t="inlineStr">
         <is>
-          <t>মোঃ ইউচুপ</t>
+          <t>মোহাম্মদ হারুনুর রশিদ</t>
         </is>
       </c>
       <c r="E255" s="4" t="inlineStr">
         <is>
-          <t>মোছাঃ গোলতাজ বেগম</t>
+          <t>তাহেরা বেগম</t>
         </is>
       </c>
       <c r="F255" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G255" s="3" t="inlineStr">
         <is>
-          <t>২১/০৮/২০০৪</t>
+          <t>০৭/০৯/১৯৯৮</t>
         </is>
       </c>
       <c r="H255" s="5" t="inlineStr">
         <is>
-          <t>৩৬৬, এনু মিয়া সওদাগরের বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>এনু মিয়া সওঃ বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="3" t="inlineStr">
         <is>
-          <t>০৮৯৬</t>
+          <t>১২৫২</t>
         </is>
       </c>
       <c r="B256" s="4" t="inlineStr">
         <is>
-          <t>নিলুফার ইয়াছমিন</t>
+          <t>মোছাম্মৎ তানজিনা আকতার</t>
         </is>
       </c>
       <c r="C256" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৪৪৬</t>
+          <t>১৫২৪০০২১০১২৫</t>
         </is>
       </c>
       <c r="D256" s="4" t="inlineStr">
         <is>
-          <t>আশরাফ আলী</t>
+          <t>মোঃ ইউচুপ</t>
         </is>
       </c>
       <c r="E256" s="4" t="inlineStr">
         <is>
-          <t>নুর জাহান</t>
+          <t>মোছাঃ গোলতাজ বেগম</t>
         </is>
       </c>
       <c r="F256" s="3" t="inlineStr">
@@ -11198,49 +11194,49 @@
       </c>
       <c r="G256" s="3" t="inlineStr">
         <is>
-          <t>০৩/০২/১৯৯৩</t>
+          <t>২১/০৮/২০০৪</t>
         </is>
       </c>
       <c r="H256" s="5" t="inlineStr">
         <is>
-          <t>এনু মিয়া সন্ত বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>৩৬৬, এনু মিয়া সওদাগরের বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="3" t="inlineStr">
         <is>
-          <t>০৮৯৮</t>
+          <t>০৯১৩</t>
         </is>
       </c>
       <c r="B257" s="4" t="inlineStr">
         <is>
-          <t>রোকিয়া বেগম</t>
+          <t>তসলিমান্নিছা মুক্তা</t>
         </is>
       </c>
       <c r="C257" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৪৫২</t>
+          <t>১৫২৪০০০০০৪৯৫</t>
         </is>
       </c>
       <c r="D257" s="4" t="inlineStr">
         <is>
-          <t>কেরবান আরী</t>
+          <t>মোহাম্মদ তৈয়ব আলী</t>
         </is>
       </c>
       <c r="E257" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>শাহিদা বেগম</t>
         </is>
       </c>
       <c r="F257" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G257" s="3" t="inlineStr">
         <is>
-          <t>১০/০২/১৯৯৩</t>
+          <t>০৫/০৮/১৯৯৭</t>
         </is>
       </c>
       <c r="H257" s="5" t="inlineStr">
@@ -11252,37 +11248,37 @@
     <row r="258">
       <c r="A258" s="3" t="inlineStr">
         <is>
-          <t>০৯১৩</t>
+          <t>০৮৯৬</t>
         </is>
       </c>
       <c r="B258" s="4" t="inlineStr">
         <is>
-          <t>তসলিমান্নিছা মুক্তা</t>
+          <t>নিলুফার ইয়াছমিন</t>
         </is>
       </c>
       <c r="C258" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৪৯৫</t>
+          <t>১৫২৪০০০০০৪৪৬</t>
         </is>
       </c>
       <c r="D258" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ তৈয়ব আলী</t>
+          <t>আশরাফ আলী</t>
         </is>
       </c>
       <c r="E258" s="4" t="inlineStr">
         <is>
-          <t>শাহিদা বেগম</t>
+          <t>নুর জাহান</t>
         </is>
       </c>
       <c r="F258" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G258" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৮/১৯৯৭</t>
+          <t>০৩/০২/১৯৯৩</t>
         </is>
       </c>
       <c r="H258" s="5" t="inlineStr">
@@ -11294,27 +11290,27 @@
     <row r="259">
       <c r="A259" s="3" t="inlineStr">
         <is>
-          <t>০৭৬৭</t>
+          <t>০৮৯৮</t>
         </is>
       </c>
       <c r="B259" s="4" t="inlineStr">
         <is>
-          <t>রেনু আক্তার</t>
+          <t>রোকিয়া বেগম</t>
         </is>
       </c>
       <c r="C259" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০০২৯</t>
+          <t>১৫২৪০০০০০৪৫২</t>
         </is>
       </c>
       <c r="D259" s="4" t="inlineStr">
         <is>
-          <t>সাহাব মিয়া</t>
+          <t>কেরবান আরী</t>
         </is>
       </c>
       <c r="E259" s="4" t="inlineStr">
         <is>
-          <t>বাছু বিবি</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F259" s="3" t="inlineStr">
@@ -11324,39 +11320,39 @@
       </c>
       <c r="G259" s="3" t="inlineStr">
         <is>
-          <t>১৩/০৯/১৯৭৭</t>
+          <t>১০/০২/১৯৯৩</t>
         </is>
       </c>
       <c r="H259" s="5" t="inlineStr">
         <is>
-          <t>এনু মিয়ার পাড়া, মধ্য এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>এনু মিয়া সন্ত বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="3" t="inlineStr">
         <is>
-          <t>০৭৮২</t>
+          <t>০৭৬৭</t>
         </is>
       </c>
       <c r="B260" s="4" t="inlineStr">
         <is>
-          <t>নাজমা সুলতানা</t>
+          <t>রেনু আক্তার</t>
         </is>
       </c>
       <c r="C260" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০০৪৪</t>
+          <t>১৫২৪০০০০০০২৯</t>
         </is>
       </c>
       <c r="D260" s="4" t="inlineStr">
         <is>
-          <t>শামসুল আলম</t>
+          <t>সাহাব মিয়া</t>
         </is>
       </c>
       <c r="E260" s="4" t="inlineStr">
         <is>
-          <t>রাবেয়া খানম তালুকদার</t>
+          <t>বাছু বিবি</t>
         </is>
       </c>
       <c r="F260" s="3" t="inlineStr">
@@ -11366,7 +11362,7 @@
       </c>
       <c r="G260" s="3" t="inlineStr">
         <is>
-          <t>১৭/০৫/১৯৮৯</t>
+          <t>১৩/০৯/১৯৭৭</t>
         </is>
       </c>
       <c r="H260" s="5" t="inlineStr">
@@ -11378,27 +11374,27 @@
     <row r="261">
       <c r="A261" s="3" t="inlineStr">
         <is>
-          <t>০৯৯২</t>
+          <t>০৭৮২</t>
         </is>
       </c>
       <c r="B261" s="4" t="inlineStr">
         <is>
-          <t>জামাতুন নাস্সিম এয়ানি</t>
+          <t>নাজমা সুলতানা</t>
         </is>
       </c>
       <c r="C261" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৬৬৫</t>
+          <t>১৫২৪০০০০০০৪৪</t>
         </is>
       </c>
       <c r="D261" s="4" t="inlineStr">
         <is>
-          <t>মৃত আব্দুল কাশেম</t>
+          <t>শামসুল আলম</t>
         </is>
       </c>
       <c r="E261" s="4" t="inlineStr">
         <is>
-          <t>রোকেয়া বেগম</t>
+          <t>রাবেয়া খানম তালুকদার</t>
         </is>
       </c>
       <c r="F261" s="3" t="inlineStr">
@@ -11408,39 +11404,39 @@
       </c>
       <c r="G261" s="3" t="inlineStr">
         <is>
-          <t>০১/০২/১৯৯৬</t>
+          <t>১৭/০৫/১৯৮৯</t>
         </is>
       </c>
       <c r="H261" s="5" t="inlineStr">
         <is>
-          <t>এনু মিয়ার বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>এনু মিয়ার পাড়া, মধ্য এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="3" t="inlineStr">
         <is>
-          <t>০৮০৩</t>
+          <t>০৯৯২</t>
         </is>
       </c>
       <c r="B262" s="4" t="inlineStr">
         <is>
-          <t>তাছিমিন আক্তার</t>
+          <t>জামাতুন নাস্সিম এয়ানি</t>
         </is>
       </c>
       <c r="C262" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০২৩৬</t>
+          <t>১৫২৪০০০০০৬৬৫</t>
         </is>
       </c>
       <c r="D262" s="4" t="inlineStr">
         <is>
-          <t>হাকিম আলী</t>
+          <t>মৃত আব্দুল কাশেম</t>
         </is>
       </c>
       <c r="E262" s="4" t="inlineStr">
         <is>
-          <t>হাবিবা খাতুন</t>
+          <t>রোকেয়া বেগম</t>
         </is>
       </c>
       <c r="F262" s="3" t="inlineStr">
@@ -11450,7 +11446,7 @@
       </c>
       <c r="G262" s="3" t="inlineStr">
         <is>
-          <t>০৫/১০/১৯৮৮</t>
+          <t>০১/০২/১৯৯৬</t>
         </is>
       </c>
       <c r="H262" s="5" t="inlineStr">
@@ -11546,27 +11542,27 @@
     <row r="265">
       <c r="A265" s="3" t="inlineStr">
         <is>
-          <t>০৮৮২</t>
+          <t>০৮০৩</t>
         </is>
       </c>
       <c r="B265" s="4" t="inlineStr">
         <is>
-          <t>সালমা আক্তার</t>
+          <t>তাছিমিন আক্তার</t>
         </is>
       </c>
       <c r="C265" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৪০</t>
+          <t>১৫২৪০০০০০২৩৬</t>
         </is>
       </c>
       <c r="D265" s="4" t="inlineStr">
         <is>
-          <t>মোঃ সাগের</t>
+          <t>হাকিম আলী</t>
         </is>
       </c>
       <c r="E265" s="4" t="inlineStr">
         <is>
-          <t>মোছাঃ নুর বেগম</t>
+          <t>হাবিবা খাতুন</t>
         </is>
       </c>
       <c r="F265" s="3" t="inlineStr">
@@ -11576,54 +11572,54 @@
       </c>
       <c r="G265" s="3" t="inlineStr">
         <is>
-          <t>০১/০৮/১৯৯৫</t>
+          <t>০৫/১০/১৯৮৮</t>
         </is>
       </c>
       <c r="H265" s="5" t="inlineStr">
         <is>
-          <t>এনু মিয়ার বাড়ি, ছড়ারকুল, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>এনু মিয়ার বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="3" t="inlineStr">
         <is>
-          <t>০৮৭২</t>
+          <t>০৮৮২</t>
         </is>
       </c>
       <c r="B266" s="4" t="inlineStr">
         <is>
-          <t>জান্নাতুল নাঈম</t>
+          <t>সালমা আক্তার</t>
         </is>
       </c>
       <c r="C266" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৩৬৭</t>
+          <t>১৫২৪০০০০০৪০</t>
         </is>
       </c>
       <c r="D266" s="4" t="inlineStr">
         <is>
-          <t>সামশুল আলম</t>
+          <t>মোঃ সাগের</t>
         </is>
       </c>
       <c r="E266" s="4" t="inlineStr">
         <is>
-          <t>রাশেদা বেগম</t>
+          <t>মোছাঃ নুর বেগম</t>
         </is>
       </c>
       <c r="F266" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G266" s="3" t="inlineStr">
         <is>
-          <t>২৬/০৪/১৯৯৫</t>
+          <t>০১/০৮/১৯৯৫</t>
         </is>
       </c>
       <c r="H266" s="5" t="inlineStr">
         <is>
-          <t>এনু মিয়া পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>এনু মিয়ার বাড়ি, ছড়ারকুল, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -11672,27 +11668,27 @@
     <row r="268">
       <c r="A268" s="3" t="inlineStr">
         <is>
-          <t>০৯৮৯</t>
+          <t>১০০৩</t>
         </is>
       </c>
       <c r="B268" s="4" t="inlineStr">
         <is>
-          <t>সানজিদা সোলতানা রুনা</t>
+          <t>ইয়াছমিন আকতার</t>
         </is>
       </c>
       <c r="C268" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৬৫৮</t>
+          <t>১৫২৪০০০০০৬৯৩</t>
         </is>
       </c>
       <c r="D268" s="4" t="inlineStr">
         <is>
-          <t>আবদুস হোবহান</t>
+          <t>আহমেদ মিয়া</t>
         </is>
       </c>
       <c r="E268" s="4" t="inlineStr">
         <is>
-          <t>কুলচুমা বেগম</t>
+          <t>রাবেয়া খাতুন</t>
         </is>
       </c>
       <c r="F268" s="3" t="inlineStr">
@@ -11702,7 +11698,7 @@
       </c>
       <c r="G268" s="3" t="inlineStr">
         <is>
-          <t>২৯/১২/১৯৯৬</t>
+          <t>০৯/০৮/১৯৯৭</t>
         </is>
       </c>
       <c r="H268" s="5" t="inlineStr">
@@ -11714,27 +11710,27 @@
     <row r="269">
       <c r="A269" s="3" t="inlineStr">
         <is>
-          <t>১০০৩</t>
+          <t>০৯৮৯</t>
         </is>
       </c>
       <c r="B269" s="4" t="inlineStr">
         <is>
-          <t>ইয়াছমিন আকতার</t>
+          <t>সানজিদা সোলতানা রুনা</t>
         </is>
       </c>
       <c r="C269" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৬৯৩</t>
+          <t>১৫২৪০০০০০৬৫৮</t>
         </is>
       </c>
       <c r="D269" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ মিয়া</t>
+          <t>আবদুস হোবহান</t>
         </is>
       </c>
       <c r="E269" s="4" t="inlineStr">
         <is>
-          <t>রাবেয়া খাতুন</t>
+          <t>কুলচুমা বেগম</t>
         </is>
       </c>
       <c r="F269" s="3" t="inlineStr">
@@ -11744,7 +11740,7 @@
       </c>
       <c r="G269" s="3" t="inlineStr">
         <is>
-          <t>০৯/০৮/১৯৯৭</t>
+          <t>২৯/১২/১৯৯৬</t>
         </is>
       </c>
       <c r="H269" s="5" t="inlineStr">
@@ -11840,27 +11836,27 @@
     <row r="272">
       <c r="A272" s="3" t="inlineStr">
         <is>
-          <t>০৩৯২</t>
+          <t>০৩৮৬</t>
         </is>
       </c>
       <c r="B272" s="4" t="inlineStr">
         <is>
-          <t>জান্নাতুল ফেরদৌস</t>
+          <t>হাসিনা আক্তার বুলু</t>
         </is>
       </c>
       <c r="C272" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২৬৫</t>
+          <t>১৫২৪০০০০৬২৫৪</t>
         </is>
       </c>
       <c r="D272" s="4" t="inlineStr">
         <is>
-          <t>নুরুল ইসলাম</t>
+          <t>আবদুল খাইর</t>
         </is>
       </c>
       <c r="E272" s="4" t="inlineStr">
         <is>
-          <t>নাসিমা আকতার</t>
+          <t>নুরুনাহর</t>
         </is>
       </c>
       <c r="F272" s="3" t="inlineStr">
@@ -11870,7 +11866,7 @@
       </c>
       <c r="G272" s="3" t="inlineStr">
         <is>
-          <t>০১/০৭/১৯৮৭</t>
+          <t>০১/০৫/১৯৭৭</t>
         </is>
       </c>
       <c r="H272" s="5" t="inlineStr">
@@ -11882,27 +11878,27 @@
     <row r="273">
       <c r="A273" s="3" t="inlineStr">
         <is>
-          <t>০৩৮৮</t>
+          <t>০৩৯৩</t>
         </is>
       </c>
       <c r="B273" s="4" t="inlineStr">
         <is>
-          <t>রোজিনা আকতার</t>
+          <t>জন্মত আরা বেগম</t>
         </is>
       </c>
       <c r="C273" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২৫৬</t>
+          <t>১৫২৪০০০০৬২৬৭</t>
         </is>
       </c>
       <c r="D273" s="4" t="inlineStr">
         <is>
-          <t>কুলু মিশ্রা</t>
+          <t>এমদাদ মিশ্রা</t>
         </is>
       </c>
       <c r="E273" s="4" t="inlineStr">
         <is>
-          <t>এলমা খাতুন</t>
+          <t>আয়শা খাতুন</t>
         </is>
       </c>
       <c r="F273" s="3" t="inlineStr">
@@ -11912,7 +11908,7 @@
       </c>
       <c r="G273" s="3" t="inlineStr">
         <is>
-          <t>১০/১০/১৯৮৬</t>
+          <t>০১/০৬/১৯৫৭</t>
         </is>
       </c>
       <c r="H273" s="5" t="inlineStr">
@@ -11924,27 +11920,27 @@
     <row r="274">
       <c r="A274" s="3" t="inlineStr">
         <is>
-          <t>০৩৮৯</t>
+          <t>০৩৯১</t>
         </is>
       </c>
       <c r="B274" s="4" t="inlineStr">
         <is>
-          <t>আয়িয়া খাতুন</t>
+          <t>খালেদা বেগম</t>
         </is>
       </c>
       <c r="C274" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২৫৯</t>
+          <t>১৫২৪০০০০৬২৬৪</t>
         </is>
       </c>
       <c r="D274" s="4" t="inlineStr">
         <is>
-          <t>ছালেহ আহমদ</t>
+          <t>আহমেদ কবির</t>
         </is>
       </c>
       <c r="E274" s="4" t="inlineStr">
         <is>
-          <t>হাজেরা খাতুন</t>
+          <t>হারুনা বেগম</t>
         </is>
       </c>
       <c r="F274" s="3" t="inlineStr">
@@ -11954,7 +11950,7 @@
       </c>
       <c r="G274" s="3" t="inlineStr">
         <is>
-          <t>০১/০৬/১৯৫৭</t>
+          <t>২৬/১০/১৯৮৪</t>
         </is>
       </c>
       <c r="H274" s="5" t="inlineStr">
@@ -11966,27 +11962,27 @@
     <row r="275">
       <c r="A275" s="3" t="inlineStr">
         <is>
-          <t>০৩৯১</t>
+          <t>০৩৮৯</t>
         </is>
       </c>
       <c r="B275" s="4" t="inlineStr">
         <is>
-          <t>খালেদা বেগম</t>
+          <t>আয়িয়া খাতুন</t>
         </is>
       </c>
       <c r="C275" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২৬৪</t>
+          <t>১৫২৪০০০০৬২৫৯</t>
         </is>
       </c>
       <c r="D275" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ কবির</t>
+          <t>ছালেহ আহমদ</t>
         </is>
       </c>
       <c r="E275" s="4" t="inlineStr">
         <is>
-          <t>হারুনা বেগম</t>
+          <t>হাজেরা খাতুন</t>
         </is>
       </c>
       <c r="F275" s="3" t="inlineStr">
@@ -11996,7 +11992,7 @@
       </c>
       <c r="G275" s="3" t="inlineStr">
         <is>
-          <t>২৬/১০/১৯৮৪</t>
+          <t>০১/০৬/১৯৫৭</t>
         </is>
       </c>
       <c r="H275" s="5" t="inlineStr">
@@ -12008,27 +12004,27 @@
     <row r="276">
       <c r="A276" s="3" t="inlineStr">
         <is>
-          <t>০৩৯৩</t>
+          <t>০৩৯২</t>
         </is>
       </c>
       <c r="B276" s="4" t="inlineStr">
         <is>
-          <t>জন্মত আরা বেগম</t>
+          <t>জান্নাতুল ফেরদৌস</t>
         </is>
       </c>
       <c r="C276" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২৬৭</t>
+          <t>১৫২৪০০০০৬২৬৫</t>
         </is>
       </c>
       <c r="D276" s="4" t="inlineStr">
         <is>
-          <t>এমদাদ মিশ্রা</t>
+          <t>নুরুল ইসলাম</t>
         </is>
       </c>
       <c r="E276" s="4" t="inlineStr">
         <is>
-          <t>আয়শা খাতুন</t>
+          <t>নাসিমা আকতার</t>
         </is>
       </c>
       <c r="F276" s="3" t="inlineStr">
@@ -12038,7 +12034,7 @@
       </c>
       <c r="G276" s="3" t="inlineStr">
         <is>
-          <t>০১/০৬/১৯৫৭</t>
+          <t>০১/০৭/১৯৮৭</t>
         </is>
       </c>
       <c r="H276" s="5" t="inlineStr">
@@ -12050,27 +12046,27 @@
     <row r="277">
       <c r="A277" s="3" t="inlineStr">
         <is>
-          <t>০৩৮৬</t>
+          <t>০৩৮৮</t>
         </is>
       </c>
       <c r="B277" s="4" t="inlineStr">
         <is>
-          <t>হাসিনা আক্তার বুলু</t>
+          <t>রোজিনা আকতার</t>
         </is>
       </c>
       <c r="C277" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২৫৪</t>
+          <t>১৫২৪০০০০৬২৫৬</t>
         </is>
       </c>
       <c r="D277" s="4" t="inlineStr">
         <is>
-          <t>আবদুল খাইর</t>
+          <t>কুলু মিশ্রা</t>
         </is>
       </c>
       <c r="E277" s="4" t="inlineStr">
         <is>
-          <t>নুরুনাহর</t>
+          <t>এলমা খাতুন</t>
         </is>
       </c>
       <c r="F277" s="3" t="inlineStr">
@@ -12080,7 +12076,7 @@
       </c>
       <c r="G277" s="3" t="inlineStr">
         <is>
-          <t>০১/০৫/১৯৭৭</t>
+          <t>১০/১০/১৯৮৬</t>
         </is>
       </c>
       <c r="H277" s="5" t="inlineStr">
@@ -12134,27 +12130,27 @@
     <row r="279">
       <c r="A279" s="3" t="inlineStr">
         <is>
-          <t>০৪১৭</t>
+          <t>০৪১৮</t>
         </is>
       </c>
       <c r="B279" s="4" t="inlineStr">
         <is>
-          <t>বিবি মরিয়ম</t>
+          <t>হেসনা আরা বেগম</t>
         </is>
       </c>
       <c r="C279" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৩২০</t>
+          <t>১৫২৪০০০০৬৩২১</t>
         </is>
       </c>
       <c r="D279" s="4" t="inlineStr">
         <is>
-          <t>আশরাফ আলী</t>
+          <t>বদিউর রহমান</t>
         </is>
       </c>
       <c r="E279" s="4" t="inlineStr">
         <is>
-          <t>নুরুজ্জাহান বেগম</t>
+          <t>হাজেরা খাতুন</t>
         </is>
       </c>
       <c r="F279" s="3" t="inlineStr">
@@ -12164,7 +12160,7 @@
       </c>
       <c r="G279" s="3" t="inlineStr">
         <is>
-          <t>০১/১০/১৯৮৫</t>
+          <t>০১/০৮/১৯৭০</t>
         </is>
       </c>
       <c r="H279" s="5" t="inlineStr">
@@ -12176,27 +12172,27 @@
     <row r="280">
       <c r="A280" s="3" t="inlineStr">
         <is>
-          <t>০৪১৩</t>
+          <t>০৪১৫</t>
         </is>
       </c>
       <c r="B280" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মৎ জামাতুল ফেরদৌস</t>
+          <t>উম্মে সালমা</t>
         </is>
       </c>
       <c r="C280" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৩১৩</t>
+          <t>১৫২৪০০০০৬৩১৫</t>
         </is>
       </c>
       <c r="D280" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আহমাদ হোসেন</t>
+          <t>আবদুল করিম</t>
         </is>
       </c>
       <c r="E280" s="4" t="inlineStr">
         <is>
-          <t>মনোয়ারা বেগম</t>
+          <t>শাহিন আক্তার</t>
         </is>
       </c>
       <c r="F280" s="3" t="inlineStr">
@@ -12206,7 +12202,7 @@
       </c>
       <c r="G280" s="3" t="inlineStr">
         <is>
-          <t>০৪/০৬/১৯৭৯</t>
+          <t>২৪/১০/১৯৮৯</t>
         </is>
       </c>
       <c r="H280" s="5" t="inlineStr">
@@ -12260,27 +12256,27 @@
     <row r="282">
       <c r="A282" s="3" t="inlineStr">
         <is>
-          <t>০৪১৫</t>
+          <t>০৪১৭</t>
         </is>
       </c>
       <c r="B282" s="4" t="inlineStr">
         <is>
-          <t>উম্মে সালমা</t>
+          <t>বিবি মরিয়ম</t>
         </is>
       </c>
       <c r="C282" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৩১৫</t>
+          <t>১৫২৪০০০০৬৩২০</t>
         </is>
       </c>
       <c r="D282" s="4" t="inlineStr">
         <is>
-          <t>আবদুল করিম</t>
+          <t>আশরাফ আলী</t>
         </is>
       </c>
       <c r="E282" s="4" t="inlineStr">
         <is>
-          <t>শাহিন আক্তার</t>
+          <t>নুরুজ্জাহান বেগম</t>
         </is>
       </c>
       <c r="F282" s="3" t="inlineStr">
@@ -12290,7 +12286,7 @@
       </c>
       <c r="G282" s="3" t="inlineStr">
         <is>
-          <t>২৪/১০/১৯৮৯</t>
+          <t>০১/১০/১৯৮৫</t>
         </is>
       </c>
       <c r="H282" s="5" t="inlineStr">
@@ -12302,27 +12298,27 @@
     <row r="283">
       <c r="A283" s="3" t="inlineStr">
         <is>
-          <t>০৪১৬</t>
+          <t>০৪১৩</t>
         </is>
       </c>
       <c r="B283" s="4" t="inlineStr">
         <is>
-          <t>খাইরুননেছা পারল</t>
+          <t>মোহাম্মৎ জামাতুল ফেরদৌস</t>
         </is>
       </c>
       <c r="C283" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৩১৯</t>
+          <t>১৫২৪০০০০৬৩১৩</t>
         </is>
       </c>
       <c r="D283" s="4" t="inlineStr">
         <is>
-          <t>মোঃ ইছামিল</t>
+          <t>মোহাম্মদ আহমাদ হোসেন</t>
         </is>
       </c>
       <c r="E283" s="4" t="inlineStr">
         <is>
-          <t>আয়শা বেগম</t>
+          <t>মনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F283" s="3" t="inlineStr">
@@ -12332,7 +12328,7 @@
       </c>
       <c r="G283" s="3" t="inlineStr">
         <is>
-          <t>০১/০৫/১৯৭৬</t>
+          <t>০৪/০৬/১৯৭৯</t>
         </is>
       </c>
       <c r="H283" s="5" t="inlineStr">
@@ -12428,27 +12424,27 @@
     <row r="286">
       <c r="A286" s="3" t="inlineStr">
         <is>
-          <t>০৪১৮</t>
+          <t>০৪১৬</t>
         </is>
       </c>
       <c r="B286" s="4" t="inlineStr">
         <is>
-          <t>হেসনা আরা বেগম</t>
+          <t>খাইরুননেছা পারল</t>
         </is>
       </c>
       <c r="C286" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৩২১</t>
+          <t>১৫২৪০০০০৬৩১৯</t>
         </is>
       </c>
       <c r="D286" s="4" t="inlineStr">
         <is>
-          <t>বদিউর রহমান</t>
+          <t>মোঃ ইছামিল</t>
         </is>
       </c>
       <c r="E286" s="4" t="inlineStr">
         <is>
-          <t>হাজেরা খাতুন</t>
+          <t>আয়শা বেগম</t>
         </is>
       </c>
       <c r="F286" s="3" t="inlineStr">
@@ -12458,7 +12454,7 @@
       </c>
       <c r="G286" s="3" t="inlineStr">
         <is>
-          <t>০১/০৮/১৯৭০</t>
+          <t>০১/০৫/১৯৭৬</t>
         </is>
       </c>
       <c r="H286" s="5" t="inlineStr">
@@ -12932,27 +12928,27 @@
     <row r="298">
       <c r="A298" s="3" t="inlineStr">
         <is>
-          <t>০০৭৩</t>
+          <t>০০৭৫</t>
         </is>
       </c>
       <c r="B298" s="4" t="inlineStr">
         <is>
-          <t>মোস্তফা বেগম</t>
+          <t>জয়নাব বেগম</t>
         </is>
       </c>
       <c r="C298" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৪৫২</t>
+          <t>১৫২৪০০০০৫৪৫৫</t>
         </is>
       </c>
       <c r="D298" s="4" t="inlineStr">
         <is>
-          <t>আলী আহমেদ</t>
+          <t>আবদুল জবার</t>
         </is>
       </c>
       <c r="E298" s="4" t="inlineStr">
         <is>
-          <t>সুফিয়া বেগম</t>
+          <t>সোলতান বিবি</t>
         </is>
       </c>
       <c r="F298" s="3" t="inlineStr">
@@ -12962,7 +12958,7 @@
       </c>
       <c r="G298" s="3" t="inlineStr">
         <is>
-          <t>০২/০৩/১৯৭৮</t>
+          <t>০১/০৩/১৯৭৫</t>
         </is>
       </c>
       <c r="H298" s="5" t="inlineStr">
@@ -12974,27 +12970,27 @@
     <row r="299">
       <c r="A299" s="3" t="inlineStr">
         <is>
-          <t>০০৭৫</t>
+          <t>০০৭৩</t>
         </is>
       </c>
       <c r="B299" s="4" t="inlineStr">
         <is>
-          <t>জয়নাব বেগম</t>
+          <t>মোস্তফা বেগম</t>
         </is>
       </c>
       <c r="C299" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৪৫৫</t>
+          <t>১৫২৪০০০০৫৪৫২</t>
         </is>
       </c>
       <c r="D299" s="4" t="inlineStr">
         <is>
-          <t>আবদুল জবার</t>
+          <t>আলী আহমেদ</t>
         </is>
       </c>
       <c r="E299" s="4" t="inlineStr">
         <is>
-          <t>সোলতান বিবি</t>
+          <t>সুফিয়া বেগম</t>
         </is>
       </c>
       <c r="F299" s="3" t="inlineStr">
@@ -13004,7 +13000,7 @@
       </c>
       <c r="G299" s="3" t="inlineStr">
         <is>
-          <t>০১/০৩/১৯৭৫</t>
+          <t>০২/০৩/১৯৭৮</t>
         </is>
       </c>
       <c r="H299" s="5" t="inlineStr">
@@ -13268,84 +13264,84 @@
     <row r="306">
       <c r="A306" s="3" t="inlineStr">
         <is>
-          <t>১১৮৭</t>
+          <t>১১১১</t>
         </is>
       </c>
       <c r="B306" s="4" t="inlineStr">
         <is>
-          <t>সালেহা বেগম</t>
+          <t>মার্জান নুর ফিমা</t>
         </is>
       </c>
       <c r="C306" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২০৯৯৮৪</t>
+          <t>১৫২৪০০০০০৯৫৫</t>
         </is>
       </c>
       <c r="D306" s="4" t="inlineStr">
         <is>
-          <t>মুত আবুল হোসেন</t>
+          <t>আখতার হোসেন</t>
         </is>
       </c>
       <c r="E306" s="4" t="inlineStr">
         <is>
-          <t>মুত জরিনা খাতুন</t>
+          <t>আমাতুন নুর</t>
         </is>
       </c>
       <c r="F306" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G306" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৮/১৯৬০</t>
+          <t>২২/০৪/২০০৬</t>
         </is>
       </c>
       <c r="H306" s="5" t="inlineStr">
         <is>
-          <t>ওলির বাপের বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>৩৫২, ওলির বাপের বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="3" t="inlineStr">
         <is>
-          <t>১১১১</t>
+          <t>১১৮৭</t>
         </is>
       </c>
       <c r="B307" s="4" t="inlineStr">
         <is>
-          <t>মার্জান নুর ফিমা</t>
+          <t>সালেহা বেগম</t>
         </is>
       </c>
       <c r="C307" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৯৫৫</t>
+          <t>১৫২৪০০২০৯৯৮৪</t>
         </is>
       </c>
       <c r="D307" s="4" t="inlineStr">
         <is>
-          <t>আখতার হোসেন</t>
+          <t>মুত আবুল হোসেন</t>
         </is>
       </c>
       <c r="E307" s="4" t="inlineStr">
         <is>
-          <t>আমাতুন নুর</t>
+          <t>মুত জরিনা খাতুন</t>
         </is>
       </c>
       <c r="F307" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G307" s="3" t="inlineStr">
         <is>
-          <t>২২/০৪/২০০৬</t>
+          <t>০৫/০৮/১৯৬০</t>
         </is>
       </c>
       <c r="H307" s="5" t="inlineStr">
         <is>
-          <t>৩৫২, ওলির বাপের বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>ওলির বাপের বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -13562,17 +13558,17 @@
     <row r="313">
       <c r="A313" s="3" t="inlineStr">
         <is>
-          <t>০৪০৭</t>
+          <t>০৪০৮</t>
         </is>
       </c>
       <c r="B313" s="4" t="inlineStr">
         <is>
-          <t>আছিয়া বেগম</t>
+          <t>আসিয়া বেগম</t>
         </is>
       </c>
       <c r="C313" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২৯৩</t>
+          <t>১৫২৪০০০০৬২৯৫</t>
         </is>
       </c>
       <c r="D313" s="4" t="inlineStr">
@@ -13582,17 +13578,17 @@
       </c>
       <c r="E313" s="4" t="inlineStr">
         <is>
-          <t>এলম খাতুন</t>
+          <t>এলাম খাতুন</t>
         </is>
       </c>
       <c r="F313" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G313" s="3" t="inlineStr">
         <is>
-          <t>১০/০৫/১৯৬৭</t>
+          <t>২৮/০৩/১৯৬৮</t>
         </is>
       </c>
       <c r="H313" s="5" t="inlineStr">
@@ -13604,17 +13600,17 @@
     <row r="314">
       <c r="A314" s="3" t="inlineStr">
         <is>
-          <t>০৪০৮</t>
+          <t>০৪০৭</t>
         </is>
       </c>
       <c r="B314" s="4" t="inlineStr">
         <is>
-          <t>আসিয়া বেগম</t>
+          <t>আছিয়া বেগম</t>
         </is>
       </c>
       <c r="C314" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২৯৫</t>
+          <t>১৫২৪০০০০৬২৯৩</t>
         </is>
       </c>
       <c r="D314" s="4" t="inlineStr">
@@ -13624,17 +13620,17 @@
       </c>
       <c r="E314" s="4" t="inlineStr">
         <is>
-          <t>এলাম খাতুন</t>
+          <t>এলম খাতুন</t>
         </is>
       </c>
       <c r="F314" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G314" s="3" t="inlineStr">
         <is>
-          <t>২৮/০৩/১৯৬৮</t>
+          <t>১০/০৫/১৯৬৭</t>
         </is>
       </c>
       <c r="H314" s="5" t="inlineStr">
@@ -13646,27 +13642,27 @@
     <row r="315">
       <c r="A315" s="3" t="inlineStr">
         <is>
-          <t>০৪০৯</t>
+          <t>০৪১০</t>
         </is>
       </c>
       <c r="B315" s="4" t="inlineStr">
         <is>
-          <t>মাবিয়া খাতুন</t>
+          <t>হাছিনা আক্তার</t>
         </is>
       </c>
       <c r="C315" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২৯৬</t>
+          <t>১৫২৪০০০০৬২৯৭</t>
         </is>
       </c>
       <c r="D315" s="4" t="inlineStr">
         <is>
-          <t>আলী হোসেন</t>
+          <t>মজুম আলম</t>
         </is>
       </c>
       <c r="E315" s="4" t="inlineStr">
         <is>
-          <t>মাহমুদা খাতুন</t>
+          <t>মসলেম খাতুন</t>
         </is>
       </c>
       <c r="F315" s="3" t="inlineStr">
@@ -13676,7 +13672,7 @@
       </c>
       <c r="G315" s="3" t="inlineStr">
         <is>
-          <t>০১/০২/১৯৬০</t>
+          <t>১৫/০৫/১৯৭৩</t>
         </is>
       </c>
       <c r="H315" s="5" t="inlineStr">
@@ -13688,27 +13684,27 @@
     <row r="316">
       <c r="A316" s="3" t="inlineStr">
         <is>
-          <t>০৪১০</t>
+          <t>০৪১১</t>
         </is>
       </c>
       <c r="B316" s="4" t="inlineStr">
         <is>
-          <t>হাছিনা আক্তার</t>
+          <t>লায়লা বেগম</t>
         </is>
       </c>
       <c r="C316" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২৯৭</t>
+          <t>১৫২৪০০০০৬৩০২</t>
         </is>
       </c>
       <c r="D316" s="4" t="inlineStr">
         <is>
-          <t>মজুম আলম</t>
+          <t>আমির হামজা</t>
         </is>
       </c>
       <c r="E316" s="4" t="inlineStr">
         <is>
-          <t>মসলেম খাতুন</t>
+          <t>মোহাম্মদ জাবেদা খাতুন</t>
         </is>
       </c>
       <c r="F316" s="3" t="inlineStr">
@@ -13718,7 +13714,7 @@
       </c>
       <c r="G316" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৫/১৯৭৩</t>
+          <t>২১/০৩/১৯৬০</t>
         </is>
       </c>
       <c r="H316" s="5" t="inlineStr">
@@ -13730,27 +13726,27 @@
     <row r="317">
       <c r="A317" s="3" t="inlineStr">
         <is>
-          <t>০৪১১</t>
+          <t>০৪০৯</t>
         </is>
       </c>
       <c r="B317" s="4" t="inlineStr">
         <is>
-          <t>লায়লা বেগম</t>
+          <t>মাবিয়া খাতুন</t>
         </is>
       </c>
       <c r="C317" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৩০২</t>
+          <t>১৫২৪০০০০৬২৯৬</t>
         </is>
       </c>
       <c r="D317" s="4" t="inlineStr">
         <is>
-          <t>আমির হামজা</t>
+          <t>আলী হোসেন</t>
         </is>
       </c>
       <c r="E317" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ জাবেদা খাতুন</t>
+          <t>মাহমুদা খাতুন</t>
         </is>
       </c>
       <c r="F317" s="3" t="inlineStr">
@@ -13760,7 +13756,7 @@
       </c>
       <c r="G317" s="3" t="inlineStr">
         <is>
-          <t>২১/০৩/১৯৬০</t>
+          <t>০১/০২/১৯৬০</t>
         </is>
       </c>
       <c r="H317" s="5" t="inlineStr">
@@ -13814,27 +13810,27 @@
     <row r="319">
       <c r="A319" s="3" t="inlineStr">
         <is>
-          <t>০৩৫০</t>
+          <t>০৩৫১</t>
         </is>
       </c>
       <c r="B319" s="4" t="inlineStr">
         <is>
-          <t>জান্নাতুল ফেরদৌস</t>
+          <t>রাবিয়া খাতুন</t>
         </is>
       </c>
       <c r="C319" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২০১</t>
+          <t>১৫২৪০০০০৬২০৩</t>
         </is>
       </c>
       <c r="D319" s="4" t="inlineStr">
         <is>
-          <t>নজির আহমেদ</t>
+          <t>আব্দুল হাকিম</t>
         </is>
       </c>
       <c r="E319" s="4" t="inlineStr">
         <is>
-          <t>নুরুজ্জাহান</t>
+          <t>আইর খাতুন</t>
         </is>
       </c>
       <c r="F319" s="3" t="inlineStr">
@@ -13844,7 +13840,7 @@
       </c>
       <c r="G319" s="3" t="inlineStr">
         <is>
-          <t>০৭/১০/১৯৮৫</t>
+          <t>০২/১০/১৯৩৭</t>
         </is>
       </c>
       <c r="H319" s="5" t="inlineStr">
@@ -13856,27 +13852,27 @@
     <row r="320">
       <c r="A320" s="3" t="inlineStr">
         <is>
-          <t>০৩৫১</t>
+          <t>০৩৫২</t>
         </is>
       </c>
       <c r="B320" s="4" t="inlineStr">
         <is>
-          <t>রাবিয়া খাতুন</t>
+          <t>সামসুন নাহার</t>
         </is>
       </c>
       <c r="C320" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২০৩</t>
+          <t>১৫২৪০০০০৬২০৪</t>
         </is>
       </c>
       <c r="D320" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল হাকিম</t>
+          <t>আব্দুল মোতালেব</t>
         </is>
       </c>
       <c r="E320" s="4" t="inlineStr">
         <is>
-          <t>আইর খাতুন</t>
+          <t>মোহছেনা খাতুন</t>
         </is>
       </c>
       <c r="F320" s="3" t="inlineStr">
@@ -13886,7 +13882,7 @@
       </c>
       <c r="G320" s="3" t="inlineStr">
         <is>
-          <t>০২/১০/১৯৩৭</t>
+          <t>১০/০৭/১৯৮১</t>
         </is>
       </c>
       <c r="H320" s="5" t="inlineStr">
@@ -13898,27 +13894,27 @@
     <row r="321">
       <c r="A321" s="3" t="inlineStr">
         <is>
-          <t>০৩৫২</t>
+          <t>০৩৫৩</t>
         </is>
       </c>
       <c r="B321" s="4" t="inlineStr">
         <is>
-          <t>সামসুন নাহার</t>
+          <t>রেহেনা আক্তার</t>
         </is>
       </c>
       <c r="C321" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২০৪</t>
+          <t>১৫২৪০০০০৬২০৫</t>
         </is>
       </c>
       <c r="D321" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল মোতালেব</t>
+          <t>শফিক আহমেদ</t>
         </is>
       </c>
       <c r="E321" s="4" t="inlineStr">
         <is>
-          <t>মোহছেনা খাতুন</t>
+          <t>সাজ্জ বেগম</t>
         </is>
       </c>
       <c r="F321" s="3" t="inlineStr">
@@ -13928,7 +13924,7 @@
       </c>
       <c r="G321" s="3" t="inlineStr">
         <is>
-          <t>১০/০৭/১৯৮১</t>
+          <t>১৫/১০/১৯৭৯</t>
         </is>
       </c>
       <c r="H321" s="5" t="inlineStr">
@@ -13940,27 +13936,27 @@
     <row r="322">
       <c r="A322" s="3" t="inlineStr">
         <is>
-          <t>০৩৫৩</t>
+          <t>০৩৫৪</t>
         </is>
       </c>
       <c r="B322" s="4" t="inlineStr">
         <is>
-          <t>রেহেনা আক্তার</t>
+          <t>রোকেয়া বেগম</t>
         </is>
       </c>
       <c r="C322" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২০৫</t>
+          <t>১৫২৪০০০০৬২০৬</t>
         </is>
       </c>
       <c r="D322" s="4" t="inlineStr">
         <is>
-          <t>শফিক আহমেদ</t>
+          <t>নজির আহমেদ</t>
         </is>
       </c>
       <c r="E322" s="4" t="inlineStr">
         <is>
-          <t>সাজ্জ বেগম</t>
+          <t>রাবিয়া খাতুন</t>
         </is>
       </c>
       <c r="F322" s="3" t="inlineStr">
@@ -13970,7 +13966,7 @@
       </c>
       <c r="G322" s="3" t="inlineStr">
         <is>
-          <t>১৫/১০/১৯৭৯</t>
+          <t>১০/১০/১৯৭৭</t>
         </is>
       </c>
       <c r="H322" s="5" t="inlineStr">
@@ -13982,27 +13978,27 @@
     <row r="323">
       <c r="A323" s="3" t="inlineStr">
         <is>
-          <t>০৩৫৪</t>
+          <t>০৩৫৫</t>
         </is>
       </c>
       <c r="B323" s="4" t="inlineStr">
         <is>
-          <t>রোকেয়া বেগম</t>
+          <t>চেমন আরা</t>
         </is>
       </c>
       <c r="C323" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২০৬</t>
+          <t>১৫২৪০০০০৬২০৭</t>
         </is>
       </c>
       <c r="D323" s="4" t="inlineStr">
         <is>
-          <t>নজির আহমেদ</t>
+          <t>মোহলেম মিশ্রা</t>
         </is>
       </c>
       <c r="E323" s="4" t="inlineStr">
         <is>
-          <t>রাবিয়া খাতুন</t>
+          <t>মজুরা খাতুন</t>
         </is>
       </c>
       <c r="F323" s="3" t="inlineStr">
@@ -14012,7 +14008,7 @@
       </c>
       <c r="G323" s="3" t="inlineStr">
         <is>
-          <t>১০/১০/১৯৭৭</t>
+          <t>০৩/০৩/১৯৭৯</t>
         </is>
       </c>
       <c r="H323" s="5" t="inlineStr">
@@ -14024,27 +14020,27 @@
     <row r="324">
       <c r="A324" s="3" t="inlineStr">
         <is>
-          <t>০৩৫৫</t>
+          <t>০৩৫৭</t>
         </is>
       </c>
       <c r="B324" s="4" t="inlineStr">
         <is>
-          <t>চেমন আরা</t>
+          <t>আয়েশা বেগম</t>
         </is>
       </c>
       <c r="C324" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২০৭</t>
+          <t>১৫২৪০০০০৬২১১</t>
         </is>
       </c>
       <c r="D324" s="4" t="inlineStr">
         <is>
-          <t>মোহলেম মিশ্রা</t>
+          <t>নুর আহমেদ</t>
         </is>
       </c>
       <c r="E324" s="4" t="inlineStr">
         <is>
-          <t>মজুরা খাতুন</t>
+          <t>আলমাস খাতুন</t>
         </is>
       </c>
       <c r="F324" s="3" t="inlineStr">
@@ -14054,7 +14050,7 @@
       </c>
       <c r="G324" s="3" t="inlineStr">
         <is>
-          <t>০৩/০৩/১৯৭৯</t>
+          <t>১০/০৭/১৯৬৫</t>
         </is>
       </c>
       <c r="H324" s="5" t="inlineStr">
@@ -14066,27 +14062,27 @@
     <row r="325">
       <c r="A325" s="3" t="inlineStr">
         <is>
-          <t>০৩৫৭</t>
+          <t>০৩৫০</t>
         </is>
       </c>
       <c r="B325" s="4" t="inlineStr">
         <is>
-          <t>আয়েশা বেগম</t>
+          <t>জান্নাতুল ফেরদৌস</t>
         </is>
       </c>
       <c r="C325" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২১১</t>
+          <t>১৫২৪০০০০৬২০১</t>
         </is>
       </c>
       <c r="D325" s="4" t="inlineStr">
         <is>
-          <t>নুর আহমেদ</t>
+          <t>নজির আহমেদ</t>
         </is>
       </c>
       <c r="E325" s="4" t="inlineStr">
         <is>
-          <t>আলমাস খাতুন</t>
+          <t>নুরুজ্জাহান</t>
         </is>
       </c>
       <c r="F325" s="3" t="inlineStr">
@@ -14096,7 +14092,7 @@
       </c>
       <c r="G325" s="3" t="inlineStr">
         <is>
-          <t>১০/০৭/১৯৬৫</t>
+          <t>০৭/১০/১৯৮৫</t>
         </is>
       </c>
       <c r="H325" s="5" t="inlineStr">
@@ -14150,27 +14146,27 @@
     <row r="327">
       <c r="A327" s="3" t="inlineStr">
         <is>
-          <t>০৩৬০</t>
+          <t>০৩৬২</t>
         </is>
       </c>
       <c r="B327" s="4" t="inlineStr">
         <is>
-          <t>জয়নাব বেগম</t>
+          <t>পারভীন আকতার</t>
         </is>
       </c>
       <c r="C327" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২১৪</t>
+          <t>১৫২৪০০০০৬২১৬</t>
         </is>
       </c>
       <c r="D327" s="4" t="inlineStr">
         <is>
-          <t>হৈয়দ হোসেন</t>
+          <t>ওসমান গনি</t>
         </is>
       </c>
       <c r="E327" s="4" t="inlineStr">
         <is>
-          <t>ফুলদান</t>
+          <t>রহিমা খাতুন</t>
         </is>
       </c>
       <c r="F327" s="3" t="inlineStr">
@@ -14180,7 +14176,7 @@
       </c>
       <c r="G327" s="3" t="inlineStr">
         <is>
-          <t>১০/০৫/১৯৭৭</t>
+          <t>১৫/০৬/১৯৮৮</t>
         </is>
       </c>
       <c r="H327" s="5" t="inlineStr">
@@ -14192,27 +14188,27 @@
     <row r="328">
       <c r="A328" s="3" t="inlineStr">
         <is>
-          <t>০৩৬১</t>
+          <t>০৩৬৩</t>
         </is>
       </c>
       <c r="B328" s="4" t="inlineStr">
         <is>
-          <t>সেলিনা আকতার</t>
+          <t>মোস্তাফা খাতুন</t>
         </is>
       </c>
       <c r="C328" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২১৫</t>
+          <t>১৫২৪০০০০৬২১৭</t>
         </is>
       </c>
       <c r="D328" s="4" t="inlineStr">
         <is>
-          <t>ওসমান গনি</t>
+          <t>কালু মিশ্রা</t>
         </is>
       </c>
       <c r="E328" s="4" t="inlineStr">
         <is>
-          <t>সাজেদা বেগম</t>
+          <t>লালু খাতুন</t>
         </is>
       </c>
       <c r="F328" s="3" t="inlineStr">
@@ -14222,7 +14218,7 @@
       </c>
       <c r="G328" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৮/১৯৮৮</t>
+          <t>১৭/০৭/১৯৮৮</t>
         </is>
       </c>
       <c r="H328" s="5" t="inlineStr">
@@ -14234,27 +14230,27 @@
     <row r="329">
       <c r="A329" s="3" t="inlineStr">
         <is>
-          <t>০৩৬২</t>
+          <t>০৩৫৮</t>
         </is>
       </c>
       <c r="B329" s="4" t="inlineStr">
         <is>
-          <t>পারভীন আকতার</t>
+          <t>রাজু আখতার</t>
         </is>
       </c>
       <c r="C329" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২১৬</t>
+          <t>১৫২৪০০০০৬২১২</t>
         </is>
       </c>
       <c r="D329" s="4" t="inlineStr">
         <is>
-          <t>ওসমান গনি</t>
+          <t>নুরুল হক</t>
         </is>
       </c>
       <c r="E329" s="4" t="inlineStr">
         <is>
-          <t>রহিমা খাতুন</t>
+          <t>দিল্লয়ারা বেগম</t>
         </is>
       </c>
       <c r="F329" s="3" t="inlineStr">
@@ -14264,7 +14260,7 @@
       </c>
       <c r="G329" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৬/১৯৮৮</t>
+          <t>০৫/০১/১৯৮৯</t>
         </is>
       </c>
       <c r="H329" s="5" t="inlineStr">
@@ -14276,29 +14272,29 @@
     <row r="330">
       <c r="A330" s="3" t="inlineStr">
         <is>
-          <t>০৩৬৩</t>
+          <t>০৩৬৪</t>
         </is>
       </c>
       <c r="B330" s="4" t="inlineStr">
         <is>
+          <t>আরফা বেগম</t>
+        </is>
+      </c>
+      <c r="C330" s="3" t="inlineStr">
+        <is>
+          <t>১৫২৪০০০০৬২১৮</t>
+        </is>
+      </c>
+      <c r="D330" s="4" t="inlineStr">
+        <is>
+          <t>সোলতান আহমেদ</t>
+        </is>
+      </c>
+      <c r="E330" s="4" t="inlineStr">
+        <is>
           <t>মোস্তাফা খাতুন</t>
         </is>
       </c>
-      <c r="C330" s="3" t="inlineStr">
-        <is>
-          <t>১৫২৪০০০০৬২১৭</t>
-        </is>
-      </c>
-      <c r="D330" s="4" t="inlineStr">
-        <is>
-          <t>কালু মিশ্রা</t>
-        </is>
-      </c>
-      <c r="E330" s="4" t="inlineStr">
-        <is>
-          <t>লালু খাতুন</t>
-        </is>
-      </c>
       <c r="F330" s="3" t="inlineStr">
         <is>
           <t>গৃহিনী</t>
@@ -14306,7 +14302,7 @@
       </c>
       <c r="G330" s="3" t="inlineStr">
         <is>
-          <t>১৭/০৭/১৯৮৮</t>
+          <t>০৮/০২/১৯৭৭</t>
         </is>
       </c>
       <c r="H330" s="5" t="inlineStr">
@@ -14318,27 +14314,27 @@
     <row r="331">
       <c r="A331" s="3" t="inlineStr">
         <is>
-          <t>০৩৬৪</t>
+          <t>০৩৫৯</t>
         </is>
       </c>
       <c r="B331" s="4" t="inlineStr">
         <is>
-          <t>আরফা বেগম</t>
+          <t>নুক্ষাহার</t>
         </is>
       </c>
       <c r="C331" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২১৮</t>
+          <t>১৫২৪০০০০৬২১৩</t>
         </is>
       </c>
       <c r="D331" s="4" t="inlineStr">
         <is>
-          <t>সোলতান আহমেদ</t>
+          <t>আবদুল হালার</t>
         </is>
       </c>
       <c r="E331" s="4" t="inlineStr">
         <is>
-          <t>মোস্তাফা খাতুন</t>
+          <t>মুস্তাফা বেগম</t>
         </is>
       </c>
       <c r="F331" s="3" t="inlineStr">
@@ -14348,7 +14344,7 @@
       </c>
       <c r="G331" s="3" t="inlineStr">
         <is>
-          <t>০৮/০২/১৯৭৭</t>
+          <t>০১/০২/১৯৮৮</t>
         </is>
       </c>
       <c r="H331" s="5" t="inlineStr">
@@ -14360,27 +14356,27 @@
     <row r="332">
       <c r="A332" s="3" t="inlineStr">
         <is>
-          <t>০৪২৮</t>
+          <t>০৩৬৫</t>
         </is>
       </c>
       <c r="B332" s="4" t="inlineStr">
         <is>
-          <t>মনোয়ারা</t>
+          <t>আসমা খাতুন</t>
         </is>
       </c>
       <c r="C332" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৩৪১</t>
+          <t>১৫২৪০০০০৬২২১</t>
         </is>
       </c>
       <c r="D332" s="4" t="inlineStr">
         <is>
-          <t>আমিন শরীফ</t>
+          <t>জলিল বখসু</t>
         </is>
       </c>
       <c r="E332" s="4" t="inlineStr">
         <is>
-          <t>ছকিনা খাতুন</t>
+          <t>নজমা খাতুন</t>
         </is>
       </c>
       <c r="F332" s="3" t="inlineStr">
@@ -14390,7 +14386,7 @@
       </c>
       <c r="G332" s="3" t="inlineStr">
         <is>
-          <t>০১/০৭/১৯৭৭</t>
+          <t>০১/০৩/১৯৮৬</t>
         </is>
       </c>
       <c r="H332" s="5" t="inlineStr">
@@ -14402,27 +14398,27 @@
     <row r="333">
       <c r="A333" s="3" t="inlineStr">
         <is>
-          <t>০৩৬৫</t>
+          <t>০৩৬১</t>
         </is>
       </c>
       <c r="B333" s="4" t="inlineStr">
         <is>
-          <t>আসমা খাতুন</t>
+          <t>সেলিনা আকতার</t>
         </is>
       </c>
       <c r="C333" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২২১</t>
+          <t>১৫২৪০০০০৬২১৫</t>
         </is>
       </c>
       <c r="D333" s="4" t="inlineStr">
         <is>
-          <t>জলিল বখসু</t>
+          <t>ওসমান গনি</t>
         </is>
       </c>
       <c r="E333" s="4" t="inlineStr">
         <is>
-          <t>নজমা খাতুন</t>
+          <t>সাজেদা বেগম</t>
         </is>
       </c>
       <c r="F333" s="3" t="inlineStr">
@@ -14432,7 +14428,7 @@
       </c>
       <c r="G333" s="3" t="inlineStr">
         <is>
-          <t>০১/০৩/১৯৮৬</t>
+          <t>০৮/০৮/১৯৮৮</t>
         </is>
       </c>
       <c r="H333" s="5" t="inlineStr">
@@ -14486,27 +14482,27 @@
     <row r="335">
       <c r="A335" s="3" t="inlineStr">
         <is>
-          <t>০৪১২</t>
+          <t>০৩৬০</t>
         </is>
       </c>
       <c r="B335" s="4" t="inlineStr">
         <is>
-          <t>মোছলেম খাতুন</t>
+          <t>জয়নাব বেগম</t>
         </is>
       </c>
       <c r="C335" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৩০৫</t>
+          <t>১৫২৪০০০০৬২১৪</t>
         </is>
       </c>
       <c r="D335" s="4" t="inlineStr">
         <is>
-          <t>সোরতান আহমদ</t>
+          <t>হৈয়দ হোসেন</t>
         </is>
       </c>
       <c r="E335" s="4" t="inlineStr">
         <is>
-          <t>মোস্তফা খাতুন</t>
+          <t>ফুলদান</t>
         </is>
       </c>
       <c r="F335" s="3" t="inlineStr">
@@ -14516,7 +14512,7 @@
       </c>
       <c r="G335" s="3" t="inlineStr">
         <is>
-          <t>০১/০৭/১৯৬৫</t>
+          <t>১০/০৫/১৯৭৭</t>
         </is>
       </c>
       <c r="H335" s="5" t="inlineStr">
@@ -14528,27 +14524,27 @@
     <row r="336">
       <c r="A336" s="3" t="inlineStr">
         <is>
-          <t>০৩৫৯</t>
+          <t>০৪১২</t>
         </is>
       </c>
       <c r="B336" s="4" t="inlineStr">
         <is>
-          <t>নুক্ষাহার</t>
+          <t>মোছলেম খাতুন</t>
         </is>
       </c>
       <c r="C336" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২১৩</t>
+          <t>১৫২৪০০০০৬৩০৫</t>
         </is>
       </c>
       <c r="D336" s="4" t="inlineStr">
         <is>
-          <t>আবদুল হালার</t>
+          <t>সোরতান আহমদ</t>
         </is>
       </c>
       <c r="E336" s="4" t="inlineStr">
         <is>
-          <t>মুস্তাফা বেগম</t>
+          <t>মোস্তফা খাতুন</t>
         </is>
       </c>
       <c r="F336" s="3" t="inlineStr">
@@ -14558,7 +14554,7 @@
       </c>
       <c r="G336" s="3" t="inlineStr">
         <is>
-          <t>০১/০২/১৯৮৮</t>
+          <t>০১/০৭/১৯৬৫</t>
         </is>
       </c>
       <c r="H336" s="5" t="inlineStr">
@@ -14570,27 +14566,27 @@
     <row r="337">
       <c r="A337" s="3" t="inlineStr">
         <is>
-          <t>০৩৫৮</t>
+          <t>০৪২৮</t>
         </is>
       </c>
       <c r="B337" s="4" t="inlineStr">
         <is>
-          <t>রাজু আখতার</t>
+          <t>মনোয়ারা</t>
         </is>
       </c>
       <c r="C337" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬২১২</t>
+          <t>১৫২৪০০০০৬৩৪১</t>
         </is>
       </c>
       <c r="D337" s="4" t="inlineStr">
         <is>
-          <t>নুরুল হক</t>
+          <t>আমিন শরীফ</t>
         </is>
       </c>
       <c r="E337" s="4" t="inlineStr">
         <is>
-          <t>দিল্লয়ারা বেগম</t>
+          <t>ছকিনা খাতুন</t>
         </is>
       </c>
       <c r="F337" s="3" t="inlineStr">
@@ -14600,7 +14596,7 @@
       </c>
       <c r="G337" s="3" t="inlineStr">
         <is>
-          <t>০৫/০১/১৯৮৯</t>
+          <t>০১/০৭/১৯৭৭</t>
         </is>
       </c>
       <c r="H337" s="5" t="inlineStr">
@@ -14864,37 +14860,37 @@
     <row r="344">
       <c r="A344" s="3" t="inlineStr">
         <is>
-          <t>১১৪৫</t>
+          <t>১২১৩</t>
         </is>
       </c>
       <c r="B344" s="4" t="inlineStr">
         <is>
-          <t>মোছামুৎ নাজমা বেগম</t>
+          <t>রুমি আক্তার</t>
         </is>
       </c>
       <c r="C344" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২০৯৯১৩</t>
+          <t>১৫২৪০০২১০০২০</t>
         </is>
       </c>
       <c r="D344" s="4" t="inlineStr">
         <is>
-          <t>মোঃ নুরুল হক</t>
+          <t>আবুল কালাম</t>
         </is>
       </c>
       <c r="E344" s="4" t="inlineStr">
         <is>
-          <t>আনুয়ার বেগম</t>
+          <t>মারিয়া খাতুন</t>
         </is>
       </c>
       <c r="F344" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G344" s="3" t="inlineStr">
         <is>
-          <t>১০/০৫/১৯৯২</t>
+          <t>০৫/০২/১৯৯৬</t>
         </is>
       </c>
       <c r="H344" s="5" t="inlineStr">
@@ -14948,27 +14944,27 @@
     <row r="346">
       <c r="A346" s="3" t="inlineStr">
         <is>
-          <t>১১৭০</t>
+          <t>১১৯৬</t>
         </is>
       </c>
       <c r="B346" s="4" t="inlineStr">
         <is>
-          <t>শাহানাজ বেগম</t>
+          <t>রাশেদা বেগম</t>
         </is>
       </c>
       <c r="C346" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২০৯৯৫৪</t>
+          <t>১৫২৪০০২০৯৯৯৩</t>
         </is>
       </c>
       <c r="D346" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল গফুর</t>
+          <t>জমির উদ্দীন</t>
         </is>
       </c>
       <c r="E346" s="4" t="inlineStr">
         <is>
-          <t>রেন আরা বেগম</t>
+          <t>জন্নাত আরা</t>
         </is>
       </c>
       <c r="F346" s="3" t="inlineStr">
@@ -14978,7 +14974,7 @@
       </c>
       <c r="G346" s="3" t="inlineStr">
         <is>
-          <t>২৮/০৮/১৯৯৭</t>
+          <t>২০/০৮/১৯৯৮</t>
         </is>
       </c>
       <c r="H346" s="5" t="inlineStr">
@@ -14990,37 +14986,37 @@
     <row r="347">
       <c r="A347" s="3" t="inlineStr">
         <is>
-          <t>০৬৩৬</t>
+          <t>১২৬৭</t>
         </is>
       </c>
       <c r="B347" s="4" t="inlineStr">
         <is>
-          <t>জয়নাব বেগম</t>
+          <t>হামিদা আক্তার</t>
         </is>
       </c>
       <c r="C347" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৮৭৪</t>
+          <t>১৫২৪০০২১০১৬২</t>
         </is>
       </c>
       <c r="D347" s="4" t="inlineStr">
         <is>
-          <t>গোলাম আকবর</t>
+          <t>মোঃ আব্দুল মান্নান</t>
         </is>
       </c>
       <c r="E347" s="4" t="inlineStr">
         <is>
-          <t>মোবারক খাতুন</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F347" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G347" s="3" t="inlineStr">
         <is>
-          <t>১৮/০৮/১৯৮৪</t>
+          <t>১০/১২/২০০০</t>
         </is>
       </c>
       <c r="H347" s="5" t="inlineStr">
@@ -15032,37 +15028,37 @@
     <row r="348">
       <c r="A348" s="3" t="inlineStr">
         <is>
-          <t>১০৩১</t>
+          <t>১২৭১</t>
         </is>
       </c>
       <c r="B348" s="4" t="inlineStr">
         <is>
-          <t>জ্মা আক্তার</t>
+          <t>রাবিয়া বেগম</t>
         </is>
       </c>
       <c r="C348" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৭৫৭</t>
+          <t>১৫২৪০০২১০১৭০</t>
         </is>
       </c>
       <c r="D348" s="4" t="inlineStr">
         <is>
-          <t>রিদুয়ানুল হক</t>
+          <t>নুরুল আলম</t>
         </is>
       </c>
       <c r="E348" s="4" t="inlineStr">
         <is>
-          <t>আছিয়া বেগম</t>
+          <t>রেহেনা বেগম</t>
         </is>
       </c>
       <c r="F348" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G348" s="3" t="inlineStr">
         <is>
-          <t>১১/১২/১৯৯৯</t>
+          <t>১০/০৭/১৯৯৭</t>
         </is>
       </c>
       <c r="H348" s="5" t="inlineStr">
@@ -15074,27 +15070,27 @@
     <row r="349">
       <c r="A349" s="3" t="inlineStr">
         <is>
-          <t>১১৯৩</t>
+          <t>১২৮১</t>
         </is>
       </c>
       <c r="B349" s="4" t="inlineStr">
         <is>
-          <t>হামিদা বেগম</t>
+          <t>রাজিয়া সোলতানা</t>
         </is>
       </c>
       <c r="C349" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২০৯৯৯০</t>
+          <t>১৫২৪০০২১০১৯৩</t>
         </is>
       </c>
       <c r="D349" s="4" t="inlineStr">
         <is>
-          <t>মুত শফিকুর রহমান</t>
+          <t>মোঃ শমসুল আলম</t>
         </is>
       </c>
       <c r="E349" s="4" t="inlineStr">
         <is>
-          <t>মিন আক্তার</t>
+          <t>রাশেদা বেগম</t>
         </is>
       </c>
       <c r="F349" s="3" t="inlineStr">
@@ -15104,7 +15100,7 @@
       </c>
       <c r="G349" s="3" t="inlineStr">
         <is>
-          <t>২৪/০৮/১৯৯৬</t>
+          <t>২৫/১২/১৯৯৮</t>
         </is>
       </c>
       <c r="H349" s="5" t="inlineStr">
@@ -15116,27 +15112,27 @@
     <row r="350">
       <c r="A350" s="3" t="inlineStr">
         <is>
-          <t>১১৯৬</t>
+          <t>১১৯৩</t>
         </is>
       </c>
       <c r="B350" s="4" t="inlineStr">
         <is>
-          <t>রাশেদা বেগম</t>
+          <t>হামিদা বেগম</t>
         </is>
       </c>
       <c r="C350" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২০৯৯৯৩</t>
+          <t>১৫২৪০০২০৯৯৯০</t>
         </is>
       </c>
       <c r="D350" s="4" t="inlineStr">
         <is>
-          <t>জমির উদ্দীন</t>
+          <t>মুত শফিকুর রহমান</t>
         </is>
       </c>
       <c r="E350" s="4" t="inlineStr">
         <is>
-          <t>জন্নাত আরা</t>
+          <t>মিন আক্তার</t>
         </is>
       </c>
       <c r="F350" s="3" t="inlineStr">
@@ -15146,7 +15142,7 @@
       </c>
       <c r="G350" s="3" t="inlineStr">
         <is>
-          <t>২০/০৮/১৯৯৮</t>
+          <t>২৪/০৮/১৯৯৬</t>
         </is>
       </c>
       <c r="H350" s="5" t="inlineStr">
@@ -15158,37 +15154,37 @@
     <row r="351">
       <c r="A351" s="3" t="inlineStr">
         <is>
-          <t>১২১৩</t>
+          <t>১২৮৩</t>
         </is>
       </c>
       <c r="B351" s="4" t="inlineStr">
         <is>
-          <t>রুমি আক্তার</t>
+          <t>আইরিন সোলতানা</t>
         </is>
       </c>
       <c r="C351" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০০২০</t>
+          <t>১৫২৪০০২১০১৯৬</t>
         </is>
       </c>
       <c r="D351" s="4" t="inlineStr">
         <is>
-          <t>আবুল কালাম</t>
+          <t>কামাল হোসেন</t>
         </is>
       </c>
       <c r="E351" s="4" t="inlineStr">
         <is>
-          <t>মারিয়া খাতুন</t>
+          <t>রোজিনা আক্তার</t>
         </is>
       </c>
       <c r="F351" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G351" s="3" t="inlineStr">
         <is>
-          <t>০৫/০২/১৯৯৬</t>
+          <t>০৫/০১/২০০৬</t>
         </is>
       </c>
       <c r="H351" s="5" t="inlineStr">
@@ -15200,79 +15196,79 @@
     <row r="352">
       <c r="A352" s="3" t="inlineStr">
         <is>
-          <t>১২৫০</t>
+          <t>১১৬৫</t>
         </is>
       </c>
       <c r="B352" s="4" t="inlineStr">
         <is>
-          <t>কাছরিন সোলতানা</t>
+          <t>শারমিন আক্তার</t>
         </is>
       </c>
       <c r="C352" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০১১৩</t>
+          <t>১৫২৪০০২০৯৯৪৫</t>
         </is>
       </c>
       <c r="D352" s="4" t="inlineStr">
         <is>
-          <t>কামাল হোসেন</t>
+          <t>নুরুল আমিন</t>
         </is>
       </c>
       <c r="E352" s="4" t="inlineStr">
         <is>
-          <t>রোজিনা আক্তার</t>
+          <t>হোসেন আরা বেগম</t>
         </is>
       </c>
       <c r="F352" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G352" s="3" t="inlineStr">
         <is>
-          <t>১২/০৫/২০০৪</t>
+          <t>২১/১১/১৯৯২</t>
         </is>
       </c>
       <c r="H352" s="5" t="inlineStr">
         <is>
-          <t>৪৬৯, খন্দকার পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>খন্দকার পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="3" t="inlineStr">
         <is>
-          <t>০৯৯৪</t>
+          <t>১২৯৭</t>
         </is>
       </c>
       <c r="B353" s="4" t="inlineStr">
         <is>
-          <t>জুলেখা বেগম</t>
+          <t>জামাতুল মাওয়া</t>
         </is>
       </c>
       <c r="C353" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৬৬৭</t>
+          <t>১৫২৪০০২১০২১৭</t>
         </is>
       </c>
       <c r="D353" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল কাসেম</t>
+          <t>মোঃ নজরুল ইসলাম</t>
         </is>
       </c>
       <c r="E353" s="4" t="inlineStr">
         <is>
-          <t>রেহেনা বেগম</t>
+          <t>কোহিনুর আক্তার</t>
         </is>
       </c>
       <c r="F353" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G353" s="3" t="inlineStr">
         <is>
-          <t>২৩/০১/১৯৯৭</t>
+          <t>১৯/১২/২০০২</t>
         </is>
       </c>
       <c r="H353" s="5" t="inlineStr">
@@ -15284,27 +15280,27 @@
     <row r="354">
       <c r="A354" s="3" t="inlineStr">
         <is>
-          <t>১২৬৭</t>
+          <t>১২৯৮</t>
         </is>
       </c>
       <c r="B354" s="4" t="inlineStr">
         <is>
-          <t>হামিদা আক্তার</t>
+          <t>রহিমা আক্তার মুক্তা</t>
         </is>
       </c>
       <c r="C354" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০১৬২</t>
+          <t>১৫২৪০০২১০২১৯</t>
         </is>
       </c>
       <c r="D354" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আব্দুল মান্নান</t>
+          <t>মোঃ ইসমাইল</t>
         </is>
       </c>
       <c r="E354" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>মোছামুৎ খালেদা বেগম</t>
         </is>
       </c>
       <c r="F354" s="3" t="inlineStr">
@@ -15314,7 +15310,7 @@
       </c>
       <c r="G354" s="3" t="inlineStr">
         <is>
-          <t>১০/১২/২০০০</t>
+          <t>০৭/১২/২০০৫</t>
         </is>
       </c>
       <c r="H354" s="5" t="inlineStr">
@@ -15326,37 +15322,37 @@
     <row r="355">
       <c r="A355" s="3" t="inlineStr">
         <is>
-          <t>১২৭১</t>
+          <t>০৬৩৬</t>
         </is>
       </c>
       <c r="B355" s="4" t="inlineStr">
         <is>
-          <t>রাবিয়া বেগম</t>
+          <t>জয়নাব বেগম</t>
         </is>
       </c>
       <c r="C355" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০১৭০</t>
+          <t>১৫২৪০০০০৬৮৭৪</t>
         </is>
       </c>
       <c r="D355" s="4" t="inlineStr">
         <is>
-          <t>নুরুল আলম</t>
+          <t>গোলাম আকবর</t>
         </is>
       </c>
       <c r="E355" s="4" t="inlineStr">
         <is>
-          <t>রেহেনা বেগম</t>
+          <t>মোবারক খাতুন</t>
         </is>
       </c>
       <c r="F355" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G355" s="3" t="inlineStr">
         <is>
-          <t>১০/০৭/১৯৯৭</t>
+          <t>১৮/০৮/১৯৮৪</t>
         </is>
       </c>
       <c r="H355" s="5" t="inlineStr">
@@ -15368,79 +15364,79 @@
     <row r="356">
       <c r="A356" s="3" t="inlineStr">
         <is>
-          <t>১২৮১</t>
+          <t>১২৫০</t>
         </is>
       </c>
       <c r="B356" s="4" t="inlineStr">
         <is>
-          <t>রাজিয়া সোলতানা</t>
+          <t>কাছরিন সোলতানা</t>
         </is>
       </c>
       <c r="C356" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০১৯৩</t>
+          <t>১৫২৪০০২১০১১৩</t>
         </is>
       </c>
       <c r="D356" s="4" t="inlineStr">
         <is>
-          <t>মোঃ শমসুল আলম</t>
+          <t>কামাল হোসেন</t>
         </is>
       </c>
       <c r="E356" s="4" t="inlineStr">
         <is>
-          <t>রাশেদা বেগম</t>
+          <t>রোজিনা আক্তার</t>
         </is>
       </c>
       <c r="F356" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G356" s="3" t="inlineStr">
         <is>
-          <t>২৫/১২/১৯৯৮</t>
+          <t>১২/০৫/২০০৪</t>
         </is>
       </c>
       <c r="H356" s="5" t="inlineStr">
         <is>
-          <t>খন্দকার পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>৪৬৯, খন্দকার পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="3" t="inlineStr">
         <is>
-          <t>১২৮৩</t>
+          <t>১১৭০</t>
         </is>
       </c>
       <c r="B357" s="4" t="inlineStr">
         <is>
-          <t>আইরিন সোলতানা</t>
+          <t>শাহানাজ বেগম</t>
         </is>
       </c>
       <c r="C357" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০১৯৬</t>
+          <t>১৫২৪০০২০৯৯৫৪</t>
         </is>
       </c>
       <c r="D357" s="4" t="inlineStr">
         <is>
-          <t>কামাল হোসেন</t>
+          <t>আব্দুল গফুর</t>
         </is>
       </c>
       <c r="E357" s="4" t="inlineStr">
         <is>
-          <t>রোজিনা আক্তার</t>
+          <t>রেন আরা বেগম</t>
         </is>
       </c>
       <c r="F357" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G357" s="3" t="inlineStr">
         <is>
-          <t>০৫/০১/২০০৬</t>
+          <t>২৮/০৮/১৯৯৭</t>
         </is>
       </c>
       <c r="H357" s="5" t="inlineStr">
@@ -15452,27 +15448,27 @@
     <row r="358">
       <c r="A358" s="3" t="inlineStr">
         <is>
-          <t>১২৯৭</t>
+          <t>১১২৮</t>
         </is>
       </c>
       <c r="B358" s="4" t="inlineStr">
         <is>
-          <t>জামাতুল মাওয়া</t>
+          <t>রেহেনা আক্তার</t>
         </is>
       </c>
       <c r="C358" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০২১৭</t>
+          <t>১৫২৪০০২০৯৮৯১</t>
         </is>
       </c>
       <c r="D358" s="4" t="inlineStr">
         <is>
-          <t>মোঃ নজরুল ইসলাম</t>
+          <t>মুত আবদুল মালেক</t>
         </is>
       </c>
       <c r="E358" s="4" t="inlineStr">
         <is>
-          <t>কোহিনুর আক্তার</t>
+          <t>কুফিয়া খাতুন</t>
         </is>
       </c>
       <c r="F358" s="3" t="inlineStr">
@@ -15482,7 +15478,7 @@
       </c>
       <c r="G358" s="3" t="inlineStr">
         <is>
-          <t>১৯/১২/২০০২</t>
+          <t>১১/০২/১৯৯২</t>
         </is>
       </c>
       <c r="H358" s="5" t="inlineStr">
@@ -15494,37 +15490,37 @@
     <row r="359">
       <c r="A359" s="3" t="inlineStr">
         <is>
-          <t>১২৯৮</t>
+          <t>১১৪৫</t>
         </is>
       </c>
       <c r="B359" s="4" t="inlineStr">
         <is>
-          <t>রহিমা আক্তার মুক্তা</t>
+          <t>মোছামুৎ নাজমা বেগম</t>
         </is>
       </c>
       <c r="C359" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০২১৯</t>
+          <t>১৫২৪০০২০৯৯১৩</t>
         </is>
       </c>
       <c r="D359" s="4" t="inlineStr">
         <is>
-          <t>মোঃ ইসমাইল</t>
+          <t>মোঃ নুরুল হক</t>
         </is>
       </c>
       <c r="E359" s="4" t="inlineStr">
         <is>
-          <t>মোছামুৎ খালেদা বেগম</t>
+          <t>আনুয়ার বেগম</t>
         </is>
       </c>
       <c r="F359" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G359" s="3" t="inlineStr">
         <is>
-          <t>০৭/১২/২০০৫</t>
+          <t>১০/০৫/১৯৯২</t>
         </is>
       </c>
       <c r="H359" s="5" t="inlineStr">
@@ -15536,37 +15532,37 @@
     <row r="360">
       <c r="A360" s="3" t="inlineStr">
         <is>
-          <t>১১৬৫</t>
+          <t>০৯৯৪</t>
         </is>
       </c>
       <c r="B360" s="4" t="inlineStr">
         <is>
-          <t>শারমিন আক্তার</t>
+          <t>জুলেখা বেগম</t>
         </is>
       </c>
       <c r="C360" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২০৯৯৪৫</t>
+          <t>১৫২৪০০০০০৬৬৭</t>
         </is>
       </c>
       <c r="D360" s="4" t="inlineStr">
         <is>
-          <t>নুরুল আমিন</t>
+          <t>আব্দুল কাসেম</t>
         </is>
       </c>
       <c r="E360" s="4" t="inlineStr">
         <is>
-          <t>হোসেন আরা বেগম</t>
+          <t>রেহেনা বেগম</t>
         </is>
       </c>
       <c r="F360" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G360" s="3" t="inlineStr">
         <is>
-          <t>২১/১১/১৯৯২</t>
+          <t>২৩/০১/১৯৯৭</t>
         </is>
       </c>
       <c r="H360" s="5" t="inlineStr">
@@ -15578,27 +15574,27 @@
     <row r="361">
       <c r="A361" s="3" t="inlineStr">
         <is>
-          <t>১০৫৪</t>
+          <t>১০৩১</t>
         </is>
       </c>
       <c r="B361" s="4" t="inlineStr">
         <is>
-          <t>নাসরিন আকতার দিনা</t>
+          <t>জ্মা আক্তার</t>
         </is>
       </c>
       <c r="C361" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৮২২</t>
+          <t>১৫২৪০০০০০৭৫৭</t>
         </is>
       </c>
       <c r="D361" s="4" t="inlineStr">
         <is>
-          <t>মনজুরুল ইসলাম</t>
+          <t>রিদুয়ানুল হক</t>
         </is>
       </c>
       <c r="E361" s="4" t="inlineStr">
         <is>
-          <t>শাকেরা বেগম</t>
+          <t>আছিয়া বেগম</t>
         </is>
       </c>
       <c r="F361" s="3" t="inlineStr">
@@ -15608,54 +15604,54 @@
       </c>
       <c r="G361" s="3" t="inlineStr">
         <is>
-          <t>১৮/০৫/১৯৯৬</t>
+          <t>১১/১২/১৯৯৯</t>
         </is>
       </c>
       <c r="H361" s="5" t="inlineStr">
         <is>
-          <t>৪৭৫, খন্দকার পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>খন্দকার পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="3" t="inlineStr">
         <is>
-          <t>১১২৮</t>
+          <t>১০৫৪</t>
         </is>
       </c>
       <c r="B362" s="4" t="inlineStr">
         <is>
-          <t>রেহেনা আক্তার</t>
+          <t>নাসরিন আকতার দিনা</t>
         </is>
       </c>
       <c r="C362" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২০৯৮৯১</t>
+          <t>১৫২৪০০০০০৮২২</t>
         </is>
       </c>
       <c r="D362" s="4" t="inlineStr">
         <is>
-          <t>মুত আবদুল মালেক</t>
+          <t>মনজুরুল ইসলাম</t>
         </is>
       </c>
       <c r="E362" s="4" t="inlineStr">
         <is>
-          <t>কুফিয়া খাতুন</t>
+          <t>শাকেরা বেগম</t>
         </is>
       </c>
       <c r="F362" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G362" s="3" t="inlineStr">
         <is>
-          <t>১১/০২/১৯৯২</t>
+          <t>১৮/০৫/১৯৯৬</t>
         </is>
       </c>
       <c r="H362" s="5" t="inlineStr">
         <is>
-          <t>খন্দকার পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>৪৭৫, খন্দকার পাড়া, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -15704,27 +15700,27 @@
     <row r="364">
       <c r="A364" s="3" t="inlineStr">
         <is>
-          <t>১০৯১</t>
+          <t>১০৬৫</t>
         </is>
       </c>
       <c r="B364" s="4" t="inlineStr">
         <is>
-          <t>তামিমা সোলতানা</t>
+          <t>আনিকা তাহসিন</t>
         </is>
       </c>
       <c r="C364" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৮৮৯</t>
+          <t>১৫২৪০০০০০৮৪০</t>
         </is>
       </c>
       <c r="D364" s="4" t="inlineStr">
         <is>
-          <t>আজিজুল হক</t>
+          <t>মোঃ সাইফুল্লিন</t>
         </is>
       </c>
       <c r="E364" s="4" t="inlineStr">
         <is>
-          <t>শওকত আরা</t>
+          <t>কানিজ ফাতেমা</t>
         </is>
       </c>
       <c r="F364" s="3" t="inlineStr">
@@ -15734,7 +15730,7 @@
       </c>
       <c r="G364" s="3" t="inlineStr">
         <is>
-          <t>২০/০১/২০০৪</t>
+          <t>০১/০৮/২০০১</t>
         </is>
       </c>
       <c r="H364" s="5" t="inlineStr">
@@ -15746,27 +15742,27 @@
     <row r="365">
       <c r="A365" s="3" t="inlineStr">
         <is>
-          <t>১০৬৫</t>
+          <t>১০৯১</t>
         </is>
       </c>
       <c r="B365" s="4" t="inlineStr">
         <is>
-          <t>আনিকা তাহসিন</t>
+          <t>তামিমা সোলতানা</t>
         </is>
       </c>
       <c r="C365" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৮৪০</t>
+          <t>১৫২৪০০০০০৮৮৯</t>
         </is>
       </c>
       <c r="D365" s="4" t="inlineStr">
         <is>
-          <t>মোঃ সাইফুল্লিন</t>
+          <t>আজিজুল হক</t>
         </is>
       </c>
       <c r="E365" s="4" t="inlineStr">
         <is>
-          <t>কানিজ ফাতেমা</t>
+          <t>শওকত আরা</t>
         </is>
       </c>
       <c r="F365" s="3" t="inlineStr">
@@ -15776,7 +15772,7 @@
       </c>
       <c r="G365" s="3" t="inlineStr">
         <is>
-          <t>০১/০৮/২০০১</t>
+          <t>২০/০১/২০০৪</t>
         </is>
       </c>
       <c r="H365" s="5" t="inlineStr">
@@ -15872,37 +15868,37 @@
     <row r="368">
       <c r="A368" s="3" t="inlineStr">
         <is>
-          <t>১০০৪</t>
+          <t>১১৮৫</t>
         </is>
       </c>
       <c r="B368" s="4" t="inlineStr">
         <is>
-          <t>শারমিন আক্তার</t>
+          <t>কামুকুন নাহার মৌ</t>
         </is>
       </c>
       <c r="C368" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৬৯৪</t>
+          <t>১৫২৪০০২০৯৯৮২</t>
         </is>
       </c>
       <c r="D368" s="4" t="inlineStr">
         <is>
-          <t>মৃত আশরাফ মিয়া</t>
+          <t>মৃত মোঃ কামাল উদ্দিন</t>
         </is>
       </c>
       <c r="E368" s="4" t="inlineStr">
         <is>
-          <t>আছমা বেগম</t>
+          <t>কবিনা আক্তার রানী</t>
         </is>
       </c>
       <c r="F368" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G368" s="3" t="inlineStr">
         <is>
-          <t>১০/০৮/১৯৯৪</t>
+          <t>০৫/১০/২০০১</t>
         </is>
       </c>
       <c r="H368" s="5" t="inlineStr">
@@ -15914,37 +15910,37 @@
     <row r="369">
       <c r="A369" s="3" t="inlineStr">
         <is>
-          <t>১১৮৫</t>
+          <t>১০০৪</t>
         </is>
       </c>
       <c r="B369" s="4" t="inlineStr">
         <is>
-          <t>কামুকুন নাহার মৌ</t>
+          <t>শারমিন আক্তার</t>
         </is>
       </c>
       <c r="C369" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২০৯৯৮২</t>
+          <t>১৫২৪০০০০০৬৯৪</t>
         </is>
       </c>
       <c r="D369" s="4" t="inlineStr">
         <is>
-          <t>মৃত মোঃ কামাল উদ্দিন</t>
+          <t>মৃত আশরাফ মিয়া</t>
         </is>
       </c>
       <c r="E369" s="4" t="inlineStr">
         <is>
-          <t>কবিনা আক্তার রানী</t>
+          <t>আছমা বেগম</t>
         </is>
       </c>
       <c r="F369" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G369" s="3" t="inlineStr">
         <is>
-          <t>০৫/১০/২০০১</t>
+          <t>১০/০৮/১৯৯৪</t>
         </is>
       </c>
       <c r="H369" s="5" t="inlineStr">
@@ -16166,37 +16162,37 @@
     <row r="375">
       <c r="A375" s="3" t="inlineStr">
         <is>
-          <t>০৪৭৭</t>
+          <t>০৪৭৮</t>
         </is>
       </c>
       <c r="B375" s="4" t="inlineStr">
         <is>
+          <t>রেহেনা আক্তার</t>
+        </is>
+      </c>
+      <c r="C375" s="3" t="inlineStr">
+        <is>
+          <t>১৫২৪০০০০৬৫২২</t>
+        </is>
+      </c>
+      <c r="D375" s="4" t="inlineStr">
+        <is>
+          <t>মোজাফফর আহমেদ</t>
+        </is>
+      </c>
+      <c r="E375" s="4" t="inlineStr">
+        <is>
           <t>মাইমুনা বেগম</t>
         </is>
       </c>
-      <c r="C375" s="3" t="inlineStr">
-        <is>
-          <t>১৫২৪০০০০৬৫২১</t>
-        </is>
-      </c>
-      <c r="D375" s="4" t="inlineStr">
-        <is>
-          <t>ছিদিক আহমেদ</t>
-        </is>
-      </c>
-      <c r="E375" s="4" t="inlineStr">
-        <is>
-          <t>খুইল্লা বিবি</t>
-        </is>
-      </c>
       <c r="F375" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G375" s="3" t="inlineStr">
         <is>
-          <t>১৯/১১/১৯৬৬</t>
+          <t>১২/০১/১৯৮৯</t>
         </is>
       </c>
       <c r="H375" s="5" t="inlineStr">
@@ -16208,37 +16204,37 @@
     <row r="376">
       <c r="A376" s="3" t="inlineStr">
         <is>
-          <t>০৪৭৮</t>
+          <t>১০৭৭</t>
         </is>
       </c>
       <c r="B376" s="4" t="inlineStr">
         <is>
-          <t>রেহেনা আক্তার</t>
+          <t>উম্মে সালমা শিফা</t>
         </is>
       </c>
       <c r="C376" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৫২২</t>
+          <t>১৫২৪০০০০০৮৬২</t>
         </is>
       </c>
       <c r="D376" s="4" t="inlineStr">
         <is>
-          <t>মোজাফফর আহমেদ</t>
+          <t>জাফর আহমেদ</t>
         </is>
       </c>
       <c r="E376" s="4" t="inlineStr">
         <is>
-          <t>মাইমুনা বেগম</t>
+          <t>নুরুন নাহার চৌধুরী</t>
         </is>
       </c>
       <c r="F376" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G376" s="3" t="inlineStr">
         <is>
-          <t>১২/০১/১৯৮৯</t>
+          <t>০৯/১১/১৯৯৬</t>
         </is>
       </c>
       <c r="H376" s="5" t="inlineStr">
@@ -16250,37 +16246,37 @@
     <row r="377">
       <c r="A377" s="3" t="inlineStr">
         <is>
-          <t>০৮১৭</t>
+          <t>০৪৭৭</t>
         </is>
       </c>
       <c r="B377" s="4" t="inlineStr">
         <is>
-          <t>জন্নাতুল ফেরদৌস</t>
+          <t>মাইমুনা বেগম</t>
         </is>
       </c>
       <c r="C377" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০১৮৭</t>
+          <t>১৫২৪০০০০৬৫২১</t>
         </is>
       </c>
       <c r="D377" s="4" t="inlineStr">
         <is>
-          <t>আবদুল ছাত্র</t>
+          <t>ছিদিক আহমেদ</t>
         </is>
       </c>
       <c r="E377" s="4" t="inlineStr">
         <is>
-          <t>ফাতেমা বেগম</t>
+          <t>খুইল্লা বিবি</t>
         </is>
       </c>
       <c r="F377" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G377" s="3" t="inlineStr">
         <is>
-          <t>১৭/০২/১৯৯২</t>
+          <t>১৯/১১/১৯৬৬</t>
         </is>
       </c>
       <c r="H377" s="5" t="inlineStr">
@@ -16292,27 +16288,27 @@
     <row r="378">
       <c r="A378" s="3" t="inlineStr">
         <is>
-          <t>১০৭৭</t>
+          <t>০৮১৭</t>
         </is>
       </c>
       <c r="B378" s="4" t="inlineStr">
         <is>
-          <t>উম্মে সালমা শিফা</t>
+          <t>জন্নাতুল ফেরদৌস</t>
         </is>
       </c>
       <c r="C378" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৮৬২</t>
+          <t>১৫২৪০০০০০১৮৭</t>
         </is>
       </c>
       <c r="D378" s="4" t="inlineStr">
         <is>
-          <t>জাফর আহমেদ</t>
+          <t>আবদুল ছাত্র</t>
         </is>
       </c>
       <c r="E378" s="4" t="inlineStr">
         <is>
-          <t>নুরুন নাহার চৌধুরী</t>
+          <t>ফাতেমা বেগম</t>
         </is>
       </c>
       <c r="F378" s="3" t="inlineStr">
@@ -16322,7 +16318,7 @@
       </c>
       <c r="G378" s="3" t="inlineStr">
         <is>
-          <t>০৯/১১/১৯৯৬</t>
+          <t>১৭/০২/১৯৯২</t>
         </is>
       </c>
       <c r="H378" s="5" t="inlineStr">
@@ -16418,37 +16414,37 @@
     <row r="381">
       <c r="A381" s="3" t="inlineStr">
         <is>
-          <t>০৫৪৮</t>
+          <t>০৬০৩</t>
         </is>
       </c>
       <c r="B381" s="4" t="inlineStr">
         <is>
-          <t>খাইরুন নিছা</t>
+          <t>মুহাম্মৎ শামীম আরা খানম</t>
         </is>
       </c>
       <c r="C381" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৬৫৫</t>
+          <t>১৫২৪০০০০৬৭৬৭</t>
         </is>
       </c>
       <c r="D381" s="4" t="inlineStr">
         <is>
-          <t>ফরিদ আহমদ</t>
+          <t>ছগীর আহমদ খান</t>
         </is>
       </c>
       <c r="E381" s="4" t="inlineStr">
         <is>
-          <t>আলমাস খাতুন</t>
+          <t>জমাত আরা খান</t>
         </is>
       </c>
       <c r="F381" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>বেসরকারী চাকুরী</t>
         </is>
       </c>
       <c r="G381" s="3" t="inlineStr">
         <is>
-          <t>০৭/০৩/১৯৭০</t>
+          <t>১৭/০৮/১৯৭৯</t>
         </is>
       </c>
       <c r="H381" s="5" t="inlineStr">
@@ -16460,69 +16456,69 @@
     <row r="382">
       <c r="A382" s="3" t="inlineStr">
         <is>
-          <t>১১৭২</t>
+          <t>১২৭৪</t>
         </is>
       </c>
       <c r="B382" s="4" t="inlineStr">
         <is>
-          <t>ইসরাত জাহান</t>
+          <t>ইসরাত সায়মা</t>
         </is>
       </c>
       <c r="C382" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২০৯৯৫৭</t>
+          <t>১৫২৪০০২১০১৭৬</t>
         </is>
       </c>
       <c r="D382" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল মোমেন</t>
+          <t>মোহাম্মদ ইউনুহ</t>
         </is>
       </c>
       <c r="E382" s="4" t="inlineStr">
         <is>
-          <t>খালেদা বেগম</t>
+          <t>সাইদা আক্তার</t>
         </is>
       </c>
       <c r="F382" s="3" t="inlineStr">
         <is>
-          <t>গৃহকর্মী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G382" s="3" t="inlineStr">
         <is>
-          <t>০৮/০১/১৯৯৮</t>
+          <t>২০/০২/২০০৬</t>
         </is>
       </c>
       <c r="H382" s="5" t="inlineStr">
         <is>
-          <t>৩৫১, গণি চৌকিদারের বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>গণি চৌকিদারের বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="3" t="inlineStr">
         <is>
-          <t>০৫৪৪</t>
+          <t>০৫৪৮</t>
         </is>
       </c>
       <c r="B383" s="4" t="inlineStr">
         <is>
-          <t>চেমন আরা বেগম</t>
+          <t>খাইরুন নিছা</t>
         </is>
       </c>
       <c r="C383" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৬৫০</t>
+          <t>১৫২৪০০০০৬৬৫৫</t>
         </is>
       </c>
       <c r="D383" s="4" t="inlineStr">
         <is>
-          <t>মোঃ খুল্লা মিয়া</t>
+          <t>ফরিদ আহমদ</t>
         </is>
       </c>
       <c r="E383" s="4" t="inlineStr">
         <is>
-          <t>মোবারক খাতুন</t>
+          <t>আলমাস খাতুন</t>
         </is>
       </c>
       <c r="F383" s="3" t="inlineStr">
@@ -16532,7 +16528,7 @@
       </c>
       <c r="G383" s="3" t="inlineStr">
         <is>
-          <t>০৩/০২/১৯৫১</t>
+          <t>০৭/০৩/১৯৭০</t>
         </is>
       </c>
       <c r="H383" s="5" t="inlineStr">
@@ -16544,37 +16540,37 @@
     <row r="384">
       <c r="A384" s="3" t="inlineStr">
         <is>
-          <t>০৬০৩</t>
+          <t>০৫৪৭</t>
         </is>
       </c>
       <c r="B384" s="4" t="inlineStr">
         <is>
-          <t>মুহাম্মৎ শামীম আরা খানম</t>
+          <t>হাছিনা বেগম</t>
         </is>
       </c>
       <c r="C384" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৭৬৭</t>
+          <t>১৫২৪০০০০৬৬৫৪</t>
         </is>
       </c>
       <c r="D384" s="4" t="inlineStr">
         <is>
-          <t>ছগীর আহমদ খান</t>
+          <t>আবদুর রশিদ</t>
         </is>
       </c>
       <c r="E384" s="4" t="inlineStr">
         <is>
-          <t>জমাত আরা খান</t>
+          <t>আছুমা খাতুন</t>
         </is>
       </c>
       <c r="F384" s="3" t="inlineStr">
         <is>
-          <t>বেসরকারী চাকুরী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G384" s="3" t="inlineStr">
         <is>
-          <t>১৭/০৮/১৯৭৯</t>
+          <t>০৭/০২/১৯৭০</t>
         </is>
       </c>
       <c r="H384" s="5" t="inlineStr">
@@ -16586,27 +16582,27 @@
     <row r="385">
       <c r="A385" s="3" t="inlineStr">
         <is>
-          <t>০৫৪৫</t>
+          <t>০৫৪৬</t>
         </is>
       </c>
       <c r="B385" s="4" t="inlineStr">
         <is>
-          <t>ইছমত আরা বেগম</t>
+          <t>মোছাং চেনু আরা বেগম</t>
         </is>
       </c>
       <c r="C385" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৬৫১</t>
+          <t>১৫২৪০০০০৬৬৫৩</t>
         </is>
       </c>
       <c r="D385" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আলী</t>
+          <t>আবদুস ছত্তার</t>
         </is>
       </c>
       <c r="E385" s="4" t="inlineStr">
         <is>
-          <t>রেজিয়া বেগম</t>
+          <t>ফাতেমা বেগম</t>
         </is>
       </c>
       <c r="F385" s="3" t="inlineStr">
@@ -16616,7 +16612,7 @@
       </c>
       <c r="G385" s="3" t="inlineStr">
         <is>
-          <t>২৭/০৩/১৯৮৮</t>
+          <t>০৮/০৬/১৯৮৫</t>
         </is>
       </c>
       <c r="H385" s="5" t="inlineStr">
@@ -16628,27 +16624,27 @@
     <row r="386">
       <c r="A386" s="3" t="inlineStr">
         <is>
-          <t>০৫৪৬</t>
+          <t>০৫৪৫</t>
         </is>
       </c>
       <c r="B386" s="4" t="inlineStr">
         <is>
-          <t>মোছাং চেনু আরা বেগম</t>
+          <t>ইছমত আরা বেগম</t>
         </is>
       </c>
       <c r="C386" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৬৫৩</t>
+          <t>১৫২৪০০০০৬৬৫১</t>
         </is>
       </c>
       <c r="D386" s="4" t="inlineStr">
         <is>
-          <t>আবদুস ছত্তার</t>
+          <t>মোহাম্মদ আলী</t>
         </is>
       </c>
       <c r="E386" s="4" t="inlineStr">
         <is>
-          <t>ফাতেমা বেগম</t>
+          <t>রেজিয়া বেগম</t>
         </is>
       </c>
       <c r="F386" s="3" t="inlineStr">
@@ -16658,7 +16654,7 @@
       </c>
       <c r="G386" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৬/১৯৮৫</t>
+          <t>২৭/০৩/১৯৮৮</t>
         </is>
       </c>
       <c r="H386" s="5" t="inlineStr">
@@ -16670,27 +16666,27 @@
     <row r="387">
       <c r="A387" s="3" t="inlineStr">
         <is>
-          <t>১২৭৪</t>
+          <t>০৫৪৪</t>
         </is>
       </c>
       <c r="B387" s="4" t="inlineStr">
         <is>
-          <t>ইসরাত সায়মা</t>
+          <t>চেমন আরা বেগম</t>
         </is>
       </c>
       <c r="C387" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০১৭৬</t>
+          <t>১৫২৪০০০০৬৬৫০</t>
         </is>
       </c>
       <c r="D387" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইউনুহ</t>
+          <t>মোঃ খুল্লা মিয়া</t>
         </is>
       </c>
       <c r="E387" s="4" t="inlineStr">
         <is>
-          <t>সাইদা আক্তার</t>
+          <t>মোবারক খাতুন</t>
         </is>
       </c>
       <c r="F387" s="3" t="inlineStr">
@@ -16700,7 +16696,7 @@
       </c>
       <c r="G387" s="3" t="inlineStr">
         <is>
-          <t>২০/০২/২০০৬</t>
+          <t>০৩/০২/১৯৫১</t>
         </is>
       </c>
       <c r="H387" s="5" t="inlineStr">
@@ -16712,42 +16708,42 @@
     <row r="388">
       <c r="A388" s="3" t="inlineStr">
         <is>
-          <t>০৫৪৭</t>
+          <t>১১৭২</t>
         </is>
       </c>
       <c r="B388" s="4" t="inlineStr">
         <is>
-          <t>হাছিনা বেগম</t>
+          <t>ইসরাত জাহান</t>
         </is>
       </c>
       <c r="C388" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৬৫৪</t>
+          <t>১৫২৪০০২০৯৯৫৭</t>
         </is>
       </c>
       <c r="D388" s="4" t="inlineStr">
         <is>
-          <t>আবদুর রশিদ</t>
+          <t>আব্দুল মোমেন</t>
         </is>
       </c>
       <c r="E388" s="4" t="inlineStr">
         <is>
-          <t>আছুমা খাতুন</t>
+          <t>খালেদা বেগম</t>
         </is>
       </c>
       <c r="F388" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>গৃহকর্মী</t>
         </is>
       </c>
       <c r="G388" s="3" t="inlineStr">
         <is>
-          <t>০৭/০২/১৯৭০</t>
+          <t>০৮/০১/১৯৯৮</t>
         </is>
       </c>
       <c r="H388" s="5" t="inlineStr">
         <is>
-          <t>গণি চৌকিদারের বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>৩৫১, গণি চৌকিদারের বাড়ি, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -16796,27 +16792,27 @@
     <row r="390">
       <c r="A390" s="3" t="inlineStr">
         <is>
-          <t>০৫২৩</t>
+          <t>০৫২০</t>
         </is>
       </c>
       <c r="B390" s="4" t="inlineStr">
         <is>
-          <t>খালেদা বেগম</t>
+          <t>মোহাম্মদ জয়নাব বেগম</t>
         </is>
       </c>
       <c r="C390" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৩১০</t>
+          <t>১৫২৪০০০০৬৩০৬</t>
         </is>
       </c>
       <c r="D390" s="4" t="inlineStr">
         <is>
-          <t>সিরাজুল ইসলাম</t>
+          <t>আব্দুল ছগর</t>
         </is>
       </c>
       <c r="E390" s="4" t="inlineStr">
         <is>
-          <t>হাবিয়া খাতুন</t>
+          <t>ফাতেমা বেগম</t>
         </is>
       </c>
       <c r="F390" s="3" t="inlineStr">
@@ -16826,7 +16822,7 @@
       </c>
       <c r="G390" s="3" t="inlineStr">
         <is>
-          <t>০২/০৫/১৯৫৮</t>
+          <t>১৯/০৬/১৯৭৬</t>
         </is>
       </c>
       <c r="H390" s="5" t="inlineStr">
@@ -16838,27 +16834,27 @@
     <row r="391">
       <c r="A391" s="3" t="inlineStr">
         <is>
-          <t>০৫২২</t>
+          <t>০৫২৩</t>
         </is>
       </c>
       <c r="B391" s="4" t="inlineStr">
         <is>
-          <t>নাছিমা আকতার</t>
+          <t>খালেদা বেগম</t>
         </is>
       </c>
       <c r="C391" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৩০৮</t>
+          <t>১৫২৪০০০০৬৩১০</t>
         </is>
       </c>
       <c r="D391" s="4" t="inlineStr">
         <is>
-          <t>সোনা মিয়া</t>
+          <t>সিরাজুল ইসলাম</t>
         </is>
       </c>
       <c r="E391" s="4" t="inlineStr">
         <is>
-          <t>মাবিয়া খাতুন</t>
+          <t>হাবিয়া খাতুন</t>
         </is>
       </c>
       <c r="F391" s="3" t="inlineStr">
@@ -16868,7 +16864,7 @@
       </c>
       <c r="G391" s="3" t="inlineStr">
         <is>
-          <t>১৭/০৭/১৯৭২</t>
+          <t>০২/০৫/১৯৫৮</t>
         </is>
       </c>
       <c r="H391" s="5" t="inlineStr">
@@ -16880,27 +16876,27 @@
     <row r="392">
       <c r="A392" s="3" t="inlineStr">
         <is>
-          <t>০৫২১</t>
+          <t>০৫২২</t>
         </is>
       </c>
       <c r="B392" s="4" t="inlineStr">
         <is>
-          <t>মোস্তাফা খাতুন</t>
+          <t>নাছিমা আকতার</t>
         </is>
       </c>
       <c r="C392" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৩০৭</t>
+          <t>১৫২৪০০০০৬৩০৮</t>
         </is>
       </c>
       <c r="D392" s="4" t="inlineStr">
         <is>
-          <t>ইচ্ছুপ আলী</t>
+          <t>সোনা মিয়া</t>
         </is>
       </c>
       <c r="E392" s="4" t="inlineStr">
         <is>
-          <t>আলমাহ খাতুন</t>
+          <t>মাবিয়া খাতুন</t>
         </is>
       </c>
       <c r="F392" s="3" t="inlineStr">
@@ -16910,7 +16906,7 @@
       </c>
       <c r="G392" s="3" t="inlineStr">
         <is>
-          <t>০৩/০১/১৯৪৫</t>
+          <t>১৭/০৭/১৯৭২</t>
         </is>
       </c>
       <c r="H392" s="5" t="inlineStr">
@@ -16922,27 +16918,27 @@
     <row r="393">
       <c r="A393" s="3" t="inlineStr">
         <is>
-          <t>০৫২০</t>
+          <t>০৫২১</t>
         </is>
       </c>
       <c r="B393" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ জয়নাব বেগম</t>
+          <t>মোস্তাফা খাতুন</t>
         </is>
       </c>
       <c r="C393" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৩০৬</t>
+          <t>১৫২৪০০০০৬৩০৭</t>
         </is>
       </c>
       <c r="D393" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল ছগর</t>
+          <t>ইচ্ছুপ আলী</t>
         </is>
       </c>
       <c r="E393" s="4" t="inlineStr">
         <is>
-          <t>ফাতেমা বেগম</t>
+          <t>আলমাহ খাতুন</t>
         </is>
       </c>
       <c r="F393" s="3" t="inlineStr">
@@ -16952,7 +16948,7 @@
       </c>
       <c r="G393" s="3" t="inlineStr">
         <is>
-          <t>১৯/০৬/১৯৭৬</t>
+          <t>০৩/০১/১৯৪৫</t>
         </is>
       </c>
       <c r="H393" s="5" t="inlineStr">
@@ -17132,27 +17128,27 @@
     <row r="398">
       <c r="A398" s="3" t="inlineStr">
         <is>
-          <t>০৪৭৯</t>
+          <t>০৬০২</t>
         </is>
       </c>
       <c r="B398" s="4" t="inlineStr">
         <is>
-          <t>রোজিনা আকতার</t>
+          <t>জমাত আরা খান</t>
         </is>
       </c>
       <c r="C398" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৫২৩</t>
+          <t>১৫২৪০০০০৬৭৬৬</t>
         </is>
       </c>
       <c r="D398" s="4" t="inlineStr">
         <is>
-          <t>আহমেদুর রহমান</t>
+          <t>হাকিমুল হক চৌঃ</t>
         </is>
       </c>
       <c r="E398" s="4" t="inlineStr">
         <is>
-          <t>আনোয়ারা বেগম</t>
+          <t>দিলরুবা বেগম</t>
         </is>
       </c>
       <c r="F398" s="3" t="inlineStr">
@@ -17162,7 +17158,7 @@
       </c>
       <c r="G398" s="3" t="inlineStr">
         <is>
-          <t>২৯/১০/১৯৮১</t>
+          <t>০৫/০৭/১৯৫৯</t>
         </is>
       </c>
       <c r="H398" s="5" t="inlineStr">
@@ -17174,37 +17170,37 @@
     <row r="399">
       <c r="A399" s="3" t="inlineStr">
         <is>
-          <t>০৬০২</t>
+          <t>০৮৪৬</t>
         </is>
       </c>
       <c r="B399" s="4" t="inlineStr">
         <is>
-          <t>জমাত আরা খান</t>
+          <t>শরমিন আক্তার</t>
         </is>
       </c>
       <c r="C399" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৭৬৬</t>
+          <t>১৫২৪০০০০০৩১১</t>
         </is>
       </c>
       <c r="D399" s="4" t="inlineStr">
         <is>
-          <t>হাকিমুল হক চৌঃ</t>
+          <t>নুকুল আমীন</t>
         </is>
       </c>
       <c r="E399" s="4" t="inlineStr">
         <is>
-          <t>দিলরুবা বেগম</t>
+          <t>শাহিন আক্তার</t>
         </is>
       </c>
       <c r="F399" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G399" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৭/১৯৫৯</t>
+          <t>১৫/১০/১৯৯৪</t>
         </is>
       </c>
       <c r="H399" s="5" t="inlineStr">
@@ -17258,37 +17254,37 @@
     <row r="401">
       <c r="A401" s="3" t="inlineStr">
         <is>
-          <t>০৮৪৬</t>
+          <t>০৪৭৯</t>
         </is>
       </c>
       <c r="B401" s="4" t="inlineStr">
         <is>
-          <t>শরমিন আক্তার</t>
+          <t>রোজিনা আকতার</t>
         </is>
       </c>
       <c r="C401" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৩১১</t>
+          <t>১৫২৪০০০০৬৫২৩</t>
         </is>
       </c>
       <c r="D401" s="4" t="inlineStr">
         <is>
-          <t>নুকুল আমীন</t>
+          <t>আহমেদুর রহমান</t>
         </is>
       </c>
       <c r="E401" s="4" t="inlineStr">
         <is>
-          <t>শাহিন আক্তার</t>
+          <t>আনোয়ারা বেগম</t>
         </is>
       </c>
       <c r="F401" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G401" s="3" t="inlineStr">
         <is>
-          <t>১৫/১০/১৯৯৪</t>
+          <t>২৯/১০/১৯৮১</t>
         </is>
       </c>
       <c r="H401" s="5" t="inlineStr">
@@ -17300,37 +17296,37 @@
     <row r="402">
       <c r="A402" s="3" t="inlineStr">
         <is>
-          <t>০৪৭৬</t>
+          <t>১১৬৪</t>
         </is>
       </c>
       <c r="B402" s="4" t="inlineStr">
         <is>
-          <t>মোস্তফা খাতুন</t>
+          <t>জেমি আক্তার</t>
         </is>
       </c>
       <c r="C402" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৫২০</t>
+          <t>১৫২৪০০২০৯৯৪৪</t>
         </is>
       </c>
       <c r="D402" s="4" t="inlineStr">
         <is>
-          <t>সৈয়দ আহমেদ</t>
+          <t>মোহাম্মদ জামাল উদ্দীন</t>
         </is>
       </c>
       <c r="E402" s="4" t="inlineStr">
         <is>
-          <t>এলম খাতুন</t>
+          <t>মোহাম্মদ জয়নাব বেগম</t>
         </is>
       </c>
       <c r="F402" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G402" s="3" t="inlineStr">
         <is>
-          <t>২৮/০৯/১৯৬২</t>
+          <t>০১/১২/২০০১</t>
         </is>
       </c>
       <c r="H402" s="5" t="inlineStr">
@@ -17342,27 +17338,27 @@
     <row r="403">
       <c r="A403" s="3" t="inlineStr">
         <is>
-          <t>০৪৭৫</t>
+          <t>০৪৭৬</t>
         </is>
       </c>
       <c r="B403" s="4" t="inlineStr">
         <is>
-          <t>নাহিমা আকতার</t>
+          <t>মোস্তফা খাতুন</t>
         </is>
       </c>
       <c r="C403" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৫১৫</t>
+          <t>১৫২৪০০০০৬৫২০</t>
         </is>
       </c>
       <c r="D403" s="4" t="inlineStr">
         <is>
-          <t>আফজলুর রহমান</t>
+          <t>সৈয়দ আহমেদ</t>
         </is>
       </c>
       <c r="E403" s="4" t="inlineStr">
         <is>
-          <t>শফীনীর বেগম</t>
+          <t>এলম খাতুন</t>
         </is>
       </c>
       <c r="F403" s="3" t="inlineStr">
@@ -17372,7 +17368,7 @@
       </c>
       <c r="G403" s="3" t="inlineStr">
         <is>
-          <t>২৮/০৫/১৯৭৬</t>
+          <t>২৮/০৯/১৯৬২</t>
         </is>
       </c>
       <c r="H403" s="5" t="inlineStr">
@@ -17384,37 +17380,37 @@
     <row r="404">
       <c r="A404" s="3" t="inlineStr">
         <is>
-          <t>১১৬৪</t>
+          <t>০৪৮০</t>
         </is>
       </c>
       <c r="B404" s="4" t="inlineStr">
         <is>
-          <t>জেমি আক্তার</t>
+          <t>ছফুরা বেগম</t>
         </is>
       </c>
       <c r="C404" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২০৯৯৪৪</t>
+          <t>১৫২৪০০০০৬৫২৪</t>
         </is>
       </c>
       <c r="D404" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ জামাল উদ্দীন</t>
+          <t>সৈয়দ নুর</t>
         </is>
       </c>
       <c r="E404" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ জয়নাব বেগম</t>
+          <t>রশিদা খাতুন</t>
         </is>
       </c>
       <c r="F404" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G404" s="3" t="inlineStr">
         <is>
-          <t>০১/১২/২০০১</t>
+          <t>২৭/১২/১৯৭৬</t>
         </is>
       </c>
       <c r="H404" s="5" t="inlineStr">
@@ -17426,27 +17422,27 @@
     <row r="405">
       <c r="A405" s="3" t="inlineStr">
         <is>
-          <t>০৪৮০</t>
+          <t>০৪৭৫</t>
         </is>
       </c>
       <c r="B405" s="4" t="inlineStr">
         <is>
-          <t>ছফুরা বেগম</t>
+          <t>নাহিমা আকতার</t>
         </is>
       </c>
       <c r="C405" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬৫২৪</t>
+          <t>১৫২৪০০০০৬৫১৫</t>
         </is>
       </c>
       <c r="D405" s="4" t="inlineStr">
         <is>
-          <t>সৈয়দ নুর</t>
+          <t>আফজলুর রহমান</t>
         </is>
       </c>
       <c r="E405" s="4" t="inlineStr">
         <is>
-          <t>রশিদা খাতুন</t>
+          <t>শফীনীর বেগম</t>
         </is>
       </c>
       <c r="F405" s="3" t="inlineStr">
@@ -17456,7 +17452,7 @@
       </c>
       <c r="G405" s="3" t="inlineStr">
         <is>
-          <t>২৭/১২/১৯৭৬</t>
+          <t>২৮/০৫/১৯৭৬</t>
         </is>
       </c>
       <c r="H405" s="5" t="inlineStr">
@@ -17720,37 +17716,37 @@
     <row r="412">
       <c r="A412" s="3" t="inlineStr">
         <is>
-          <t>০৯৬৩</t>
+          <t>১০০১</t>
         </is>
       </c>
       <c r="B412" s="4" t="inlineStr">
         <is>
-          <t>জান্নাতুন নাসিম ছুমা</t>
+          <t>জোবাইদা আক্তার</t>
         </is>
       </c>
       <c r="C412" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৬১৩</t>
+          <t>১৫২৪০০০০০৬৯০</t>
         </is>
       </c>
       <c r="D412" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আখতার হোসেন</t>
+          <t>মোঃ জুনাইদ</t>
         </is>
       </c>
       <c r="E412" s="4" t="inlineStr">
         <is>
-          <t>আমাতুন নুর</t>
+          <t>রান আকতার</t>
         </is>
       </c>
       <c r="F412" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G412" s="3" t="inlineStr">
         <is>
-          <t>০৬/১০/১৯৯৮</t>
+          <t>০৫/০৬/১৯৯৫</t>
         </is>
       </c>
       <c r="H412" s="5" t="inlineStr">
@@ -17762,37 +17758,37 @@
     <row r="413">
       <c r="A413" s="3" t="inlineStr">
         <is>
-          <t>১০০১</t>
+          <t>০৯৬৩</t>
         </is>
       </c>
       <c r="B413" s="4" t="inlineStr">
         <is>
-          <t>জোবাইদা আক্তার</t>
+          <t>জান্নাতুন নাসিম ছুমা</t>
         </is>
       </c>
       <c r="C413" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৬৯০</t>
+          <t>১৫২৪০০০০০৬১৩</t>
         </is>
       </c>
       <c r="D413" s="4" t="inlineStr">
         <is>
-          <t>মোঃ জুনাইদ</t>
+          <t>মোহাম্মদ আখতার হোসেন</t>
         </is>
       </c>
       <c r="E413" s="4" t="inlineStr">
         <is>
-          <t>রান আকতার</t>
+          <t>আমাতুন নুর</t>
         </is>
       </c>
       <c r="F413" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G413" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৬/১৯৯৫</t>
+          <t>০৬/১০/১৯৯৮</t>
         </is>
       </c>
       <c r="H413" s="5" t="inlineStr">
@@ -17888,27 +17884,27 @@
     <row r="416">
       <c r="A416" s="3" t="inlineStr">
         <is>
-          <t>১১৮৪</t>
+          <t>০৯৫০</t>
         </is>
       </c>
       <c r="B416" s="4" t="inlineStr">
         <is>
-          <t>নাছুমুন নাহার</t>
+          <t>শাহিদা আক্তার বেবী</t>
         </is>
       </c>
       <c r="C416" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২০৯৯৮১</t>
+          <t>১৫২৪০০০০০৫৭১</t>
         </is>
       </c>
       <c r="D416" s="4" t="inlineStr">
         <is>
-          <t>মুস্তাফিজুর রহমান</t>
+          <t>সিরাজুল ইসলাম</t>
         </is>
       </c>
       <c r="E416" s="4" t="inlineStr">
         <is>
-          <t>জুলেখা বেগম</t>
+          <t>মেহেরুজ খাতুন</t>
         </is>
       </c>
       <c r="F416" s="3" t="inlineStr">
@@ -17918,7 +17914,7 @@
       </c>
       <c r="G416" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৩/১৯৯৮</t>
+          <t>০১/০১/১৯৯৫</t>
         </is>
       </c>
       <c r="H416" s="5" t="inlineStr">
@@ -17930,27 +17926,27 @@
     <row r="417">
       <c r="A417" s="3" t="inlineStr">
         <is>
-          <t>০৯৫০</t>
+          <t>০৯৫৬</t>
         </is>
       </c>
       <c r="B417" s="4" t="inlineStr">
         <is>
-          <t>শাহিদা আক্তার বেবী</t>
+          <t>মিনু আক্তার</t>
         </is>
       </c>
       <c r="C417" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৫৭১</t>
+          <t>১৫২৪০০০০০৫৮৩</t>
         </is>
       </c>
       <c r="D417" s="4" t="inlineStr">
         <is>
-          <t>সিরাজুল ইসলাম</t>
+          <t>আবদুল মোমেন</t>
         </is>
       </c>
       <c r="E417" s="4" t="inlineStr">
         <is>
-          <t>মেহেরুজ খাতুন</t>
+          <t>পাখি আক্তার</t>
         </is>
       </c>
       <c r="F417" s="3" t="inlineStr">
@@ -17960,7 +17956,7 @@
       </c>
       <c r="G417" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৯৫</t>
+          <t>১০/০৬/১৯৯৩</t>
         </is>
       </c>
       <c r="H417" s="5" t="inlineStr">
@@ -18014,27 +18010,27 @@
     <row r="419">
       <c r="A419" s="3" t="inlineStr">
         <is>
-          <t>০৯৫৬</t>
+          <t>১১৮৪</t>
         </is>
       </c>
       <c r="B419" s="4" t="inlineStr">
         <is>
-          <t>মিনু আক্তার</t>
+          <t>নাছুমুন নাহার</t>
         </is>
       </c>
       <c r="C419" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৫৮৩</t>
+          <t>১৫২৪০০২০৯৯৮১</t>
         </is>
       </c>
       <c r="D419" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মোমেন</t>
+          <t>মুস্তাফিজুর রহমান</t>
         </is>
       </c>
       <c r="E419" s="4" t="inlineStr">
         <is>
-          <t>পাখি আক্তার</t>
+          <t>জুলেখা বেগম</t>
         </is>
       </c>
       <c r="F419" s="3" t="inlineStr">
@@ -18044,7 +18040,7 @@
       </c>
       <c r="G419" s="3" t="inlineStr">
         <is>
-          <t>১০/০৬/১৯৯৩</t>
+          <t>০৮/০৩/১৯৯৮</t>
         </is>
       </c>
       <c r="H419" s="5" t="inlineStr">
@@ -18145,7 +18141,7 @@
       </c>
       <c r="B422" s="4" t="inlineStr">
         <is>
-          <t>সানোয়ারা খানম</t>
+          <t>সানোয়ারা খানম</t>
         </is>
       </c>
       <c r="C422" s="3" t="inlineStr">
@@ -18155,27 +18151,23 @@
       </c>
       <c r="D422" s="4" t="inlineStr">
         <is>
-          <t>ছগীর আহমদ খান</t>
+          <t>ছগীর আহমেদ খান</t>
         </is>
       </c>
       <c r="E422" s="4" t="inlineStr">
         <is>
-          <t>জন্নাত আরা খান</t>
+          <t>জমাত আরা খান</t>
         </is>
       </c>
       <c r="F422" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G422" s="3" t="inlineStr">
-        <is>
-          <t>২৬/০১/১৯৯৫</t>
-        </is>
-      </c>
+          <t>ছগীর মাষ্টারের বাড়ী</t>
+        </is>
+      </c>
+      <c r="G422" s="3" t="inlineStr"/>
       <c r="H422" s="5" t="inlineStr">
         <is>
-          <t>ছগীর মাস্টারের বাড়ী, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>ছগীর মাষ্টারের বাড়ী, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
@@ -18197,54 +18189,50 @@
       </c>
       <c r="D423" s="4" t="inlineStr">
         <is>
-          <t>ছগীর আহমদ খান</t>
+          <t>ছগীর আহমেদ খান</t>
         </is>
       </c>
       <c r="E423" s="4" t="inlineStr">
         <is>
-          <t>জন্নাত আরা খান</t>
+          <t>জমাত আরা খান</t>
         </is>
       </c>
       <c r="F423" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
-        </is>
-      </c>
-      <c r="G423" s="3" t="inlineStr">
-        <is>
-          <t>০১/০৯/১৯৯২</t>
-        </is>
-      </c>
+          <t>ছগীর মাষ্টারের বাড়ী</t>
+        </is>
+      </c>
+      <c r="G423" s="3" t="inlineStr"/>
       <c r="H423" s="5" t="inlineStr">
         <is>
-          <t>ছগীর মাস্টারের বাড়ী, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
+          <t>ছগীর মাষ্টারের বাড়ী, এওচিয়া, সাতকানিয়া, চট্টগ্রাম</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="3" t="inlineStr">
         <is>
-          <t>১২৯৫</t>
+          <t>১২৯৪</t>
         </is>
       </c>
       <c r="B424" s="4" t="inlineStr">
         <is>
-          <t>জামাতুল ফেরদৌস</t>
+          <t>ফারহানা নাহরিন</t>
         </is>
       </c>
       <c r="C424" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০২১৪</t>
+          <t>১৫২৪০০২১০২১৩</t>
         </is>
       </c>
       <c r="D424" s="4" t="inlineStr">
         <is>
-          <t>আলী হোসেন</t>
+          <t>আবদুল মম্নাম</t>
         </is>
       </c>
       <c r="E424" s="4" t="inlineStr">
         <is>
-          <t>নুরজাহান বেগম</t>
+          <t>রোকেয়া বেগম</t>
         </is>
       </c>
       <c r="F424" s="3" t="inlineStr">
@@ -18254,7 +18242,7 @@
       </c>
       <c r="G424" s="3" t="inlineStr">
         <is>
-          <t>২৫/০৭/১৯৯৮</t>
+          <t>০৮/০৫/১৯৯৯</t>
         </is>
       </c>
       <c r="H424" s="5" t="inlineStr">
@@ -18266,27 +18254,27 @@
     <row r="425">
       <c r="A425" s="3" t="inlineStr">
         <is>
-          <t>১২৯৪</t>
+          <t>১৩০২</t>
         </is>
       </c>
       <c r="B425" s="4" t="inlineStr">
         <is>
-          <t>ফারহানা নাহরিন</t>
+          <t>মাইমুনা সোলতানা কলি</t>
         </is>
       </c>
       <c r="C425" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০২১৩</t>
+          <t>১৫২৪০০২১০২২৫</t>
         </is>
       </c>
       <c r="D425" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মম্নাম</t>
+          <t>আবদুল গুক্কুর</t>
         </is>
       </c>
       <c r="E425" s="4" t="inlineStr">
         <is>
-          <t>রোকেয়া বেগম</t>
+          <t>রেহেনা আক্তার</t>
         </is>
       </c>
       <c r="F425" s="3" t="inlineStr">
@@ -18296,7 +18284,7 @@
       </c>
       <c r="G425" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৫/১৯৯৯</t>
+          <t>০২/০১/২০০০</t>
         </is>
       </c>
       <c r="H425" s="5" t="inlineStr">
@@ -18308,37 +18296,37 @@
     <row r="426">
       <c r="A426" s="3" t="inlineStr">
         <is>
-          <t>১৩০২</t>
+          <t>১০৪৩</t>
         </is>
       </c>
       <c r="B426" s="4" t="inlineStr">
         <is>
-          <t>মাইমুনা সোলতানা কলি</t>
+          <t>মেহেরু মিছা</t>
         </is>
       </c>
       <c r="C426" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০২২৫</t>
+          <t>১৫২৪০০০০০৮০০</t>
         </is>
       </c>
       <c r="D426" s="4" t="inlineStr">
         <is>
-          <t>আবদুল গুক্কুর</t>
+          <t>তৈয়ুব আলী</t>
         </is>
       </c>
       <c r="E426" s="4" t="inlineStr">
         <is>
-          <t>রেহেনা আক্তার</t>
+          <t>শাহিদা আক্তার</t>
         </is>
       </c>
       <c r="F426" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G426" s="3" t="inlineStr">
         <is>
-          <t>০২/০১/২০০০</t>
+          <t>১৮/০২/২০০১</t>
         </is>
       </c>
       <c r="H426" s="5" t="inlineStr">
@@ -18350,27 +18338,27 @@
     <row r="427">
       <c r="A427" s="3" t="inlineStr">
         <is>
-          <t>১০৫৫</t>
+          <t>১০৫০</t>
         </is>
       </c>
       <c r="B427" s="4" t="inlineStr">
         <is>
-          <t>শামসুন নাহার</t>
+          <t>নারগিছ আক্তার</t>
         </is>
       </c>
       <c r="C427" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৮২৩</t>
+          <t>১৫২৪০০০০০৮১৮</t>
         </is>
       </c>
       <c r="D427" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ নাজির হোসেন</t>
+          <t>ছগির আহমেদ</t>
         </is>
       </c>
       <c r="E427" s="4" t="inlineStr">
         <is>
-          <t>আহিয়া বেগম</t>
+          <t>কুনছুমা বেগম</t>
         </is>
       </c>
       <c r="F427" s="3" t="inlineStr">
@@ -18380,7 +18368,7 @@
       </c>
       <c r="G427" s="3" t="inlineStr">
         <is>
-          <t>২০/০৩/১৯৯৯</t>
+          <t>০৮/০৫/১৯৯৭</t>
         </is>
       </c>
       <c r="H427" s="5" t="inlineStr">
@@ -18392,37 +18380,37 @@
     <row r="428">
       <c r="A428" s="3" t="inlineStr">
         <is>
-          <t>১০৬১</t>
+          <t>১০৫২</t>
         </is>
       </c>
       <c r="B428" s="4" t="inlineStr">
         <is>
-          <t>নাজমা আক্তার</t>
+          <t>জিন্নাত ফাতেমা</t>
         </is>
       </c>
       <c r="C428" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৮৩৫</t>
+          <t>১৫২৪০০০০০৮২০</t>
         </is>
       </c>
       <c r="D428" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ রহমান</t>
+          <t>মোঃ আজম</t>
         </is>
       </c>
       <c r="E428" s="4" t="inlineStr">
         <is>
-          <t>ছকিনা বেগম</t>
+          <t>নুর জাহান বেগম</t>
         </is>
       </c>
       <c r="F428" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G428" s="3" t="inlineStr">
         <is>
-          <t>১০/০১/১৯৯৫</t>
+          <t>০১/১২/১৯৯৯</t>
         </is>
       </c>
       <c r="H428" s="5" t="inlineStr">
@@ -18434,27 +18422,27 @@
     <row r="429">
       <c r="A429" s="3" t="inlineStr">
         <is>
-          <t>১০৬২</t>
+          <t>১০৫৫</t>
         </is>
       </c>
       <c r="B429" s="4" t="inlineStr">
         <is>
-          <t>নাহরিন সোলতানা লিজা চৌধুরী</t>
+          <t>শামসুন নাহার</t>
         </is>
       </c>
       <c r="C429" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৮৩৬</t>
+          <t>১৫২৪০০০০০৮২৩</t>
         </is>
       </c>
       <c r="D429" s="4" t="inlineStr">
         <is>
-          <t>কামাল উদ্দিন চৌধুরী</t>
+          <t>মোহাম্মদ নাজির হোসেন</t>
         </is>
       </c>
       <c r="E429" s="4" t="inlineStr">
         <is>
-          <t>ফরিদা আক্তার</t>
+          <t>আহিয়া বেগম</t>
         </is>
       </c>
       <c r="F429" s="3" t="inlineStr">
@@ -18464,7 +18452,7 @@
       </c>
       <c r="G429" s="3" t="inlineStr">
         <is>
-          <t>২১/০৭/১৯৯২</t>
+          <t>২০/০৩/১৯৯৯</t>
         </is>
       </c>
       <c r="H429" s="5" t="inlineStr">
@@ -18476,37 +18464,37 @@
     <row r="430">
       <c r="A430" s="3" t="inlineStr">
         <is>
-          <t>১০৫২</t>
+          <t>১০৬১</t>
         </is>
       </c>
       <c r="B430" s="4" t="inlineStr">
         <is>
-          <t>জিন্নাত ফাতেমা</t>
+          <t>নাজমা আক্তার</t>
         </is>
       </c>
       <c r="C430" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৮২০</t>
+          <t>১৫২৪০০০০০৮৩৫</t>
         </is>
       </c>
       <c r="D430" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আজম</t>
+          <t>আহমেদ রহমান</t>
         </is>
       </c>
       <c r="E430" s="4" t="inlineStr">
         <is>
-          <t>নুর জাহান বেগম</t>
+          <t>ছকিনা বেগম</t>
         </is>
       </c>
       <c r="F430" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G430" s="3" t="inlineStr">
         <is>
-          <t>০১/১২/১৯৯৯</t>
+          <t>১০/০১/১৯৯৫</t>
         </is>
       </c>
       <c r="H430" s="5" t="inlineStr">
@@ -18518,27 +18506,27 @@
     <row r="431">
       <c r="A431" s="3" t="inlineStr">
         <is>
-          <t>১০৫০</t>
+          <t>১২৯৫</t>
         </is>
       </c>
       <c r="B431" s="4" t="inlineStr">
         <is>
-          <t>নারগিছ আক্তার</t>
+          <t>জামাতুল ফেরদৌস</t>
         </is>
       </c>
       <c r="C431" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৮১৮</t>
+          <t>১৫২৪০০২১০২১৪</t>
         </is>
       </c>
       <c r="D431" s="4" t="inlineStr">
         <is>
-          <t>ছগির আহমেদ</t>
+          <t>আলী হোসেন</t>
         </is>
       </c>
       <c r="E431" s="4" t="inlineStr">
         <is>
-          <t>কুনছুমা বেগম</t>
+          <t>নুরজাহান বেগম</t>
         </is>
       </c>
       <c r="F431" s="3" t="inlineStr">
@@ -18548,7 +18536,7 @@
       </c>
       <c r="G431" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৫/১৯৯৭</t>
+          <t>২৫/০৭/১৯৯৮</t>
         </is>
       </c>
       <c r="H431" s="5" t="inlineStr">
@@ -18560,37 +18548,37 @@
     <row r="432">
       <c r="A432" s="3" t="inlineStr">
         <is>
-          <t>১০৪৩</t>
+          <t>১০৬২</t>
         </is>
       </c>
       <c r="B432" s="4" t="inlineStr">
         <is>
-          <t>মেহেরু মিছা</t>
+          <t>নাহরিন সোলতানা লিজা চৌধুরী</t>
         </is>
       </c>
       <c r="C432" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৮০০</t>
+          <t>১৫২৪০০০০০৮৩৬</t>
         </is>
       </c>
       <c r="D432" s="4" t="inlineStr">
         <is>
-          <t>তৈয়ুব আলী</t>
+          <t>কামাল উদ্দিন চৌধুরী</t>
         </is>
       </c>
       <c r="E432" s="4" t="inlineStr">
         <is>
-          <t>শাহিদা আক্তার</t>
+          <t>ফরিদা আক্তার</t>
         </is>
       </c>
       <c r="F432" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G432" s="3" t="inlineStr">
         <is>
-          <t>১৮/০২/২০০১</t>
+          <t>২১/০৭/১৯৯২</t>
         </is>
       </c>
       <c r="H432" s="5" t="inlineStr">
@@ -18602,27 +18590,27 @@
     <row r="433">
       <c r="A433" s="3" t="inlineStr">
         <is>
-          <t>১৩২০</t>
+          <t>১০৬৭</t>
         </is>
       </c>
       <c r="B433" s="4" t="inlineStr">
         <is>
-          <t>নাদিয়া সুলতানা উর্মি</t>
+          <t>আঁখি আক্তার</t>
         </is>
       </c>
       <c r="C433" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৯৯৭</t>
+          <t>১৫২৪০০০০০৮৪৩</t>
         </is>
       </c>
       <c r="D433" s="4" t="inlineStr">
         <is>
-          <t>মোঃ নাসির</t>
+          <t>নুরুল হক</t>
         </is>
       </c>
       <c r="E433" s="4" t="inlineStr">
         <is>
-          <t>সাজেদা বেগম</t>
+          <t>মীর জাহান আক্তার</t>
         </is>
       </c>
       <c r="F433" s="3" t="inlineStr">
@@ -18632,7 +18620,7 @@
       </c>
       <c r="G433" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৯/২০০৭</t>
+          <t>০৮/০৫/২০০১</t>
         </is>
       </c>
       <c r="H433" s="5" t="inlineStr">
@@ -18644,27 +18632,27 @@
     <row r="434">
       <c r="A434" s="3" t="inlineStr">
         <is>
-          <t>১০৬৭</t>
+          <t>১৩২০</t>
         </is>
       </c>
       <c r="B434" s="4" t="inlineStr">
         <is>
-          <t>আঁখি আক্তার</t>
+          <t>নাদিয়া সুলতানা উর্মি</t>
         </is>
       </c>
       <c r="C434" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৮৪৩</t>
+          <t>১৫২৪০০০০০৯৯৭</t>
         </is>
       </c>
       <c r="D434" s="4" t="inlineStr">
         <is>
-          <t>নুরুল হক</t>
+          <t>মোঃ নাসির</t>
         </is>
       </c>
       <c r="E434" s="4" t="inlineStr">
         <is>
-          <t>মীর জাহান আক্তার</t>
+          <t>সাজেদা বেগম</t>
         </is>
       </c>
       <c r="F434" s="3" t="inlineStr">
@@ -18674,7 +18662,7 @@
       </c>
       <c r="G434" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৫/২০০১</t>
+          <t>০৫/০৯/২০০৭</t>
         </is>
       </c>
       <c r="H434" s="5" t="inlineStr">
@@ -18686,27 +18674,27 @@
     <row r="435">
       <c r="A435" s="3" t="inlineStr">
         <is>
-          <t>০৮৯৪</t>
+          <t>১০৩২</t>
         </is>
       </c>
       <c r="B435" s="4" t="inlineStr">
         <is>
-          <t>পারভিন আক্তার</t>
+          <t>নাহরিন সোলতানা</t>
         </is>
       </c>
       <c r="C435" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৪১৩</t>
+          <t>১৫২৪০০০০০৭৫৯</t>
         </is>
       </c>
       <c r="D435" s="4" t="inlineStr">
         <is>
-          <t>সিরাজুল ইসলাম</t>
+          <t>মোঃ শাহ আলম</t>
         </is>
       </c>
       <c r="E435" s="4" t="inlineStr">
         <is>
-          <t>মরিয়ম বেগম</t>
+          <t>মমতাজ বেগম</t>
         </is>
       </c>
       <c r="F435" s="3" t="inlineStr">
@@ -18716,7 +18704,7 @@
       </c>
       <c r="G435" s="3" t="inlineStr">
         <is>
-          <t>২২/০২/১৯৯৮</t>
+          <t>১০/০৭/১৯৯৮</t>
         </is>
       </c>
       <c r="H435" s="5" t="inlineStr">
@@ -18728,37 +18716,37 @@
     <row r="436">
       <c r="A436" s="3" t="inlineStr">
         <is>
-          <t>১০৩২</t>
+          <t>১০২৭</t>
         </is>
       </c>
       <c r="B436" s="4" t="inlineStr">
         <is>
-          <t>নাহরিন সোলতানা</t>
+          <t>আহমা সোলতানা হানা</t>
         </is>
       </c>
       <c r="C436" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৭৫৯</t>
+          <t>১৫২৪০০০০০৭৪১</t>
         </is>
       </c>
       <c r="D436" s="4" t="inlineStr">
         <is>
-          <t>মোঃ শাহ আলম</t>
+          <t>মৃত মোহাম্মদ হোসেন</t>
         </is>
       </c>
       <c r="E436" s="4" t="inlineStr">
         <is>
-          <t>মমতাজ বেগম</t>
+          <t>শাহিন আক্তার</t>
         </is>
       </c>
       <c r="F436" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G436" s="3" t="inlineStr">
         <is>
-          <t>১০/০৭/১৯৯৮</t>
+          <t>০১/০১/২০০০</t>
         </is>
       </c>
       <c r="H436" s="5" t="inlineStr">
@@ -18770,37 +18758,37 @@
     <row r="437">
       <c r="A437" s="3" t="inlineStr">
         <is>
-          <t>১০২৭</t>
+          <t>০৮৯৪</t>
         </is>
       </c>
       <c r="B437" s="4" t="inlineStr">
         <is>
-          <t>আহমা সোলতানা হানা</t>
+          <t>পারভিন আক্তার</t>
         </is>
       </c>
       <c r="C437" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৭৪১</t>
+          <t>১৫২৪০০০০০৪১৩</t>
         </is>
       </c>
       <c r="D437" s="4" t="inlineStr">
         <is>
-          <t>মৃত মোহাম্মদ হোসেন</t>
+          <t>সিরাজুল ইসলাম</t>
         </is>
       </c>
       <c r="E437" s="4" t="inlineStr">
         <is>
-          <t>শাহিন আক্তার</t>
+          <t>মরিয়ম বেগম</t>
         </is>
       </c>
       <c r="F437" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G437" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/২০০০</t>
+          <t>২২/০২/১৯৯৮</t>
         </is>
       </c>
       <c r="H437" s="5" t="inlineStr">
@@ -18938,27 +18926,27 @@
     <row r="441">
       <c r="A441" s="3" t="inlineStr">
         <is>
-          <t>১২৬১</t>
+          <t>১২৬২</t>
         </is>
       </c>
       <c r="B441" s="4" t="inlineStr">
         <is>
-          <t>জোসনা আকতার</t>
+          <t>রাশেদা আকতার</t>
         </is>
       </c>
       <c r="C441" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০১৫৬</t>
+          <t>১৫২৪০০২১০১৫৭</t>
         </is>
       </c>
       <c r="D441" s="4" t="inlineStr">
         <is>
-          <t>নুরুল ইসলাম</t>
+          <t>ওলা মিয়া</t>
         </is>
       </c>
       <c r="E441" s="4" t="inlineStr">
         <is>
-          <t>নুরজাহান</t>
+          <t>রোকেয়া বেগম</t>
         </is>
       </c>
       <c r="F441" s="3" t="inlineStr">
@@ -18968,7 +18956,7 @@
       </c>
       <c r="G441" s="3" t="inlineStr">
         <is>
-          <t>২২/০৩/২০০০</t>
+          <t>২২/০১/১৯৯৭</t>
         </is>
       </c>
       <c r="H441" s="5" t="inlineStr">
@@ -18980,27 +18968,27 @@
     <row r="442">
       <c r="A442" s="3" t="inlineStr">
         <is>
-          <t>১২৬২</t>
+          <t>১২৬১</t>
         </is>
       </c>
       <c r="B442" s="4" t="inlineStr">
         <is>
-          <t>রাশেদা আকতার</t>
+          <t>জোসনা আকতার</t>
         </is>
       </c>
       <c r="C442" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০১৫৭</t>
+          <t>১৫২৪০০২১০১৫৬</t>
         </is>
       </c>
       <c r="D442" s="4" t="inlineStr">
         <is>
-          <t>ওলা মিয়া</t>
+          <t>নুরুল ইসলাম</t>
         </is>
       </c>
       <c r="E442" s="4" t="inlineStr">
         <is>
-          <t>রোকেয়া বেগম</t>
+          <t>নুরজাহান</t>
         </is>
       </c>
       <c r="F442" s="3" t="inlineStr">
@@ -19010,7 +18998,7 @@
       </c>
       <c r="G442" s="3" t="inlineStr">
         <is>
-          <t>২২/০১/১৯৯৭</t>
+          <t>২২/০৩/২০০০</t>
         </is>
       </c>
       <c r="H442" s="5" t="inlineStr">
@@ -19316,37 +19304,37 @@
     <row r="450">
       <c r="A450" s="3" t="inlineStr">
         <is>
-          <t>০১৪৬</t>
+          <t>০১৪৩</t>
         </is>
       </c>
       <c r="B450" s="4" t="inlineStr">
         <is>
-          <t>সালমা বিবি</t>
+          <t>খালেদা বেগম</t>
         </is>
       </c>
       <c r="C450" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৫৩</t>
+          <t>১৫২৪০০০০৫৬৪৭</t>
         </is>
       </c>
       <c r="D450" s="4" t="inlineStr">
         <is>
-          <t>মজিবুর রহমান চৌধুরী</t>
+          <t>গোলাম সোবহান</t>
         </is>
       </c>
       <c r="E450" s="4" t="inlineStr">
         <is>
-          <t>হাছিনা আফরোজ</t>
+          <t>মমতাজ বেগম</t>
         </is>
       </c>
       <c r="F450" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G450" s="3" t="inlineStr">
         <is>
-          <t>১১/০৫/১৯৮৮</t>
+          <t>০১/০১/১৯৮৯</t>
         </is>
       </c>
       <c r="H450" s="5" t="inlineStr">
@@ -19358,27 +19346,27 @@
     <row r="451">
       <c r="A451" s="3" t="inlineStr">
         <is>
-          <t>০১৬৩</t>
+          <t>০১৪০</t>
         </is>
       </c>
       <c r="B451" s="4" t="inlineStr">
         <is>
-          <t>বুলু আক্তার</t>
+          <t>হোসেন আরা বেগম</t>
         </is>
       </c>
       <c r="C451" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৯৮</t>
+          <t>১৫২৪০০০০৫৬৩৯</t>
         </is>
       </c>
       <c r="D451" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল শুকুর</t>
+          <t>ছাবের আহমদ</t>
         </is>
       </c>
       <c r="E451" s="4" t="inlineStr">
         <is>
-          <t>ছফিকা খাতুন</t>
+          <t>মাহমুদা খাতুন</t>
         </is>
       </c>
       <c r="F451" s="3" t="inlineStr">
@@ -19388,7 +19376,7 @@
       </c>
       <c r="G451" s="3" t="inlineStr">
         <is>
-          <t>২৯/১১/১৯৮১</t>
+          <t>০১/০৯/১৯৬৩</t>
         </is>
       </c>
       <c r="H451" s="5" t="inlineStr">
@@ -19400,37 +19388,37 @@
     <row r="452">
       <c r="A452" s="3" t="inlineStr">
         <is>
-          <t>০১৬২</t>
+          <t>০১৪২</t>
         </is>
       </c>
       <c r="B452" s="4" t="inlineStr">
         <is>
-          <t>শিরিয়া বেগম</t>
+          <t>শাহিন আক্তার</t>
         </is>
       </c>
       <c r="C452" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৯৭</t>
+          <t>১৫২৪০০০০৫৬৪৫</t>
         </is>
       </c>
       <c r="D452" s="4" t="inlineStr">
         <is>
-          <t>গোলাম সোবহান</t>
+          <t>আবু ইউফুক</t>
         </is>
       </c>
       <c r="E452" s="4" t="inlineStr">
         <is>
-          <t>মমতাজ বেগম</t>
+          <t>জান্নাত আরা বেগম</t>
         </is>
       </c>
       <c r="F452" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G452" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৮/১৯৭১</t>
+          <t>০১/০৫/১৯৭৮</t>
         </is>
       </c>
       <c r="H452" s="5" t="inlineStr">
@@ -19442,37 +19430,37 @@
     <row r="453">
       <c r="A453" s="3" t="inlineStr">
         <is>
-          <t>০১৫৫</t>
+          <t>০১৪১</t>
         </is>
       </c>
       <c r="B453" s="4" t="inlineStr">
         <is>
-          <t>মাহফুজা বেগম</t>
+          <t>মোছামুৎ রেজিয়াবেগম</t>
         </is>
       </c>
       <c r="C453" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৭৫</t>
+          <t>১৫২৪০০০০৫৬৪০</t>
         </is>
       </c>
       <c r="D453" s="4" t="inlineStr">
         <is>
-          <t>মোঃ নুরুল ইসলাম</t>
+          <t>মোঃ ছেয়দ আহমেদ</t>
         </is>
       </c>
       <c r="E453" s="4" t="inlineStr">
         <is>
-          <t>সামসুন নাহার</t>
+          <t>মরিয়ম বেগম</t>
         </is>
       </c>
       <c r="F453" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G453" s="3" t="inlineStr">
         <is>
-          <t>২৯/০৭/১৯৮৫</t>
+          <t>২৮/০২/১৯৭২</t>
         </is>
       </c>
       <c r="H453" s="5" t="inlineStr">
@@ -19484,27 +19472,27 @@
     <row r="454">
       <c r="A454" s="3" t="inlineStr">
         <is>
-          <t>০১৪৫</t>
+          <t>০১৪৬</t>
         </is>
       </c>
       <c r="B454" s="4" t="inlineStr">
         <is>
-          <t>মাহমুদা খাতুন</t>
+          <t>সালমা বিবি</t>
         </is>
       </c>
       <c r="C454" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৫২</t>
+          <t>১৫২৪০০০০৫৬৫৩</t>
         </is>
       </c>
       <c r="D454" s="4" t="inlineStr">
         <is>
-          <t>আক্তু মিয়া</t>
+          <t>মজিবুর রহমান চৌধুরী</t>
         </is>
       </c>
       <c r="E454" s="4" t="inlineStr">
         <is>
-          <t>সুফিয়া বেগম</t>
+          <t>হাছিনা আফরোজ</t>
         </is>
       </c>
       <c r="F454" s="3" t="inlineStr">
@@ -19514,7 +19502,7 @@
       </c>
       <c r="G454" s="3" t="inlineStr">
         <is>
-          <t>০৫/১০/১৯৬০</t>
+          <t>১১/০৫/১৯৮৮</t>
         </is>
       </c>
       <c r="H454" s="5" t="inlineStr">
@@ -19526,27 +19514,27 @@
     <row r="455">
       <c r="A455" s="3" t="inlineStr">
         <is>
-          <t>০১৫৪</t>
+          <t>০১৬২</t>
         </is>
       </c>
       <c r="B455" s="4" t="inlineStr">
         <is>
-          <t>শাহনাজ বেগম</t>
+          <t>শিরিয়া বেগম</t>
         </is>
       </c>
       <c r="C455" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৭৪</t>
+          <t>১৫২৪০০০০৫৬৯৭</t>
         </is>
       </c>
       <c r="D455" s="4" t="inlineStr">
         <is>
-          <t>মোঃ সাইদ আলম</t>
+          <t>গোলাম সোবহান</t>
         </is>
       </c>
       <c r="E455" s="4" t="inlineStr">
         <is>
-          <t>রাবিয়া বেগম</t>
+          <t>মমতাজ বেগম</t>
         </is>
       </c>
       <c r="F455" s="3" t="inlineStr">
@@ -19556,7 +19544,7 @@
       </c>
       <c r="G455" s="3" t="inlineStr">
         <is>
-          <t>০৫/০৬/১৯৮০</t>
+          <t>১৫/০৮/১৯৭১</t>
         </is>
       </c>
       <c r="H455" s="5" t="inlineStr">
@@ -19568,27 +19556,27 @@
     <row r="456">
       <c r="A456" s="3" t="inlineStr">
         <is>
-          <t>০১৫০</t>
+          <t>০১৬৩</t>
         </is>
       </c>
       <c r="B456" s="4" t="inlineStr">
         <is>
-          <t>লুফফর নাহার</t>
+          <t>বুলু আক্তার</t>
         </is>
       </c>
       <c r="C456" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৫৮</t>
+          <t>১৫২৪০০০০৫৬৯৮</t>
         </is>
       </c>
       <c r="D456" s="4" t="inlineStr">
         <is>
-          <t>হাজি এজহারুল হক</t>
+          <t>আব্দুল শুকুর</t>
         </is>
       </c>
       <c r="E456" s="4" t="inlineStr">
         <is>
-          <t>ফিরজা বেগম</t>
+          <t>ছফিকা খাতুন</t>
         </is>
       </c>
       <c r="F456" s="3" t="inlineStr">
@@ -19598,7 +19586,7 @@
       </c>
       <c r="G456" s="3" t="inlineStr">
         <is>
-          <t>১৮/০৭/১৯৭৩</t>
+          <t>২৯/১১/১৯৮১</t>
         </is>
       </c>
       <c r="H456" s="5" t="inlineStr">
@@ -19610,37 +19598,37 @@
     <row r="457">
       <c r="A457" s="3" t="inlineStr">
         <is>
-          <t>০১৪৯</t>
+          <t>০১৫৫</t>
         </is>
       </c>
       <c r="B457" s="4" t="inlineStr">
         <is>
-          <t>মোস্তফা খাতুন</t>
+          <t>মাহফুজা বেগম</t>
         </is>
       </c>
       <c r="C457" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৫৭</t>
+          <t>১৫২৪০০০০৫৬৭৫</t>
         </is>
       </c>
       <c r="D457" s="4" t="inlineStr">
         <is>
-          <t>আলী আহমেদ</t>
+          <t>মোঃ নুরুল ইসলাম</t>
         </is>
       </c>
       <c r="E457" s="4" t="inlineStr">
         <is>
-          <t>দোলত বিবি</t>
+          <t>সামসুন নাহার</t>
         </is>
       </c>
       <c r="F457" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G457" s="3" t="inlineStr">
         <is>
-          <t>২১/০৩/১৯৮৮</t>
+          <t>২৯/০৭/১৯৮৫</t>
         </is>
       </c>
       <c r="H457" s="5" t="inlineStr">
@@ -19652,27 +19640,27 @@
     <row r="458">
       <c r="A458" s="3" t="inlineStr">
         <is>
-          <t>০১৪৮</t>
+          <t>০১৪৭</t>
         </is>
       </c>
       <c r="B458" s="4" t="inlineStr">
         <is>
-          <t>পান্না আক্তার</t>
+          <t>মর্তুজা বেগম</t>
         </is>
       </c>
       <c r="C458" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৫৬</t>
+          <t>১৫২৪০০০০৫৬৫৫</t>
         </is>
       </c>
       <c r="D458" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল খালেক</t>
+          <t>মোজামেল হক</t>
         </is>
       </c>
       <c r="E458" s="4" t="inlineStr">
         <is>
-          <t>ফাতেমা বেগম</t>
+          <t>মরিয়ম বেগম</t>
         </is>
       </c>
       <c r="F458" s="3" t="inlineStr">
@@ -19682,7 +19670,7 @@
       </c>
       <c r="G458" s="3" t="inlineStr">
         <is>
-          <t>২০/১১/১৯৮১</t>
+          <t>২০/১০/১৯৮৯</t>
         </is>
       </c>
       <c r="H458" s="5" t="inlineStr">
@@ -19694,27 +19682,27 @@
     <row r="459">
       <c r="A459" s="3" t="inlineStr">
         <is>
-          <t>০১৪০</t>
+          <t>০১৪৮</t>
         </is>
       </c>
       <c r="B459" s="4" t="inlineStr">
         <is>
-          <t>হোসেন আরা বেগম</t>
+          <t>পান্না আক্তার</t>
         </is>
       </c>
       <c r="C459" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৩৯</t>
+          <t>১৫২৪০০০০৫৬৫৬</t>
         </is>
       </c>
       <c r="D459" s="4" t="inlineStr">
         <is>
-          <t>ছাবের আহমদ</t>
+          <t>আব্দুল খালেক</t>
         </is>
       </c>
       <c r="E459" s="4" t="inlineStr">
         <is>
-          <t>মাহমুদা খাতুন</t>
+          <t>ফাতেমা বেগম</t>
         </is>
       </c>
       <c r="F459" s="3" t="inlineStr">
@@ -19724,7 +19712,7 @@
       </c>
       <c r="G459" s="3" t="inlineStr">
         <is>
-          <t>০১/০৯/১৯৬৩</t>
+          <t>২০/১১/১৯৮১</t>
         </is>
       </c>
       <c r="H459" s="5" t="inlineStr">
@@ -19736,37 +19724,37 @@
     <row r="460">
       <c r="A460" s="3" t="inlineStr">
         <is>
-          <t>০১৪১</t>
+          <t>০১৫৪</t>
         </is>
       </c>
       <c r="B460" s="4" t="inlineStr">
         <is>
-          <t>মোছামুৎ রেজিয়াবেগম</t>
+          <t>শাহনাজ বেগম</t>
         </is>
       </c>
       <c r="C460" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৪০</t>
+          <t>১৫২৪০০০০৫৬৭৪</t>
         </is>
       </c>
       <c r="D460" s="4" t="inlineStr">
         <is>
-          <t>মোঃ ছেয়দ আহমেদ</t>
+          <t>মোঃ সাইদ আলম</t>
         </is>
       </c>
       <c r="E460" s="4" t="inlineStr">
         <is>
-          <t>মরিয়ম বেগম</t>
+          <t>রাবিয়া বেগম</t>
         </is>
       </c>
       <c r="F460" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G460" s="3" t="inlineStr">
         <is>
-          <t>২৮/০২/১৯৭২</t>
+          <t>০৫/০৬/১৯৮০</t>
         </is>
       </c>
       <c r="H460" s="5" t="inlineStr">
@@ -19778,27 +19766,27 @@
     <row r="461">
       <c r="A461" s="3" t="inlineStr">
         <is>
-          <t>০১৪২</t>
+          <t>০১৫৩</t>
         </is>
       </c>
       <c r="B461" s="4" t="inlineStr">
         <is>
-          <t>শাহিন আক্তার</t>
+          <t>মোঃ দিল্লু আরা বেগম</t>
         </is>
       </c>
       <c r="C461" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৪৫</t>
+          <t>১৫২৪০০০০৫৬৭১</t>
         </is>
       </c>
       <c r="D461" s="4" t="inlineStr">
         <is>
-          <t>আবু ইউফুক</t>
+          <t>আব্দুল খালেক</t>
         </is>
       </c>
       <c r="E461" s="4" t="inlineStr">
         <is>
-          <t>জান্নাত আরা বেগম</t>
+          <t>ছকিনা খাতুন</t>
         </is>
       </c>
       <c r="F461" s="3" t="inlineStr">
@@ -19808,7 +19796,7 @@
       </c>
       <c r="G461" s="3" t="inlineStr">
         <is>
-          <t>০১/০৫/১৯৭৮</t>
+          <t>০১/০১/১৯৬৮</t>
         </is>
       </c>
       <c r="H461" s="5" t="inlineStr">
@@ -19820,27 +19808,27 @@
     <row r="462">
       <c r="A462" s="3" t="inlineStr">
         <is>
-          <t>০১৪৭</t>
+          <t>০১৫০</t>
         </is>
       </c>
       <c r="B462" s="4" t="inlineStr">
         <is>
-          <t>মর্তুজা বেগম</t>
+          <t>লুফফর নাহার</t>
         </is>
       </c>
       <c r="C462" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৫৫</t>
+          <t>১৫২৪০০০০৫৬৫৮</t>
         </is>
       </c>
       <c r="D462" s="4" t="inlineStr">
         <is>
-          <t>মোজামেল হক</t>
+          <t>হাজি এজহারুল হক</t>
         </is>
       </c>
       <c r="E462" s="4" t="inlineStr">
         <is>
-          <t>মরিয়ম বেগম</t>
+          <t>ফিরজা বেগম</t>
         </is>
       </c>
       <c r="F462" s="3" t="inlineStr">
@@ -19850,7 +19838,7 @@
       </c>
       <c r="G462" s="3" t="inlineStr">
         <is>
-          <t>২০/১০/১৯৮৯</t>
+          <t>১৮/০৭/১৯৭৩</t>
         </is>
       </c>
       <c r="H462" s="5" t="inlineStr">
@@ -19862,27 +19850,27 @@
     <row r="463">
       <c r="A463" s="3" t="inlineStr">
         <is>
-          <t>০১৫৩</t>
+          <t>০১৪৫</t>
         </is>
       </c>
       <c r="B463" s="4" t="inlineStr">
         <is>
-          <t>মোঃ দিল্লু আরা বেগম</t>
+          <t>মাহমুদা খাতুন</t>
         </is>
       </c>
       <c r="C463" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৭১</t>
+          <t>১৫২৪০০০০৫৬৫২</t>
         </is>
       </c>
       <c r="D463" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল খালেক</t>
+          <t>আক্তু মিয়া</t>
         </is>
       </c>
       <c r="E463" s="4" t="inlineStr">
         <is>
-          <t>ছকিনা খাতুন</t>
+          <t>সুফিয়া বেগম</t>
         </is>
       </c>
       <c r="F463" s="3" t="inlineStr">
@@ -19892,7 +19880,7 @@
       </c>
       <c r="G463" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৬৮</t>
+          <t>০৫/১০/১৯৬০</t>
         </is>
       </c>
       <c r="H463" s="5" t="inlineStr">
@@ -19904,37 +19892,37 @@
     <row r="464">
       <c r="A464" s="3" t="inlineStr">
         <is>
-          <t>০১৪৩</t>
+          <t>০১৪৯</t>
         </is>
       </c>
       <c r="B464" s="4" t="inlineStr">
         <is>
-          <t>খালেদা বেগম</t>
+          <t>মোস্তফা খাতুন</t>
         </is>
       </c>
       <c r="C464" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৬৪৭</t>
+          <t>১৫২৪০০০০৫৬৫৭</t>
         </is>
       </c>
       <c r="D464" s="4" t="inlineStr">
         <is>
-          <t>গোলাম সোবহান</t>
+          <t>আলী আহমেদ</t>
         </is>
       </c>
       <c r="E464" s="4" t="inlineStr">
         <is>
-          <t>মমতাজ বেগম</t>
+          <t>দোলত বিবি</t>
         </is>
       </c>
       <c r="F464" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G464" s="3" t="inlineStr">
         <is>
-          <t>০১/০১/১৯৮৯</t>
+          <t>২১/০৩/১৯৮৮</t>
         </is>
       </c>
       <c r="H464" s="5" t="inlineStr">
@@ -19946,27 +19934,27 @@
     <row r="465">
       <c r="A465" s="3" t="inlineStr">
         <is>
-          <t>০৯৩৪</t>
+          <t>১১২৪</t>
         </is>
       </c>
       <c r="B465" s="4" t="inlineStr">
         <is>
-          <t>দিলু আরা বেগম</t>
+          <t>উম্মে সাদিয়া তারিন</t>
         </is>
       </c>
       <c r="C465" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৫৩৯</t>
+          <t>১৫২৪০০২০৯৮৮৩</t>
         </is>
       </c>
       <c r="D465" s="4" t="inlineStr">
         <is>
-          <t>মোঃ নুরুল ইসলাম</t>
+          <t>মোঃ আজিজুর রহমান</t>
         </is>
       </c>
       <c r="E465" s="4" t="inlineStr">
         <is>
-          <t>মোছাম্মৎ রেজিয়া বেগম</t>
+          <t>শাহিন আকতার</t>
         </is>
       </c>
       <c r="F465" s="3" t="inlineStr">
@@ -19976,7 +19964,7 @@
       </c>
       <c r="G465" s="3" t="inlineStr">
         <is>
-          <t>২৬/০৩/১৯৯৩</t>
+          <t>০৫/০১/২০০১</t>
         </is>
       </c>
       <c r="H465" s="5" t="inlineStr">
@@ -19988,37 +19976,37 @@
     <row r="466">
       <c r="A466" s="3" t="inlineStr">
         <is>
-          <t>০৯৯৫</t>
+          <t>০৮৬১</t>
         </is>
       </c>
       <c r="B466" s="4" t="inlineStr">
         <is>
-          <t>ইয়াছমিন আক্তার</t>
+          <t>তায়মুন আলম</t>
         </is>
       </c>
       <c r="C466" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৬৬১</t>
+          <t>১৫২৪০০০০০৩৪৫</t>
         </is>
       </c>
       <c r="D466" s="4" t="inlineStr">
         <is>
-          <t>আবদুল মতলব</t>
+          <t>সামগুল আলম</t>
         </is>
       </c>
       <c r="E466" s="4" t="inlineStr">
         <is>
-          <t>জামাত আরা বেগম</t>
+          <t>বুলু আক্তার</t>
         </is>
       </c>
       <c r="F466" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G466" s="3" t="inlineStr">
         <is>
-          <t>০৮/০৮/১৯৯৮</t>
+          <t>১৮/০৮/১৯৯৫</t>
         </is>
       </c>
       <c r="H466" s="5" t="inlineStr">
@@ -20030,27 +20018,27 @@
     <row r="467">
       <c r="A467" s="3" t="inlineStr">
         <is>
-          <t>১২৯৯</t>
+          <t>১০৪২</t>
         </is>
       </c>
       <c r="B467" s="4" t="inlineStr">
         <is>
-          <t>ইসরাত জাহান মিতু</t>
+          <t>মোছাৰ জামাতুল নাসিম</t>
         </is>
       </c>
       <c r="C467" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০২২০</t>
+          <t>১৫২৪০০০০০৭৯৯</t>
         </is>
       </c>
       <c r="D467" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ ইদ্রিস</t>
+          <t>আহমেদ হুফা</t>
         </is>
       </c>
       <c r="E467" s="4" t="inlineStr">
         <is>
-          <t>শাহিন আকতার</t>
+          <t>শাকেরা বেগম</t>
         </is>
       </c>
       <c r="F467" s="3" t="inlineStr">
@@ -20060,7 +20048,7 @@
       </c>
       <c r="G467" s="3" t="inlineStr">
         <is>
-          <t>১৫/০৮/১৯৯৭</t>
+          <t>১৫/০২/১৯৯৭</t>
         </is>
       </c>
       <c r="H467" s="5" t="inlineStr">
@@ -20072,27 +20060,27 @@
     <row r="468">
       <c r="A468" s="3" t="inlineStr">
         <is>
-          <t>১১২৪</t>
+          <t>০৯৯৫</t>
         </is>
       </c>
       <c r="B468" s="4" t="inlineStr">
         <is>
-          <t>উম্মে সাদিয়া তারিন</t>
+          <t>ইয়াছমিন আক্তার</t>
         </is>
       </c>
       <c r="C468" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২০৯৮৮৩</t>
+          <t>১৫২৪০০০০০৬৬১</t>
         </is>
       </c>
       <c r="D468" s="4" t="inlineStr">
         <is>
-          <t>মোঃ আজিজুর রহমান</t>
+          <t>আবদুল মতলব</t>
         </is>
       </c>
       <c r="E468" s="4" t="inlineStr">
         <is>
-          <t>শাহিন আকতার</t>
+          <t>জামাত আরা বেগম</t>
         </is>
       </c>
       <c r="F468" s="3" t="inlineStr">
@@ -20102,7 +20090,7 @@
       </c>
       <c r="G468" s="3" t="inlineStr">
         <is>
-          <t>০৫/০১/২০০১</t>
+          <t>০৮/০৮/১৯৯৮</t>
         </is>
       </c>
       <c r="H468" s="5" t="inlineStr">
@@ -20114,27 +20102,27 @@
     <row r="469">
       <c r="A469" s="3" t="inlineStr">
         <is>
-          <t>১০৪২</t>
+          <t>০৯৩৪</t>
         </is>
       </c>
       <c r="B469" s="4" t="inlineStr">
         <is>
-          <t>মোছাৰ জামাতুল নাসিম</t>
+          <t>দিলু আরা বেগম</t>
         </is>
       </c>
       <c r="C469" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৭৯৯</t>
+          <t>১৫২৪০০০০০৫৩৯</t>
         </is>
       </c>
       <c r="D469" s="4" t="inlineStr">
         <is>
-          <t>আহমেদ হুফা</t>
+          <t>মোঃ নুরুল ইসলাম</t>
         </is>
       </c>
       <c r="E469" s="4" t="inlineStr">
         <is>
-          <t>শাকেরা বেগম</t>
+          <t>মোছাম্মৎ রেজিয়া বেগম</t>
         </is>
       </c>
       <c r="F469" s="3" t="inlineStr">
@@ -20144,7 +20132,7 @@
       </c>
       <c r="G469" s="3" t="inlineStr">
         <is>
-          <t>১৫/০২/১৯৯৭</t>
+          <t>২৬/০৩/১৯৯৩</t>
         </is>
       </c>
       <c r="H469" s="5" t="inlineStr">
@@ -20156,27 +20144,27 @@
     <row r="470">
       <c r="A470" s="3" t="inlineStr">
         <is>
-          <t>১২০৬</t>
+          <t>১২৯৯</t>
         </is>
       </c>
       <c r="B470" s="4" t="inlineStr">
         <is>
-          <t>তাওহিদা সুলতানা</t>
+          <t>ইসরাত জাহান মিতু</t>
         </is>
       </c>
       <c r="C470" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০২১০০১৩</t>
+          <t>১৫২৪০০২১০২২০</t>
         </is>
       </c>
       <c r="D470" s="4" t="inlineStr">
         <is>
-          <t>মৃত রফিক আহমেদ</t>
+          <t>মোহাম্মদ ইদ্রিস</t>
         </is>
       </c>
       <c r="E470" s="4" t="inlineStr">
         <is>
-          <t>জয়নাব বেগম</t>
+          <t>শাহিন আকতার</t>
         </is>
       </c>
       <c r="F470" s="3" t="inlineStr">
@@ -20186,7 +20174,7 @@
       </c>
       <c r="G470" s="3" t="inlineStr">
         <is>
-          <t>১৬/০২/২০০২</t>
+          <t>১৫/০৮/১৯৯৭</t>
         </is>
       </c>
       <c r="H470" s="5" t="inlineStr">
@@ -20198,37 +20186,37 @@
     <row r="471">
       <c r="A471" s="3" t="inlineStr">
         <is>
-          <t>০৮৬১</t>
+          <t>১২০৬</t>
         </is>
       </c>
       <c r="B471" s="4" t="inlineStr">
         <is>
-          <t>তায়মুন আলম</t>
+          <t>তাওহিদা সুলতানা</t>
         </is>
       </c>
       <c r="C471" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০৩৪৫</t>
+          <t>১৫২৪০০২১০০১৩</t>
         </is>
       </c>
       <c r="D471" s="4" t="inlineStr">
         <is>
-          <t>সামগুল আলম</t>
+          <t>মৃত রফিক আহমেদ</t>
         </is>
       </c>
       <c r="E471" s="4" t="inlineStr">
         <is>
-          <t>বুলু আক্তার</t>
+          <t>জয়নাব বেগম</t>
         </is>
       </c>
       <c r="F471" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G471" s="3" t="inlineStr">
         <is>
-          <t>১৮/০৮/১৯৯৫</t>
+          <t>১৬/০২/২০০২</t>
         </is>
       </c>
       <c r="H471" s="5" t="inlineStr">
@@ -20366,27 +20354,27 @@
     <row r="475">
       <c r="A475" s="3" t="inlineStr">
         <is>
-          <t>০৩০৫</t>
+          <t>০১৮০</t>
         </is>
       </c>
       <c r="B475" s="4" t="inlineStr">
         <is>
-          <t>সোলতানা বেগম</t>
+          <t>মাহফুজা বেগম মিঠু</t>
         </is>
       </c>
       <c r="C475" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৬০৮২</t>
+          <t>১৫২৪০০০০৫৭৩৫</t>
         </is>
       </c>
       <c r="D475" s="4" t="inlineStr">
         <is>
-          <t>আব্দুল কুদ্দুস</t>
+          <t>আলোয়ারুল আজিম</t>
         </is>
       </c>
       <c r="E475" s="4" t="inlineStr">
         <is>
-          <t>মাবিয়া খাতুন</t>
+          <t>হাফিজা বেগম</t>
         </is>
       </c>
       <c r="F475" s="3" t="inlineStr">
@@ -20396,7 +20384,7 @@
       </c>
       <c r="G475" s="3" t="inlineStr">
         <is>
-          <t>০২/০৪/১৯৮০</t>
+          <t>০৫/১২/১৯৮২</t>
         </is>
       </c>
       <c r="H475" s="5" t="inlineStr">
@@ -20408,27 +20396,27 @@
     <row r="476">
       <c r="A476" s="3" t="inlineStr">
         <is>
-          <t>০১৮০</t>
+          <t>০৩০৫</t>
         </is>
       </c>
       <c r="B476" s="4" t="inlineStr">
         <is>
-          <t>মাহফুজা বেগম মিঠু</t>
+          <t>সোলতানা বেগম</t>
         </is>
       </c>
       <c r="C476" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৭৩৫</t>
+          <t>১৫২৪০০০০৬০৮২</t>
         </is>
       </c>
       <c r="D476" s="4" t="inlineStr">
         <is>
-          <t>আলোয়ারুল আজিম</t>
+          <t>আব্দুল কুদ্দুস</t>
         </is>
       </c>
       <c r="E476" s="4" t="inlineStr">
         <is>
-          <t>হাফিজা বেগম</t>
+          <t>মাবিয়া খাতুন</t>
         </is>
       </c>
       <c r="F476" s="3" t="inlineStr">
@@ -20438,7 +20426,7 @@
       </c>
       <c r="G476" s="3" t="inlineStr">
         <is>
-          <t>০৫/১২/১৯৮২</t>
+          <t>০২/০৪/১৯৮০</t>
         </is>
       </c>
       <c r="H476" s="5" t="inlineStr">
@@ -20576,37 +20564,37 @@
     <row r="480">
       <c r="A480" s="3" t="inlineStr">
         <is>
-          <t>০৭৬৫</t>
+          <t>০৭৮১</t>
         </is>
       </c>
       <c r="B480" s="4" t="inlineStr">
         <is>
-          <t>ফাতেমা বেগম</t>
+          <t>আমেনা বেগম মীনা</t>
         </is>
       </c>
       <c r="C480" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০০২৭</t>
+          <t>১৫২৪০০০০০০৪৩</t>
         </is>
       </c>
       <c r="D480" s="4" t="inlineStr">
         <is>
-          <t>গোলাম ছোবাহান</t>
+          <t>মোহাম্মদ আমির আলী</t>
         </is>
       </c>
       <c r="E480" s="4" t="inlineStr">
         <is>
-          <t>মমতাজ বেগম</t>
+          <t>আয়েশা বেগম</t>
         </is>
       </c>
       <c r="F480" s="3" t="inlineStr">
         <is>
-          <t>ছাত্র/ছাত্রী</t>
+          <t>গৃহিনী</t>
         </is>
       </c>
       <c r="G480" s="3" t="inlineStr">
         <is>
-          <t>২২/১১/১৯৯০</t>
+          <t>০৪/০৬/১৯৯০</t>
         </is>
       </c>
       <c r="H480" s="5" t="inlineStr">
@@ -20618,37 +20606,37 @@
     <row r="481">
       <c r="A481" s="3" t="inlineStr">
         <is>
-          <t>০৭৮১</t>
+          <t>০৭৬৫</t>
         </is>
       </c>
       <c r="B481" s="4" t="inlineStr">
         <is>
-          <t>আমেনা বেগম মীনা</t>
+          <t>ফাতেমা বেগম</t>
         </is>
       </c>
       <c r="C481" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০০০৪৩</t>
+          <t>১৫২৪০০০০০০২৭</t>
         </is>
       </c>
       <c r="D481" s="4" t="inlineStr">
         <is>
-          <t>মোহাম্মদ আমির আলী</t>
+          <t>গোলাম ছোবাহান</t>
         </is>
       </c>
       <c r="E481" s="4" t="inlineStr">
         <is>
-          <t>আয়েশা বেগম</t>
+          <t>মমতাজ বেগম</t>
         </is>
       </c>
       <c r="F481" s="3" t="inlineStr">
         <is>
-          <t>গৃহিনী</t>
+          <t>ছাত্র/ছাত্রী</t>
         </is>
       </c>
       <c r="G481" s="3" t="inlineStr">
         <is>
-          <t>০৪/০৬/১৯৯০</t>
+          <t>২২/১১/১৯৯০</t>
         </is>
       </c>
       <c r="H481" s="5" t="inlineStr">
@@ -20660,27 +20648,27 @@
     <row r="482">
       <c r="A482" s="3" t="inlineStr">
         <is>
-          <t>০১১৪</t>
+          <t>০১১৩</t>
         </is>
       </c>
       <c r="B482" s="4" t="inlineStr">
         <is>
-          <t>হাছিনা আক্তার</t>
+          <t>আমেনা বেগম</t>
         </is>
       </c>
       <c r="C482" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৫৫৯</t>
+          <t>১৫২৪০০০০৫৫৫৮</t>
         </is>
       </c>
       <c r="D482" s="4" t="inlineStr">
         <is>
-          <t>আহসান মিয়া</t>
+          <t>মোজাহের আহমেদ</t>
         </is>
       </c>
       <c r="E482" s="4" t="inlineStr">
         <is>
-          <t>রাজিয়া খাতুন</t>
+          <t>মরিয়ম খাতুন</t>
         </is>
       </c>
       <c r="F482" s="3" t="inlineStr">
@@ -20690,7 +20678,7 @@
       </c>
       <c r="G482" s="3" t="inlineStr">
         <is>
-          <t>১০/০৬/১৯৮৮</t>
+          <t>০২/০৫/১৯৮৬</t>
         </is>
       </c>
       <c r="H482" s="5" t="inlineStr">
@@ -20702,27 +20690,27 @@
     <row r="483">
       <c r="A483" s="3" t="inlineStr">
         <is>
-          <t>০১১৩</t>
+          <t>০১১৪</t>
         </is>
       </c>
       <c r="B483" s="4" t="inlineStr">
         <is>
-          <t>আমেনা বেগম</t>
+          <t>হাছিনা আক্তার</t>
         </is>
       </c>
       <c r="C483" s="3" t="inlineStr">
         <is>
-          <t>১৫২৪০০০০৫৫৫৮</t>
+          <t>১৫২৪০০০০৫৫৫৯</t>
         </is>
       </c>
       <c r="D483" s="4" t="inlineStr">
         <is>
-          <t>মোজাহের আহমেদ</t>
+          <t>আহসান মিয়া</t>
         </is>
       </c>
       <c r="E483" s="4" t="inlineStr">
         <is>
-          <t>মরিয়ম খাতুন</t>
+          <t>রাজিয়া খাতুন</t>
         </is>
       </c>
       <c r="F483" s="3" t="inlineStr">
@@ -20732,7 +20720,7 @@
       </c>
       <c r="G483" s="3" t="inlineStr">
         <is>
-          <t>০২/০৫/১৯৮৬</t>
+          <t>১০/০৬/১৯৮৮</t>
         </is>
       </c>
       <c r="H483" s="5" t="inlineStr">
